--- a/nutrition/default_params.xlsx
+++ b/nutrition/default_params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/nutrition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{A673BBF9-766E-C141-81F0-6EE950CC20AD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D33D9458-9EF1-DE4F-BA63-C8712241C8F9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13020" yWindow="-21140" windowWidth="19200" windowHeight="21140" firstSheet="2" activeTab="3" xr2:uid="{9D310A7F-FF26-7448-8337-E29F42B35A9E}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Programs impacted population" sheetId="14" r:id="rId1"/>
     <sheet name="Program risk areas" sheetId="15" r:id="rId2"/>
     <sheet name="Population risk areas" sheetId="16" r:id="rId3"/>
-    <sheet name="IYCF package odds ratios" sheetId="12" r:id="rId4"/>
+    <sheet name="IYCF odds ratios" sheetId="12" r:id="rId4"/>
     <sheet name="Appropriate breastfeeding" sheetId="13" r:id="rId5"/>
     <sheet name="Birth outcome risks" sheetId="2" r:id="rId6"/>
     <sheet name="Relative risks" sheetId="3" r:id="rId7"/>

--- a/nutrition/default_params.xlsx
+++ b/nutrition/default_params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/nutrition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D33D9458-9EF1-DE4F-BA63-C8712241C8F9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{DBB2BCE2-DDAD-894E-9347-74240625B711}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13020" yWindow="-21140" windowWidth="19200" windowHeight="21140" firstSheet="2" activeTab="3" xr2:uid="{9D310A7F-FF26-7448-8337-E29F42B35A9E}"/>
+    <workbookView xWindow="1120" yWindow="460" windowWidth="19200" windowHeight="15540" xr2:uid="{9D310A7F-FF26-7448-8337-E29F42B35A9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Programs impacted population" sheetId="14" r:id="rId1"/>
@@ -1154,9 +1154,6 @@
     <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1165,6 +1162,9 @@
     <xf numFmtId="1" fontId="17" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{126E324F-EC88-2347-908A-4D1058B147A7}"/>
@@ -1195,7 +1195,6 @@
       <sheetName val="Breastfeeding distribution"/>
       <sheetName val="Time trends"/>
       <sheetName val="Fertility risks"/>
-      <sheetName val="Programs birth age"/>
       <sheetName val="Incidence of conditions"/>
       <sheetName val="Wasting incidence"/>
       <sheetName val="IYCF packages"/>
@@ -1203,6 +1202,7 @@
       <sheetName val="Programs target population"/>
       <sheetName val="Programs cost and coverage"/>
       <sheetName val="Programs family planning"/>
+      <sheetName val="Programs birth age"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1588,8 +1588,8 @@
   </sheetPr>
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1659,43 +1659,43 @@
       <c r="B2" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="59">
-        <v>0</v>
-      </c>
-      <c r="D2" s="59">
-        <v>0</v>
-      </c>
-      <c r="E2" s="59">
-        <v>1</v>
-      </c>
-      <c r="F2" s="59">
-        <v>1</v>
-      </c>
-      <c r="G2" s="59">
-        <v>1</v>
-      </c>
-      <c r="H2" s="59">
-        <v>0</v>
-      </c>
-      <c r="I2" s="59">
-        <v>0</v>
-      </c>
-      <c r="J2" s="59">
-        <v>0</v>
-      </c>
-      <c r="K2" s="59">
-        <v>0</v>
-      </c>
-      <c r="L2" s="59">
-        <v>0</v>
-      </c>
-      <c r="M2" s="59">
-        <v>0</v>
-      </c>
-      <c r="N2" s="59">
-        <v>0</v>
-      </c>
-      <c r="O2" s="59">
+      <c r="C2" s="58">
+        <v>0</v>
+      </c>
+      <c r="D2" s="58">
+        <v>0</v>
+      </c>
+      <c r="E2" s="58">
+        <v>1</v>
+      </c>
+      <c r="F2" s="58">
+        <v>1</v>
+      </c>
+      <c r="G2" s="58">
+        <v>1</v>
+      </c>
+      <c r="H2" s="58">
+        <v>0</v>
+      </c>
+      <c r="I2" s="58">
+        <v>0</v>
+      </c>
+      <c r="J2" s="58">
+        <v>0</v>
+      </c>
+      <c r="K2" s="58">
+        <v>0</v>
+      </c>
+      <c r="L2" s="58">
+        <v>0</v>
+      </c>
+      <c r="M2" s="58">
+        <v>0</v>
+      </c>
+      <c r="N2" s="58">
+        <v>0</v>
+      </c>
+      <c r="O2" s="58">
         <v>0</v>
       </c>
     </row>
@@ -1703,43 +1703,43 @@
       <c r="B3" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="59">
-        <v>0</v>
-      </c>
-      <c r="D3" s="59">
-        <v>0</v>
-      </c>
-      <c r="E3" s="59">
-        <v>1</v>
-      </c>
-      <c r="F3" s="59">
-        <v>1</v>
-      </c>
-      <c r="G3" s="59">
-        <v>1</v>
-      </c>
-      <c r="H3" s="59">
-        <v>0</v>
-      </c>
-      <c r="I3" s="59">
-        <v>0</v>
-      </c>
-      <c r="J3" s="59">
-        <v>0</v>
-      </c>
-      <c r="K3" s="59">
-        <v>0</v>
-      </c>
-      <c r="L3" s="59">
-        <v>0</v>
-      </c>
-      <c r="M3" s="59">
-        <v>0</v>
-      </c>
-      <c r="N3" s="59">
-        <v>0</v>
-      </c>
-      <c r="O3" s="59">
+      <c r="C3" s="58">
+        <v>0</v>
+      </c>
+      <c r="D3" s="58">
+        <v>0</v>
+      </c>
+      <c r="E3" s="58">
+        <v>1</v>
+      </c>
+      <c r="F3" s="58">
+        <v>1</v>
+      </c>
+      <c r="G3" s="58">
+        <v>1</v>
+      </c>
+      <c r="H3" s="58">
+        <v>0</v>
+      </c>
+      <c r="I3" s="58">
+        <v>0</v>
+      </c>
+      <c r="J3" s="58">
+        <v>0</v>
+      </c>
+      <c r="K3" s="58">
+        <v>0</v>
+      </c>
+      <c r="L3" s="58">
+        <v>0</v>
+      </c>
+      <c r="M3" s="58">
+        <v>0</v>
+      </c>
+      <c r="N3" s="58">
+        <v>0</v>
+      </c>
+      <c r="O3" s="58">
         <v>0</v>
       </c>
     </row>
@@ -1747,43 +1747,43 @@
       <c r="B4" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="59">
-        <v>0</v>
-      </c>
-      <c r="D4" s="59">
-        <v>0</v>
-      </c>
-      <c r="E4" s="59">
-        <v>1</v>
-      </c>
-      <c r="F4" s="59">
-        <v>1</v>
-      </c>
-      <c r="G4" s="59">
-        <v>0</v>
-      </c>
-      <c r="H4" s="59">
-        <v>0</v>
-      </c>
-      <c r="I4" s="59">
-        <v>0</v>
-      </c>
-      <c r="J4" s="59">
-        <v>0</v>
-      </c>
-      <c r="K4" s="59">
-        <v>0</v>
-      </c>
-      <c r="L4" s="59">
-        <v>0</v>
-      </c>
-      <c r="M4" s="59">
-        <v>0</v>
-      </c>
-      <c r="N4" s="59">
-        <v>0</v>
-      </c>
-      <c r="O4" s="59">
+      <c r="C4" s="58">
+        <v>0</v>
+      </c>
+      <c r="D4" s="58">
+        <v>0</v>
+      </c>
+      <c r="E4" s="58">
+        <v>1</v>
+      </c>
+      <c r="F4" s="58">
+        <v>1</v>
+      </c>
+      <c r="G4" s="58">
+        <v>0</v>
+      </c>
+      <c r="H4" s="58">
+        <v>0</v>
+      </c>
+      <c r="I4" s="58">
+        <v>0</v>
+      </c>
+      <c r="J4" s="58">
+        <v>0</v>
+      </c>
+      <c r="K4" s="58">
+        <v>0</v>
+      </c>
+      <c r="L4" s="58">
+        <v>0</v>
+      </c>
+      <c r="M4" s="58">
+        <v>0</v>
+      </c>
+      <c r="N4" s="58">
+        <v>0</v>
+      </c>
+      <c r="O4" s="58">
         <v>0</v>
       </c>
     </row>
@@ -1791,43 +1791,43 @@
       <c r="B5" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="C5" s="59">
-        <v>0</v>
-      </c>
-      <c r="D5" s="59">
-        <v>0</v>
-      </c>
-      <c r="E5" s="59">
-        <v>1</v>
-      </c>
-      <c r="F5" s="59">
-        <v>1</v>
-      </c>
-      <c r="G5" s="59">
-        <v>0</v>
-      </c>
-      <c r="H5" s="59">
-        <v>0</v>
-      </c>
-      <c r="I5" s="59">
-        <v>0</v>
-      </c>
-      <c r="J5" s="59">
-        <v>0</v>
-      </c>
-      <c r="K5" s="59">
-        <v>0</v>
-      </c>
-      <c r="L5" s="59">
-        <v>0</v>
-      </c>
-      <c r="M5" s="59">
-        <v>0</v>
-      </c>
-      <c r="N5" s="59">
-        <v>0</v>
-      </c>
-      <c r="O5" s="59">
+      <c r="C5" s="58">
+        <v>0</v>
+      </c>
+      <c r="D5" s="58">
+        <v>0</v>
+      </c>
+      <c r="E5" s="58">
+        <v>1</v>
+      </c>
+      <c r="F5" s="58">
+        <v>1</v>
+      </c>
+      <c r="G5" s="58">
+        <v>0</v>
+      </c>
+      <c r="H5" s="58">
+        <v>0</v>
+      </c>
+      <c r="I5" s="58">
+        <v>0</v>
+      </c>
+      <c r="J5" s="58">
+        <v>0</v>
+      </c>
+      <c r="K5" s="58">
+        <v>0</v>
+      </c>
+      <c r="L5" s="58">
+        <v>0</v>
+      </c>
+      <c r="M5" s="58">
+        <v>0</v>
+      </c>
+      <c r="N5" s="58">
+        <v>0</v>
+      </c>
+      <c r="O5" s="58">
         <v>0</v>
       </c>
     </row>
@@ -1835,43 +1835,43 @@
       <c r="B6" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="C6" s="59">
-        <v>0</v>
-      </c>
-      <c r="D6" s="59">
-        <v>0</v>
-      </c>
-      <c r="E6" s="59">
-        <v>1</v>
-      </c>
-      <c r="F6" s="59">
-        <v>1</v>
-      </c>
-      <c r="G6" s="59">
-        <v>0</v>
-      </c>
-      <c r="H6" s="59">
-        <v>0</v>
-      </c>
-      <c r="I6" s="59">
-        <v>0</v>
-      </c>
-      <c r="J6" s="59">
-        <v>0</v>
-      </c>
-      <c r="K6" s="59">
-        <v>0</v>
-      </c>
-      <c r="L6" s="59">
-        <v>0</v>
-      </c>
-      <c r="M6" s="59">
-        <v>0</v>
-      </c>
-      <c r="N6" s="59">
-        <v>0</v>
-      </c>
-      <c r="O6" s="59">
+      <c r="C6" s="58">
+        <v>0</v>
+      </c>
+      <c r="D6" s="58">
+        <v>0</v>
+      </c>
+      <c r="E6" s="58">
+        <v>1</v>
+      </c>
+      <c r="F6" s="58">
+        <v>1</v>
+      </c>
+      <c r="G6" s="58">
+        <v>0</v>
+      </c>
+      <c r="H6" s="58">
+        <v>0</v>
+      </c>
+      <c r="I6" s="58">
+        <v>0</v>
+      </c>
+      <c r="J6" s="58">
+        <v>0</v>
+      </c>
+      <c r="K6" s="58">
+        <v>0</v>
+      </c>
+      <c r="L6" s="58">
+        <v>0</v>
+      </c>
+      <c r="M6" s="58">
+        <v>0</v>
+      </c>
+      <c r="N6" s="58">
+        <v>0</v>
+      </c>
+      <c r="O6" s="58">
         <v>0</v>
       </c>
     </row>
@@ -1879,43 +1879,43 @@
       <c r="B7" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="C7" s="59">
-        <v>0</v>
-      </c>
-      <c r="D7" s="59">
-        <v>0</v>
-      </c>
-      <c r="E7" s="59">
-        <v>1</v>
-      </c>
-      <c r="F7" s="59">
-        <v>1</v>
-      </c>
-      <c r="G7" s="59">
-        <v>1</v>
-      </c>
-      <c r="H7" s="59">
-        <v>0</v>
-      </c>
-      <c r="I7" s="59">
-        <v>0</v>
-      </c>
-      <c r="J7" s="59">
-        <v>0</v>
-      </c>
-      <c r="K7" s="59">
-        <v>0</v>
-      </c>
-      <c r="L7" s="59">
-        <v>0</v>
-      </c>
-      <c r="M7" s="59">
-        <v>0</v>
-      </c>
-      <c r="N7" s="59">
-        <v>0</v>
-      </c>
-      <c r="O7" s="59">
+      <c r="C7" s="58">
+        <v>0</v>
+      </c>
+      <c r="D7" s="58">
+        <v>0</v>
+      </c>
+      <c r="E7" s="58">
+        <v>1</v>
+      </c>
+      <c r="F7" s="58">
+        <v>1</v>
+      </c>
+      <c r="G7" s="58">
+        <v>1</v>
+      </c>
+      <c r="H7" s="58">
+        <v>0</v>
+      </c>
+      <c r="I7" s="58">
+        <v>0</v>
+      </c>
+      <c r="J7" s="58">
+        <v>0</v>
+      </c>
+      <c r="K7" s="58">
+        <v>0</v>
+      </c>
+      <c r="L7" s="58">
+        <v>0</v>
+      </c>
+      <c r="M7" s="58">
+        <v>0</v>
+      </c>
+      <c r="N7" s="58">
+        <v>0</v>
+      </c>
+      <c r="O7" s="58">
         <v>0</v>
       </c>
     </row>
@@ -1923,43 +1923,43 @@
       <c r="B8" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="C8" s="59">
-        <v>0</v>
-      </c>
-      <c r="D8" s="59">
-        <v>0</v>
-      </c>
-      <c r="E8" s="59">
-        <v>1</v>
-      </c>
-      <c r="F8" s="59">
-        <v>1</v>
-      </c>
-      <c r="G8" s="59">
-        <v>1</v>
-      </c>
-      <c r="H8" s="59">
-        <v>0</v>
-      </c>
-      <c r="I8" s="59">
-        <v>0</v>
-      </c>
-      <c r="J8" s="59">
-        <v>0</v>
-      </c>
-      <c r="K8" s="59">
-        <v>0</v>
-      </c>
-      <c r="L8" s="59">
-        <v>0</v>
-      </c>
-      <c r="M8" s="59">
-        <v>0</v>
-      </c>
-      <c r="N8" s="59">
-        <v>0</v>
-      </c>
-      <c r="O8" s="59">
+      <c r="C8" s="58">
+        <v>0</v>
+      </c>
+      <c r="D8" s="58">
+        <v>0</v>
+      </c>
+      <c r="E8" s="58">
+        <v>1</v>
+      </c>
+      <c r="F8" s="58">
+        <v>1</v>
+      </c>
+      <c r="G8" s="58">
+        <v>1</v>
+      </c>
+      <c r="H8" s="58">
+        <v>0</v>
+      </c>
+      <c r="I8" s="58">
+        <v>0</v>
+      </c>
+      <c r="J8" s="58">
+        <v>0</v>
+      </c>
+      <c r="K8" s="58">
+        <v>0</v>
+      </c>
+      <c r="L8" s="58">
+        <v>0</v>
+      </c>
+      <c r="M8" s="58">
+        <v>0</v>
+      </c>
+      <c r="N8" s="58">
+        <v>0</v>
+      </c>
+      <c r="O8" s="58">
         <v>0</v>
       </c>
     </row>
@@ -1967,43 +1967,43 @@
       <c r="B9" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="59">
-        <v>0</v>
-      </c>
-      <c r="D9" s="59">
-        <v>1</v>
-      </c>
-      <c r="E9" s="59">
-        <v>1</v>
-      </c>
-      <c r="F9" s="59">
-        <v>1</v>
-      </c>
-      <c r="G9" s="59">
-        <v>1</v>
-      </c>
-      <c r="H9" s="59">
-        <v>0</v>
-      </c>
-      <c r="I9" s="59">
-        <v>0</v>
-      </c>
-      <c r="J9" s="59">
-        <v>0</v>
-      </c>
-      <c r="K9" s="59">
-        <v>0</v>
-      </c>
-      <c r="L9" s="59">
-        <v>0</v>
-      </c>
-      <c r="M9" s="59">
-        <v>0</v>
-      </c>
-      <c r="N9" s="59">
-        <v>0</v>
-      </c>
-      <c r="O9" s="59">
+      <c r="C9" s="58">
+        <v>0</v>
+      </c>
+      <c r="D9" s="58">
+        <v>1</v>
+      </c>
+      <c r="E9" s="58">
+        <v>1</v>
+      </c>
+      <c r="F9" s="58">
+        <v>1</v>
+      </c>
+      <c r="G9" s="58">
+        <v>1</v>
+      </c>
+      <c r="H9" s="58">
+        <v>0</v>
+      </c>
+      <c r="I9" s="58">
+        <v>0</v>
+      </c>
+      <c r="J9" s="58">
+        <v>0</v>
+      </c>
+      <c r="K9" s="58">
+        <v>0</v>
+      </c>
+      <c r="L9" s="58">
+        <v>0</v>
+      </c>
+      <c r="M9" s="58">
+        <v>0</v>
+      </c>
+      <c r="N9" s="58">
+        <v>0</v>
+      </c>
+      <c r="O9" s="58">
         <v>0</v>
       </c>
     </row>
@@ -2011,43 +2011,43 @@
       <c r="B10" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="C10" s="59">
-        <v>0</v>
-      </c>
-      <c r="D10" s="59">
-        <v>1</v>
-      </c>
-      <c r="E10" s="59">
-        <v>1</v>
-      </c>
-      <c r="F10" s="59">
-        <v>1</v>
-      </c>
-      <c r="G10" s="59">
-        <v>1</v>
-      </c>
-      <c r="H10" s="59">
-        <v>0</v>
-      </c>
-      <c r="I10" s="59">
-        <v>0</v>
-      </c>
-      <c r="J10" s="59">
-        <v>0</v>
-      </c>
-      <c r="K10" s="59">
-        <v>0</v>
-      </c>
-      <c r="L10" s="59">
-        <v>0</v>
-      </c>
-      <c r="M10" s="59">
-        <v>0</v>
-      </c>
-      <c r="N10" s="59">
-        <v>0</v>
-      </c>
-      <c r="O10" s="59">
+      <c r="C10" s="58">
+        <v>0</v>
+      </c>
+      <c r="D10" s="58">
+        <v>1</v>
+      </c>
+      <c r="E10" s="58">
+        <v>1</v>
+      </c>
+      <c r="F10" s="58">
+        <v>1</v>
+      </c>
+      <c r="G10" s="58">
+        <v>1</v>
+      </c>
+      <c r="H10" s="58">
+        <v>0</v>
+      </c>
+      <c r="I10" s="58">
+        <v>0</v>
+      </c>
+      <c r="J10" s="58">
+        <v>0</v>
+      </c>
+      <c r="K10" s="58">
+        <v>0</v>
+      </c>
+      <c r="L10" s="58">
+        <v>0</v>
+      </c>
+      <c r="M10" s="58">
+        <v>0</v>
+      </c>
+      <c r="N10" s="58">
+        <v>0</v>
+      </c>
+      <c r="O10" s="58">
         <v>0</v>
       </c>
     </row>
@@ -2055,43 +2055,43 @@
       <c r="B11" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="C11" s="59">
-        <v>0</v>
-      </c>
-      <c r="D11" s="59">
-        <v>1</v>
-      </c>
-      <c r="E11" s="59">
-        <v>1</v>
-      </c>
-      <c r="F11" s="59">
-        <v>1</v>
-      </c>
-      <c r="G11" s="59">
-        <v>1</v>
-      </c>
-      <c r="H11" s="59">
-        <v>0</v>
-      </c>
-      <c r="I11" s="59">
-        <v>0</v>
-      </c>
-      <c r="J11" s="59">
-        <v>0</v>
-      </c>
-      <c r="K11" s="59">
-        <v>0</v>
-      </c>
-      <c r="L11" s="59">
-        <v>0</v>
-      </c>
-      <c r="M11" s="59">
-        <v>0</v>
-      </c>
-      <c r="N11" s="59">
-        <v>0</v>
-      </c>
-      <c r="O11" s="59">
+      <c r="C11" s="58">
+        <v>0</v>
+      </c>
+      <c r="D11" s="58">
+        <v>1</v>
+      </c>
+      <c r="E11" s="58">
+        <v>1</v>
+      </c>
+      <c r="F11" s="58">
+        <v>1</v>
+      </c>
+      <c r="G11" s="58">
+        <v>1</v>
+      </c>
+      <c r="H11" s="58">
+        <v>0</v>
+      </c>
+      <c r="I11" s="58">
+        <v>0</v>
+      </c>
+      <c r="J11" s="58">
+        <v>0</v>
+      </c>
+      <c r="K11" s="58">
+        <v>0</v>
+      </c>
+      <c r="L11" s="58">
+        <v>0</v>
+      </c>
+      <c r="M11" s="58">
+        <v>0</v>
+      </c>
+      <c r="N11" s="58">
+        <v>0</v>
+      </c>
+      <c r="O11" s="58">
         <v>0</v>
       </c>
     </row>
@@ -2099,459 +2099,459 @@
       <c r="B12" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="C12" s="59">
-        <v>1</v>
-      </c>
-      <c r="D12" s="59">
-        <v>1</v>
-      </c>
-      <c r="E12" s="59">
-        <v>0</v>
-      </c>
-      <c r="F12" s="59">
-        <v>0</v>
-      </c>
-      <c r="G12" s="59">
-        <v>0</v>
-      </c>
-      <c r="H12" s="59">
-        <v>0</v>
-      </c>
-      <c r="I12" s="59">
-        <v>0</v>
-      </c>
-      <c r="J12" s="59">
-        <v>0</v>
-      </c>
-      <c r="K12" s="59">
-        <v>0</v>
-      </c>
-      <c r="L12" s="59">
-        <v>0</v>
-      </c>
-      <c r="M12" s="59">
-        <v>0</v>
-      </c>
-      <c r="N12" s="59">
-        <v>0</v>
-      </c>
-      <c r="O12" s="59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="48"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
+      <c r="C12" s="58">
+        <v>1</v>
+      </c>
+      <c r="D12" s="58">
+        <v>1</v>
+      </c>
+      <c r="E12" s="58">
+        <v>0</v>
+      </c>
+      <c r="F12" s="58">
+        <v>0</v>
+      </c>
+      <c r="G12" s="58">
+        <v>0</v>
+      </c>
+      <c r="H12" s="58">
+        <v>0</v>
+      </c>
+      <c r="I12" s="58">
+        <v>0</v>
+      </c>
+      <c r="J12" s="58">
+        <v>0</v>
+      </c>
+      <c r="K12" s="58">
+        <v>0</v>
+      </c>
+      <c r="L12" s="58">
+        <v>0</v>
+      </c>
+      <c r="M12" s="58">
+        <v>0</v>
+      </c>
+      <c r="N12" s="58">
+        <v>0</v>
+      </c>
+      <c r="O12" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="58">
+        <v>1</v>
+      </c>
+      <c r="D13" s="58">
+        <v>1</v>
+      </c>
+      <c r="E13" s="58">
+        <v>1</v>
+      </c>
+      <c r="F13" s="58">
+        <v>1</v>
+      </c>
+      <c r="G13" s="58">
+        <v>1</v>
+      </c>
+      <c r="H13" s="58">
+        <v>0</v>
+      </c>
+      <c r="I13" s="58">
+        <v>0</v>
+      </c>
+      <c r="J13" s="58">
+        <v>0</v>
+      </c>
+      <c r="K13" s="58">
+        <v>0</v>
+      </c>
+      <c r="L13" s="58">
+        <v>0</v>
+      </c>
+      <c r="M13" s="58">
+        <v>0</v>
+      </c>
+      <c r="N13" s="58">
+        <v>0</v>
+      </c>
+      <c r="O13" s="58">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="50" t="s">
+      <c r="B14" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="58">
+        <v>1</v>
+      </c>
+      <c r="D14" s="58">
+        <v>1</v>
+      </c>
+      <c r="E14" s="58">
+        <v>1</v>
+      </c>
+      <c r="F14" s="58">
+        <v>1</v>
+      </c>
+      <c r="G14" s="58">
+        <v>1</v>
+      </c>
+      <c r="H14" s="58">
+        <v>0</v>
+      </c>
+      <c r="I14" s="58">
+        <v>0</v>
+      </c>
+      <c r="J14" s="58">
+        <v>0</v>
+      </c>
+      <c r="K14" s="58">
+        <v>0</v>
+      </c>
+      <c r="L14" s="58">
+        <v>0</v>
+      </c>
+      <c r="M14" s="58">
+        <v>0</v>
+      </c>
+      <c r="N14" s="58">
+        <v>0</v>
+      </c>
+      <c r="O14" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="58">
+        <v>1</v>
+      </c>
+      <c r="D15" s="58">
+        <v>1</v>
+      </c>
+      <c r="E15" s="58">
+        <v>1</v>
+      </c>
+      <c r="F15" s="58">
+        <v>1</v>
+      </c>
+      <c r="G15" s="58">
+        <v>1</v>
+      </c>
+      <c r="H15" s="58">
+        <v>0</v>
+      </c>
+      <c r="I15" s="58">
+        <v>0</v>
+      </c>
+      <c r="J15" s="58">
+        <v>0</v>
+      </c>
+      <c r="K15" s="58">
+        <v>0</v>
+      </c>
+      <c r="L15" s="58">
+        <v>0</v>
+      </c>
+      <c r="M15" s="58">
+        <v>0</v>
+      </c>
+      <c r="N15" s="58">
+        <v>0</v>
+      </c>
+      <c r="O15" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="48"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B17" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="59">
-        <v>0</v>
-      </c>
-      <c r="D14" s="59">
-        <v>0</v>
-      </c>
-      <c r="E14" s="59">
-        <v>0</v>
-      </c>
-      <c r="F14" s="59">
-        <v>0</v>
-      </c>
-      <c r="G14" s="59">
-        <v>0</v>
-      </c>
-      <c r="H14" s="59">
-        <v>1</v>
-      </c>
-      <c r="I14" s="59">
-        <v>1</v>
-      </c>
-      <c r="J14" s="59">
-        <v>1</v>
-      </c>
-      <c r="K14" s="59">
-        <v>1</v>
-      </c>
-      <c r="L14" s="59">
-        <v>0</v>
-      </c>
-      <c r="M14" s="59">
-        <v>0</v>
-      </c>
-      <c r="N14" s="59">
-        <v>0</v>
-      </c>
-      <c r="O14" s="59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="50"/>
-      <c r="B15" s="48" t="s">
+      <c r="C17" s="58">
+        <v>0</v>
+      </c>
+      <c r="D17" s="58">
+        <v>0</v>
+      </c>
+      <c r="E17" s="58">
+        <v>0</v>
+      </c>
+      <c r="F17" s="58">
+        <v>0</v>
+      </c>
+      <c r="G17" s="58">
+        <v>0</v>
+      </c>
+      <c r="H17" s="58">
+        <v>1</v>
+      </c>
+      <c r="I17" s="58">
+        <v>1</v>
+      </c>
+      <c r="J17" s="58">
+        <v>1</v>
+      </c>
+      <c r="K17" s="58">
+        <v>1</v>
+      </c>
+      <c r="L17" s="58">
+        <v>0</v>
+      </c>
+      <c r="M17" s="58">
+        <v>0</v>
+      </c>
+      <c r="N17" s="58">
+        <v>0</v>
+      </c>
+      <c r="O17" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="50"/>
+      <c r="B18" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="59">
-        <v>0</v>
-      </c>
-      <c r="D15" s="59">
-        <v>0</v>
-      </c>
-      <c r="E15" s="59">
-        <v>0</v>
-      </c>
-      <c r="F15" s="59">
-        <v>0</v>
-      </c>
-      <c r="G15" s="59">
-        <v>0</v>
-      </c>
-      <c r="H15" s="59">
-        <v>1</v>
-      </c>
-      <c r="I15" s="59">
-        <v>1</v>
-      </c>
-      <c r="J15" s="59">
-        <v>1</v>
-      </c>
-      <c r="K15" s="59">
-        <v>1</v>
-      </c>
-      <c r="L15" s="59">
-        <v>0</v>
-      </c>
-      <c r="M15" s="59">
-        <v>0</v>
-      </c>
-      <c r="N15" s="59">
-        <v>0</v>
-      </c>
-      <c r="O15" s="59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="48" t="s">
+      <c r="C18" s="58">
+        <v>0</v>
+      </c>
+      <c r="D18" s="58">
+        <v>0</v>
+      </c>
+      <c r="E18" s="58">
+        <v>0</v>
+      </c>
+      <c r="F18" s="58">
+        <v>0</v>
+      </c>
+      <c r="G18" s="58">
+        <v>0</v>
+      </c>
+      <c r="H18" s="58">
+        <v>1</v>
+      </c>
+      <c r="I18" s="58">
+        <v>1</v>
+      </c>
+      <c r="J18" s="58">
+        <v>1</v>
+      </c>
+      <c r="K18" s="58">
+        <v>1</v>
+      </c>
+      <c r="L18" s="58">
+        <v>0</v>
+      </c>
+      <c r="M18" s="58">
+        <v>0</v>
+      </c>
+      <c r="N18" s="58">
+        <v>0</v>
+      </c>
+      <c r="O18" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="59">
-        <v>0</v>
-      </c>
-      <c r="D16" s="59">
-        <v>0</v>
-      </c>
-      <c r="E16" s="59">
-        <v>0</v>
-      </c>
-      <c r="F16" s="59">
-        <v>0</v>
-      </c>
-      <c r="G16" s="59">
-        <v>0</v>
-      </c>
-      <c r="H16" s="59">
-        <v>1</v>
-      </c>
-      <c r="I16" s="59">
-        <v>1</v>
-      </c>
-      <c r="J16" s="59">
-        <v>1</v>
-      </c>
-      <c r="K16" s="59">
-        <v>1</v>
-      </c>
-      <c r="L16" s="59">
-        <v>0</v>
-      </c>
-      <c r="M16" s="59">
-        <v>0</v>
-      </c>
-      <c r="N16" s="59">
-        <v>0</v>
-      </c>
-      <c r="O16" s="59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="48" t="s">
+      <c r="C19" s="58">
+        <v>0</v>
+      </c>
+      <c r="D19" s="58">
+        <v>0</v>
+      </c>
+      <c r="E19" s="58">
+        <v>0</v>
+      </c>
+      <c r="F19" s="58">
+        <v>0</v>
+      </c>
+      <c r="G19" s="58">
+        <v>0</v>
+      </c>
+      <c r="H19" s="58">
+        <v>1</v>
+      </c>
+      <c r="I19" s="58">
+        <v>1</v>
+      </c>
+      <c r="J19" s="58">
+        <v>1</v>
+      </c>
+      <c r="K19" s="58">
+        <v>1</v>
+      </c>
+      <c r="L19" s="58">
+        <v>0</v>
+      </c>
+      <c r="M19" s="58">
+        <v>0</v>
+      </c>
+      <c r="N19" s="58">
+        <v>0</v>
+      </c>
+      <c r="O19" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="59">
-        <v>0</v>
-      </c>
-      <c r="D17" s="59">
-        <v>0</v>
-      </c>
-      <c r="E17" s="59">
-        <v>0</v>
-      </c>
-      <c r="F17" s="59">
-        <v>0</v>
-      </c>
-      <c r="G17" s="59">
-        <v>0</v>
-      </c>
-      <c r="H17" s="59">
-        <v>1</v>
-      </c>
-      <c r="I17" s="59">
-        <v>1</v>
-      </c>
-      <c r="J17" s="59">
-        <v>1</v>
-      </c>
-      <c r="K17" s="59">
-        <v>1</v>
-      </c>
-      <c r="L17" s="59">
-        <v>0</v>
-      </c>
-      <c r="M17" s="59">
-        <v>0</v>
-      </c>
-      <c r="N17" s="59">
-        <v>0</v>
-      </c>
-      <c r="O17" s="59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="59">
-        <v>0</v>
-      </c>
-      <c r="D18" s="59">
-        <v>0</v>
-      </c>
-      <c r="E18" s="59">
-        <v>0</v>
-      </c>
-      <c r="F18" s="59">
-        <v>0</v>
-      </c>
-      <c r="G18" s="59">
-        <v>0</v>
-      </c>
-      <c r="H18" s="59">
-        <v>1</v>
-      </c>
-      <c r="I18" s="59">
-        <v>1</v>
-      </c>
-      <c r="J18" s="59">
-        <v>1</v>
-      </c>
-      <c r="K18" s="59">
-        <v>1</v>
-      </c>
-      <c r="L18" s="59">
-        <v>0</v>
-      </c>
-      <c r="M18" s="59">
-        <v>0</v>
-      </c>
-      <c r="N18" s="59">
-        <v>0</v>
-      </c>
-      <c r="O18" s="59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="59">
-        <v>0</v>
-      </c>
-      <c r="D19" s="59">
-        <v>0</v>
-      </c>
-      <c r="E19" s="59">
-        <v>0</v>
-      </c>
-      <c r="F19" s="59">
-        <v>0</v>
-      </c>
-      <c r="G19" s="59">
-        <v>0</v>
-      </c>
-      <c r="H19" s="59">
-        <v>1</v>
-      </c>
-      <c r="I19" s="59">
-        <v>1</v>
-      </c>
-      <c r="J19" s="59">
-        <v>1</v>
-      </c>
-      <c r="K19" s="59">
-        <v>1</v>
-      </c>
-      <c r="L19" s="59">
-        <v>0</v>
-      </c>
-      <c r="M19" s="59">
-        <v>0</v>
-      </c>
-      <c r="N19" s="59">
-        <v>0</v>
-      </c>
-      <c r="O19" s="59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="48" t="s">
-        <v>159</v>
-      </c>
-      <c r="C20" s="59">
-        <v>1</v>
-      </c>
-      <c r="D20" s="59">
-        <v>1</v>
-      </c>
-      <c r="E20" s="59">
-        <v>1</v>
-      </c>
-      <c r="F20" s="59">
-        <v>1</v>
-      </c>
-      <c r="G20" s="59">
-        <v>1</v>
-      </c>
-      <c r="H20" s="59">
-        <v>0</v>
-      </c>
-      <c r="I20" s="59">
-        <v>0</v>
-      </c>
-      <c r="J20" s="59">
-        <v>0</v>
-      </c>
-      <c r="K20" s="59">
-        <v>0</v>
-      </c>
-      <c r="L20" s="59">
-        <v>0</v>
-      </c>
-      <c r="M20" s="59">
-        <v>0</v>
-      </c>
-      <c r="N20" s="59">
-        <v>0</v>
-      </c>
-      <c r="O20" s="59">
+      <c r="C20" s="58">
+        <v>0</v>
+      </c>
+      <c r="D20" s="58">
+        <v>0</v>
+      </c>
+      <c r="E20" s="58">
+        <v>0</v>
+      </c>
+      <c r="F20" s="58">
+        <v>0</v>
+      </c>
+      <c r="G20" s="58">
+        <v>0</v>
+      </c>
+      <c r="H20" s="58">
+        <v>1</v>
+      </c>
+      <c r="I20" s="58">
+        <v>1</v>
+      </c>
+      <c r="J20" s="58">
+        <v>1</v>
+      </c>
+      <c r="K20" s="58">
+        <v>1</v>
+      </c>
+      <c r="L20" s="58">
+        <v>0</v>
+      </c>
+      <c r="M20" s="58">
+        <v>0</v>
+      </c>
+      <c r="N20" s="58">
+        <v>0</v>
+      </c>
+      <c r="O20" s="58">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="C21" s="59">
-        <v>1</v>
-      </c>
-      <c r="D21" s="59">
-        <v>1</v>
-      </c>
-      <c r="E21" s="59">
-        <v>1</v>
-      </c>
-      <c r="F21" s="59">
-        <v>1</v>
-      </c>
-      <c r="G21" s="59">
-        <v>1</v>
-      </c>
-      <c r="H21" s="59">
-        <v>0</v>
-      </c>
-      <c r="I21" s="59">
-        <v>0</v>
-      </c>
-      <c r="J21" s="59">
-        <v>0</v>
-      </c>
-      <c r="K21" s="59">
-        <v>0</v>
-      </c>
-      <c r="L21" s="59">
-        <v>0</v>
-      </c>
-      <c r="M21" s="59">
-        <v>0</v>
-      </c>
-      <c r="N21" s="59">
-        <v>0</v>
-      </c>
-      <c r="O21" s="59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="C21" s="58">
+        <v>0</v>
+      </c>
+      <c r="D21" s="58">
+        <v>0</v>
+      </c>
+      <c r="E21" s="58">
+        <v>0</v>
+      </c>
+      <c r="F21" s="58">
+        <v>0</v>
+      </c>
+      <c r="G21" s="58">
+        <v>0</v>
+      </c>
+      <c r="H21" s="58">
+        <v>1</v>
+      </c>
+      <c r="I21" s="58">
+        <v>1</v>
+      </c>
+      <c r="J21" s="58">
+        <v>1</v>
+      </c>
+      <c r="K21" s="58">
+        <v>1</v>
+      </c>
+      <c r="L21" s="58">
+        <v>0</v>
+      </c>
+      <c r="M21" s="58">
+        <v>0</v>
+      </c>
+      <c r="N21" s="58">
+        <v>0</v>
+      </c>
+      <c r="O21" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="C22" s="59">
-        <v>1</v>
-      </c>
-      <c r="D22" s="59">
-        <v>1</v>
-      </c>
-      <c r="E22" s="59">
-        <v>1</v>
-      </c>
-      <c r="F22" s="59">
-        <v>1</v>
-      </c>
-      <c r="G22" s="59">
-        <v>1</v>
-      </c>
-      <c r="H22" s="59">
-        <v>0</v>
-      </c>
-      <c r="I22" s="59">
-        <v>0</v>
-      </c>
-      <c r="J22" s="59">
-        <v>0</v>
-      </c>
-      <c r="K22" s="59">
-        <v>0</v>
-      </c>
-      <c r="L22" s="59">
-        <v>0</v>
-      </c>
-      <c r="M22" s="59">
-        <v>0</v>
-      </c>
-      <c r="N22" s="59">
-        <v>0</v>
-      </c>
-      <c r="O22" s="59">
+        <v>92</v>
+      </c>
+      <c r="C22" s="58">
+        <v>0</v>
+      </c>
+      <c r="D22" s="58">
+        <v>0</v>
+      </c>
+      <c r="E22" s="58">
+        <v>0</v>
+      </c>
+      <c r="F22" s="58">
+        <v>0</v>
+      </c>
+      <c r="G22" s="58">
+        <v>0</v>
+      </c>
+      <c r="H22" s="58">
+        <v>1</v>
+      </c>
+      <c r="I22" s="58">
+        <v>1</v>
+      </c>
+      <c r="J22" s="58">
+        <v>1</v>
+      </c>
+      <c r="K22" s="58">
+        <v>1</v>
+      </c>
+      <c r="L22" s="58">
+        <v>0</v>
+      </c>
+      <c r="M22" s="58">
+        <v>0</v>
+      </c>
+      <c r="N22" s="58">
+        <v>0</v>
+      </c>
+      <c r="O22" s="58">
         <v>0</v>
       </c>
     </row>
@@ -2578,43 +2578,43 @@
       <c r="B24" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="C24" s="59">
-        <v>0</v>
-      </c>
-      <c r="D24" s="59">
-        <v>0</v>
-      </c>
-      <c r="E24" s="59">
-        <v>0</v>
-      </c>
-      <c r="F24" s="59">
-        <v>0</v>
-      </c>
-      <c r="G24" s="59">
-        <v>0</v>
-      </c>
-      <c r="H24" s="59">
-        <v>0</v>
-      </c>
-      <c r="I24" s="59">
-        <v>0</v>
-      </c>
-      <c r="J24" s="59">
-        <v>0</v>
-      </c>
-      <c r="K24" s="59">
-        <v>0</v>
-      </c>
-      <c r="L24" s="59">
-        <v>1</v>
-      </c>
-      <c r="M24" s="59">
-        <v>0</v>
-      </c>
-      <c r="N24" s="59">
-        <v>0</v>
-      </c>
-      <c r="O24" s="59">
+      <c r="C24" s="58">
+        <v>0</v>
+      </c>
+      <c r="D24" s="58">
+        <v>0</v>
+      </c>
+      <c r="E24" s="58">
+        <v>0</v>
+      </c>
+      <c r="F24" s="58">
+        <v>0</v>
+      </c>
+      <c r="G24" s="58">
+        <v>0</v>
+      </c>
+      <c r="H24" s="58">
+        <v>0</v>
+      </c>
+      <c r="I24" s="58">
+        <v>0</v>
+      </c>
+      <c r="J24" s="58">
+        <v>0</v>
+      </c>
+      <c r="K24" s="58">
+        <v>0</v>
+      </c>
+      <c r="L24" s="58">
+        <v>1</v>
+      </c>
+      <c r="M24" s="58">
+        <v>0</v>
+      </c>
+      <c r="N24" s="58">
+        <v>0</v>
+      </c>
+      <c r="O24" s="58">
         <v>0</v>
       </c>
     </row>
@@ -2622,43 +2622,43 @@
       <c r="B25" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="C25" s="59">
-        <v>0</v>
-      </c>
-      <c r="D25" s="59">
-        <v>0</v>
-      </c>
-      <c r="E25" s="59">
-        <v>0</v>
-      </c>
-      <c r="F25" s="59">
-        <v>0</v>
-      </c>
-      <c r="G25" s="59">
-        <v>0</v>
-      </c>
-      <c r="H25" s="59">
-        <v>0</v>
-      </c>
-      <c r="I25" s="59">
-        <v>0</v>
-      </c>
-      <c r="J25" s="59">
-        <v>0</v>
-      </c>
-      <c r="K25" s="59">
-        <v>0</v>
-      </c>
-      <c r="L25" s="59">
-        <v>1</v>
-      </c>
-      <c r="M25" s="59">
-        <v>1</v>
-      </c>
-      <c r="N25" s="59">
-        <v>1</v>
-      </c>
-      <c r="O25" s="59">
+      <c r="C25" s="58">
+        <v>0</v>
+      </c>
+      <c r="D25" s="58">
+        <v>0</v>
+      </c>
+      <c r="E25" s="58">
+        <v>0</v>
+      </c>
+      <c r="F25" s="58">
+        <v>0</v>
+      </c>
+      <c r="G25" s="58">
+        <v>0</v>
+      </c>
+      <c r="H25" s="58">
+        <v>0</v>
+      </c>
+      <c r="I25" s="58">
+        <v>0</v>
+      </c>
+      <c r="J25" s="58">
+        <v>0</v>
+      </c>
+      <c r="K25" s="58">
+        <v>0</v>
+      </c>
+      <c r="L25" s="58">
+        <v>1</v>
+      </c>
+      <c r="M25" s="58">
+        <v>1</v>
+      </c>
+      <c r="N25" s="58">
+        <v>1</v>
+      </c>
+      <c r="O25" s="58">
         <v>1</v>
       </c>
     </row>
@@ -2666,43 +2666,43 @@
       <c r="B26" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="C26" s="59">
-        <v>0</v>
-      </c>
-      <c r="D26" s="59">
-        <v>0</v>
-      </c>
-      <c r="E26" s="59">
-        <v>0</v>
-      </c>
-      <c r="F26" s="59">
-        <v>0</v>
-      </c>
-      <c r="G26" s="59">
-        <v>0</v>
-      </c>
-      <c r="H26" s="59">
-        <v>0</v>
-      </c>
-      <c r="I26" s="59">
-        <v>0</v>
-      </c>
-      <c r="J26" s="59">
-        <v>0</v>
-      </c>
-      <c r="K26" s="59">
-        <v>0</v>
-      </c>
-      <c r="L26" s="59">
-        <v>1</v>
-      </c>
-      <c r="M26" s="59">
-        <v>1</v>
-      </c>
-      <c r="N26" s="59">
-        <v>1</v>
-      </c>
-      <c r="O26" s="59">
+      <c r="C26" s="58">
+        <v>0</v>
+      </c>
+      <c r="D26" s="58">
+        <v>0</v>
+      </c>
+      <c r="E26" s="58">
+        <v>0</v>
+      </c>
+      <c r="F26" s="58">
+        <v>0</v>
+      </c>
+      <c r="G26" s="58">
+        <v>0</v>
+      </c>
+      <c r="H26" s="58">
+        <v>0</v>
+      </c>
+      <c r="I26" s="58">
+        <v>0</v>
+      </c>
+      <c r="J26" s="58">
+        <v>0</v>
+      </c>
+      <c r="K26" s="58">
+        <v>0</v>
+      </c>
+      <c r="L26" s="58">
+        <v>1</v>
+      </c>
+      <c r="M26" s="58">
+        <v>1</v>
+      </c>
+      <c r="N26" s="58">
+        <v>1</v>
+      </c>
+      <c r="O26" s="58">
         <v>1</v>
       </c>
     </row>
@@ -2710,43 +2710,43 @@
       <c r="B27" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="C27" s="59">
-        <v>0</v>
-      </c>
-      <c r="D27" s="59">
-        <v>0</v>
-      </c>
-      <c r="E27" s="59">
-        <v>0</v>
-      </c>
-      <c r="F27" s="59">
-        <v>0</v>
-      </c>
-      <c r="G27" s="59">
-        <v>0</v>
-      </c>
-      <c r="H27" s="59">
-        <v>0</v>
-      </c>
-      <c r="I27" s="59">
-        <v>0</v>
-      </c>
-      <c r="J27" s="59">
-        <v>0</v>
-      </c>
-      <c r="K27" s="59">
-        <v>0</v>
-      </c>
-      <c r="L27" s="59">
-        <v>1</v>
-      </c>
-      <c r="M27" s="59">
-        <v>0</v>
-      </c>
-      <c r="N27" s="59">
-        <v>0</v>
-      </c>
-      <c r="O27" s="59">
+      <c r="C27" s="58">
+        <v>0</v>
+      </c>
+      <c r="D27" s="58">
+        <v>0</v>
+      </c>
+      <c r="E27" s="58">
+        <v>0</v>
+      </c>
+      <c r="F27" s="58">
+        <v>0</v>
+      </c>
+      <c r="G27" s="58">
+        <v>0</v>
+      </c>
+      <c r="H27" s="58">
+        <v>0</v>
+      </c>
+      <c r="I27" s="58">
+        <v>0</v>
+      </c>
+      <c r="J27" s="58">
+        <v>0</v>
+      </c>
+      <c r="K27" s="58">
+        <v>0</v>
+      </c>
+      <c r="L27" s="58">
+        <v>1</v>
+      </c>
+      <c r="M27" s="58">
+        <v>0</v>
+      </c>
+      <c r="N27" s="58">
+        <v>0</v>
+      </c>
+      <c r="O27" s="58">
         <v>0</v>
       </c>
     </row>
@@ -2754,43 +2754,43 @@
       <c r="B28" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="C28" s="59">
-        <v>0</v>
-      </c>
-      <c r="D28" s="59">
-        <v>0</v>
-      </c>
-      <c r="E28" s="59">
-        <v>0</v>
-      </c>
-      <c r="F28" s="59">
-        <v>0</v>
-      </c>
-      <c r="G28" s="59">
-        <v>0</v>
-      </c>
-      <c r="H28" s="59">
-        <v>0</v>
-      </c>
-      <c r="I28" s="59">
-        <v>0</v>
-      </c>
-      <c r="J28" s="59">
-        <v>0</v>
-      </c>
-      <c r="K28" s="59">
-        <v>0</v>
-      </c>
-      <c r="L28" s="59">
-        <v>1</v>
-      </c>
-      <c r="M28" s="59">
-        <v>1</v>
-      </c>
-      <c r="N28" s="59">
-        <v>1</v>
-      </c>
-      <c r="O28" s="59">
+      <c r="C28" s="58">
+        <v>0</v>
+      </c>
+      <c r="D28" s="58">
+        <v>0</v>
+      </c>
+      <c r="E28" s="58">
+        <v>0</v>
+      </c>
+      <c r="F28" s="58">
+        <v>0</v>
+      </c>
+      <c r="G28" s="58">
+        <v>0</v>
+      </c>
+      <c r="H28" s="58">
+        <v>0</v>
+      </c>
+      <c r="I28" s="58">
+        <v>0</v>
+      </c>
+      <c r="J28" s="58">
+        <v>0</v>
+      </c>
+      <c r="K28" s="58">
+        <v>0</v>
+      </c>
+      <c r="L28" s="58">
+        <v>1</v>
+      </c>
+      <c r="M28" s="58">
+        <v>1</v>
+      </c>
+      <c r="N28" s="58">
+        <v>1</v>
+      </c>
+      <c r="O28" s="58">
         <v>1</v>
       </c>
     </row>
@@ -2798,43 +2798,43 @@
       <c r="B29" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="C29" s="59">
-        <v>0</v>
-      </c>
-      <c r="D29" s="59">
-        <v>0</v>
-      </c>
-      <c r="E29" s="59">
-        <v>0</v>
-      </c>
-      <c r="F29" s="59">
-        <v>0</v>
-      </c>
-      <c r="G29" s="59">
-        <v>0</v>
-      </c>
-      <c r="H29" s="59">
-        <v>0</v>
-      </c>
-      <c r="I29" s="59">
-        <v>0</v>
-      </c>
-      <c r="J29" s="59">
-        <v>0</v>
-      </c>
-      <c r="K29" s="59">
-        <v>0</v>
-      </c>
-      <c r="L29" s="59">
-        <v>1</v>
-      </c>
-      <c r="M29" s="59">
-        <v>1</v>
-      </c>
-      <c r="N29" s="59">
-        <v>1</v>
-      </c>
-      <c r="O29" s="59">
+      <c r="C29" s="58">
+        <v>0</v>
+      </c>
+      <c r="D29" s="58">
+        <v>0</v>
+      </c>
+      <c r="E29" s="58">
+        <v>0</v>
+      </c>
+      <c r="F29" s="58">
+        <v>0</v>
+      </c>
+      <c r="G29" s="58">
+        <v>0</v>
+      </c>
+      <c r="H29" s="58">
+        <v>0</v>
+      </c>
+      <c r="I29" s="58">
+        <v>0</v>
+      </c>
+      <c r="J29" s="58">
+        <v>0</v>
+      </c>
+      <c r="K29" s="58">
+        <v>0</v>
+      </c>
+      <c r="L29" s="58">
+        <v>1</v>
+      </c>
+      <c r="M29" s="58">
+        <v>1</v>
+      </c>
+      <c r="N29" s="58">
+        <v>1</v>
+      </c>
+      <c r="O29" s="58">
         <v>1</v>
       </c>
     </row>
@@ -2842,43 +2842,43 @@
       <c r="B30" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="C30" s="59">
-        <v>0</v>
-      </c>
-      <c r="D30" s="59">
-        <v>0</v>
-      </c>
-      <c r="E30" s="59">
-        <v>0</v>
-      </c>
-      <c r="F30" s="59">
-        <v>0</v>
-      </c>
-      <c r="G30" s="59">
-        <v>0</v>
-      </c>
-      <c r="H30" s="59">
-        <v>0</v>
-      </c>
-      <c r="I30" s="59">
-        <v>0</v>
-      </c>
-      <c r="J30" s="59">
-        <v>0</v>
-      </c>
-      <c r="K30" s="59">
-        <v>0</v>
-      </c>
-      <c r="L30" s="59">
-        <v>1</v>
-      </c>
-      <c r="M30" s="59">
-        <v>1</v>
-      </c>
-      <c r="N30" s="59">
-        <v>1</v>
-      </c>
-      <c r="O30" s="59">
+      <c r="C30" s="58">
+        <v>0</v>
+      </c>
+      <c r="D30" s="58">
+        <v>0</v>
+      </c>
+      <c r="E30" s="58">
+        <v>0</v>
+      </c>
+      <c r="F30" s="58">
+        <v>0</v>
+      </c>
+      <c r="G30" s="58">
+        <v>0</v>
+      </c>
+      <c r="H30" s="58">
+        <v>0</v>
+      </c>
+      <c r="I30" s="58">
+        <v>0</v>
+      </c>
+      <c r="J30" s="58">
+        <v>0</v>
+      </c>
+      <c r="K30" s="58">
+        <v>0</v>
+      </c>
+      <c r="L30" s="58">
+        <v>1</v>
+      </c>
+      <c r="M30" s="58">
+        <v>1</v>
+      </c>
+      <c r="N30" s="58">
+        <v>1</v>
+      </c>
+      <c r="O30" s="58">
         <v>1</v>
       </c>
     </row>
@@ -2887,43 +2887,43 @@
       <c r="B31" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="C31" s="59">
-        <v>0</v>
-      </c>
-      <c r="D31" s="59">
-        <v>0</v>
-      </c>
-      <c r="E31" s="59">
-        <v>0</v>
-      </c>
-      <c r="F31" s="59">
-        <v>0</v>
-      </c>
-      <c r="G31" s="59">
-        <v>0</v>
-      </c>
-      <c r="H31" s="59">
-        <v>0</v>
-      </c>
-      <c r="I31" s="59">
-        <v>0</v>
-      </c>
-      <c r="J31" s="59">
-        <v>0</v>
-      </c>
-      <c r="K31" s="59">
-        <v>0</v>
-      </c>
-      <c r="L31" s="59">
-        <v>1</v>
-      </c>
-      <c r="M31" s="59">
-        <v>0</v>
-      </c>
-      <c r="N31" s="59">
-        <v>0</v>
-      </c>
-      <c r="O31" s="59">
+      <c r="C31" s="58">
+        <v>0</v>
+      </c>
+      <c r="D31" s="58">
+        <v>0</v>
+      </c>
+      <c r="E31" s="58">
+        <v>0</v>
+      </c>
+      <c r="F31" s="58">
+        <v>0</v>
+      </c>
+      <c r="G31" s="58">
+        <v>0</v>
+      </c>
+      <c r="H31" s="58">
+        <v>0</v>
+      </c>
+      <c r="I31" s="58">
+        <v>0</v>
+      </c>
+      <c r="J31" s="58">
+        <v>0</v>
+      </c>
+      <c r="K31" s="58">
+        <v>0</v>
+      </c>
+      <c r="L31" s="58">
+        <v>1</v>
+      </c>
+      <c r="M31" s="58">
+        <v>0</v>
+      </c>
+      <c r="N31" s="58">
+        <v>0</v>
+      </c>
+      <c r="O31" s="58">
         <v>0</v>
       </c>
     </row>
@@ -2931,43 +2931,43 @@
       <c r="B32" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="C32" s="59">
-        <v>0</v>
-      </c>
-      <c r="D32" s="59">
-        <v>0</v>
-      </c>
-      <c r="E32" s="59">
-        <v>0</v>
-      </c>
-      <c r="F32" s="59">
-        <v>0</v>
-      </c>
-      <c r="G32" s="59">
-        <v>0</v>
-      </c>
-      <c r="H32" s="59">
-        <v>0</v>
-      </c>
-      <c r="I32" s="59">
-        <v>0</v>
-      </c>
-      <c r="J32" s="59">
-        <v>0</v>
-      </c>
-      <c r="K32" s="59">
-        <v>0</v>
-      </c>
-      <c r="L32" s="59">
-        <v>1</v>
-      </c>
-      <c r="M32" s="59">
-        <v>1</v>
-      </c>
-      <c r="N32" s="59">
-        <v>1</v>
-      </c>
-      <c r="O32" s="59">
+      <c r="C32" s="58">
+        <v>0</v>
+      </c>
+      <c r="D32" s="58">
+        <v>0</v>
+      </c>
+      <c r="E32" s="58">
+        <v>0</v>
+      </c>
+      <c r="F32" s="58">
+        <v>0</v>
+      </c>
+      <c r="G32" s="58">
+        <v>0</v>
+      </c>
+      <c r="H32" s="58">
+        <v>0</v>
+      </c>
+      <c r="I32" s="58">
+        <v>0</v>
+      </c>
+      <c r="J32" s="58">
+        <v>0</v>
+      </c>
+      <c r="K32" s="58">
+        <v>0</v>
+      </c>
+      <c r="L32" s="58">
+        <v>1</v>
+      </c>
+      <c r="M32" s="58">
+        <v>1</v>
+      </c>
+      <c r="N32" s="58">
+        <v>1</v>
+      </c>
+      <c r="O32" s="58">
         <v>1</v>
       </c>
     </row>
@@ -2975,43 +2975,43 @@
       <c r="B33" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="C33" s="59">
-        <v>0</v>
-      </c>
-      <c r="D33" s="59">
-        <v>0</v>
-      </c>
-      <c r="E33" s="59">
-        <v>0</v>
-      </c>
-      <c r="F33" s="59">
-        <v>0</v>
-      </c>
-      <c r="G33" s="59">
-        <v>0</v>
-      </c>
-      <c r="H33" s="59">
-        <v>0</v>
-      </c>
-      <c r="I33" s="59">
-        <v>0</v>
-      </c>
-      <c r="J33" s="59">
-        <v>0</v>
-      </c>
-      <c r="K33" s="59">
-        <v>0</v>
-      </c>
-      <c r="L33" s="59">
-        <v>1</v>
-      </c>
-      <c r="M33" s="59">
-        <v>1</v>
-      </c>
-      <c r="N33" s="59">
-        <v>1</v>
-      </c>
-      <c r="O33" s="59">
+      <c r="C33" s="58">
+        <v>0</v>
+      </c>
+      <c r="D33" s="58">
+        <v>0</v>
+      </c>
+      <c r="E33" s="58">
+        <v>0</v>
+      </c>
+      <c r="F33" s="58">
+        <v>0</v>
+      </c>
+      <c r="G33" s="58">
+        <v>0</v>
+      </c>
+      <c r="H33" s="58">
+        <v>0</v>
+      </c>
+      <c r="I33" s="58">
+        <v>0</v>
+      </c>
+      <c r="J33" s="58">
+        <v>0</v>
+      </c>
+      <c r="K33" s="58">
+        <v>0</v>
+      </c>
+      <c r="L33" s="58">
+        <v>1</v>
+      </c>
+      <c r="M33" s="58">
+        <v>1</v>
+      </c>
+      <c r="N33" s="58">
+        <v>1</v>
+      </c>
+      <c r="O33" s="58">
         <v>1</v>
       </c>
     </row>
@@ -3019,43 +3019,43 @@
       <c r="B34" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="59">
-        <v>0</v>
-      </c>
-      <c r="D34" s="59">
-        <v>0</v>
-      </c>
-      <c r="E34" s="59">
-        <v>0</v>
-      </c>
-      <c r="F34" s="59">
-        <v>0</v>
-      </c>
-      <c r="G34" s="59">
-        <v>0</v>
-      </c>
-      <c r="H34" s="59">
-        <v>0</v>
-      </c>
-      <c r="I34" s="59">
-        <v>0</v>
-      </c>
-      <c r="J34" s="59">
-        <v>0</v>
-      </c>
-      <c r="K34" s="59">
-        <v>0</v>
-      </c>
-      <c r="L34" s="59">
-        <v>1</v>
-      </c>
-      <c r="M34" s="59">
-        <v>0</v>
-      </c>
-      <c r="N34" s="59">
-        <v>0</v>
-      </c>
-      <c r="O34" s="59">
+      <c r="C34" s="58">
+        <v>0</v>
+      </c>
+      <c r="D34" s="58">
+        <v>0</v>
+      </c>
+      <c r="E34" s="58">
+        <v>0</v>
+      </c>
+      <c r="F34" s="58">
+        <v>0</v>
+      </c>
+      <c r="G34" s="58">
+        <v>0</v>
+      </c>
+      <c r="H34" s="58">
+        <v>0</v>
+      </c>
+      <c r="I34" s="58">
+        <v>0</v>
+      </c>
+      <c r="J34" s="58">
+        <v>0</v>
+      </c>
+      <c r="K34" s="58">
+        <v>0</v>
+      </c>
+      <c r="L34" s="58">
+        <v>1</v>
+      </c>
+      <c r="M34" s="58">
+        <v>0</v>
+      </c>
+      <c r="N34" s="58">
+        <v>0</v>
+      </c>
+      <c r="O34" s="58">
         <v>0</v>
       </c>
     </row>
@@ -3063,43 +3063,43 @@
       <c r="B35" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="C35" s="59">
-        <v>0</v>
-      </c>
-      <c r="D35" s="59">
-        <v>0</v>
-      </c>
-      <c r="E35" s="59">
-        <v>0</v>
-      </c>
-      <c r="F35" s="59">
-        <v>0</v>
-      </c>
-      <c r="G35" s="59">
-        <v>0</v>
-      </c>
-      <c r="H35" s="59">
-        <v>0</v>
-      </c>
-      <c r="I35" s="59">
-        <v>0</v>
-      </c>
-      <c r="J35" s="59">
-        <v>0</v>
-      </c>
-      <c r="K35" s="59">
-        <v>0</v>
-      </c>
-      <c r="L35" s="59">
-        <v>1</v>
-      </c>
-      <c r="M35" s="59">
-        <v>1</v>
-      </c>
-      <c r="N35" s="59">
-        <v>1</v>
-      </c>
-      <c r="O35" s="59">
+      <c r="C35" s="58">
+        <v>0</v>
+      </c>
+      <c r="D35" s="58">
+        <v>0</v>
+      </c>
+      <c r="E35" s="58">
+        <v>0</v>
+      </c>
+      <c r="F35" s="58">
+        <v>0</v>
+      </c>
+      <c r="G35" s="58">
+        <v>0</v>
+      </c>
+      <c r="H35" s="58">
+        <v>0</v>
+      </c>
+      <c r="I35" s="58">
+        <v>0</v>
+      </c>
+      <c r="J35" s="58">
+        <v>0</v>
+      </c>
+      <c r="K35" s="58">
+        <v>0</v>
+      </c>
+      <c r="L35" s="58">
+        <v>1</v>
+      </c>
+      <c r="M35" s="58">
+        <v>1</v>
+      </c>
+      <c r="N35" s="58">
+        <v>1</v>
+      </c>
+      <c r="O35" s="58">
         <v>1</v>
       </c>
     </row>
@@ -3107,43 +3107,43 @@
       <c r="B36" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="C36" s="59">
-        <v>0</v>
-      </c>
-      <c r="D36" s="59">
-        <v>0</v>
-      </c>
-      <c r="E36" s="59">
-        <v>0</v>
-      </c>
-      <c r="F36" s="59">
-        <v>0</v>
-      </c>
-      <c r="G36" s="59">
-        <v>0</v>
-      </c>
-      <c r="H36" s="59">
-        <v>0</v>
-      </c>
-      <c r="I36" s="59">
-        <v>0</v>
-      </c>
-      <c r="J36" s="59">
-        <v>0</v>
-      </c>
-      <c r="K36" s="59">
-        <v>0</v>
-      </c>
-      <c r="L36" s="59">
-        <v>1</v>
-      </c>
-      <c r="M36" s="59">
-        <v>1</v>
-      </c>
-      <c r="N36" s="59">
-        <v>1</v>
-      </c>
-      <c r="O36" s="59">
+      <c r="C36" s="58">
+        <v>0</v>
+      </c>
+      <c r="D36" s="58">
+        <v>0</v>
+      </c>
+      <c r="E36" s="58">
+        <v>0</v>
+      </c>
+      <c r="F36" s="58">
+        <v>0</v>
+      </c>
+      <c r="G36" s="58">
+        <v>0</v>
+      </c>
+      <c r="H36" s="58">
+        <v>0</v>
+      </c>
+      <c r="I36" s="58">
+        <v>0</v>
+      </c>
+      <c r="J36" s="58">
+        <v>0</v>
+      </c>
+      <c r="K36" s="58">
+        <v>0</v>
+      </c>
+      <c r="L36" s="58">
+        <v>1</v>
+      </c>
+      <c r="M36" s="58">
+        <v>1</v>
+      </c>
+      <c r="N36" s="58">
+        <v>1</v>
+      </c>
+      <c r="O36" s="58">
         <v>1</v>
       </c>
     </row>
@@ -3151,43 +3151,43 @@
       <c r="B37" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="C37" s="59">
-        <v>0</v>
-      </c>
-      <c r="D37" s="59">
-        <v>0</v>
-      </c>
-      <c r="E37" s="59">
-        <v>0</v>
-      </c>
-      <c r="F37" s="59">
-        <v>0</v>
-      </c>
-      <c r="G37" s="59">
-        <v>0</v>
-      </c>
-      <c r="H37" s="59">
-        <v>0</v>
-      </c>
-      <c r="I37" s="59">
-        <v>0</v>
-      </c>
-      <c r="J37" s="59">
-        <v>0</v>
-      </c>
-      <c r="K37" s="59">
-        <v>0</v>
-      </c>
-      <c r="L37" s="59">
-        <v>1</v>
-      </c>
-      <c r="M37" s="59">
-        <v>1</v>
-      </c>
-      <c r="N37" s="59">
-        <v>1</v>
-      </c>
-      <c r="O37" s="59">
+      <c r="C37" s="58">
+        <v>0</v>
+      </c>
+      <c r="D37" s="58">
+        <v>0</v>
+      </c>
+      <c r="E37" s="58">
+        <v>0</v>
+      </c>
+      <c r="F37" s="58">
+        <v>0</v>
+      </c>
+      <c r="G37" s="58">
+        <v>0</v>
+      </c>
+      <c r="H37" s="58">
+        <v>0</v>
+      </c>
+      <c r="I37" s="58">
+        <v>0</v>
+      </c>
+      <c r="J37" s="58">
+        <v>0</v>
+      </c>
+      <c r="K37" s="58">
+        <v>0</v>
+      </c>
+      <c r="L37" s="58">
+        <v>1</v>
+      </c>
+      <c r="M37" s="58">
+        <v>1</v>
+      </c>
+      <c r="N37" s="58">
+        <v>1</v>
+      </c>
+      <c r="O37" s="58">
         <v>1</v>
       </c>
     </row>
@@ -3195,43 +3195,43 @@
       <c r="B38" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="C38" s="59">
-        <v>0</v>
-      </c>
-      <c r="D38" s="59">
-        <v>0</v>
-      </c>
-      <c r="E38" s="59">
-        <v>0</v>
-      </c>
-      <c r="F38" s="59">
-        <v>0</v>
-      </c>
-      <c r="G38" s="59">
-        <v>0</v>
-      </c>
-      <c r="H38" s="59">
-        <v>0</v>
-      </c>
-      <c r="I38" s="59">
-        <v>0</v>
-      </c>
-      <c r="J38" s="59">
-        <v>0</v>
-      </c>
-      <c r="K38" s="59">
-        <v>0</v>
-      </c>
-      <c r="L38" s="59">
-        <v>1</v>
-      </c>
-      <c r="M38" s="59">
-        <v>1</v>
-      </c>
-      <c r="N38" s="59">
-        <v>1</v>
-      </c>
-      <c r="O38" s="59">
+      <c r="C38" s="58">
+        <v>0</v>
+      </c>
+      <c r="D38" s="58">
+        <v>0</v>
+      </c>
+      <c r="E38" s="58">
+        <v>0</v>
+      </c>
+      <c r="F38" s="58">
+        <v>0</v>
+      </c>
+      <c r="G38" s="58">
+        <v>0</v>
+      </c>
+      <c r="H38" s="58">
+        <v>0</v>
+      </c>
+      <c r="I38" s="58">
+        <v>0</v>
+      </c>
+      <c r="J38" s="58">
+        <v>0</v>
+      </c>
+      <c r="K38" s="58">
+        <v>0</v>
+      </c>
+      <c r="L38" s="58">
+        <v>1</v>
+      </c>
+      <c r="M38" s="58">
+        <v>1</v>
+      </c>
+      <c r="N38" s="58">
+        <v>1</v>
+      </c>
+      <c r="O38" s="58">
         <v>1</v>
       </c>
     </row>
@@ -3239,43 +3239,43 @@
       <c r="B39" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="C39" s="59">
-        <v>0</v>
-      </c>
-      <c r="D39" s="59">
-        <v>0</v>
-      </c>
-      <c r="E39" s="59">
-        <v>0</v>
-      </c>
-      <c r="F39" s="59">
-        <v>0</v>
-      </c>
-      <c r="G39" s="59">
-        <v>0</v>
-      </c>
-      <c r="H39" s="59">
-        <v>0</v>
-      </c>
-      <c r="I39" s="59">
-        <v>0</v>
-      </c>
-      <c r="J39" s="59">
-        <v>0</v>
-      </c>
-      <c r="K39" s="59">
-        <v>0</v>
-      </c>
-      <c r="L39" s="59">
-        <v>1</v>
-      </c>
-      <c r="M39" s="59">
-        <v>1</v>
-      </c>
-      <c r="N39" s="59">
-        <v>1</v>
-      </c>
-      <c r="O39" s="59">
+      <c r="C39" s="58">
+        <v>0</v>
+      </c>
+      <c r="D39" s="58">
+        <v>0</v>
+      </c>
+      <c r="E39" s="58">
+        <v>0</v>
+      </c>
+      <c r="F39" s="58">
+        <v>0</v>
+      </c>
+      <c r="G39" s="58">
+        <v>0</v>
+      </c>
+      <c r="H39" s="58">
+        <v>0</v>
+      </c>
+      <c r="I39" s="58">
+        <v>0</v>
+      </c>
+      <c r="J39" s="58">
+        <v>0</v>
+      </c>
+      <c r="K39" s="58">
+        <v>0</v>
+      </c>
+      <c r="L39" s="58">
+        <v>1</v>
+      </c>
+      <c r="M39" s="58">
+        <v>1</v>
+      </c>
+      <c r="N39" s="58">
+        <v>1</v>
+      </c>
+      <c r="O39" s="58">
         <v>1</v>
       </c>
     </row>
@@ -3302,43 +3302,43 @@
       <c r="B41" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="C41" s="59">
-        <v>1</v>
-      </c>
-      <c r="D41" s="59">
-        <v>1</v>
-      </c>
-      <c r="E41" s="59">
-        <v>1</v>
-      </c>
-      <c r="F41" s="59">
-        <v>1</v>
-      </c>
-      <c r="G41" s="59">
-        <v>1</v>
-      </c>
-      <c r="H41" s="59">
-        <v>1</v>
-      </c>
-      <c r="I41" s="59">
-        <v>1</v>
-      </c>
-      <c r="J41" s="59">
-        <v>1</v>
-      </c>
-      <c r="K41" s="59">
-        <v>1</v>
-      </c>
-      <c r="L41" s="59">
-        <v>1</v>
-      </c>
-      <c r="M41" s="59">
-        <v>1</v>
-      </c>
-      <c r="N41" s="59">
-        <v>1</v>
-      </c>
-      <c r="O41" s="59">
+      <c r="C41" s="58">
+        <v>1</v>
+      </c>
+      <c r="D41" s="58">
+        <v>1</v>
+      </c>
+      <c r="E41" s="58">
+        <v>1</v>
+      </c>
+      <c r="F41" s="58">
+        <v>1</v>
+      </c>
+      <c r="G41" s="58">
+        <v>1</v>
+      </c>
+      <c r="H41" s="58">
+        <v>1</v>
+      </c>
+      <c r="I41" s="58">
+        <v>1</v>
+      </c>
+      <c r="J41" s="58">
+        <v>1</v>
+      </c>
+      <c r="K41" s="58">
+        <v>1</v>
+      </c>
+      <c r="L41" s="58">
+        <v>1</v>
+      </c>
+      <c r="M41" s="58">
+        <v>1</v>
+      </c>
+      <c r="N41" s="58">
+        <v>1</v>
+      </c>
+      <c r="O41" s="58">
         <v>1</v>
       </c>
     </row>
@@ -3346,43 +3346,43 @@
       <c r="B42" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="C42" s="59">
-        <v>1</v>
-      </c>
-      <c r="D42" s="59">
-        <v>1</v>
-      </c>
-      <c r="E42" s="59">
-        <v>1</v>
-      </c>
-      <c r="F42" s="59">
-        <v>1</v>
-      </c>
-      <c r="G42" s="59">
-        <v>1</v>
-      </c>
-      <c r="H42" s="59">
-        <v>1</v>
-      </c>
-      <c r="I42" s="59">
-        <v>1</v>
-      </c>
-      <c r="J42" s="59">
-        <v>1</v>
-      </c>
-      <c r="K42" s="59">
-        <v>1</v>
-      </c>
-      <c r="L42" s="59">
-        <v>1</v>
-      </c>
-      <c r="M42" s="59">
-        <v>1</v>
-      </c>
-      <c r="N42" s="59">
-        <v>1</v>
-      </c>
-      <c r="O42" s="59">
+      <c r="C42" s="58">
+        <v>1</v>
+      </c>
+      <c r="D42" s="58">
+        <v>1</v>
+      </c>
+      <c r="E42" s="58">
+        <v>1</v>
+      </c>
+      <c r="F42" s="58">
+        <v>1</v>
+      </c>
+      <c r="G42" s="58">
+        <v>1</v>
+      </c>
+      <c r="H42" s="58">
+        <v>1</v>
+      </c>
+      <c r="I42" s="58">
+        <v>1</v>
+      </c>
+      <c r="J42" s="58">
+        <v>1</v>
+      </c>
+      <c r="K42" s="58">
+        <v>1</v>
+      </c>
+      <c r="L42" s="58">
+        <v>1</v>
+      </c>
+      <c r="M42" s="58">
+        <v>1</v>
+      </c>
+      <c r="N42" s="58">
+        <v>1</v>
+      </c>
+      <c r="O42" s="58">
         <v>1</v>
       </c>
     </row>
@@ -3390,43 +3390,43 @@
       <c r="B43" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="C43" s="59">
-        <v>1</v>
-      </c>
-      <c r="D43" s="59">
-        <v>1</v>
-      </c>
-      <c r="E43" s="59">
-        <v>1</v>
-      </c>
-      <c r="F43" s="59">
-        <v>1</v>
-      </c>
-      <c r="G43" s="59">
-        <v>1</v>
-      </c>
-      <c r="H43" s="59">
-        <v>1</v>
-      </c>
-      <c r="I43" s="59">
-        <v>1</v>
-      </c>
-      <c r="J43" s="59">
-        <v>1</v>
-      </c>
-      <c r="K43" s="59">
-        <v>1</v>
-      </c>
-      <c r="L43" s="59">
-        <v>1</v>
-      </c>
-      <c r="M43" s="59">
-        <v>1</v>
-      </c>
-      <c r="N43" s="59">
-        <v>1</v>
-      </c>
-      <c r="O43" s="59">
+      <c r="C43" s="58">
+        <v>1</v>
+      </c>
+      <c r="D43" s="58">
+        <v>1</v>
+      </c>
+      <c r="E43" s="58">
+        <v>1</v>
+      </c>
+      <c r="F43" s="58">
+        <v>1</v>
+      </c>
+      <c r="G43" s="58">
+        <v>1</v>
+      </c>
+      <c r="H43" s="58">
+        <v>1</v>
+      </c>
+      <c r="I43" s="58">
+        <v>1</v>
+      </c>
+      <c r="J43" s="58">
+        <v>1</v>
+      </c>
+      <c r="K43" s="58">
+        <v>1</v>
+      </c>
+      <c r="L43" s="58">
+        <v>1</v>
+      </c>
+      <c r="M43" s="58">
+        <v>1</v>
+      </c>
+      <c r="N43" s="58">
+        <v>1</v>
+      </c>
+      <c r="O43" s="58">
         <v>1</v>
       </c>
     </row>
@@ -3434,43 +3434,43 @@
       <c r="B44" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="C44" s="59">
-        <v>1</v>
-      </c>
-      <c r="D44" s="59">
-        <v>1</v>
-      </c>
-      <c r="E44" s="59">
-        <v>1</v>
-      </c>
-      <c r="F44" s="59">
-        <v>1</v>
-      </c>
-      <c r="G44" s="59">
-        <v>1</v>
-      </c>
-      <c r="H44" s="59">
-        <v>1</v>
-      </c>
-      <c r="I44" s="59">
-        <v>1</v>
-      </c>
-      <c r="J44" s="59">
-        <v>1</v>
-      </c>
-      <c r="K44" s="59">
-        <v>1</v>
-      </c>
-      <c r="L44" s="59">
-        <v>1</v>
-      </c>
-      <c r="M44" s="59">
-        <v>1</v>
-      </c>
-      <c r="N44" s="59">
-        <v>1</v>
-      </c>
-      <c r="O44" s="59">
+      <c r="C44" s="58">
+        <v>1</v>
+      </c>
+      <c r="D44" s="58">
+        <v>1</v>
+      </c>
+      <c r="E44" s="58">
+        <v>1</v>
+      </c>
+      <c r="F44" s="58">
+        <v>1</v>
+      </c>
+      <c r="G44" s="58">
+        <v>1</v>
+      </c>
+      <c r="H44" s="58">
+        <v>1</v>
+      </c>
+      <c r="I44" s="58">
+        <v>1</v>
+      </c>
+      <c r="J44" s="58">
+        <v>1</v>
+      </c>
+      <c r="K44" s="58">
+        <v>1</v>
+      </c>
+      <c r="L44" s="58">
+        <v>1</v>
+      </c>
+      <c r="M44" s="58">
+        <v>1</v>
+      </c>
+      <c r="N44" s="58">
+        <v>1</v>
+      </c>
+      <c r="O44" s="58">
         <v>1</v>
       </c>
     </row>
@@ -3478,43 +3478,43 @@
       <c r="B45" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="C45" s="59">
-        <v>1</v>
-      </c>
-      <c r="D45" s="59">
-        <v>1</v>
-      </c>
-      <c r="E45" s="59">
-        <v>1</v>
-      </c>
-      <c r="F45" s="59">
-        <v>1</v>
-      </c>
-      <c r="G45" s="59">
-        <v>1</v>
-      </c>
-      <c r="H45" s="59">
-        <v>1</v>
-      </c>
-      <c r="I45" s="59">
-        <v>1</v>
-      </c>
-      <c r="J45" s="59">
-        <v>1</v>
-      </c>
-      <c r="K45" s="59">
-        <v>1</v>
-      </c>
-      <c r="L45" s="59">
-        <v>1</v>
-      </c>
-      <c r="M45" s="59">
-        <v>1</v>
-      </c>
-      <c r="N45" s="59">
-        <v>1</v>
-      </c>
-      <c r="O45" s="59">
+      <c r="C45" s="58">
+        <v>1</v>
+      </c>
+      <c r="D45" s="58">
+        <v>1</v>
+      </c>
+      <c r="E45" s="58">
+        <v>1</v>
+      </c>
+      <c r="F45" s="58">
+        <v>1</v>
+      </c>
+      <c r="G45" s="58">
+        <v>1</v>
+      </c>
+      <c r="H45" s="58">
+        <v>1</v>
+      </c>
+      <c r="I45" s="58">
+        <v>1</v>
+      </c>
+      <c r="J45" s="58">
+        <v>1</v>
+      </c>
+      <c r="K45" s="58">
+        <v>1</v>
+      </c>
+      <c r="L45" s="58">
+        <v>1</v>
+      </c>
+      <c r="M45" s="58">
+        <v>1</v>
+      </c>
+      <c r="N45" s="58">
+        <v>1</v>
+      </c>
+      <c r="O45" s="58">
         <v>1</v>
       </c>
     </row>
@@ -3522,43 +3522,43 @@
       <c r="B46" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="C46" s="59">
-        <v>1</v>
-      </c>
-      <c r="D46" s="59">
-        <v>1</v>
-      </c>
-      <c r="E46" s="59">
-        <v>1</v>
-      </c>
-      <c r="F46" s="59">
-        <v>1</v>
-      </c>
-      <c r="G46" s="59">
-        <v>1</v>
-      </c>
-      <c r="H46" s="59">
-        <v>0</v>
-      </c>
-      <c r="I46" s="59">
-        <v>0</v>
-      </c>
-      <c r="J46" s="59">
-        <v>0</v>
-      </c>
-      <c r="K46" s="59">
-        <v>0</v>
-      </c>
-      <c r="L46" s="59">
-        <v>0</v>
-      </c>
-      <c r="M46" s="59">
-        <v>0</v>
-      </c>
-      <c r="N46" s="59">
-        <v>0</v>
-      </c>
-      <c r="O46" s="59">
+      <c r="C46" s="58">
+        <v>1</v>
+      </c>
+      <c r="D46" s="58">
+        <v>1</v>
+      </c>
+      <c r="E46" s="58">
+        <v>1</v>
+      </c>
+      <c r="F46" s="58">
+        <v>1</v>
+      </c>
+      <c r="G46" s="58">
+        <v>1</v>
+      </c>
+      <c r="H46" s="58">
+        <v>0</v>
+      </c>
+      <c r="I46" s="58">
+        <v>0</v>
+      </c>
+      <c r="J46" s="58">
+        <v>0</v>
+      </c>
+      <c r="K46" s="58">
+        <v>0</v>
+      </c>
+      <c r="L46" s="58">
+        <v>0</v>
+      </c>
+      <c r="M46" s="58">
+        <v>0</v>
+      </c>
+      <c r="N46" s="58">
+        <v>0</v>
+      </c>
+      <c r="O46" s="58">
         <v>0</v>
       </c>
     </row>
@@ -3566,43 +3566,43 @@
       <c r="B47" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="C47" s="59">
-        <v>1</v>
-      </c>
-      <c r="D47" s="59">
-        <v>1</v>
-      </c>
-      <c r="E47" s="59">
-        <v>1</v>
-      </c>
-      <c r="F47" s="59">
-        <v>1</v>
-      </c>
-      <c r="G47" s="59">
-        <v>1</v>
-      </c>
-      <c r="H47" s="59">
-        <v>0</v>
-      </c>
-      <c r="I47" s="59">
-        <v>0</v>
-      </c>
-      <c r="J47" s="59">
-        <v>0</v>
-      </c>
-      <c r="K47" s="59">
-        <v>0</v>
-      </c>
-      <c r="L47" s="59">
-        <v>0</v>
-      </c>
-      <c r="M47" s="59">
-        <v>0</v>
-      </c>
-      <c r="N47" s="59">
-        <v>0</v>
-      </c>
-      <c r="O47" s="59">
+      <c r="C47" s="58">
+        <v>1</v>
+      </c>
+      <c r="D47" s="58">
+        <v>1</v>
+      </c>
+      <c r="E47" s="58">
+        <v>1</v>
+      </c>
+      <c r="F47" s="58">
+        <v>1</v>
+      </c>
+      <c r="G47" s="58">
+        <v>1</v>
+      </c>
+      <c r="H47" s="58">
+        <v>0</v>
+      </c>
+      <c r="I47" s="58">
+        <v>0</v>
+      </c>
+      <c r="J47" s="58">
+        <v>0</v>
+      </c>
+      <c r="K47" s="58">
+        <v>0</v>
+      </c>
+      <c r="L47" s="58">
+        <v>0</v>
+      </c>
+      <c r="M47" s="58">
+        <v>0</v>
+      </c>
+      <c r="N47" s="58">
+        <v>0</v>
+      </c>
+      <c r="O47" s="58">
         <v>0</v>
       </c>
     </row>
@@ -3610,43 +3610,43 @@
       <c r="B48" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="C48" s="59">
-        <v>0</v>
-      </c>
-      <c r="D48" s="59">
-        <v>0</v>
-      </c>
-      <c r="E48" s="59">
-        <v>0</v>
-      </c>
-      <c r="F48" s="59">
-        <v>0</v>
-      </c>
-      <c r="G48" s="59">
-        <v>0</v>
-      </c>
-      <c r="H48" s="59">
-        <v>1</v>
-      </c>
-      <c r="I48" s="59">
-        <v>1</v>
-      </c>
-      <c r="J48" s="59">
-        <v>1</v>
-      </c>
-      <c r="K48" s="59">
-        <v>1</v>
-      </c>
-      <c r="L48" s="59">
-        <v>0</v>
-      </c>
-      <c r="M48" s="59">
-        <v>0</v>
-      </c>
-      <c r="N48" s="59">
-        <v>0</v>
-      </c>
-      <c r="O48" s="59">
+      <c r="C48" s="58">
+        <v>0</v>
+      </c>
+      <c r="D48" s="58">
+        <v>0</v>
+      </c>
+      <c r="E48" s="58">
+        <v>0</v>
+      </c>
+      <c r="F48" s="58">
+        <v>0</v>
+      </c>
+      <c r="G48" s="58">
+        <v>0</v>
+      </c>
+      <c r="H48" s="58">
+        <v>1</v>
+      </c>
+      <c r="I48" s="58">
+        <v>1</v>
+      </c>
+      <c r="J48" s="58">
+        <v>1</v>
+      </c>
+      <c r="K48" s="58">
+        <v>1</v>
+      </c>
+      <c r="L48" s="58">
+        <v>0</v>
+      </c>
+      <c r="M48" s="58">
+        <v>0</v>
+      </c>
+      <c r="N48" s="58">
+        <v>0</v>
+      </c>
+      <c r="O48" s="58">
         <v>0</v>
       </c>
     </row>
@@ -3654,43 +3654,43 @@
       <c r="B49" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="C49" s="59">
-        <v>0</v>
-      </c>
-      <c r="D49" s="59">
-        <v>0</v>
-      </c>
-      <c r="E49" s="59">
-        <v>0</v>
-      </c>
-      <c r="F49" s="59">
-        <v>0</v>
-      </c>
-      <c r="G49" s="59">
-        <v>0</v>
-      </c>
-      <c r="H49" s="59">
-        <v>1</v>
-      </c>
-      <c r="I49" s="59">
-        <v>1</v>
-      </c>
-      <c r="J49" s="59">
-        <v>1</v>
-      </c>
-      <c r="K49" s="59">
-        <v>1</v>
-      </c>
-      <c r="L49" s="59">
-        <v>0</v>
-      </c>
-      <c r="M49" s="59">
-        <v>0</v>
-      </c>
-      <c r="N49" s="59">
-        <v>0</v>
-      </c>
-      <c r="O49" s="59">
+      <c r="C49" s="58">
+        <v>0</v>
+      </c>
+      <c r="D49" s="58">
+        <v>0</v>
+      </c>
+      <c r="E49" s="58">
+        <v>0</v>
+      </c>
+      <c r="F49" s="58">
+        <v>0</v>
+      </c>
+      <c r="G49" s="58">
+        <v>0</v>
+      </c>
+      <c r="H49" s="58">
+        <v>1</v>
+      </c>
+      <c r="I49" s="58">
+        <v>1</v>
+      </c>
+      <c r="J49" s="58">
+        <v>1</v>
+      </c>
+      <c r="K49" s="58">
+        <v>1</v>
+      </c>
+      <c r="L49" s="58">
+        <v>0</v>
+      </c>
+      <c r="M49" s="58">
+        <v>0</v>
+      </c>
+      <c r="N49" s="58">
+        <v>0</v>
+      </c>
+      <c r="O49" s="58">
         <v>0</v>
       </c>
     </row>
@@ -3698,43 +3698,43 @@
       <c r="B50" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="C50" s="59">
-        <v>0</v>
-      </c>
-      <c r="D50" s="59">
-        <v>0</v>
-      </c>
-      <c r="E50" s="59">
-        <v>0</v>
-      </c>
-      <c r="F50" s="59">
-        <v>0</v>
-      </c>
-      <c r="G50" s="59">
-        <v>0</v>
-      </c>
-      <c r="H50" s="59">
-        <v>1</v>
-      </c>
-      <c r="I50" s="59">
-        <v>1</v>
-      </c>
-      <c r="J50" s="59">
-        <v>1</v>
-      </c>
-      <c r="K50" s="59">
-        <v>1</v>
-      </c>
-      <c r="L50" s="59">
-        <v>0</v>
-      </c>
-      <c r="M50" s="59">
-        <v>0</v>
-      </c>
-      <c r="N50" s="59">
-        <v>0</v>
-      </c>
-      <c r="O50" s="59">
+      <c r="C50" s="58">
+        <v>0</v>
+      </c>
+      <c r="D50" s="58">
+        <v>0</v>
+      </c>
+      <c r="E50" s="58">
+        <v>0</v>
+      </c>
+      <c r="F50" s="58">
+        <v>0</v>
+      </c>
+      <c r="G50" s="58">
+        <v>0</v>
+      </c>
+      <c r="H50" s="58">
+        <v>1</v>
+      </c>
+      <c r="I50" s="58">
+        <v>1</v>
+      </c>
+      <c r="J50" s="58">
+        <v>1</v>
+      </c>
+      <c r="K50" s="58">
+        <v>1</v>
+      </c>
+      <c r="L50" s="58">
+        <v>0</v>
+      </c>
+      <c r="M50" s="58">
+        <v>0</v>
+      </c>
+      <c r="N50" s="58">
+        <v>0</v>
+      </c>
+      <c r="O50" s="58">
         <v>0</v>
       </c>
     </row>
@@ -3743,43 +3743,43 @@
       <c r="B51" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="C51" s="59">
-        <v>1</v>
-      </c>
-      <c r="D51" s="59">
-        <v>1</v>
-      </c>
-      <c r="E51" s="59">
-        <v>1</v>
-      </c>
-      <c r="F51" s="59">
-        <v>1</v>
-      </c>
-      <c r="G51" s="59">
-        <v>1</v>
-      </c>
-      <c r="H51" s="59">
-        <v>1</v>
-      </c>
-      <c r="I51" s="59">
-        <v>1</v>
-      </c>
-      <c r="J51" s="59">
-        <v>1</v>
-      </c>
-      <c r="K51" s="59">
-        <v>1</v>
-      </c>
-      <c r="L51" s="59">
-        <v>1</v>
-      </c>
-      <c r="M51" s="59">
-        <v>1</v>
-      </c>
-      <c r="N51" s="59">
-        <v>1</v>
-      </c>
-      <c r="O51" s="59">
+      <c r="C51" s="58">
+        <v>1</v>
+      </c>
+      <c r="D51" s="58">
+        <v>1</v>
+      </c>
+      <c r="E51" s="58">
+        <v>1</v>
+      </c>
+      <c r="F51" s="58">
+        <v>1</v>
+      </c>
+      <c r="G51" s="58">
+        <v>1</v>
+      </c>
+      <c r="H51" s="58">
+        <v>1</v>
+      </c>
+      <c r="I51" s="58">
+        <v>1</v>
+      </c>
+      <c r="J51" s="58">
+        <v>1</v>
+      </c>
+      <c r="K51" s="58">
+        <v>1</v>
+      </c>
+      <c r="L51" s="58">
+        <v>1</v>
+      </c>
+      <c r="M51" s="58">
+        <v>1</v>
+      </c>
+      <c r="N51" s="58">
+        <v>1</v>
+      </c>
+      <c r="O51" s="58">
         <v>1</v>
       </c>
     </row>
@@ -3787,43 +3787,43 @@
       <c r="B52" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="C52" s="59">
-        <v>1</v>
-      </c>
-      <c r="D52" s="59">
-        <v>0</v>
-      </c>
-      <c r="E52" s="59">
-        <v>1</v>
-      </c>
-      <c r="F52" s="59">
-        <v>1</v>
-      </c>
-      <c r="G52" s="59">
-        <v>1</v>
-      </c>
-      <c r="H52" s="59">
-        <v>1</v>
-      </c>
-      <c r="I52" s="59">
-        <v>1</v>
-      </c>
-      <c r="J52" s="59">
-        <v>1</v>
-      </c>
-      <c r="K52" s="59">
-        <v>1</v>
-      </c>
-      <c r="L52" s="59">
-        <v>1</v>
-      </c>
-      <c r="M52" s="59">
-        <v>1</v>
-      </c>
-      <c r="N52" s="59">
-        <v>1</v>
-      </c>
-      <c r="O52" s="59">
+      <c r="C52" s="58">
+        <v>1</v>
+      </c>
+      <c r="D52" s="58">
+        <v>0</v>
+      </c>
+      <c r="E52" s="58">
+        <v>1</v>
+      </c>
+      <c r="F52" s="58">
+        <v>1</v>
+      </c>
+      <c r="G52" s="58">
+        <v>1</v>
+      </c>
+      <c r="H52" s="58">
+        <v>1</v>
+      </c>
+      <c r="I52" s="58">
+        <v>1</v>
+      </c>
+      <c r="J52" s="58">
+        <v>1</v>
+      </c>
+      <c r="K52" s="58">
+        <v>1</v>
+      </c>
+      <c r="L52" s="58">
+        <v>1</v>
+      </c>
+      <c r="M52" s="58">
+        <v>1</v>
+      </c>
+      <c r="N52" s="58">
+        <v>1</v>
+      </c>
+      <c r="O52" s="58">
         <v>1</v>
       </c>
     </row>
@@ -3831,43 +3831,43 @@
       <c r="B53" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="C53" s="59">
-        <v>1</v>
-      </c>
-      <c r="D53" s="59">
-        <v>0</v>
-      </c>
-      <c r="E53" s="59">
-        <v>1</v>
-      </c>
-      <c r="F53" s="59">
-        <v>1</v>
-      </c>
-      <c r="G53" s="59">
-        <v>1</v>
-      </c>
-      <c r="H53" s="59">
-        <v>1</v>
-      </c>
-      <c r="I53" s="59">
-        <v>1</v>
-      </c>
-      <c r="J53" s="59">
-        <v>1</v>
-      </c>
-      <c r="K53" s="59">
-        <v>1</v>
-      </c>
-      <c r="L53" s="59">
-        <v>1</v>
-      </c>
-      <c r="M53" s="59">
-        <v>1</v>
-      </c>
-      <c r="N53" s="59">
-        <v>1</v>
-      </c>
-      <c r="O53" s="59">
+      <c r="C53" s="58">
+        <v>1</v>
+      </c>
+      <c r="D53" s="58">
+        <v>0</v>
+      </c>
+      <c r="E53" s="58">
+        <v>1</v>
+      </c>
+      <c r="F53" s="58">
+        <v>1</v>
+      </c>
+      <c r="G53" s="58">
+        <v>1</v>
+      </c>
+      <c r="H53" s="58">
+        <v>1</v>
+      </c>
+      <c r="I53" s="58">
+        <v>1</v>
+      </c>
+      <c r="J53" s="58">
+        <v>1</v>
+      </c>
+      <c r="K53" s="58">
+        <v>1</v>
+      </c>
+      <c r="L53" s="58">
+        <v>1</v>
+      </c>
+      <c r="M53" s="58">
+        <v>1</v>
+      </c>
+      <c r="N53" s="58">
+        <v>1</v>
+      </c>
+      <c r="O53" s="58">
         <v>1</v>
       </c>
     </row>
@@ -3875,43 +3875,43 @@
       <c r="B54" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="C54" s="59">
-        <v>1</v>
-      </c>
-      <c r="D54" s="59">
-        <v>0</v>
-      </c>
-      <c r="E54" s="59">
-        <v>1</v>
-      </c>
-      <c r="F54" s="59">
-        <v>1</v>
-      </c>
-      <c r="G54" s="59">
-        <v>1</v>
-      </c>
-      <c r="H54" s="59">
-        <v>1</v>
-      </c>
-      <c r="I54" s="59">
-        <v>1</v>
-      </c>
-      <c r="J54" s="59">
-        <v>1</v>
-      </c>
-      <c r="K54" s="59">
-        <v>1</v>
-      </c>
-      <c r="L54" s="59">
-        <v>1</v>
-      </c>
-      <c r="M54" s="59">
-        <v>1</v>
-      </c>
-      <c r="N54" s="59">
-        <v>1</v>
-      </c>
-      <c r="O54" s="59">
+      <c r="C54" s="58">
+        <v>1</v>
+      </c>
+      <c r="D54" s="58">
+        <v>0</v>
+      </c>
+      <c r="E54" s="58">
+        <v>1</v>
+      </c>
+      <c r="F54" s="58">
+        <v>1</v>
+      </c>
+      <c r="G54" s="58">
+        <v>1</v>
+      </c>
+      <c r="H54" s="58">
+        <v>1</v>
+      </c>
+      <c r="I54" s="58">
+        <v>1</v>
+      </c>
+      <c r="J54" s="58">
+        <v>1</v>
+      </c>
+      <c r="K54" s="58">
+        <v>1</v>
+      </c>
+      <c r="L54" s="58">
+        <v>1</v>
+      </c>
+      <c r="M54" s="58">
+        <v>1</v>
+      </c>
+      <c r="N54" s="58">
+        <v>1</v>
+      </c>
+      <c r="O54" s="58">
         <v>1</v>
       </c>
     </row>
@@ -3919,43 +3919,43 @@
       <c r="B55" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="C55" s="59">
-        <v>1</v>
-      </c>
-      <c r="D55" s="59">
-        <v>0</v>
-      </c>
-      <c r="E55" s="59">
-        <v>1</v>
-      </c>
-      <c r="F55" s="59">
-        <v>1</v>
-      </c>
-      <c r="G55" s="59">
-        <v>1</v>
-      </c>
-      <c r="H55" s="59">
-        <v>1</v>
-      </c>
-      <c r="I55" s="59">
-        <v>1</v>
-      </c>
-      <c r="J55" s="59">
-        <v>1</v>
-      </c>
-      <c r="K55" s="59">
-        <v>1</v>
-      </c>
-      <c r="L55" s="59">
-        <v>1</v>
-      </c>
-      <c r="M55" s="59">
-        <v>1</v>
-      </c>
-      <c r="N55" s="59">
-        <v>1</v>
-      </c>
-      <c r="O55" s="59">
+      <c r="C55" s="58">
+        <v>1</v>
+      </c>
+      <c r="D55" s="58">
+        <v>0</v>
+      </c>
+      <c r="E55" s="58">
+        <v>1</v>
+      </c>
+      <c r="F55" s="58">
+        <v>1</v>
+      </c>
+      <c r="G55" s="58">
+        <v>1</v>
+      </c>
+      <c r="H55" s="58">
+        <v>1</v>
+      </c>
+      <c r="I55" s="58">
+        <v>1</v>
+      </c>
+      <c r="J55" s="58">
+        <v>1</v>
+      </c>
+      <c r="K55" s="58">
+        <v>1</v>
+      </c>
+      <c r="L55" s="58">
+        <v>1</v>
+      </c>
+      <c r="M55" s="58">
+        <v>1</v>
+      </c>
+      <c r="N55" s="58">
+        <v>1</v>
+      </c>
+      <c r="O55" s="58">
         <v>1</v>
       </c>
     </row>
@@ -6851,33 +6851,33 @@
       <c r="A2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
     </row>
     <row r="3" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58" t="s">
         <v>162</v>
       </c>
     </row>
@@ -6885,886 +6885,886 @@
       <c r="A4" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59" t="s">
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59" t="s">
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59" t="s">
+      <c r="B6" s="58"/>
+      <c r="C6" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59" t="s">
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="K7" s="59"/>
+      <c r="K7" s="58"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59" t="s">
+      <c r="B8" s="58"/>
+      <c r="C8" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59" t="s">
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59" t="s">
+      <c r="B9" s="58"/>
+      <c r="C9" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59" t="s">
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59" t="s">
+      <c r="B10" s="58"/>
+      <c r="C10" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59" t="s">
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59" t="s">
+      <c r="B11" s="58"/>
+      <c r="C11" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59" t="s">
+      <c r="B12" s="58"/>
+      <c r="C12" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59" t="s">
+      <c r="B13" s="58"/>
+      <c r="C13" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59" t="s">
+      <c r="B14" s="58"/>
+      <c r="C14" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59" t="s">
+      <c r="B15" s="58"/>
+      <c r="C15" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59" t="s">
+      <c r="B16" s="58"/>
+      <c r="C16" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59" t="s">
+      <c r="B17" s="58"/>
+      <c r="C17" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59" t="s">
+      <c r="B18" s="58"/>
+      <c r="C18" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59" t="s">
+      <c r="B19" s="58"/>
+      <c r="C19" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59" t="s">
+      <c r="B20" s="58"/>
+      <c r="C20" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59" t="s">
+      <c r="B21" s="58"/>
+      <c r="C21" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59" t="s">
+      <c r="B22" s="58"/>
+      <c r="C22" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59" t="s">
+      <c r="B23" s="58"/>
+      <c r="C23" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59" t="s">
+      <c r="B24" s="58"/>
+      <c r="C24" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59" t="s">
+      <c r="B25" s="58"/>
+      <c r="C25" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59" t="s">
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="I25" s="59" t="s">
+      <c r="I25" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59" t="s">
+      <c r="B26" s="58"/>
+      <c r="C26" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59" t="s">
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59" t="s">
+      <c r="B27" s="58"/>
+      <c r="C27" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59" t="s">
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59" t="s">
+      <c r="B28" s="58"/>
+      <c r="C28" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="B29" s="59"/>
-      <c r="C29" s="59" t="s">
+      <c r="B29" s="58"/>
+      <c r="C29" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59" t="s">
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="J29" s="59"/>
-      <c r="K29" s="59"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59" t="s">
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59" t="s">
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="B32" s="59"/>
-      <c r="C32" s="59" t="s">
+      <c r="B32" s="58"/>
+      <c r="C32" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59" t="s">
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="58"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59" t="s">
+      <c r="B33" s="58"/>
+      <c r="C33" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59" t="s">
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="58"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59" t="s">
+      <c r="B34" s="58"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="58"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="59" t="s">
+      <c r="B35" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59" t="s">
+      <c r="C35" s="58"/>
+      <c r="D35" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="59"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B36" s="59" t="s">
+      <c r="B36" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="C36" s="59" t="s">
+      <c r="C36" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="D36" s="59" t="s">
+      <c r="D36" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="59"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="58"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="B37" s="59" t="s">
+      <c r="B37" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="C37" s="59" t="s">
+      <c r="C37" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="D37" s="59" t="s">
+      <c r="D37" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="59"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="59"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="58"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59" t="s">
+      <c r="B38" s="58"/>
+      <c r="C38" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="59"/>
-      <c r="J38" s="59"/>
-      <c r="K38" s="59"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="58"/>
+      <c r="K38" s="58"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="B39" s="59"/>
-      <c r="C39" s="59" t="s">
+      <c r="B39" s="58"/>
+      <c r="C39" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="59"/>
-      <c r="K39" s="59"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="58"/>
+      <c r="K39" s="58"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59" t="s">
+      <c r="B40" s="58"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="59"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="58"/>
+      <c r="J40" s="58"/>
+      <c r="K40" s="58"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59" t="s">
+      <c r="B41" s="58"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="59"/>
-      <c r="I41" s="59"/>
-      <c r="J41" s="59"/>
-      <c r="K41" s="59"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="58"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59" t="s">
+      <c r="B42" s="58"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="H42" s="59" t="s">
+      <c r="H42" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="I42" s="59"/>
-      <c r="J42" s="59"/>
-      <c r="K42" s="59"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="58"/>
+      <c r="K42" s="58"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="59" t="s">
+      <c r="B43" s="58"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="H43" s="59" t="s">
+      <c r="H43" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="I43" s="59"/>
-      <c r="J43" s="59"/>
-      <c r="K43" s="59"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="58"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="59" t="s">
+      <c r="B44" s="58"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="H44" s="59" t="s">
+      <c r="H44" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="I44" s="59"/>
-      <c r="J44" s="59"/>
-      <c r="K44" s="59"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="58"/>
+      <c r="K44" s="58"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59" t="s">
+      <c r="B45" s="58"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="H45" s="59" t="s">
+      <c r="H45" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="I45" s="59"/>
-      <c r="J45" s="59"/>
-      <c r="K45" s="59"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="58"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="59" t="s">
+      <c r="B46" s="58"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="H46" s="59" t="s">
+      <c r="H46" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="I46" s="59"/>
-      <c r="J46" s="59"/>
-      <c r="K46" s="59"/>
+      <c r="I46" s="58"/>
+      <c r="J46" s="58"/>
+      <c r="K46" s="58"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59" t="s">
+      <c r="B47" s="58"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="H47" s="59" t="s">
+      <c r="H47" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="I47" s="59"/>
-      <c r="J47" s="59"/>
-      <c r="K47" s="59"/>
+      <c r="I47" s="58"/>
+      <c r="J47" s="58"/>
+      <c r="K47" s="58"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B48" s="59"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="59"/>
-      <c r="H48" s="59" t="s">
+      <c r="B48" s="58"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="I48" s="59"/>
-      <c r="J48" s="59"/>
-      <c r="K48" s="59"/>
+      <c r="I48" s="58"/>
+      <c r="J48" s="58"/>
+      <c r="K48" s="58"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B49" s="59" t="s">
+      <c r="B49" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="59" t="s">
+      <c r="C49" s="58"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="H49" s="59" t="s">
+      <c r="H49" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="I49" s="59"/>
-      <c r="J49" s="59"/>
-      <c r="K49" s="59"/>
+      <c r="I49" s="58"/>
+      <c r="J49" s="58"/>
+      <c r="K49" s="58"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B50" s="59" t="s">
+      <c r="B50" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59" t="s">
+      <c r="C50" s="58"/>
+      <c r="D50" s="58"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="G50" s="59"/>
-      <c r="H50" s="59"/>
-      <c r="I50" s="59"/>
-      <c r="J50" s="59"/>
-      <c r="K50" s="59"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="58"/>
+      <c r="I50" s="58"/>
+      <c r="J50" s="58"/>
+      <c r="K50" s="58"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A51" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="B51" s="59" t="s">
+      <c r="B51" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59" t="s">
+      <c r="C51" s="58"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="G51" s="59"/>
-      <c r="H51" s="59"/>
-      <c r="I51" s="59"/>
-      <c r="J51" s="59"/>
-      <c r="K51" s="59"/>
+      <c r="G51" s="58"/>
+      <c r="H51" s="58"/>
+      <c r="I51" s="58"/>
+      <c r="J51" s="58"/>
+      <c r="K51" s="58"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A52" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="B52" s="59" t="s">
+      <c r="B52" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="59" t="s">
+      <c r="C52" s="58"/>
+      <c r="D52" s="58"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="G52" s="59"/>
-      <c r="H52" s="59"/>
-      <c r="I52" s="59"/>
-      <c r="J52" s="59"/>
-      <c r="K52" s="59"/>
+      <c r="G52" s="58"/>
+      <c r="H52" s="58"/>
+      <c r="I52" s="58"/>
+      <c r="J52" s="58"/>
+      <c r="K52" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7837,308 +7837,308 @@
       <c r="A2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="59" t="s">
+      <c r="G2" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59" t="s">
+      <c r="I2" s="58"/>
+      <c r="J2" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="K2" s="59"/>
+      <c r="K2" s="58"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="H3" s="59" t="s">
+      <c r="H3" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59" t="s">
+      <c r="I3" s="58"/>
+      <c r="J3" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="K3" s="59"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59" t="s">
+      <c r="I4" s="58"/>
+      <c r="J4" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="K4" s="59"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="G5" s="59" t="s">
+      <c r="G5" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="H5" s="59" t="s">
+      <c r="H5" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59" t="s">
+      <c r="I5" s="58"/>
+      <c r="J5" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="K5" s="59"/>
+      <c r="K5" s="58"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="F6" s="59" t="s">
+      <c r="F6" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="G6" s="59" t="s">
+      <c r="G6" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="H6" s="59" t="s">
+      <c r="H6" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59" t="s">
+      <c r="I6" s="58"/>
+      <c r="J6" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="K6" s="59"/>
+      <c r="K6" s="58"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59" t="s">
+      <c r="B7" s="58"/>
+      <c r="C7" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="I7" s="59" t="s">
+      <c r="I7" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59" t="s">
+      <c r="B8" s="58"/>
+      <c r="C8" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59" t="s">
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="I8" s="59" t="s">
+      <c r="I8" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59" t="s">
+      <c r="B9" s="58"/>
+      <c r="C9" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59" t="s">
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="I9" s="59" t="s">
+      <c r="I9" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59" t="s">
+      <c r="B10" s="58"/>
+      <c r="C10" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59" t="s">
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="I10" s="59" t="s">
+      <c r="I10" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59" t="s">
+      <c r="B11" s="58"/>
+      <c r="C11" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59" t="s">
+      <c r="B12" s="58"/>
+      <c r="C12" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59" t="s">
+      <c r="B13" s="58"/>
+      <c r="C13" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59" t="s">
+      <c r="B14" s="58"/>
+      <c r="C14" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8152,7 +8152,7 @@
   </sheetPr>
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
@@ -8194,329 +8194,329 @@
       <c r="A2" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="61" t="s">
         <v>148</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="58">
-        <v>1</v>
-      </c>
-      <c r="E2" s="58">
-        <v>1</v>
-      </c>
-      <c r="F2" s="58">
-        <v>1</v>
-      </c>
-      <c r="G2" s="58">
-        <v>1</v>
-      </c>
-      <c r="H2" s="58">
+      <c r="D2" s="57">
+        <v>1</v>
+      </c>
+      <c r="E2" s="57">
+        <v>1</v>
+      </c>
+      <c r="F2" s="57">
+        <v>1</v>
+      </c>
+      <c r="G2" s="57">
+        <v>1</v>
+      </c>
+      <c r="H2" s="57">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="55"/>
+      <c r="B3" s="61"/>
       <c r="C3" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D3" s="58">
-        <v>1</v>
-      </c>
-      <c r="E3" s="58">
-        <v>1</v>
-      </c>
-      <c r="F3" s="58">
-        <v>1</v>
-      </c>
-      <c r="G3" s="58">
-        <v>1</v>
-      </c>
-      <c r="H3" s="58">
+      <c r="D3" s="57">
+        <v>1</v>
+      </c>
+      <c r="E3" s="57">
+        <v>1</v>
+      </c>
+      <c r="F3" s="57">
+        <v>1</v>
+      </c>
+      <c r="G3" s="57">
+        <v>1</v>
+      </c>
+      <c r="H3" s="57">
         <v>1</v>
       </c>
       <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="55"/>
+      <c r="B4" s="61"/>
       <c r="C4" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D4" s="58">
-        <v>1</v>
-      </c>
-      <c r="E4" s="58">
-        <v>1</v>
-      </c>
-      <c r="F4" s="58">
-        <v>1</v>
-      </c>
-      <c r="G4" s="58">
-        <v>1</v>
-      </c>
-      <c r="H4" s="58">
+      <c r="D4" s="57">
+        <v>1</v>
+      </c>
+      <c r="E4" s="57">
+        <v>1</v>
+      </c>
+      <c r="F4" s="57">
+        <v>1</v>
+      </c>
+      <c r="G4" s="57">
+        <v>1</v>
+      </c>
+      <c r="H4" s="57">
         <v>1</v>
       </c>
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="61" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="58">
+      <c r="D5" s="57">
         <v>5.16</v>
       </c>
-      <c r="E5" s="58">
-        <v>1</v>
-      </c>
-      <c r="F5" s="58">
-        <v>1</v>
-      </c>
-      <c r="G5" s="58">
-        <v>1</v>
-      </c>
-      <c r="H5" s="58">
+      <c r="E5" s="57">
+        <v>1</v>
+      </c>
+      <c r="F5" s="57">
+        <v>1</v>
+      </c>
+      <c r="G5" s="57">
+        <v>1</v>
+      </c>
+      <c r="H5" s="57">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="55"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D6" s="58">
+      <c r="D6" s="57">
         <v>5.16</v>
       </c>
-      <c r="E6" s="58">
-        <v>1</v>
-      </c>
-      <c r="F6" s="58">
-        <v>1</v>
-      </c>
-      <c r="G6" s="58">
-        <v>1</v>
-      </c>
-      <c r="H6" s="58">
+      <c r="E6" s="57">
+        <v>1</v>
+      </c>
+      <c r="F6" s="57">
+        <v>1</v>
+      </c>
+      <c r="G6" s="57">
+        <v>1</v>
+      </c>
+      <c r="H6" s="57">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="55"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D7" s="58">
-        <v>1</v>
-      </c>
-      <c r="E7" s="58">
-        <v>1</v>
-      </c>
-      <c r="F7" s="58">
-        <v>1</v>
-      </c>
-      <c r="G7" s="58">
-        <v>1</v>
-      </c>
-      <c r="H7" s="58">
+      <c r="D7" s="57">
+        <v>1</v>
+      </c>
+      <c r="E7" s="57">
+        <v>1</v>
+      </c>
+      <c r="F7" s="57">
+        <v>1</v>
+      </c>
+      <c r="G7" s="57">
+        <v>1</v>
+      </c>
+      <c r="H7" s="57">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="61" t="s">
         <v>48</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D8" s="58">
-        <v>1</v>
-      </c>
-      <c r="E8" s="58">
+      <c r="D8" s="57">
+        <v>1</v>
+      </c>
+      <c r="E8" s="57">
         <v>5.16</v>
       </c>
-      <c r="F8" s="58">
-        <v>1</v>
-      </c>
-      <c r="G8" s="58">
-        <v>1</v>
-      </c>
-      <c r="H8" s="58">
+      <c r="F8" s="57">
+        <v>1</v>
+      </c>
+      <c r="G8" s="57">
+        <v>1</v>
+      </c>
+      <c r="H8" s="57">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="55"/>
+      <c r="B9" s="61"/>
       <c r="C9" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="58">
-        <v>1</v>
-      </c>
-      <c r="E9" s="58">
+      <c r="D9" s="57">
+        <v>1</v>
+      </c>
+      <c r="E9" s="57">
         <v>5.16</v>
       </c>
-      <c r="F9" s="58">
-        <v>1</v>
-      </c>
-      <c r="G9" s="58">
-        <v>1</v>
-      </c>
-      <c r="H9" s="58">
+      <c r="F9" s="57">
+        <v>1</v>
+      </c>
+      <c r="G9" s="57">
+        <v>1</v>
+      </c>
+      <c r="H9" s="57">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="55"/>
+      <c r="B10" s="61"/>
       <c r="C10" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D10" s="58">
-        <v>1</v>
-      </c>
-      <c r="E10" s="58">
-        <v>1</v>
-      </c>
-      <c r="F10" s="58">
-        <v>1</v>
-      </c>
-      <c r="G10" s="58">
-        <v>1</v>
-      </c>
-      <c r="H10" s="58">
+      <c r="D10" s="57">
+        <v>1</v>
+      </c>
+      <c r="E10" s="57">
+        <v>1</v>
+      </c>
+      <c r="F10" s="57">
+        <v>1</v>
+      </c>
+      <c r="G10" s="57">
+        <v>1</v>
+      </c>
+      <c r="H10" s="57">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="61" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D11" s="58">
-        <v>1</v>
-      </c>
-      <c r="E11" s="58">
-        <v>1</v>
-      </c>
-      <c r="F11" s="58">
+      <c r="D11" s="57">
+        <v>1</v>
+      </c>
+      <c r="E11" s="57">
+        <v>1</v>
+      </c>
+      <c r="F11" s="57">
         <v>1.82</v>
       </c>
-      <c r="G11" s="58">
-        <v>1</v>
-      </c>
-      <c r="H11" s="58">
+      <c r="G11" s="57">
+        <v>1</v>
+      </c>
+      <c r="H11" s="57">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="55"/>
+      <c r="B12" s="61"/>
       <c r="C12" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D12" s="58">
-        <v>1</v>
-      </c>
-      <c r="E12" s="58">
-        <v>1</v>
-      </c>
-      <c r="F12" s="58">
+      <c r="D12" s="57">
+        <v>1</v>
+      </c>
+      <c r="E12" s="57">
+        <v>1</v>
+      </c>
+      <c r="F12" s="57">
         <v>1.82</v>
       </c>
-      <c r="G12" s="58">
-        <v>1</v>
-      </c>
-      <c r="H12" s="58">
+      <c r="G12" s="57">
+        <v>1</v>
+      </c>
+      <c r="H12" s="57">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="55"/>
+      <c r="B13" s="61"/>
       <c r="C13" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D13" s="58">
-        <v>1</v>
-      </c>
-      <c r="E13" s="58">
-        <v>1</v>
-      </c>
-      <c r="F13" s="58">
-        <v>1</v>
-      </c>
-      <c r="G13" s="58">
-        <v>1</v>
-      </c>
-      <c r="H13" s="58">
+      <c r="D13" s="57">
+        <v>1</v>
+      </c>
+      <c r="E13" s="57">
+        <v>1</v>
+      </c>
+      <c r="F13" s="57">
+        <v>1</v>
+      </c>
+      <c r="G13" s="57">
+        <v>1</v>
+      </c>
+      <c r="H13" s="57">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="61" t="s">
         <v>46</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="58">
-        <v>1</v>
-      </c>
-      <c r="E14" s="58">
-        <v>1</v>
-      </c>
-      <c r="F14" s="58">
-        <v>1</v>
-      </c>
-      <c r="G14" s="58">
+      <c r="D14" s="57">
+        <v>1</v>
+      </c>
+      <c r="E14" s="57">
+        <v>1</v>
+      </c>
+      <c r="F14" s="57">
+        <v>1</v>
+      </c>
+      <c r="G14" s="57">
         <v>1.82</v>
       </c>
-      <c r="H14" s="58">
+      <c r="H14" s="57">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="55"/>
+      <c r="B15" s="61"/>
       <c r="C15" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D15" s="58">
-        <v>1</v>
-      </c>
-      <c r="E15" s="58">
-        <v>1</v>
-      </c>
-      <c r="F15" s="58">
-        <v>1</v>
-      </c>
-      <c r="G15" s="58">
+      <c r="D15" s="57">
+        <v>1</v>
+      </c>
+      <c r="E15" s="57">
+        <v>1</v>
+      </c>
+      <c r="F15" s="57">
+        <v>1</v>
+      </c>
+      <c r="G15" s="57">
         <v>1.82</v>
       </c>
-      <c r="H15" s="58">
+      <c r="H15" s="57">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="55"/>
+      <c r="B16" s="61"/>
       <c r="C16" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D16" s="58">
-        <v>1</v>
-      </c>
-      <c r="E16" s="58">
-        <v>1</v>
-      </c>
-      <c r="F16" s="58">
-        <v>1</v>
-      </c>
-      <c r="G16" s="58">
-        <v>1</v>
-      </c>
-      <c r="H16" s="58">
+      <c r="D16" s="57">
+        <v>1</v>
+      </c>
+      <c r="E16" s="57">
+        <v>1</v>
+      </c>
+      <c r="F16" s="57">
+        <v>1</v>
+      </c>
+      <c r="G16" s="57">
+        <v>1</v>
+      </c>
+      <c r="H16" s="57">
         <v>1</v>
       </c>
     </row>
@@ -8527,19 +8527,19 @@
       <c r="C17" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D17" s="57">
+      <c r="D17" s="56">
         <v>1.05</v>
       </c>
-      <c r="E17" s="57">
+      <c r="E17" s="56">
         <v>1.05</v>
       </c>
-      <c r="F17" s="57">
+      <c r="F17" s="56">
         <v>1.05</v>
       </c>
-      <c r="G17" s="57">
+      <c r="G17" s="56">
         <v>1.05</v>
       </c>
-      <c r="H17" s="57">
+      <c r="H17" s="56">
         <v>1</v>
       </c>
     </row>
@@ -8554,327 +8554,327 @@
       <c r="A19" s="42" t="s">
         <v>186</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="61" t="s">
         <v>148</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D19" s="58">
-        <v>1</v>
-      </c>
-      <c r="E19" s="58">
-        <v>1</v>
-      </c>
-      <c r="F19" s="58">
-        <v>1</v>
-      </c>
-      <c r="G19" s="58">
-        <v>1</v>
-      </c>
-      <c r="H19" s="58">
+      <c r="D19" s="57">
+        <v>1</v>
+      </c>
+      <c r="E19" s="57">
+        <v>1</v>
+      </c>
+      <c r="F19" s="57">
+        <v>1</v>
+      </c>
+      <c r="G19" s="57">
+        <v>1</v>
+      </c>
+      <c r="H19" s="57">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="55"/>
+      <c r="B20" s="61"/>
       <c r="C20" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D20" s="58">
-        <v>1</v>
-      </c>
-      <c r="E20" s="58">
-        <v>1</v>
-      </c>
-      <c r="F20" s="58">
-        <v>1</v>
-      </c>
-      <c r="G20" s="58">
-        <v>1</v>
-      </c>
-      <c r="H20" s="58">
+      <c r="D20" s="57">
+        <v>1</v>
+      </c>
+      <c r="E20" s="57">
+        <v>1</v>
+      </c>
+      <c r="F20" s="57">
+        <v>1</v>
+      </c>
+      <c r="G20" s="57">
+        <v>1</v>
+      </c>
+      <c r="H20" s="57">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="55"/>
+      <c r="B21" s="61"/>
       <c r="C21" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D21" s="58">
-        <v>1</v>
-      </c>
-      <c r="E21" s="58">
-        <v>1</v>
-      </c>
-      <c r="F21" s="58">
-        <v>1</v>
-      </c>
-      <c r="G21" s="58">
-        <v>1</v>
-      </c>
-      <c r="H21" s="58">
+      <c r="D21" s="57">
+        <v>1</v>
+      </c>
+      <c r="E21" s="57">
+        <v>1</v>
+      </c>
+      <c r="F21" s="57">
+        <v>1</v>
+      </c>
+      <c r="G21" s="57">
+        <v>1</v>
+      </c>
+      <c r="H21" s="57">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="61" t="s">
         <v>49</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D22" s="58">
-        <v>1</v>
-      </c>
-      <c r="E22" s="58">
-        <v>1</v>
-      </c>
-      <c r="F22" s="58">
-        <v>1</v>
-      </c>
-      <c r="G22" s="58">
-        <v>1</v>
-      </c>
-      <c r="H22" s="58">
+      <c r="D22" s="57">
+        <v>1</v>
+      </c>
+      <c r="E22" s="57">
+        <v>1</v>
+      </c>
+      <c r="F22" s="57">
+        <v>1</v>
+      </c>
+      <c r="G22" s="57">
+        <v>1</v>
+      </c>
+      <c r="H22" s="57">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="55"/>
+      <c r="B23" s="61"/>
       <c r="C23" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D23" s="58">
-        <v>1</v>
-      </c>
-      <c r="E23" s="58">
-        <v>1</v>
-      </c>
-      <c r="F23" s="58">
-        <v>1</v>
-      </c>
-      <c r="G23" s="58">
-        <v>1</v>
-      </c>
-      <c r="H23" s="58">
+      <c r="D23" s="57">
+        <v>1</v>
+      </c>
+      <c r="E23" s="57">
+        <v>1</v>
+      </c>
+      <c r="F23" s="57">
+        <v>1</v>
+      </c>
+      <c r="G23" s="57">
+        <v>1</v>
+      </c>
+      <c r="H23" s="57">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="55"/>
+      <c r="B24" s="61"/>
       <c r="C24" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D24" s="58">
-        <v>1</v>
-      </c>
-      <c r="E24" s="58">
-        <v>1</v>
-      </c>
-      <c r="F24" s="58">
-        <v>1</v>
-      </c>
-      <c r="G24" s="58">
-        <v>1</v>
-      </c>
-      <c r="H24" s="58">
+      <c r="D24" s="57">
+        <v>1</v>
+      </c>
+      <c r="E24" s="57">
+        <v>1</v>
+      </c>
+      <c r="F24" s="57">
+        <v>1</v>
+      </c>
+      <c r="G24" s="57">
+        <v>1</v>
+      </c>
+      <c r="H24" s="57">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="55" t="s">
+      <c r="B25" s="61" t="s">
         <v>48</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D25" s="58">
-        <v>1</v>
-      </c>
-      <c r="E25" s="58">
-        <v>1</v>
-      </c>
-      <c r="F25" s="58">
-        <v>1</v>
-      </c>
-      <c r="G25" s="58">
-        <v>1</v>
-      </c>
-      <c r="H25" s="58">
+      <c r="D25" s="57">
+        <v>1</v>
+      </c>
+      <c r="E25" s="57">
+        <v>1</v>
+      </c>
+      <c r="F25" s="57">
+        <v>1</v>
+      </c>
+      <c r="G25" s="57">
+        <v>1</v>
+      </c>
+      <c r="H25" s="57">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="55"/>
+      <c r="B26" s="61"/>
       <c r="C26" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D26" s="58">
-        <v>1</v>
-      </c>
-      <c r="E26" s="58">
-        <v>1</v>
-      </c>
-      <c r="F26" s="58">
-        <v>1</v>
-      </c>
-      <c r="G26" s="58">
-        <v>1</v>
-      </c>
-      <c r="H26" s="58">
+      <c r="D26" s="57">
+        <v>1</v>
+      </c>
+      <c r="E26" s="57">
+        <v>1</v>
+      </c>
+      <c r="F26" s="57">
+        <v>1</v>
+      </c>
+      <c r="G26" s="57">
+        <v>1</v>
+      </c>
+      <c r="H26" s="57">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="55"/>
+      <c r="B27" s="61"/>
       <c r="C27" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D27" s="58">
-        <v>1</v>
-      </c>
-      <c r="E27" s="58">
-        <v>1</v>
-      </c>
-      <c r="F27" s="58">
-        <v>1</v>
-      </c>
-      <c r="G27" s="58">
-        <v>1</v>
-      </c>
-      <c r="H27" s="58">
+      <c r="D27" s="57">
+        <v>1</v>
+      </c>
+      <c r="E27" s="57">
+        <v>1</v>
+      </c>
+      <c r="F27" s="57">
+        <v>1</v>
+      </c>
+      <c r="G27" s="57">
+        <v>1</v>
+      </c>
+      <c r="H27" s="57">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="61" t="s">
         <v>47</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D28" s="58">
-        <v>1</v>
-      </c>
-      <c r="E28" s="58">
-        <v>1</v>
-      </c>
-      <c r="F28" s="58">
+      <c r="D28" s="57">
+        <v>1</v>
+      </c>
+      <c r="E28" s="57">
+        <v>1</v>
+      </c>
+      <c r="F28" s="57">
         <v>1.82</v>
       </c>
-      <c r="G28" s="58">
-        <v>1</v>
-      </c>
-      <c r="H28" s="58">
+      <c r="G28" s="57">
+        <v>1</v>
+      </c>
+      <c r="H28" s="57">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="55"/>
+      <c r="B29" s="61"/>
       <c r="C29" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D29" s="58">
-        <v>1</v>
-      </c>
-      <c r="E29" s="58">
-        <v>1</v>
-      </c>
-      <c r="F29" s="58">
+      <c r="D29" s="57">
+        <v>1</v>
+      </c>
+      <c r="E29" s="57">
+        <v>1</v>
+      </c>
+      <c r="F29" s="57">
         <v>1.82</v>
       </c>
-      <c r="G29" s="58">
-        <v>1</v>
-      </c>
-      <c r="H29" s="58">
+      <c r="G29" s="57">
+        <v>1</v>
+      </c>
+      <c r="H29" s="57">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="55"/>
+      <c r="B30" s="61"/>
       <c r="C30" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D30" s="58">
-        <v>1</v>
-      </c>
-      <c r="E30" s="58">
-        <v>1</v>
-      </c>
-      <c r="F30" s="58">
-        <v>1</v>
-      </c>
-      <c r="G30" s="58">
-        <v>1</v>
-      </c>
-      <c r="H30" s="58">
+      <c r="D30" s="57">
+        <v>1</v>
+      </c>
+      <c r="E30" s="57">
+        <v>1</v>
+      </c>
+      <c r="F30" s="57">
+        <v>1</v>
+      </c>
+      <c r="G30" s="57">
+        <v>1</v>
+      </c>
+      <c r="H30" s="57">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="55" t="s">
+      <c r="B31" s="61" t="s">
         <v>46</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D31" s="58">
-        <v>1</v>
-      </c>
-      <c r="E31" s="58">
-        <v>1</v>
-      </c>
-      <c r="F31" s="58">
-        <v>1</v>
-      </c>
-      <c r="G31" s="58">
+      <c r="D31" s="57">
+        <v>1</v>
+      </c>
+      <c r="E31" s="57">
+        <v>1</v>
+      </c>
+      <c r="F31" s="57">
+        <v>1</v>
+      </c>
+      <c r="G31" s="57">
         <v>1.82</v>
       </c>
-      <c r="H31" s="58">
+      <c r="H31" s="57">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="55"/>
+      <c r="B32" s="61"/>
       <c r="C32" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D32" s="58">
-        <v>1</v>
-      </c>
-      <c r="E32" s="58">
-        <v>1</v>
-      </c>
-      <c r="F32" s="58">
-        <v>1</v>
-      </c>
-      <c r="G32" s="58">
+      <c r="D32" s="57">
+        <v>1</v>
+      </c>
+      <c r="E32" s="57">
+        <v>1</v>
+      </c>
+      <c r="F32" s="57">
+        <v>1</v>
+      </c>
+      <c r="G32" s="57">
         <v>1.82</v>
       </c>
-      <c r="H32" s="58">
+      <c r="H32" s="57">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B33" s="55"/>
+      <c r="B33" s="61"/>
       <c r="C33" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D33" s="58">
-        <v>1</v>
-      </c>
-      <c r="E33" s="58">
-        <v>1</v>
-      </c>
-      <c r="F33" s="58">
-        <v>1</v>
-      </c>
-      <c r="G33" s="58">
-        <v>1</v>
-      </c>
-      <c r="H33" s="58">
+      <c r="D33" s="57">
+        <v>1</v>
+      </c>
+      <c r="E33" s="57">
+        <v>1</v>
+      </c>
+      <c r="F33" s="57">
+        <v>1</v>
+      </c>
+      <c r="G33" s="57">
+        <v>1</v>
+      </c>
+      <c r="H33" s="57">
         <v>1</v>
       </c>
     </row>
@@ -8885,19 +8885,19 @@
       <c r="C34" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D34" s="57">
+      <c r="D34" s="56">
         <v>1.05</v>
       </c>
-      <c r="E34" s="57">
+      <c r="E34" s="56">
         <v>1.05</v>
       </c>
-      <c r="F34" s="57">
+      <c r="F34" s="56">
         <v>1.05</v>
       </c>
-      <c r="G34" s="57">
+      <c r="G34" s="56">
         <v>1.05</v>
       </c>
-      <c r="H34" s="57">
+      <c r="H34" s="56">
         <v>1</v>
       </c>
     </row>
@@ -8905,327 +8905,327 @@
       <c r="A36" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B36" s="55" t="s">
+      <c r="B36" s="61" t="s">
         <v>148</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D36" s="58">
-        <v>1</v>
-      </c>
-      <c r="E36" s="58">
-        <v>1</v>
-      </c>
-      <c r="F36" s="58">
+      <c r="D36" s="57">
+        <v>1</v>
+      </c>
+      <c r="E36" s="57">
+        <v>1</v>
+      </c>
+      <c r="F36" s="57">
         <v>0.98</v>
       </c>
-      <c r="G36" s="58">
+      <c r="G36" s="57">
         <v>0.98</v>
       </c>
-      <c r="H36" s="58">
+      <c r="H36" s="57">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B37" s="55"/>
+      <c r="B37" s="61"/>
       <c r="C37" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D37" s="58">
-        <v>1</v>
-      </c>
-      <c r="E37" s="58">
-        <v>1</v>
-      </c>
-      <c r="F37" s="58">
+      <c r="D37" s="57">
+        <v>1</v>
+      </c>
+      <c r="E37" s="57">
+        <v>1</v>
+      </c>
+      <c r="F37" s="57">
         <v>0.98</v>
       </c>
-      <c r="G37" s="58">
+      <c r="G37" s="57">
         <v>0.98</v>
       </c>
-      <c r="H37" s="58">
+      <c r="H37" s="57">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B38" s="55"/>
+      <c r="B38" s="61"/>
       <c r="C38" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D38" s="58">
-        <v>1</v>
-      </c>
-      <c r="E38" s="58">
-        <v>1</v>
-      </c>
-      <c r="F38" s="58">
+      <c r="D38" s="57">
+        <v>1</v>
+      </c>
+      <c r="E38" s="57">
+        <v>1</v>
+      </c>
+      <c r="F38" s="57">
         <v>0.99</v>
       </c>
-      <c r="G38" s="58">
+      <c r="G38" s="57">
         <v>0.99</v>
       </c>
-      <c r="H38" s="58">
+      <c r="H38" s="57">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B39" s="55" t="s">
+      <c r="B39" s="61" t="s">
         <v>49</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D39" s="58">
-        <v>1</v>
-      </c>
-      <c r="E39" s="58">
-        <v>1</v>
-      </c>
-      <c r="F39" s="58">
-        <v>1</v>
-      </c>
-      <c r="G39" s="58">
-        <v>1</v>
-      </c>
-      <c r="H39" s="58">
+      <c r="D39" s="57">
+        <v>1</v>
+      </c>
+      <c r="E39" s="57">
+        <v>1</v>
+      </c>
+      <c r="F39" s="57">
+        <v>1</v>
+      </c>
+      <c r="G39" s="57">
+        <v>1</v>
+      </c>
+      <c r="H39" s="57">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B40" s="55"/>
+      <c r="B40" s="61"/>
       <c r="C40" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D40" s="58">
-        <v>1</v>
-      </c>
-      <c r="E40" s="58">
-        <v>1</v>
-      </c>
-      <c r="F40" s="58">
-        <v>1</v>
-      </c>
-      <c r="G40" s="58">
-        <v>1</v>
-      </c>
-      <c r="H40" s="58">
+      <c r="D40" s="57">
+        <v>1</v>
+      </c>
+      <c r="E40" s="57">
+        <v>1</v>
+      </c>
+      <c r="F40" s="57">
+        <v>1</v>
+      </c>
+      <c r="G40" s="57">
+        <v>1</v>
+      </c>
+      <c r="H40" s="57">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B41" s="55"/>
+      <c r="B41" s="61"/>
       <c r="C41" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D41" s="58">
-        <v>1</v>
-      </c>
-      <c r="E41" s="58">
-        <v>1</v>
-      </c>
-      <c r="F41" s="58">
+      <c r="D41" s="57">
+        <v>1</v>
+      </c>
+      <c r="E41" s="57">
+        <v>1</v>
+      </c>
+      <c r="F41" s="57">
         <v>0.99</v>
       </c>
-      <c r="G41" s="58">
+      <c r="G41" s="57">
         <v>0.99</v>
       </c>
-      <c r="H41" s="58">
+      <c r="H41" s="57">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B42" s="55" t="s">
+      <c r="B42" s="61" t="s">
         <v>48</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D42" s="58">
-        <v>1</v>
-      </c>
-      <c r="E42" s="58">
-        <v>1</v>
-      </c>
-      <c r="F42" s="58">
-        <v>1</v>
-      </c>
-      <c r="G42" s="58">
-        <v>1</v>
-      </c>
-      <c r="H42" s="58">
+      <c r="D42" s="57">
+        <v>1</v>
+      </c>
+      <c r="E42" s="57">
+        <v>1</v>
+      </c>
+      <c r="F42" s="57">
+        <v>1</v>
+      </c>
+      <c r="G42" s="57">
+        <v>1</v>
+      </c>
+      <c r="H42" s="57">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B43" s="55"/>
+      <c r="B43" s="61"/>
       <c r="C43" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D43" s="58">
-        <v>1</v>
-      </c>
-      <c r="E43" s="58">
-        <v>1</v>
-      </c>
-      <c r="F43" s="58">
-        <v>1</v>
-      </c>
-      <c r="G43" s="58">
-        <v>1</v>
-      </c>
-      <c r="H43" s="58">
+      <c r="D43" s="57">
+        <v>1</v>
+      </c>
+      <c r="E43" s="57">
+        <v>1</v>
+      </c>
+      <c r="F43" s="57">
+        <v>1</v>
+      </c>
+      <c r="G43" s="57">
+        <v>1</v>
+      </c>
+      <c r="H43" s="57">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B44" s="55"/>
+      <c r="B44" s="61"/>
       <c r="C44" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D44" s="58">
-        <v>1</v>
-      </c>
-      <c r="E44" s="58">
-        <v>1</v>
-      </c>
-      <c r="F44" s="58">
+      <c r="D44" s="57">
+        <v>1</v>
+      </c>
+      <c r="E44" s="57">
+        <v>1</v>
+      </c>
+      <c r="F44" s="57">
         <v>0.99</v>
       </c>
-      <c r="G44" s="58">
+      <c r="G44" s="57">
         <v>0.99</v>
       </c>
-      <c r="H44" s="58">
+      <c r="H44" s="57">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B45" s="55" t="s">
+      <c r="B45" s="61" t="s">
         <v>47</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D45" s="58">
-        <v>1</v>
-      </c>
-      <c r="E45" s="58">
-        <v>1</v>
-      </c>
-      <c r="F45" s="58">
+      <c r="D45" s="57">
+        <v>1</v>
+      </c>
+      <c r="E45" s="57">
+        <v>1</v>
+      </c>
+      <c r="F45" s="57">
         <v>0.78</v>
       </c>
-      <c r="G45" s="58">
-        <v>1</v>
-      </c>
-      <c r="H45" s="58">
+      <c r="G45" s="57">
+        <v>1</v>
+      </c>
+      <c r="H45" s="57">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B46" s="55"/>
+      <c r="B46" s="61"/>
       <c r="C46" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D46" s="58">
-        <v>1</v>
-      </c>
-      <c r="E46" s="58">
-        <v>1</v>
-      </c>
-      <c r="F46" s="58">
+      <c r="D46" s="57">
+        <v>1</v>
+      </c>
+      <c r="E46" s="57">
+        <v>1</v>
+      </c>
+      <c r="F46" s="57">
         <v>0.78</v>
       </c>
-      <c r="G46" s="58">
-        <v>1</v>
-      </c>
-      <c r="H46" s="58">
+      <c r="G46" s="57">
+        <v>1</v>
+      </c>
+      <c r="H46" s="57">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B47" s="55"/>
+      <c r="B47" s="61"/>
       <c r="C47" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D47" s="58">
-        <v>1</v>
-      </c>
-      <c r="E47" s="58">
-        <v>1</v>
-      </c>
-      <c r="F47" s="58">
+      <c r="D47" s="57">
+        <v>1</v>
+      </c>
+      <c r="E47" s="57">
+        <v>1</v>
+      </c>
+      <c r="F47" s="57">
         <v>0.99</v>
       </c>
-      <c r="G47" s="58">
+      <c r="G47" s="57">
         <v>0.99</v>
       </c>
-      <c r="H47" s="58">
+      <c r="H47" s="57">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B48" s="55" t="s">
+      <c r="B48" s="61" t="s">
         <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D48" s="58">
-        <v>1</v>
-      </c>
-      <c r="E48" s="58">
-        <v>1</v>
-      </c>
-      <c r="F48" s="58">
-        <v>1</v>
-      </c>
-      <c r="G48" s="58">
+      <c r="D48" s="57">
+        <v>1</v>
+      </c>
+      <c r="E48" s="57">
+        <v>1</v>
+      </c>
+      <c r="F48" s="57">
+        <v>1</v>
+      </c>
+      <c r="G48" s="57">
         <v>0.78</v>
       </c>
-      <c r="H48" s="58">
+      <c r="H48" s="57">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B49" s="55"/>
+      <c r="B49" s="61"/>
       <c r="C49" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D49" s="58">
-        <v>1</v>
-      </c>
-      <c r="E49" s="58">
-        <v>1</v>
-      </c>
-      <c r="F49" s="58">
-        <v>1</v>
-      </c>
-      <c r="G49" s="58">
+      <c r="D49" s="57">
+        <v>1</v>
+      </c>
+      <c r="E49" s="57">
+        <v>1</v>
+      </c>
+      <c r="F49" s="57">
+        <v>1</v>
+      </c>
+      <c r="G49" s="57">
         <v>0.78</v>
       </c>
-      <c r="H49" s="58">
+      <c r="H49" s="57">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B50" s="55"/>
+      <c r="B50" s="61"/>
       <c r="C50" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D50" s="58">
-        <v>1</v>
-      </c>
-      <c r="E50" s="58">
-        <v>1</v>
-      </c>
-      <c r="F50" s="58">
-        <v>1</v>
-      </c>
-      <c r="G50" s="58">
+      <c r="D50" s="57">
+        <v>1</v>
+      </c>
+      <c r="E50" s="57">
+        <v>1</v>
+      </c>
+      <c r="F50" s="57">
+        <v>1</v>
+      </c>
+      <c r="G50" s="57">
         <v>0.99</v>
       </c>
-      <c r="H50" s="58">
+      <c r="H50" s="57">
         <v>1</v>
       </c>
     </row>
@@ -9236,19 +9236,19 @@
       <c r="C51" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D51" s="57">
-        <v>1</v>
-      </c>
-      <c r="E51" s="57">
-        <v>1</v>
-      </c>
-      <c r="F51" s="57">
+      <c r="D51" s="56">
+        <v>1</v>
+      </c>
+      <c r="E51" s="56">
+        <v>1</v>
+      </c>
+      <c r="F51" s="56">
         <v>0.95</v>
       </c>
-      <c r="G51" s="57">
+      <c r="G51" s="56">
         <v>0.95</v>
       </c>
-      <c r="H51" s="57">
+      <c r="H51" s="56">
         <v>1</v>
       </c>
     </row>
@@ -11618,7 +11618,7 @@
       <c r="P65" s="30"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A66" s="60"/>
+      <c r="A66" s="59"/>
       <c r="B66" s="1" t="s">
         <v>7</v>
       </c>
@@ -12590,7 +12590,7 @@
       <c r="A104" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B104" s="61" t="s">
+      <c r="B104" s="60" t="s">
         <v>183</v>
       </c>
       <c r="C104" s="31" t="s">
@@ -12761,7 +12761,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="59" t="s">
         <v>184</v>
       </c>
       <c r="B2" s="35"/>
@@ -12914,7 +12914,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="59" t="s">
         <v>182</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -12958,10 +12958,10 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="59" t="s">
         <v>170</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="55" t="s">
         <v>77</v>
       </c>
       <c r="C14" s="4">

--- a/nutrition/default_params.xlsx
+++ b/nutrition/default_params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/nutrition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{DBB2BCE2-DDAD-894E-9347-74240625B711}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{FDF28C2B-C717-EB48-96CC-6E3D2EC71DE7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="460" windowWidth="19200" windowHeight="15540" xr2:uid="{9D310A7F-FF26-7448-8337-E29F42B35A9E}"/>
+    <workbookView xWindow="1120" yWindow="460" windowWidth="23580" windowHeight="15540" activeTab="3" xr2:uid="{9D310A7F-FF26-7448-8337-E29F42B35A9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Programs impacted population" sheetId="14" r:id="rId1"/>
@@ -88,7 +88,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>We should think about the values we have in here and make sure it matches with the params document</t>
+          <t>We should think about the values we have in here and make sure it matches with the params document. THESE VALUES MULTIPLY</t>
         </r>
       </text>
     </comment>
@@ -1196,13 +1196,8 @@
       <sheetName val="Time trends"/>
       <sheetName val="Fertility risks"/>
       <sheetName val="Incidence of conditions"/>
-      <sheetName val="Wasting incidence"/>
-      <sheetName val="IYCF packages"/>
-      <sheetName val="IYCF target &amp; cost"/>
       <sheetName val="Programs target population"/>
-      <sheetName val="Programs cost and coverage"/>
       <sheetName val="Programs family planning"/>
-      <sheetName val="Programs birth age"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1276,11 +1271,6 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1588,7 +1578,7 @@
   </sheetPr>
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -8152,8 +8142,8 @@
   </sheetPr>
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8268,6 +8258,7 @@
         <v>147</v>
       </c>
       <c r="D5" s="57">
+        <f>5.16</f>
         <v>5.16</v>
       </c>
       <c r="E5" s="57">

--- a/nutrition/default_params.xlsx
+++ b/nutrition/default_params.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/nutrition/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/github_projects/Nutrition/nutrition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{802E3F9D-E0DB-3C48-87A9-4F21334503D2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{134D4DF9-1558-3E49-A1E2-A5F5F27E3B34}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31480" yWindow="-19580" windowWidth="23580" windowHeight="15540" activeTab="1" xr2:uid="{9D310A7F-FF26-7448-8337-E29F42B35A9E}"/>
+    <workbookView xWindow="0" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="5" xr2:uid="{9D310A7F-FF26-7448-8337-E29F42B35A9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Programs impacted population" sheetId="14" r:id="rId1"/>
@@ -225,45 +225,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>This assumes we deliver PPCF with education to the poor</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="168">
   <si>
     <t>Neonatal other</t>
   </si>
@@ -475,9 +442,6 @@
     <t>Other odds ratios</t>
   </si>
   <si>
-    <t>Lipid-based nutrition supplements (malaria area)</t>
-  </si>
-  <si>
     <t>Lipid-based nutrition supplements</t>
   </si>
   <si>
@@ -511,15 +475,9 @@
     <t>IPTp</t>
   </si>
   <si>
-    <t>Iron and folic acid supplementation for pregnant women (malaria area)</t>
-  </si>
-  <si>
     <t>Iron and folic acid supplementation for pregnant women</t>
   </si>
   <si>
-    <t>Multiple micronutrient supplementation (malaria area)</t>
-  </si>
-  <si>
     <t>Multiple micronutrient supplementation</t>
   </si>
   <si>
@@ -544,54 +502,9 @@
     <t>Odds ratios of being anaemic when covered by intervention</t>
   </si>
   <si>
-    <t>Micronutrient powders (malaria area)</t>
-  </si>
-  <si>
     <t>Micronutrient powders</t>
   </si>
   <si>
-    <t>IFAS not poor: retailer (malaria area)</t>
-  </si>
-  <si>
-    <t>IFAS not poor: hospital (malaria area)</t>
-  </si>
-  <si>
-    <t>IFAS not poor: community (malaria area)</t>
-  </si>
-  <si>
-    <t>IFAS not poor: school (malaria area)</t>
-  </si>
-  <si>
-    <t>IFAS poor: hospital (malaria area)</t>
-  </si>
-  <si>
-    <t>IFAS poor: community (malaria area)</t>
-  </si>
-  <si>
-    <t>IFAS poor: school (malaria area)</t>
-  </si>
-  <si>
-    <t>IFAS not poor: retailer</t>
-  </si>
-  <si>
-    <t>IFAS not poor: hospital</t>
-  </si>
-  <si>
-    <t>IFAS not poor: community</t>
-  </si>
-  <si>
-    <t>IFAS not poor: school</t>
-  </si>
-  <si>
-    <t>IFAS poor: hospital</t>
-  </si>
-  <si>
-    <t>IFAS poor: community</t>
-  </si>
-  <si>
-    <t>IFAS poor: school</t>
-  </si>
-  <si>
     <t>Relative risks of anaemia when receiving intervention</t>
   </si>
   <si>
@@ -809,6 +722,18 @@
   </si>
   <si>
     <t>Outcome</t>
+  </si>
+  <si>
+    <t>IFAS: community</t>
+  </si>
+  <si>
+    <t>IFAS: hospital</t>
+  </si>
+  <si>
+    <t>IFAS: retailer</t>
+  </si>
+  <si>
+    <t>IFAS: school</t>
   </si>
 </sst>
 </file>
@@ -1085,14 +1010,14 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1505,10 +1430,10 @@
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:O55"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1526,10 +1451,10 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="46" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C1" s="46" t="s">
         <v>45</v>
@@ -1573,16 +1498,16 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="B2" s="58" t="s">
-        <v>119</v>
+        <v>129</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>107</v>
       </c>
       <c r="C2" s="53">
         <v>0</v>
       </c>
       <c r="D2" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="53">
         <v>1</v>
@@ -1619,419 +1544,419 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="53">
+        <v>1</v>
+      </c>
+      <c r="D3" s="53">
+        <v>1</v>
+      </c>
+      <c r="E3" s="53">
+        <v>0</v>
+      </c>
+      <c r="F3" s="53">
+        <v>0</v>
+      </c>
+      <c r="G3" s="53">
+        <v>0</v>
+      </c>
+      <c r="H3" s="53">
+        <v>0</v>
+      </c>
+      <c r="I3" s="53">
+        <v>0</v>
+      </c>
+      <c r="J3" s="53">
+        <v>0</v>
+      </c>
+      <c r="K3" s="53">
+        <v>0</v>
+      </c>
+      <c r="L3" s="53">
+        <v>0</v>
+      </c>
+      <c r="M3" s="53">
+        <v>0</v>
+      </c>
+      <c r="N3" s="53">
+        <v>0</v>
+      </c>
+      <c r="O3" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="53">
+        <v>1</v>
+      </c>
+      <c r="D4" s="53">
+        <v>1</v>
+      </c>
+      <c r="E4" s="53">
+        <v>1</v>
+      </c>
+      <c r="F4" s="53">
+        <v>1</v>
+      </c>
+      <c r="G4" s="53">
+        <v>1</v>
+      </c>
+      <c r="H4" s="53">
+        <v>0</v>
+      </c>
+      <c r="I4" s="53">
+        <v>0</v>
+      </c>
+      <c r="J4" s="53">
+        <v>0</v>
+      </c>
+      <c r="K4" s="53">
+        <v>0</v>
+      </c>
+      <c r="L4" s="53">
+        <v>0</v>
+      </c>
+      <c r="M4" s="53">
+        <v>0</v>
+      </c>
+      <c r="N4" s="53">
+        <v>0</v>
+      </c>
+      <c r="O4" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="53">
+        <v>1</v>
+      </c>
+      <c r="D5" s="53">
+        <v>1</v>
+      </c>
+      <c r="E5" s="53">
+        <v>1</v>
+      </c>
+      <c r="F5" s="53">
+        <v>1</v>
+      </c>
+      <c r="G5" s="53">
+        <v>1</v>
+      </c>
+      <c r="H5" s="53">
+        <v>0</v>
+      </c>
+      <c r="I5" s="53">
+        <v>0</v>
+      </c>
+      <c r="J5" s="53">
+        <v>0</v>
+      </c>
+      <c r="K5" s="53">
+        <v>0</v>
+      </c>
+      <c r="L5" s="53">
+        <v>0</v>
+      </c>
+      <c r="M5" s="53">
+        <v>0</v>
+      </c>
+      <c r="N5" s="53">
+        <v>0</v>
+      </c>
+      <c r="O5" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="53">
-        <v>0</v>
-      </c>
-      <c r="D3" s="53">
-        <v>0</v>
-      </c>
-      <c r="E3" s="53">
-        <v>1</v>
-      </c>
-      <c r="F3" s="53">
-        <v>1</v>
-      </c>
-      <c r="G3" s="53">
-        <v>1</v>
-      </c>
-      <c r="H3" s="53">
-        <v>0</v>
-      </c>
-      <c r="I3" s="53">
-        <v>0</v>
-      </c>
-      <c r="J3" s="53">
-        <v>0</v>
-      </c>
-      <c r="K3" s="53">
-        <v>0</v>
-      </c>
-      <c r="L3" s="53">
-        <v>0</v>
-      </c>
-      <c r="M3" s="53">
-        <v>0</v>
-      </c>
-      <c r="N3" s="53">
-        <v>0</v>
-      </c>
-      <c r="O3" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="53">
-        <v>0</v>
-      </c>
-      <c r="D4" s="53">
-        <v>0</v>
-      </c>
-      <c r="E4" s="53">
-        <v>1</v>
-      </c>
-      <c r="F4" s="53">
-        <v>1</v>
-      </c>
-      <c r="G4" s="53">
-        <v>0</v>
-      </c>
-      <c r="H4" s="53">
-        <v>0</v>
-      </c>
-      <c r="I4" s="53">
-        <v>0</v>
-      </c>
-      <c r="J4" s="53">
-        <v>0</v>
-      </c>
-      <c r="K4" s="53">
-        <v>0</v>
-      </c>
-      <c r="L4" s="53">
-        <v>0</v>
-      </c>
-      <c r="M4" s="53">
-        <v>0</v>
-      </c>
-      <c r="N4" s="53">
-        <v>0</v>
-      </c>
-      <c r="O4" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="58" t="s">
+      <c r="C6" s="53">
+        <v>1</v>
+      </c>
+      <c r="D6" s="53">
+        <v>1</v>
+      </c>
+      <c r="E6" s="53">
+        <v>1</v>
+      </c>
+      <c r="F6" s="53">
+        <v>1</v>
+      </c>
+      <c r="G6" s="53">
+        <v>1</v>
+      </c>
+      <c r="H6" s="53">
+        <v>0</v>
+      </c>
+      <c r="I6" s="53">
+        <v>0</v>
+      </c>
+      <c r="J6" s="53">
+        <v>0</v>
+      </c>
+      <c r="K6" s="53">
+        <v>0</v>
+      </c>
+      <c r="L6" s="53">
+        <v>0</v>
+      </c>
+      <c r="M6" s="53">
+        <v>0</v>
+      </c>
+      <c r="N6" s="53">
+        <v>0</v>
+      </c>
+      <c r="O6" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="53">
+        <v>0</v>
+      </c>
+      <c r="D7" s="53">
+        <v>0</v>
+      </c>
+      <c r="E7" s="53">
+        <v>1</v>
+      </c>
+      <c r="F7" s="53">
+        <v>1</v>
+      </c>
+      <c r="G7" s="53">
+        <v>0</v>
+      </c>
+      <c r="H7" s="53">
+        <v>0</v>
+      </c>
+      <c r="I7" s="53">
+        <v>0</v>
+      </c>
+      <c r="J7" s="53">
+        <v>0</v>
+      </c>
+      <c r="K7" s="53">
+        <v>0</v>
+      </c>
+      <c r="L7" s="53">
+        <v>0</v>
+      </c>
+      <c r="M7" s="53">
+        <v>0</v>
+      </c>
+      <c r="N7" s="53">
+        <v>0</v>
+      </c>
+      <c r="O7" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="53">
+        <v>0</v>
+      </c>
+      <c r="D8" s="53">
+        <v>0</v>
+      </c>
+      <c r="E8" s="53">
+        <v>1</v>
+      </c>
+      <c r="F8" s="53">
+        <v>1</v>
+      </c>
+      <c r="G8" s="53">
+        <v>1</v>
+      </c>
+      <c r="H8" s="53">
+        <v>0</v>
+      </c>
+      <c r="I8" s="53">
+        <v>0</v>
+      </c>
+      <c r="J8" s="53">
+        <v>0</v>
+      </c>
+      <c r="K8" s="53">
+        <v>0</v>
+      </c>
+      <c r="L8" s="53">
+        <v>0</v>
+      </c>
+      <c r="M8" s="53">
+        <v>0</v>
+      </c>
+      <c r="N8" s="53">
+        <v>0</v>
+      </c>
+      <c r="O8" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="53">
+        <v>1</v>
+      </c>
+      <c r="D9" s="53">
+        <v>1</v>
+      </c>
+      <c r="E9" s="53">
+        <v>1</v>
+      </c>
+      <c r="F9" s="53">
+        <v>1</v>
+      </c>
+      <c r="G9" s="53">
+        <v>1</v>
+      </c>
+      <c r="H9" s="53">
+        <v>0</v>
+      </c>
+      <c r="I9" s="53">
+        <v>0</v>
+      </c>
+      <c r="J9" s="53">
+        <v>0</v>
+      </c>
+      <c r="K9" s="53">
+        <v>0</v>
+      </c>
+      <c r="L9" s="53">
+        <v>0</v>
+      </c>
+      <c r="M9" s="53">
+        <v>0</v>
+      </c>
+      <c r="N9" s="53">
+        <v>0</v>
+      </c>
+      <c r="O9" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="53">
-        <v>0</v>
-      </c>
-      <c r="D5" s="53">
-        <v>0</v>
-      </c>
-      <c r="E5" s="53">
-        <v>1</v>
-      </c>
-      <c r="F5" s="53">
-        <v>1</v>
-      </c>
-      <c r="G5" s="53">
-        <v>0</v>
-      </c>
-      <c r="H5" s="53">
-        <v>0</v>
-      </c>
-      <c r="I5" s="53">
-        <v>0</v>
-      </c>
-      <c r="J5" s="53">
-        <v>0</v>
-      </c>
-      <c r="K5" s="53">
-        <v>0</v>
-      </c>
-      <c r="L5" s="53">
-        <v>0</v>
-      </c>
-      <c r="M5" s="53">
-        <v>0</v>
-      </c>
-      <c r="N5" s="53">
-        <v>0</v>
-      </c>
-      <c r="O5" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="53">
-        <v>0</v>
-      </c>
-      <c r="D6" s="53">
-        <v>0</v>
-      </c>
-      <c r="E6" s="53">
-        <v>1</v>
-      </c>
-      <c r="F6" s="53">
-        <v>1</v>
-      </c>
-      <c r="G6" s="53">
-        <v>0</v>
-      </c>
-      <c r="H6" s="53">
-        <v>0</v>
-      </c>
-      <c r="I6" s="53">
-        <v>0</v>
-      </c>
-      <c r="J6" s="53">
-        <v>0</v>
-      </c>
-      <c r="K6" s="53">
-        <v>0</v>
-      </c>
-      <c r="L6" s="53">
-        <v>0</v>
-      </c>
-      <c r="M6" s="53">
-        <v>0</v>
-      </c>
-      <c r="N6" s="53">
-        <v>0</v>
-      </c>
-      <c r="O6" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="58" t="s">
+      <c r="C10" s="53">
+        <v>0</v>
+      </c>
+      <c r="D10" s="53">
+        <v>0</v>
+      </c>
+      <c r="E10" s="53">
+        <v>1</v>
+      </c>
+      <c r="F10" s="53">
+        <v>1</v>
+      </c>
+      <c r="G10" s="53">
+        <v>0</v>
+      </c>
+      <c r="H10" s="53">
+        <v>0</v>
+      </c>
+      <c r="I10" s="53">
+        <v>0</v>
+      </c>
+      <c r="J10" s="53">
+        <v>0</v>
+      </c>
+      <c r="K10" s="53">
+        <v>0</v>
+      </c>
+      <c r="L10" s="53">
+        <v>0</v>
+      </c>
+      <c r="M10" s="53">
+        <v>0</v>
+      </c>
+      <c r="N10" s="53">
+        <v>0</v>
+      </c>
+      <c r="O10" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="53">
+        <v>0</v>
+      </c>
+      <c r="D11" s="53">
+        <v>1</v>
+      </c>
+      <c r="E11" s="53">
+        <v>1</v>
+      </c>
+      <c r="F11" s="53">
+        <v>1</v>
+      </c>
+      <c r="G11" s="53">
+        <v>1</v>
+      </c>
+      <c r="H11" s="53">
+        <v>0</v>
+      </c>
+      <c r="I11" s="53">
+        <v>0</v>
+      </c>
+      <c r="J11" s="53">
+        <v>0</v>
+      </c>
+      <c r="K11" s="53">
+        <v>0</v>
+      </c>
+      <c r="L11" s="53">
+        <v>0</v>
+      </c>
+      <c r="M11" s="53">
+        <v>0</v>
+      </c>
+      <c r="N11" s="53">
+        <v>0</v>
+      </c>
+      <c r="O11" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="53">
-        <v>0</v>
-      </c>
-      <c r="D7" s="53">
-        <v>0</v>
-      </c>
-      <c r="E7" s="53">
-        <v>1</v>
-      </c>
-      <c r="F7" s="53">
-        <v>1</v>
-      </c>
-      <c r="G7" s="53">
-        <v>1</v>
-      </c>
-      <c r="H7" s="53">
-        <v>0</v>
-      </c>
-      <c r="I7" s="53">
-        <v>0</v>
-      </c>
-      <c r="J7" s="53">
-        <v>0</v>
-      </c>
-      <c r="K7" s="53">
-        <v>0</v>
-      </c>
-      <c r="L7" s="53">
-        <v>0</v>
-      </c>
-      <c r="M7" s="53">
-        <v>0</v>
-      </c>
-      <c r="N7" s="53">
-        <v>0</v>
-      </c>
-      <c r="O7" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" s="53">
-        <v>0</v>
-      </c>
-      <c r="D8" s="53">
-        <v>0</v>
-      </c>
-      <c r="E8" s="53">
-        <v>1</v>
-      </c>
-      <c r="F8" s="53">
-        <v>1</v>
-      </c>
-      <c r="G8" s="53">
-        <v>1</v>
-      </c>
-      <c r="H8" s="53">
-        <v>0</v>
-      </c>
-      <c r="I8" s="53">
-        <v>0</v>
-      </c>
-      <c r="J8" s="53">
-        <v>0</v>
-      </c>
-      <c r="K8" s="53">
-        <v>0</v>
-      </c>
-      <c r="L8" s="53">
-        <v>0</v>
-      </c>
-      <c r="M8" s="53">
-        <v>0</v>
-      </c>
-      <c r="N8" s="53">
-        <v>0</v>
-      </c>
-      <c r="O8" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="58" t="s">
-        <v>125</v>
-      </c>
-      <c r="C9" s="53">
-        <v>0</v>
-      </c>
-      <c r="D9" s="53">
-        <v>1</v>
-      </c>
-      <c r="E9" s="53">
-        <v>1</v>
-      </c>
-      <c r="F9" s="53">
-        <v>1</v>
-      </c>
-      <c r="G9" s="53">
-        <v>1</v>
-      </c>
-      <c r="H9" s="53">
-        <v>0</v>
-      </c>
-      <c r="I9" s="53">
-        <v>0</v>
-      </c>
-      <c r="J9" s="53">
-        <v>0</v>
-      </c>
-      <c r="K9" s="53">
-        <v>0</v>
-      </c>
-      <c r="L9" s="53">
-        <v>0</v>
-      </c>
-      <c r="M9" s="53">
-        <v>0</v>
-      </c>
-      <c r="N9" s="53">
-        <v>0</v>
-      </c>
-      <c r="O9" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="53">
-        <v>0</v>
-      </c>
-      <c r="D10" s="53">
-        <v>1</v>
-      </c>
-      <c r="E10" s="53">
-        <v>1</v>
-      </c>
-      <c r="F10" s="53">
-        <v>1</v>
-      </c>
-      <c r="G10" s="53">
-        <v>1</v>
-      </c>
-      <c r="H10" s="53">
-        <v>0</v>
-      </c>
-      <c r="I10" s="53">
-        <v>0</v>
-      </c>
-      <c r="J10" s="53">
-        <v>0</v>
-      </c>
-      <c r="K10" s="53">
-        <v>0</v>
-      </c>
-      <c r="L10" s="53">
-        <v>0</v>
-      </c>
-      <c r="M10" s="53">
-        <v>0</v>
-      </c>
-      <c r="N10" s="53">
-        <v>0</v>
-      </c>
-      <c r="O10" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="C11" s="53">
-        <v>0</v>
-      </c>
-      <c r="D11" s="53">
-        <v>1</v>
-      </c>
-      <c r="E11" s="53">
-        <v>1</v>
-      </c>
-      <c r="F11" s="53">
-        <v>1</v>
-      </c>
-      <c r="G11" s="53">
-        <v>1</v>
-      </c>
-      <c r="H11" s="53">
-        <v>0</v>
-      </c>
-      <c r="I11" s="53">
-        <v>0</v>
-      </c>
-      <c r="J11" s="53">
-        <v>0</v>
-      </c>
-      <c r="K11" s="53">
-        <v>0</v>
-      </c>
-      <c r="L11" s="53">
-        <v>0</v>
-      </c>
-      <c r="M11" s="53">
-        <v>0</v>
-      </c>
-      <c r="N11" s="53">
-        <v>0</v>
-      </c>
-      <c r="O11" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="58" t="s">
-        <v>160</v>
-      </c>
       <c r="C12" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="53">
         <v>1</v>
       </c>
       <c r="E12" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="53">
         <v>0</v>
@@ -2058,15 +1983,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="58" t="s">
-        <v>146</v>
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="57" t="s">
+        <v>108</v>
       </c>
       <c r="C13" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="53">
         <v>1</v>
@@ -2103,8 +2028,8 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="58" t="s">
-        <v>145</v>
+      <c r="B14" s="57" t="s">
+        <v>98</v>
       </c>
       <c r="C14" s="53">
         <v>1</v>
@@ -2147,14 +2072,14 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="58" t="s">
-        <v>144</v>
+      <c r="B15" s="57" t="s">
+        <v>101</v>
       </c>
       <c r="C15" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="53">
         <v>1</v>
@@ -2191,7 +2116,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="58"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="49"/>
       <c r="D16" s="49"/>
       <c r="E16" s="49"/>
@@ -2208,10 +2133,10 @@
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="B17" s="58" t="s">
-        <v>86</v>
+        <v>119</v>
+      </c>
+      <c r="B17" s="57" t="s">
+        <v>83</v>
       </c>
       <c r="C17" s="53">
         <v>0</v>
@@ -2255,8 +2180,8 @@
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="46"/>
-      <c r="B18" s="58" t="s">
-        <v>85</v>
+      <c r="B18" s="57" t="s">
+        <v>113</v>
       </c>
       <c r="C18" s="53">
         <v>0</v>
@@ -2300,7 +2225,7 @@
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="58" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C19" s="53">
         <v>0</v>
@@ -2343,8 +2268,8 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="58" t="s">
-        <v>83</v>
+      <c r="B20" s="57" t="s">
+        <v>81</v>
       </c>
       <c r="C20" s="53">
         <v>0</v>
@@ -2387,159 +2312,159 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="53">
+        <v>0</v>
+      </c>
+      <c r="D21" s="53">
+        <v>0</v>
+      </c>
+      <c r="E21" s="53">
+        <v>0</v>
+      </c>
+      <c r="F21" s="53">
+        <v>0</v>
+      </c>
+      <c r="G21" s="53">
+        <v>0</v>
+      </c>
+      <c r="H21" s="53">
+        <v>1</v>
+      </c>
+      <c r="I21" s="53">
+        <v>1</v>
+      </c>
+      <c r="J21" s="53">
+        <v>1</v>
+      </c>
+      <c r="K21" s="53">
+        <v>1</v>
+      </c>
+      <c r="L21" s="53">
+        <v>0</v>
+      </c>
+      <c r="M21" s="53">
+        <v>0</v>
+      </c>
+      <c r="N21" s="53">
+        <v>0</v>
+      </c>
+      <c r="O21" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="53">
+        <v>0</v>
+      </c>
+      <c r="D22" s="53">
+        <v>0</v>
+      </c>
+      <c r="E22" s="53">
+        <v>0</v>
+      </c>
+      <c r="F22" s="53">
+        <v>0</v>
+      </c>
+      <c r="G22" s="53">
+        <v>0</v>
+      </c>
+      <c r="H22" s="53">
+        <v>1</v>
+      </c>
+      <c r="I22" s="53">
+        <v>1</v>
+      </c>
+      <c r="J22" s="53">
+        <v>1</v>
+      </c>
+      <c r="K22" s="53">
+        <v>1</v>
+      </c>
+      <c r="L22" s="53">
+        <v>0</v>
+      </c>
+      <c r="M22" s="53">
+        <v>0</v>
+      </c>
+      <c r="N22" s="53">
+        <v>0</v>
+      </c>
+      <c r="O22" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="53">
-        <v>0</v>
-      </c>
-      <c r="D21" s="53">
-        <v>0</v>
-      </c>
-      <c r="E21" s="53">
-        <v>0</v>
-      </c>
-      <c r="F21" s="53">
-        <v>0</v>
-      </c>
-      <c r="G21" s="53">
-        <v>0</v>
-      </c>
-      <c r="H21" s="53">
-        <v>1</v>
-      </c>
-      <c r="I21" s="53">
-        <v>1</v>
-      </c>
-      <c r="J21" s="53">
-        <v>1</v>
-      </c>
-      <c r="K21" s="53">
-        <v>1</v>
-      </c>
-      <c r="L21" s="53">
-        <v>0</v>
-      </c>
-      <c r="M21" s="53">
-        <v>0</v>
-      </c>
-      <c r="N21" s="53">
-        <v>0</v>
-      </c>
-      <c r="O21" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="53">
-        <v>0</v>
-      </c>
-      <c r="D22" s="53">
-        <v>0</v>
-      </c>
-      <c r="E22" s="53">
-        <v>0</v>
-      </c>
-      <c r="F22" s="53">
-        <v>0</v>
-      </c>
-      <c r="G22" s="53">
-        <v>0</v>
-      </c>
-      <c r="H22" s="53">
-        <v>1</v>
-      </c>
-      <c r="I22" s="53">
-        <v>1</v>
-      </c>
-      <c r="J22" s="53">
-        <v>1</v>
-      </c>
-      <c r="K22" s="53">
-        <v>1</v>
-      </c>
-      <c r="L22" s="53">
-        <v>0</v>
-      </c>
-      <c r="M22" s="53">
-        <v>0</v>
-      </c>
-      <c r="N22" s="53">
-        <v>0</v>
-      </c>
-      <c r="O22" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="58"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
+      <c r="C23" s="53">
+        <v>0</v>
+      </c>
+      <c r="D23" s="53">
+        <v>0</v>
+      </c>
+      <c r="E23" s="53">
+        <v>0</v>
+      </c>
+      <c r="F23" s="53">
+        <v>0</v>
+      </c>
+      <c r="G23" s="53">
+        <v>0</v>
+      </c>
+      <c r="H23" s="53">
+        <v>1</v>
+      </c>
+      <c r="I23" s="53">
+        <v>1</v>
+      </c>
+      <c r="J23" s="53">
+        <v>1</v>
+      </c>
+      <c r="K23" s="53">
+        <v>1</v>
+      </c>
+      <c r="L23" s="53">
+        <v>0</v>
+      </c>
+      <c r="M23" s="53">
+        <v>0</v>
+      </c>
+      <c r="N23" s="53">
+        <v>0</v>
+      </c>
+      <c r="O23" s="53">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="B24" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="C24" s="53">
-        <v>0</v>
-      </c>
-      <c r="D24" s="53">
-        <v>0</v>
-      </c>
-      <c r="E24" s="53">
-        <v>0</v>
-      </c>
-      <c r="F24" s="53">
-        <v>0</v>
-      </c>
-      <c r="G24" s="53">
-        <v>0</v>
-      </c>
-      <c r="H24" s="53">
-        <v>0</v>
-      </c>
-      <c r="I24" s="53">
-        <v>0</v>
-      </c>
-      <c r="J24" s="53">
-        <v>0</v>
-      </c>
-      <c r="K24" s="53">
-        <v>0</v>
-      </c>
-      <c r="L24" s="53">
-        <v>1</v>
-      </c>
-      <c r="M24" s="53">
-        <v>0</v>
-      </c>
-      <c r="N24" s="53">
-        <v>0</v>
-      </c>
-      <c r="O24" s="53">
-        <v>0</v>
-      </c>
+      <c r="B24" s="57"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="58" t="s">
-        <v>107</v>
+      <c r="A25" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" s="57" t="s">
+        <v>114</v>
       </c>
       <c r="C25" s="53">
         <v>0</v>
@@ -2581,646 +2506,647 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="58" t="s">
+    <row r="26" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="53">
+        <v>0</v>
+      </c>
+      <c r="D26" s="53">
+        <v>0</v>
+      </c>
+      <c r="E26" s="53">
+        <v>0</v>
+      </c>
+      <c r="F26" s="53">
+        <v>0</v>
+      </c>
+      <c r="G26" s="53">
+        <v>0</v>
+      </c>
+      <c r="H26" s="53">
+        <v>0</v>
+      </c>
+      <c r="I26" s="53">
+        <v>0</v>
+      </c>
+      <c r="J26" s="53">
+        <v>0</v>
+      </c>
+      <c r="K26" s="53">
+        <v>0</v>
+      </c>
+      <c r="L26" s="53">
+        <v>1</v>
+      </c>
+      <c r="M26" s="53">
+        <v>1</v>
+      </c>
+      <c r="N26" s="53">
+        <v>1</v>
+      </c>
+      <c r="O26" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="57" t="s">
+        <v>164</v>
+      </c>
+      <c r="C27" s="53">
+        <v>0</v>
+      </c>
+      <c r="D27" s="53">
+        <v>0</v>
+      </c>
+      <c r="E27" s="53">
+        <v>0</v>
+      </c>
+      <c r="F27" s="53">
+        <v>0</v>
+      </c>
+      <c r="G27" s="53">
+        <v>0</v>
+      </c>
+      <c r="H27" s="53">
+        <v>0</v>
+      </c>
+      <c r="I27" s="53">
+        <v>0</v>
+      </c>
+      <c r="J27" s="53">
+        <v>0</v>
+      </c>
+      <c r="K27" s="53">
+        <v>0</v>
+      </c>
+      <c r="L27" s="53">
+        <v>1</v>
+      </c>
+      <c r="M27" s="53">
+        <v>1</v>
+      </c>
+      <c r="N27" s="53">
+        <v>1</v>
+      </c>
+      <c r="O27" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="46"/>
+      <c r="B28" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="C28" s="53">
+        <v>0</v>
+      </c>
+      <c r="D28" s="53">
+        <v>0</v>
+      </c>
+      <c r="E28" s="53">
+        <v>0</v>
+      </c>
+      <c r="F28" s="53">
+        <v>0</v>
+      </c>
+      <c r="G28" s="53">
+        <v>0</v>
+      </c>
+      <c r="H28" s="53">
+        <v>0</v>
+      </c>
+      <c r="I28" s="53">
+        <v>0</v>
+      </c>
+      <c r="J28" s="53">
+        <v>0</v>
+      </c>
+      <c r="K28" s="53">
+        <v>0</v>
+      </c>
+      <c r="L28" s="53">
+        <v>1</v>
+      </c>
+      <c r="M28" s="53">
+        <v>1</v>
+      </c>
+      <c r="N28" s="53">
+        <v>1</v>
+      </c>
+      <c r="O28" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="C29" s="53">
+        <v>0</v>
+      </c>
+      <c r="D29" s="53">
+        <v>0</v>
+      </c>
+      <c r="E29" s="53">
+        <v>0</v>
+      </c>
+      <c r="F29" s="53">
+        <v>0</v>
+      </c>
+      <c r="G29" s="53">
+        <v>0</v>
+      </c>
+      <c r="H29" s="53">
+        <v>0</v>
+      </c>
+      <c r="I29" s="53">
+        <v>0</v>
+      </c>
+      <c r="J29" s="53">
+        <v>0</v>
+      </c>
+      <c r="K29" s="53">
+        <v>0</v>
+      </c>
+      <c r="L29" s="53">
+        <v>1</v>
+      </c>
+      <c r="M29" s="53">
+        <v>1</v>
+      </c>
+      <c r="N29" s="53">
+        <v>1</v>
+      </c>
+      <c r="O29" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="C30" s="53">
+        <v>0</v>
+      </c>
+      <c r="D30" s="53">
+        <v>0</v>
+      </c>
+      <c r="E30" s="53">
+        <v>0</v>
+      </c>
+      <c r="F30" s="53">
+        <v>0</v>
+      </c>
+      <c r="G30" s="53">
+        <v>0</v>
+      </c>
+      <c r="H30" s="53">
+        <v>0</v>
+      </c>
+      <c r="I30" s="53">
+        <v>0</v>
+      </c>
+      <c r="J30" s="53">
+        <v>0</v>
+      </c>
+      <c r="K30" s="53">
+        <v>0</v>
+      </c>
+      <c r="L30" s="53">
+        <v>1</v>
+      </c>
+      <c r="M30" s="53">
+        <v>0</v>
+      </c>
+      <c r="N30" s="53">
+        <v>0</v>
+      </c>
+      <c r="O30" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="57"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+    </row>
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="53">
+        <v>1</v>
+      </c>
+      <c r="D32" s="53">
+        <v>0</v>
+      </c>
+      <c r="E32" s="53">
+        <v>1</v>
+      </c>
+      <c r="F32" s="53">
+        <v>1</v>
+      </c>
+      <c r="G32" s="53">
+        <v>1</v>
+      </c>
+      <c r="H32" s="53">
+        <v>1</v>
+      </c>
+      <c r="I32" s="53">
+        <v>1</v>
+      </c>
+      <c r="J32" s="53">
+        <v>1</v>
+      </c>
+      <c r="K32" s="53">
+        <v>1</v>
+      </c>
+      <c r="L32" s="53">
+        <v>1</v>
+      </c>
+      <c r="M32" s="53">
+        <v>1</v>
+      </c>
+      <c r="N32" s="53">
+        <v>1</v>
+      </c>
+      <c r="O32" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="53">
+        <v>1</v>
+      </c>
+      <c r="D33" s="53">
+        <v>0</v>
+      </c>
+      <c r="E33" s="53">
+        <v>1</v>
+      </c>
+      <c r="F33" s="53">
+        <v>1</v>
+      </c>
+      <c r="G33" s="53">
+        <v>1</v>
+      </c>
+      <c r="H33" s="53">
+        <v>1</v>
+      </c>
+      <c r="I33" s="53">
+        <v>1</v>
+      </c>
+      <c r="J33" s="53">
+        <v>1</v>
+      </c>
+      <c r="K33" s="53">
+        <v>1</v>
+      </c>
+      <c r="L33" s="53">
+        <v>1</v>
+      </c>
+      <c r="M33" s="53">
+        <v>1</v>
+      </c>
+      <c r="N33" s="53">
+        <v>1</v>
+      </c>
+      <c r="O33" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="53">
+        <v>1</v>
+      </c>
+      <c r="D34" s="53">
+        <v>0</v>
+      </c>
+      <c r="E34" s="53">
+        <v>1</v>
+      </c>
+      <c r="F34" s="53">
+        <v>1</v>
+      </c>
+      <c r="G34" s="53">
+        <v>1</v>
+      </c>
+      <c r="H34" s="53">
+        <v>1</v>
+      </c>
+      <c r="I34" s="53">
+        <v>1</v>
+      </c>
+      <c r="J34" s="53">
+        <v>1</v>
+      </c>
+      <c r="K34" s="53">
+        <v>1</v>
+      </c>
+      <c r="L34" s="53">
+        <v>1</v>
+      </c>
+      <c r="M34" s="53">
+        <v>1</v>
+      </c>
+      <c r="N34" s="53">
+        <v>1</v>
+      </c>
+      <c r="O34" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="53">
+        <v>1</v>
+      </c>
+      <c r="D35" s="53">
+        <v>0</v>
+      </c>
+      <c r="E35" s="53">
+        <v>1</v>
+      </c>
+      <c r="F35" s="53">
+        <v>1</v>
+      </c>
+      <c r="G35" s="53">
+        <v>1</v>
+      </c>
+      <c r="H35" s="53">
+        <v>1</v>
+      </c>
+      <c r="I35" s="53">
+        <v>1</v>
+      </c>
+      <c r="J35" s="53">
+        <v>1</v>
+      </c>
+      <c r="K35" s="53">
+        <v>1</v>
+      </c>
+      <c r="L35" s="53">
+        <v>1</v>
+      </c>
+      <c r="M35" s="53">
+        <v>1</v>
+      </c>
+      <c r="N35" s="53">
+        <v>1</v>
+      </c>
+      <c r="O35" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="53">
+        <v>1</v>
+      </c>
+      <c r="D36" s="53">
+        <v>1</v>
+      </c>
+      <c r="E36" s="53">
+        <v>1</v>
+      </c>
+      <c r="F36" s="53">
+        <v>1</v>
+      </c>
+      <c r="G36" s="53">
+        <v>1</v>
+      </c>
+      <c r="H36" s="53">
+        <v>1</v>
+      </c>
+      <c r="I36" s="53">
+        <v>1</v>
+      </c>
+      <c r="J36" s="53">
+        <v>1</v>
+      </c>
+      <c r="K36" s="53">
+        <v>1</v>
+      </c>
+      <c r="L36" s="53">
+        <v>1</v>
+      </c>
+      <c r="M36" s="53">
+        <v>1</v>
+      </c>
+      <c r="N36" s="53">
+        <v>1</v>
+      </c>
+      <c r="O36" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="45"/>
+      <c r="B37" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="53">
+        <v>1</v>
+      </c>
+      <c r="D37" s="53">
+        <v>1</v>
+      </c>
+      <c r="E37" s="53">
+        <v>1</v>
+      </c>
+      <c r="F37" s="53">
+        <v>1</v>
+      </c>
+      <c r="G37" s="53">
+        <v>1</v>
+      </c>
+      <c r="H37" s="53">
+        <v>1</v>
+      </c>
+      <c r="I37" s="53">
+        <v>1</v>
+      </c>
+      <c r="J37" s="53">
+        <v>1</v>
+      </c>
+      <c r="K37" s="53">
+        <v>1</v>
+      </c>
+      <c r="L37" s="53">
+        <v>1</v>
+      </c>
+      <c r="M37" s="53">
+        <v>1</v>
+      </c>
+      <c r="N37" s="53">
+        <v>1</v>
+      </c>
+      <c r="O37" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="53">
+        <v>1</v>
+      </c>
+      <c r="D38" s="53">
+        <v>1</v>
+      </c>
+      <c r="E38" s="53">
+        <v>1</v>
+      </c>
+      <c r="F38" s="53">
+        <v>1</v>
+      </c>
+      <c r="G38" s="53">
+        <v>1</v>
+      </c>
+      <c r="H38" s="53">
+        <v>1</v>
+      </c>
+      <c r="I38" s="53">
+        <v>1</v>
+      </c>
+      <c r="J38" s="53">
+        <v>1</v>
+      </c>
+      <c r="K38" s="53">
+        <v>1</v>
+      </c>
+      <c r="L38" s="53">
+        <v>1</v>
+      </c>
+      <c r="M38" s="53">
+        <v>1</v>
+      </c>
+      <c r="N38" s="53">
+        <v>1</v>
+      </c>
+      <c r="O38" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="53">
+        <v>1</v>
+      </c>
+      <c r="D39" s="53">
+        <v>1</v>
+      </c>
+      <c r="E39" s="53">
+        <v>1</v>
+      </c>
+      <c r="F39" s="53">
+        <v>1</v>
+      </c>
+      <c r="G39" s="53">
+        <v>1</v>
+      </c>
+      <c r="H39" s="53">
+        <v>1</v>
+      </c>
+      <c r="I39" s="53">
+        <v>1</v>
+      </c>
+      <c r="J39" s="53">
+        <v>1</v>
+      </c>
+      <c r="K39" s="53">
+        <v>1</v>
+      </c>
+      <c r="L39" s="53">
+        <v>1</v>
+      </c>
+      <c r="M39" s="53">
+        <v>1</v>
+      </c>
+      <c r="N39" s="53">
+        <v>1</v>
+      </c>
+      <c r="O39" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="53">
-        <v>0</v>
-      </c>
-      <c r="D26" s="53">
-        <v>0</v>
-      </c>
-      <c r="E26" s="53">
-        <v>0</v>
-      </c>
-      <c r="F26" s="53">
-        <v>0</v>
-      </c>
-      <c r="G26" s="53">
-        <v>0</v>
-      </c>
-      <c r="H26" s="53">
-        <v>0</v>
-      </c>
-      <c r="I26" s="53">
-        <v>0</v>
-      </c>
-      <c r="J26" s="53">
-        <v>0</v>
-      </c>
-      <c r="K26" s="53">
-        <v>0</v>
-      </c>
-      <c r="L26" s="53">
-        <v>1</v>
-      </c>
-      <c r="M26" s="53">
-        <v>1</v>
-      </c>
-      <c r="N26" s="53">
-        <v>1</v>
-      </c>
-      <c r="O26" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="58" t="s">
+      <c r="C40" s="53">
+        <v>1</v>
+      </c>
+      <c r="D40" s="53">
+        <v>1</v>
+      </c>
+      <c r="E40" s="53">
+        <v>1</v>
+      </c>
+      <c r="F40" s="53">
+        <v>1</v>
+      </c>
+      <c r="G40" s="53">
+        <v>1</v>
+      </c>
+      <c r="H40" s="53">
+        <v>1</v>
+      </c>
+      <c r="I40" s="53">
+        <v>1</v>
+      </c>
+      <c r="J40" s="53">
+        <v>1</v>
+      </c>
+      <c r="K40" s="53">
+        <v>1</v>
+      </c>
+      <c r="L40" s="53">
+        <v>1</v>
+      </c>
+      <c r="M40" s="53">
+        <v>1</v>
+      </c>
+      <c r="N40" s="53">
+        <v>1</v>
+      </c>
+      <c r="O40" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="C27" s="53">
-        <v>0</v>
-      </c>
-      <c r="D27" s="53">
-        <v>0</v>
-      </c>
-      <c r="E27" s="53">
-        <v>0</v>
-      </c>
-      <c r="F27" s="53">
-        <v>0</v>
-      </c>
-      <c r="G27" s="53">
-        <v>0</v>
-      </c>
-      <c r="H27" s="53">
-        <v>0</v>
-      </c>
-      <c r="I27" s="53">
-        <v>0</v>
-      </c>
-      <c r="J27" s="53">
-        <v>0</v>
-      </c>
-      <c r="K27" s="53">
-        <v>0</v>
-      </c>
-      <c r="L27" s="53">
-        <v>1</v>
-      </c>
-      <c r="M27" s="53">
-        <v>0</v>
-      </c>
-      <c r="N27" s="53">
-        <v>0</v>
-      </c>
-      <c r="O27" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C28" s="53">
-        <v>0</v>
-      </c>
-      <c r="D28" s="53">
-        <v>0</v>
-      </c>
-      <c r="E28" s="53">
-        <v>0</v>
-      </c>
-      <c r="F28" s="53">
-        <v>0</v>
-      </c>
-      <c r="G28" s="53">
-        <v>0</v>
-      </c>
-      <c r="H28" s="53">
-        <v>0</v>
-      </c>
-      <c r="I28" s="53">
-        <v>0</v>
-      </c>
-      <c r="J28" s="53">
-        <v>0</v>
-      </c>
-      <c r="K28" s="53">
-        <v>0</v>
-      </c>
-      <c r="L28" s="53">
-        <v>1</v>
-      </c>
-      <c r="M28" s="53">
-        <v>1</v>
-      </c>
-      <c r="N28" s="53">
-        <v>1</v>
-      </c>
-      <c r="O28" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="53">
-        <v>0</v>
-      </c>
-      <c r="D29" s="53">
-        <v>0</v>
-      </c>
-      <c r="E29" s="53">
-        <v>0</v>
-      </c>
-      <c r="F29" s="53">
-        <v>0</v>
-      </c>
-      <c r="G29" s="53">
-        <v>0</v>
-      </c>
-      <c r="H29" s="53">
-        <v>0</v>
-      </c>
-      <c r="I29" s="53">
-        <v>0</v>
-      </c>
-      <c r="J29" s="53">
-        <v>0</v>
-      </c>
-      <c r="K29" s="53">
-        <v>0</v>
-      </c>
-      <c r="L29" s="53">
-        <v>1</v>
-      </c>
-      <c r="M29" s="53">
-        <v>1</v>
-      </c>
-      <c r="N29" s="53">
-        <v>1</v>
-      </c>
-      <c r="O29" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="C30" s="53">
-        <v>0</v>
-      </c>
-      <c r="D30" s="53">
-        <v>0</v>
-      </c>
-      <c r="E30" s="53">
-        <v>0</v>
-      </c>
-      <c r="F30" s="53">
-        <v>0</v>
-      </c>
-      <c r="G30" s="53">
-        <v>0</v>
-      </c>
-      <c r="H30" s="53">
-        <v>0</v>
-      </c>
-      <c r="I30" s="53">
-        <v>0</v>
-      </c>
-      <c r="J30" s="53">
-        <v>0</v>
-      </c>
-      <c r="K30" s="53">
-        <v>0</v>
-      </c>
-      <c r="L30" s="53">
-        <v>1</v>
-      </c>
-      <c r="M30" s="53">
-        <v>1</v>
-      </c>
-      <c r="N30" s="53">
-        <v>1</v>
-      </c>
-      <c r="O30" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="46"/>
-      <c r="B31" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" s="53">
-        <v>0</v>
-      </c>
-      <c r="D31" s="53">
-        <v>0</v>
-      </c>
-      <c r="E31" s="53">
-        <v>0</v>
-      </c>
-      <c r="F31" s="53">
-        <v>0</v>
-      </c>
-      <c r="G31" s="53">
-        <v>0</v>
-      </c>
-      <c r="H31" s="53">
-        <v>0</v>
-      </c>
-      <c r="I31" s="53">
-        <v>0</v>
-      </c>
-      <c r="J31" s="53">
-        <v>0</v>
-      </c>
-      <c r="K31" s="53">
-        <v>0</v>
-      </c>
-      <c r="L31" s="53">
-        <v>1</v>
-      </c>
-      <c r="M31" s="53">
-        <v>0</v>
-      </c>
-      <c r="N31" s="53">
-        <v>0</v>
-      </c>
-      <c r="O31" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" s="53">
-        <v>0</v>
-      </c>
-      <c r="D32" s="53">
-        <v>0</v>
-      </c>
-      <c r="E32" s="53">
-        <v>0</v>
-      </c>
-      <c r="F32" s="53">
-        <v>0</v>
-      </c>
-      <c r="G32" s="53">
-        <v>0</v>
-      </c>
-      <c r="H32" s="53">
-        <v>0</v>
-      </c>
-      <c r="I32" s="53">
-        <v>0</v>
-      </c>
-      <c r="J32" s="53">
-        <v>0</v>
-      </c>
-      <c r="K32" s="53">
-        <v>0</v>
-      </c>
-      <c r="L32" s="53">
-        <v>1</v>
-      </c>
-      <c r="M32" s="53">
-        <v>1</v>
-      </c>
-      <c r="N32" s="53">
-        <v>1</v>
-      </c>
-      <c r="O32" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="58" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" s="53">
-        <v>0</v>
-      </c>
-      <c r="D33" s="53">
-        <v>0</v>
-      </c>
-      <c r="E33" s="53">
-        <v>0</v>
-      </c>
-      <c r="F33" s="53">
-        <v>0</v>
-      </c>
-      <c r="G33" s="53">
-        <v>0</v>
-      </c>
-      <c r="H33" s="53">
-        <v>0</v>
-      </c>
-      <c r="I33" s="53">
-        <v>0</v>
-      </c>
-      <c r="J33" s="53">
-        <v>0</v>
-      </c>
-      <c r="K33" s="53">
-        <v>0</v>
-      </c>
-      <c r="L33" s="53">
-        <v>1</v>
-      </c>
-      <c r="M33" s="53">
-        <v>1</v>
-      </c>
-      <c r="N33" s="53">
-        <v>1</v>
-      </c>
-      <c r="O33" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" s="53">
-        <v>0</v>
-      </c>
-      <c r="D34" s="53">
-        <v>0</v>
-      </c>
-      <c r="E34" s="53">
-        <v>0</v>
-      </c>
-      <c r="F34" s="53">
-        <v>0</v>
-      </c>
-      <c r="G34" s="53">
-        <v>0</v>
-      </c>
-      <c r="H34" s="53">
-        <v>0</v>
-      </c>
-      <c r="I34" s="53">
-        <v>0</v>
-      </c>
-      <c r="J34" s="53">
-        <v>0</v>
-      </c>
-      <c r="K34" s="53">
-        <v>0</v>
-      </c>
-      <c r="L34" s="53">
-        <v>1</v>
-      </c>
-      <c r="M34" s="53">
-        <v>0</v>
-      </c>
-      <c r="N34" s="53">
-        <v>0</v>
-      </c>
-      <c r="O34" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="58" t="s">
-        <v>97</v>
-      </c>
-      <c r="C35" s="53">
-        <v>0</v>
-      </c>
-      <c r="D35" s="53">
-        <v>0</v>
-      </c>
-      <c r="E35" s="53">
-        <v>0</v>
-      </c>
-      <c r="F35" s="53">
-        <v>0</v>
-      </c>
-      <c r="G35" s="53">
-        <v>0</v>
-      </c>
-      <c r="H35" s="53">
-        <v>0</v>
-      </c>
-      <c r="I35" s="53">
-        <v>0</v>
-      </c>
-      <c r="J35" s="53">
-        <v>0</v>
-      </c>
-      <c r="K35" s="53">
-        <v>0</v>
-      </c>
-      <c r="L35" s="53">
-        <v>1</v>
-      </c>
-      <c r="M35" s="53">
-        <v>1</v>
-      </c>
-      <c r="N35" s="53">
-        <v>1</v>
-      </c>
-      <c r="O35" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="C36" s="53">
-        <v>0</v>
-      </c>
-      <c r="D36" s="53">
-        <v>0</v>
-      </c>
-      <c r="E36" s="53">
-        <v>0</v>
-      </c>
-      <c r="F36" s="53">
-        <v>0</v>
-      </c>
-      <c r="G36" s="53">
-        <v>0</v>
-      </c>
-      <c r="H36" s="53">
-        <v>0</v>
-      </c>
-      <c r="I36" s="53">
-        <v>0</v>
-      </c>
-      <c r="J36" s="53">
-        <v>0</v>
-      </c>
-      <c r="K36" s="53">
-        <v>0</v>
-      </c>
-      <c r="L36" s="53">
-        <v>1</v>
-      </c>
-      <c r="M36" s="53">
-        <v>1</v>
-      </c>
-      <c r="N36" s="53">
-        <v>1</v>
-      </c>
-      <c r="O36" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="58" t="s">
-        <v>95</v>
-      </c>
-      <c r="C37" s="53">
-        <v>0</v>
-      </c>
-      <c r="D37" s="53">
-        <v>0</v>
-      </c>
-      <c r="E37" s="53">
-        <v>0</v>
-      </c>
-      <c r="F37" s="53">
-        <v>0</v>
-      </c>
-      <c r="G37" s="53">
-        <v>0</v>
-      </c>
-      <c r="H37" s="53">
-        <v>0</v>
-      </c>
-      <c r="I37" s="53">
-        <v>0</v>
-      </c>
-      <c r="J37" s="53">
-        <v>0</v>
-      </c>
-      <c r="K37" s="53">
-        <v>0</v>
-      </c>
-      <c r="L37" s="53">
-        <v>1</v>
-      </c>
-      <c r="M37" s="53">
-        <v>1</v>
-      </c>
-      <c r="N37" s="53">
-        <v>1</v>
-      </c>
-      <c r="O37" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="58" t="s">
-        <v>142</v>
-      </c>
-      <c r="C38" s="53">
-        <v>0</v>
-      </c>
-      <c r="D38" s="53">
-        <v>0</v>
-      </c>
-      <c r="E38" s="53">
-        <v>0</v>
-      </c>
-      <c r="F38" s="53">
-        <v>0</v>
-      </c>
-      <c r="G38" s="53">
-        <v>0</v>
-      </c>
-      <c r="H38" s="53">
-        <v>0</v>
-      </c>
-      <c r="I38" s="53">
-        <v>0</v>
-      </c>
-      <c r="J38" s="53">
-        <v>0</v>
-      </c>
-      <c r="K38" s="53">
-        <v>0</v>
-      </c>
-      <c r="L38" s="53">
-        <v>1</v>
-      </c>
-      <c r="M38" s="53">
-        <v>1</v>
-      </c>
-      <c r="N38" s="53">
-        <v>1</v>
-      </c>
-      <c r="O38" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="58" t="s">
-        <v>132</v>
-      </c>
-      <c r="C39" s="53">
-        <v>0</v>
-      </c>
-      <c r="D39" s="53">
-        <v>0</v>
-      </c>
-      <c r="E39" s="53">
-        <v>0</v>
-      </c>
-      <c r="F39" s="53">
-        <v>0</v>
-      </c>
-      <c r="G39" s="53">
-        <v>0</v>
-      </c>
-      <c r="H39" s="53">
-        <v>0</v>
-      </c>
-      <c r="I39" s="53">
-        <v>0</v>
-      </c>
-      <c r="J39" s="53">
-        <v>0</v>
-      </c>
-      <c r="K39" s="53">
-        <v>0</v>
-      </c>
-      <c r="L39" s="53">
-        <v>1</v>
-      </c>
-      <c r="M39" s="53">
-        <v>1</v>
-      </c>
-      <c r="N39" s="53">
-        <v>1</v>
-      </c>
-      <c r="O39" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="58"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="49"/>
-      <c r="L40" s="49"/>
-      <c r="M40" s="49"/>
-      <c r="N40" s="49"/>
-      <c r="O40" s="49"/>
-    </row>
-    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="B41" s="58" t="s">
-        <v>124</v>
-      </c>
       <c r="C41" s="53">
         <v>1</v>
       </c>
@@ -3261,624 +3187,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="C42" s="53">
-        <v>1</v>
-      </c>
-      <c r="D42" s="53">
-        <v>1</v>
-      </c>
-      <c r="E42" s="53">
-        <v>1</v>
-      </c>
-      <c r="F42" s="53">
-        <v>1</v>
-      </c>
-      <c r="G42" s="53">
-        <v>1</v>
-      </c>
-      <c r="H42" s="53">
-        <v>1</v>
-      </c>
-      <c r="I42" s="53">
-        <v>1</v>
-      </c>
-      <c r="J42" s="53">
-        <v>1</v>
-      </c>
-      <c r="K42" s="53">
-        <v>1</v>
-      </c>
-      <c r="L42" s="53">
-        <v>1</v>
-      </c>
-      <c r="M42" s="53">
-        <v>1</v>
-      </c>
-      <c r="N42" s="53">
-        <v>1</v>
-      </c>
-      <c r="O42" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="58" t="s">
-        <v>122</v>
-      </c>
-      <c r="C43" s="53">
-        <v>1</v>
-      </c>
-      <c r="D43" s="53">
-        <v>1</v>
-      </c>
-      <c r="E43" s="53">
-        <v>1</v>
-      </c>
-      <c r="F43" s="53">
-        <v>1</v>
-      </c>
-      <c r="G43" s="53">
-        <v>1</v>
-      </c>
-      <c r="H43" s="53">
-        <v>1</v>
-      </c>
-      <c r="I43" s="53">
-        <v>1</v>
-      </c>
-      <c r="J43" s="53">
-        <v>1</v>
-      </c>
-      <c r="K43" s="53">
-        <v>1</v>
-      </c>
-      <c r="L43" s="53">
-        <v>1</v>
-      </c>
-      <c r="M43" s="53">
-        <v>1</v>
-      </c>
-      <c r="N43" s="53">
-        <v>1</v>
-      </c>
-      <c r="O43" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="58" t="s">
-        <v>121</v>
-      </c>
-      <c r="C44" s="53">
-        <v>1</v>
-      </c>
-      <c r="D44" s="53">
-        <v>1</v>
-      </c>
-      <c r="E44" s="53">
-        <v>1</v>
-      </c>
-      <c r="F44" s="53">
-        <v>1</v>
-      </c>
-      <c r="G44" s="53">
-        <v>1</v>
-      </c>
-      <c r="H44" s="53">
-        <v>1</v>
-      </c>
-      <c r="I44" s="53">
-        <v>1</v>
-      </c>
-      <c r="J44" s="53">
-        <v>1</v>
-      </c>
-      <c r="K44" s="53">
-        <v>1</v>
-      </c>
-      <c r="L44" s="53">
-        <v>1</v>
-      </c>
-      <c r="M44" s="53">
-        <v>1</v>
-      </c>
-      <c r="N44" s="53">
-        <v>1</v>
-      </c>
-      <c r="O44" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="C45" s="53">
-        <v>1</v>
-      </c>
-      <c r="D45" s="53">
-        <v>1</v>
-      </c>
-      <c r="E45" s="53">
-        <v>1</v>
-      </c>
-      <c r="F45" s="53">
-        <v>1</v>
-      </c>
-      <c r="G45" s="53">
-        <v>1</v>
-      </c>
-      <c r="H45" s="53">
-        <v>1</v>
-      </c>
-      <c r="I45" s="53">
-        <v>1</v>
-      </c>
-      <c r="J45" s="53">
-        <v>1</v>
-      </c>
-      <c r="K45" s="53">
-        <v>1</v>
-      </c>
-      <c r="L45" s="53">
-        <v>1</v>
-      </c>
-      <c r="M45" s="53">
-        <v>1</v>
-      </c>
-      <c r="N45" s="53">
-        <v>1</v>
-      </c>
-      <c r="O45" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="58" t="s">
-        <v>117</v>
-      </c>
-      <c r="C46" s="53">
-        <v>1</v>
-      </c>
-      <c r="D46" s="53">
-        <v>1</v>
-      </c>
-      <c r="E46" s="53">
-        <v>1</v>
-      </c>
-      <c r="F46" s="53">
-        <v>1</v>
-      </c>
-      <c r="G46" s="53">
-        <v>1</v>
-      </c>
-      <c r="H46" s="53">
-        <v>0</v>
-      </c>
-      <c r="I46" s="53">
-        <v>0</v>
-      </c>
-      <c r="J46" s="53">
-        <v>0</v>
-      </c>
-      <c r="K46" s="53">
-        <v>0</v>
-      </c>
-      <c r="L46" s="53">
-        <v>0</v>
-      </c>
-      <c r="M46" s="53">
-        <v>0</v>
-      </c>
-      <c r="N46" s="53">
-        <v>0</v>
-      </c>
-      <c r="O46" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="C47" s="53">
-        <v>1</v>
-      </c>
-      <c r="D47" s="53">
-        <v>1</v>
-      </c>
-      <c r="E47" s="53">
-        <v>1</v>
-      </c>
-      <c r="F47" s="53">
-        <v>1</v>
-      </c>
-      <c r="G47" s="53">
-        <v>1</v>
-      </c>
-      <c r="H47" s="53">
-        <v>0</v>
-      </c>
-      <c r="I47" s="53">
-        <v>0</v>
-      </c>
-      <c r="J47" s="53">
-        <v>0</v>
-      </c>
-      <c r="K47" s="53">
-        <v>0</v>
-      </c>
-      <c r="L47" s="53">
-        <v>0</v>
-      </c>
-      <c r="M47" s="53">
-        <v>0</v>
-      </c>
-      <c r="N47" s="53">
-        <v>0</v>
-      </c>
-      <c r="O47" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="58" t="s">
-        <v>131</v>
-      </c>
-      <c r="C48" s="53">
-        <v>0</v>
-      </c>
-      <c r="D48" s="53">
-        <v>0</v>
-      </c>
-      <c r="E48" s="53">
-        <v>0</v>
-      </c>
-      <c r="F48" s="53">
-        <v>0</v>
-      </c>
-      <c r="G48" s="53">
-        <v>0</v>
-      </c>
-      <c r="H48" s="53">
-        <v>1</v>
-      </c>
-      <c r="I48" s="53">
-        <v>1</v>
-      </c>
-      <c r="J48" s="53">
-        <v>1</v>
-      </c>
-      <c r="K48" s="53">
-        <v>1</v>
-      </c>
-      <c r="L48" s="53">
-        <v>0</v>
-      </c>
-      <c r="M48" s="53">
-        <v>0</v>
-      </c>
-      <c r="N48" s="53">
-        <v>0</v>
-      </c>
-      <c r="O48" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="58" t="s">
-        <v>130</v>
-      </c>
-      <c r="C49" s="53">
-        <v>0</v>
-      </c>
-      <c r="D49" s="53">
-        <v>0</v>
-      </c>
-      <c r="E49" s="53">
-        <v>0</v>
-      </c>
-      <c r="F49" s="53">
-        <v>0</v>
-      </c>
-      <c r="G49" s="53">
-        <v>0</v>
-      </c>
-      <c r="H49" s="53">
-        <v>1</v>
-      </c>
-      <c r="I49" s="53">
-        <v>1</v>
-      </c>
-      <c r="J49" s="53">
-        <v>1</v>
-      </c>
-      <c r="K49" s="53">
-        <v>1</v>
-      </c>
-      <c r="L49" s="53">
-        <v>0</v>
-      </c>
-      <c r="M49" s="53">
-        <v>0</v>
-      </c>
-      <c r="N49" s="53">
-        <v>0</v>
-      </c>
-      <c r="O49" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="C50" s="53">
-        <v>0</v>
-      </c>
-      <c r="D50" s="53">
-        <v>0</v>
-      </c>
-      <c r="E50" s="53">
-        <v>0</v>
-      </c>
-      <c r="F50" s="53">
-        <v>0</v>
-      </c>
-      <c r="G50" s="53">
-        <v>0</v>
-      </c>
-      <c r="H50" s="53">
-        <v>1</v>
-      </c>
-      <c r="I50" s="53">
-        <v>1</v>
-      </c>
-      <c r="J50" s="53">
-        <v>1</v>
-      </c>
-      <c r="K50" s="53">
-        <v>1</v>
-      </c>
-      <c r="L50" s="53">
-        <v>0</v>
-      </c>
-      <c r="M50" s="53">
-        <v>0</v>
-      </c>
-      <c r="N50" s="53">
-        <v>0</v>
-      </c>
-      <c r="O50" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="45"/>
-      <c r="B51" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="C51" s="53">
-        <v>1</v>
-      </c>
-      <c r="D51" s="53">
-        <v>1</v>
-      </c>
-      <c r="E51" s="53">
-        <v>1</v>
-      </c>
-      <c r="F51" s="53">
-        <v>1</v>
-      </c>
-      <c r="G51" s="53">
-        <v>1</v>
-      </c>
-      <c r="H51" s="53">
-        <v>1</v>
-      </c>
-      <c r="I51" s="53">
-        <v>1</v>
-      </c>
-      <c r="J51" s="53">
-        <v>1</v>
-      </c>
-      <c r="K51" s="53">
-        <v>1</v>
-      </c>
-      <c r="L51" s="53">
-        <v>1</v>
-      </c>
-      <c r="M51" s="53">
-        <v>1</v>
-      </c>
-      <c r="N51" s="53">
-        <v>1</v>
-      </c>
-      <c r="O51" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="C52" s="53">
-        <v>1</v>
-      </c>
-      <c r="D52" s="53">
-        <v>0</v>
-      </c>
-      <c r="E52" s="53">
-        <v>1</v>
-      </c>
-      <c r="F52" s="53">
-        <v>1</v>
-      </c>
-      <c r="G52" s="53">
-        <v>1</v>
-      </c>
-      <c r="H52" s="53">
-        <v>1</v>
-      </c>
-      <c r="I52" s="53">
-        <v>1</v>
-      </c>
-      <c r="J52" s="53">
-        <v>1</v>
-      </c>
-      <c r="K52" s="53">
-        <v>1</v>
-      </c>
-      <c r="L52" s="53">
-        <v>1</v>
-      </c>
-      <c r="M52" s="53">
-        <v>1</v>
-      </c>
-      <c r="N52" s="53">
-        <v>1</v>
-      </c>
-      <c r="O52" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="C53" s="53">
-        <v>1</v>
-      </c>
-      <c r="D53" s="53">
-        <v>0</v>
-      </c>
-      <c r="E53" s="53">
-        <v>1</v>
-      </c>
-      <c r="F53" s="53">
-        <v>1</v>
-      </c>
-      <c r="G53" s="53">
-        <v>1</v>
-      </c>
-      <c r="H53" s="53">
-        <v>1</v>
-      </c>
-      <c r="I53" s="53">
-        <v>1</v>
-      </c>
-      <c r="J53" s="53">
-        <v>1</v>
-      </c>
-      <c r="K53" s="53">
-        <v>1</v>
-      </c>
-      <c r="L53" s="53">
-        <v>1</v>
-      </c>
-      <c r="M53" s="53">
-        <v>1</v>
-      </c>
-      <c r="N53" s="53">
-        <v>1</v>
-      </c>
-      <c r="O53" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="C54" s="53">
-        <v>1</v>
-      </c>
-      <c r="D54" s="53">
-        <v>0</v>
-      </c>
-      <c r="E54" s="53">
-        <v>1</v>
-      </c>
-      <c r="F54" s="53">
-        <v>1</v>
-      </c>
-      <c r="G54" s="53">
-        <v>1</v>
-      </c>
-      <c r="H54" s="53">
-        <v>1</v>
-      </c>
-      <c r="I54" s="53">
-        <v>1</v>
-      </c>
-      <c r="J54" s="53">
-        <v>1</v>
-      </c>
-      <c r="K54" s="53">
-        <v>1</v>
-      </c>
-      <c r="L54" s="53">
-        <v>1</v>
-      </c>
-      <c r="M54" s="53">
-        <v>1</v>
-      </c>
-      <c r="N54" s="53">
-        <v>1</v>
-      </c>
-      <c r="O54" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="C55" s="53">
-        <v>1</v>
-      </c>
-      <c r="D55" s="53">
-        <v>0</v>
-      </c>
-      <c r="E55" s="53">
-        <v>1</v>
-      </c>
-      <c r="F55" s="53">
-        <v>1</v>
-      </c>
-      <c r="G55" s="53">
-        <v>1</v>
-      </c>
-      <c r="H55" s="53">
-        <v>1</v>
-      </c>
-      <c r="I55" s="53">
-        <v>1</v>
-      </c>
-      <c r="J55" s="53">
-        <v>1</v>
-      </c>
-      <c r="K55" s="53">
-        <v>1</v>
-      </c>
-      <c r="L55" s="53">
-        <v>1</v>
-      </c>
-      <c r="M55" s="53">
-        <v>1</v>
-      </c>
-      <c r="N55" s="53">
-        <v>1</v>
-      </c>
-      <c r="O55" s="53">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState ref="B32:O41">
+    <sortCondition ref="B32:B41"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3891,7 +3203,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3923,12 +3235,12 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="37" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
@@ -3948,7 +3260,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B4" s="37"/>
       <c r="C4" s="38"/>
@@ -3959,7 +3271,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="36" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -3988,17 +3300,17 @@
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="111" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView zoomScale="111" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="47.6640625" style="58" customWidth="1"/>
-    <col min="2" max="2" width="27.5" style="58" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" style="58" customWidth="1"/>
+    <col min="1" max="1" width="47.6640625" style="57" customWidth="1"/>
+    <col min="2" max="2" width="27.5" style="57" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="57" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
@@ -4007,15 +3319,15 @@
     <col min="9" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="C1" s="54" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>45</v>
@@ -4033,15 +3345,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="58" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="58" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="58" t="s">
-        <v>115</v>
+      <c r="C2" s="57" t="s">
+        <v>97</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
@@ -4059,9 +3371,9 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C3" s="58" t="s">
-        <v>114</v>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C3" s="57" t="s">
+        <v>96</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
@@ -4079,9 +3391,9 @@
         <v>0.53134328358208949</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C4" s="58" t="s">
-        <v>118</v>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C4" s="57" t="s">
+        <v>100</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
@@ -4099,15 +3411,15 @@
         <v>0.38507462686567184</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="58" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="58" t="s">
-        <v>115</v>
+      <c r="C5" s="57" t="s">
+        <v>97</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
@@ -4125,9 +3437,9 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C6" s="58" t="s">
-        <v>118</v>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C6" s="57" t="s">
+        <v>100</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
@@ -4145,12 +3457,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B7" s="58" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B7" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="58" t="s">
-        <v>115</v>
+      <c r="C7" s="57" t="s">
+        <v>97</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
@@ -4168,9 +3480,9 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C8" s="58" t="s">
-        <v>118</v>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C8" s="57" t="s">
+        <v>100</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -4188,15 +3500,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="58" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="58" t="s">
-        <v>115</v>
+      <c r="C9" s="57" t="s">
+        <v>97</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -4214,9 +3526,9 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C10" s="58" t="s">
-        <v>118</v>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C10" s="57" t="s">
+        <v>100</v>
       </c>
       <c r="D10" s="4">
         <v>0</v>
@@ -4234,12 +3546,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="58" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B11" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="58" t="s">
-        <v>115</v>
+      <c r="C11" s="57" t="s">
+        <v>97</v>
       </c>
       <c r="D11" s="4">
         <v>0</v>
@@ -4257,9 +3569,9 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C12" s="58" t="s">
-        <v>118</v>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C12" s="57" t="s">
+        <v>100</v>
       </c>
       <c r="D12" s="4">
         <v>0</v>
@@ -4277,15 +3589,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="58" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="58" t="s">
-        <v>115</v>
+      <c r="C13" s="57" t="s">
+        <v>97</v>
       </c>
       <c r="D13" s="4">
         <v>0</v>
@@ -4303,9 +3615,9 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C14" s="58" t="s">
-        <v>118</v>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C14" s="57" t="s">
+        <v>100</v>
       </c>
       <c r="D14" s="4">
         <v>0</v>
@@ -4314,21 +3626,22 @@
         <v>0</v>
       </c>
       <c r="F14" s="4">
-        <v>0.25970149253731345</v>
+        <v>0.7</v>
       </c>
       <c r="G14" s="4">
-        <v>0.25970149253731345</v>
+        <v>0.62</v>
       </c>
       <c r="H14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B15" s="58" t="s">
+        <v>0.62</v>
+      </c>
+      <c r="I14" s="29"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B15" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="58" t="s">
-        <v>115</v>
+      <c r="C15" s="57" t="s">
+        <v>97</v>
       </c>
       <c r="D15" s="4">
         <v>0</v>
@@ -4345,10 +3658,11 @@
       <c r="H15" s="4">
         <v>0.33500000000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C16" s="58" t="s">
-        <v>118</v>
+      <c r="I15" s="29"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C16" s="57" t="s">
+        <v>100</v>
       </c>
       <c r="D16" s="4">
         <v>0</v>
@@ -4357,116 +3671,119 @@
         <v>0</v>
       </c>
       <c r="F16" s="4">
-        <v>0.25970149253731345</v>
+        <v>0.84</v>
       </c>
       <c r="G16" s="4">
-        <v>0.25970149253731345</v>
+        <v>0.62</v>
       </c>
       <c r="H16" s="4">
-        <v>0</v>
-      </c>
+        <v>0.62</v>
+      </c>
+      <c r="I16" s="29"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="58" t="s">
-        <v>125</v>
-      </c>
-      <c r="B17" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="58" t="s">
-        <v>115</v>
+      <c r="A17" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>97</v>
       </c>
       <c r="D17" s="4">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E17" s="4">
         <v>0</v>
       </c>
       <c r="F17" s="4">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G17" s="4">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="H17" s="4">
-        <v>0.33500000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" s="29"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C18" s="58" t="s">
-        <v>118</v>
+      <c r="C18" s="57" t="s">
+        <v>96</v>
       </c>
       <c r="D18" s="4">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="E18" s="4">
         <v>0</v>
       </c>
       <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="29"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="4">
         <v>0.7</v>
       </c>
-      <c r="G18" s="4">
-        <v>0.62</v>
-      </c>
-      <c r="H18" s="4">
-        <v>0.62</v>
-      </c>
-      <c r="I18" s="29"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B19" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0</v>
-      </c>
       <c r="E19" s="4">
         <v>0</v>
       </c>
       <c r="F19" s="4">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G19" s="4">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="H19" s="4">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="I19" s="29"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C20" s="58" t="s">
-        <v>118</v>
+      <c r="C20" s="57" t="s">
+        <v>96</v>
       </c>
       <c r="D20" s="4">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="E20" s="4">
         <v>0</v>
       </c>
       <c r="F20" s="4">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="G20" s="4">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="H20" s="4">
-        <v>0.62</v>
-      </c>
-      <c r="I20" s="29"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="58" t="s">
-        <v>115</v>
+      <c r="A21" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="57" t="s">
+        <v>97</v>
       </c>
       <c r="D21" s="4">
         <v>0.7</v>
@@ -4483,11 +3800,10 @@
       <c r="H21" s="4">
         <v>0</v>
       </c>
-      <c r="I21" s="29"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C22" s="58" t="s">
-        <v>114</v>
+      <c r="C22" s="57" t="s">
+        <v>96</v>
       </c>
       <c r="D22" s="4">
         <v>0.46</v>
@@ -4504,648 +3820,555 @@
       <c r="H22" s="4">
         <v>0</v>
       </c>
-      <c r="I22" s="29"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="B23" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="58" t="s">
-        <v>115</v>
+      <c r="A23" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>97</v>
       </c>
       <c r="D23" s="4">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C24" s="58" t="s">
-        <v>114</v>
+      <c r="C24" s="57" t="s">
+        <v>96</v>
       </c>
       <c r="D24" s="4">
-        <v>0.46</v>
+        <v>0.17</v>
       </c>
       <c r="E24" s="4">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="F24" s="4">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="G24" s="4">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="H24" s="4">
-        <v>0</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="B25" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="58" t="s">
-        <v>115</v>
+      <c r="C25" s="57" t="s">
+        <v>100</v>
       </c>
       <c r="D25" s="4">
-        <v>0.7</v>
+        <v>0.17</v>
       </c>
       <c r="E25" s="4">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="F25" s="4">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="G25" s="4">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="H25" s="4">
-        <v>0</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C26" s="58" t="s">
-        <v>114</v>
+      <c r="A26" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="57" t="s">
+        <v>97</v>
       </c>
       <c r="D26" s="4">
-        <v>0.46</v>
+        <v>1</v>
       </c>
       <c r="E26" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="58" t="s">
-        <v>124</v>
-      </c>
-      <c r="B27" s="58" t="s">
+      <c r="C27" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C28" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="D27" s="4">
-        <v>1</v>
-      </c>
-      <c r="E27" s="4">
-        <v>1</v>
-      </c>
-      <c r="F27" s="4">
-        <v>1</v>
-      </c>
-      <c r="G27" s="4">
-        <v>1</v>
-      </c>
-      <c r="H27" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C28" s="58" t="s">
-        <v>114</v>
-      </c>
-      <c r="D28" s="4">
-        <v>0.17</v>
-      </c>
-      <c r="E28" s="4">
-        <v>0.17</v>
-      </c>
-      <c r="F28" s="4">
-        <v>0.17</v>
-      </c>
-      <c r="G28" s="4">
-        <v>0.17</v>
-      </c>
-      <c r="H28" s="4">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C29" s="58" t="s">
-        <v>118</v>
+      <c r="C29" s="57" t="s">
+        <v>97</v>
       </c>
       <c r="D29" s="4">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="E29" s="4">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="F29" s="4">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G29" s="4">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="H29" s="4">
-        <v>0.17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B30" s="58" t="s">
+      <c r="C30" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C31" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="D30" s="4">
-        <v>1</v>
-      </c>
-      <c r="E30" s="4">
-        <v>1</v>
-      </c>
-      <c r="F30" s="4">
-        <v>1</v>
-      </c>
-      <c r="G30" s="4">
-        <v>1</v>
-      </c>
-      <c r="H30" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C31" s="58" t="s">
-        <v>114</v>
-      </c>
-      <c r="D31" s="4">
-        <v>0.69</v>
-      </c>
-      <c r="E31" s="4">
-        <v>0.69</v>
-      </c>
-      <c r="F31" s="4">
-        <v>0.69</v>
-      </c>
-      <c r="G31" s="4">
-        <v>0.69</v>
-      </c>
-      <c r="H31" s="4">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C32" s="58" t="s">
-        <v>118</v>
+      <c r="C32" s="57" t="s">
+        <v>97</v>
       </c>
       <c r="D32" s="4">
-        <v>0.69</v>
+        <v>1</v>
       </c>
       <c r="E32" s="4">
-        <v>0.69</v>
+        <v>1</v>
       </c>
       <c r="F32" s="4">
-        <v>0.69</v>
+        <v>1</v>
       </c>
       <c r="G32" s="4">
-        <v>0.69</v>
+        <v>1</v>
       </c>
       <c r="H32" s="4">
-        <v>0.69</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="58" t="s">
-        <v>122</v>
-      </c>
-      <c r="B33" s="58" t="s">
+      <c r="C33" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C34" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="D33" s="4">
-        <v>1</v>
-      </c>
-      <c r="E33" s="4">
-        <v>1</v>
-      </c>
-      <c r="F33" s="4">
-        <v>1</v>
-      </c>
-      <c r="G33" s="4">
-        <v>1</v>
-      </c>
-      <c r="H33" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C34" s="58" t="s">
-        <v>114</v>
-      </c>
-      <c r="D34" s="4">
-        <v>0.36</v>
-      </c>
-      <c r="E34" s="4">
-        <v>0.36</v>
-      </c>
-      <c r="F34" s="4">
-        <v>0.36</v>
-      </c>
-      <c r="G34" s="4">
-        <v>0.36</v>
-      </c>
-      <c r="H34" s="4">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C35" s="58" t="s">
-        <v>118</v>
+      <c r="C35" s="57" t="s">
+        <v>97</v>
       </c>
       <c r="D35" s="4">
-        <v>0.36</v>
+        <v>1</v>
       </c>
       <c r="E35" s="4">
-        <v>0.36</v>
+        <v>1</v>
       </c>
       <c r="F35" s="4">
-        <v>0.36</v>
+        <v>1</v>
       </c>
       <c r="G35" s="4">
-        <v>0.36</v>
+        <v>1</v>
       </c>
       <c r="H35" s="4">
-        <v>0.36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="58" t="s">
-        <v>121</v>
-      </c>
-      <c r="B36" s="58" t="s">
+      <c r="C36" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0.48</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0.48</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0.48</v>
+      </c>
+      <c r="G36" s="4">
+        <v>0.48</v>
+      </c>
+      <c r="H36" s="4">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C37" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0.48</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0.48</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0.48</v>
+      </c>
+      <c r="G37" s="4">
+        <v>0.48</v>
+      </c>
+      <c r="H37" s="4">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="D36" s="4">
-        <v>1</v>
-      </c>
-      <c r="E36" s="4">
-        <v>1</v>
-      </c>
-      <c r="F36" s="4">
-        <v>1</v>
-      </c>
-      <c r="G36" s="4">
-        <v>1</v>
-      </c>
-      <c r="H36" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C37" s="58" t="s">
-        <v>114</v>
-      </c>
-      <c r="D37" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="E37" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="F37" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="G37" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="H37" s="4">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C38" s="58" t="s">
-        <v>118</v>
+      <c r="C38" s="57" t="s">
+        <v>97</v>
       </c>
       <c r="D38" s="4">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E38" s="4">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F38" s="4">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G38" s="4">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H38" s="4">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="B39" s="58" t="s">
+      <c r="C39" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G39" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H39" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C40" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="G40" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="H40" s="4">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B41" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F41" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="G41" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H41" s="4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C42" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0.49</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0.49</v>
+      </c>
+      <c r="F42" s="4">
+        <v>0.49</v>
+      </c>
+      <c r="G42" s="4">
+        <v>0.49</v>
+      </c>
+      <c r="H42" s="4">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C43" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0.52</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0.52</v>
+      </c>
+      <c r="F43" s="4">
+        <v>0.52</v>
+      </c>
+      <c r="G43" s="4">
+        <v>0.52</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="D39" s="4">
-        <v>1</v>
-      </c>
-      <c r="E39" s="4">
-        <v>1</v>
-      </c>
-      <c r="F39" s="4">
-        <v>1</v>
-      </c>
-      <c r="G39" s="4">
-        <v>1</v>
-      </c>
-      <c r="H39" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C40" s="58" t="s">
-        <v>114</v>
-      </c>
-      <c r="D40" s="4">
-        <v>0.48</v>
-      </c>
-      <c r="E40" s="4">
-        <v>0.48</v>
-      </c>
-      <c r="F40" s="4">
-        <v>0.48</v>
-      </c>
-      <c r="G40" s="4">
-        <v>0.48</v>
-      </c>
-      <c r="H40" s="4">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C41" s="58" t="s">
-        <v>118</v>
-      </c>
-      <c r="D41" s="4">
-        <v>0.48</v>
-      </c>
-      <c r="E41" s="4">
-        <v>0.48</v>
-      </c>
-      <c r="F41" s="4">
-        <v>0.48</v>
-      </c>
-      <c r="G41" s="4">
-        <v>0.48</v>
-      </c>
-      <c r="H41" s="4">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="B42" s="58" t="s">
+      <c r="C44" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="F44" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="G44" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C45" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="E45" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="F45" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="G45" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="H45" s="4">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="D42" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="E42" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="F42" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="G42" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="H42" s="4">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C43" s="58" t="s">
-        <v>114</v>
-      </c>
-      <c r="D43" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E43" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="F43" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G43" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H43" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C44" s="58" t="s">
-        <v>118</v>
-      </c>
-      <c r="D44" s="4">
-        <v>0.65</v>
-      </c>
-      <c r="E44" s="4">
-        <v>0.65</v>
-      </c>
-      <c r="F44" s="4">
-        <v>0.65</v>
-      </c>
-      <c r="G44" s="4">
-        <v>0.65</v>
-      </c>
-      <c r="H44" s="4">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B45" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="D45" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="E45" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="F45" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="G45" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="H45" s="4">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C46" s="58" t="s">
-        <v>114</v>
+      <c r="C46" s="57" t="s">
+        <v>97</v>
       </c>
       <c r="D46" s="4">
-        <v>0.49</v>
+        <v>1</v>
       </c>
       <c r="E46" s="4">
-        <v>0.49</v>
+        <v>1</v>
       </c>
       <c r="F46" s="4">
-        <v>0.49</v>
+        <v>1</v>
       </c>
       <c r="G46" s="4">
-        <v>0.49</v>
+        <v>1</v>
       </c>
       <c r="H46" s="4">
-        <v>0.49</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C47" s="58" t="s">
-        <v>118</v>
+      <c r="C47" s="57" t="s">
+        <v>96</v>
       </c>
       <c r="D47" s="4">
-        <v>0.52</v>
+        <v>0.86</v>
       </c>
       <c r="E47" s="4">
-        <v>0.52</v>
+        <v>0.86</v>
       </c>
       <c r="F47" s="4">
-        <v>0.52</v>
+        <v>0.86</v>
       </c>
       <c r="G47" s="4">
-        <v>0.52</v>
+        <v>0.86</v>
       </c>
       <c r="H47" s="4">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A48" s="58" t="s">
-        <v>117</v>
-      </c>
-      <c r="B48" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="D48" s="4">
-        <v>0.88</v>
-      </c>
-      <c r="E48" s="4">
-        <v>0.88</v>
-      </c>
-      <c r="F48" s="4">
-        <v>0.88</v>
-      </c>
-      <c r="G48" s="4">
-        <v>0.88</v>
-      </c>
-      <c r="H48" s="4">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C49" s="58" t="s">
-        <v>114</v>
-      </c>
-      <c r="D49" s="4">
-        <v>0.93</v>
-      </c>
-      <c r="E49" s="4">
-        <v>0.93</v>
-      </c>
-      <c r="F49" s="4">
-        <v>0.93</v>
-      </c>
-      <c r="G49" s="4">
-        <v>0.93</v>
-      </c>
-      <c r="H49" s="4">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A50" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="B50" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="C50" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="D50" s="4">
-        <v>1</v>
-      </c>
-      <c r="E50" s="4">
-        <v>1</v>
-      </c>
-      <c r="F50" s="4">
-        <v>1</v>
-      </c>
-      <c r="G50" s="4">
-        <v>1</v>
-      </c>
-      <c r="H50" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C51" s="58" t="s">
-        <v>114</v>
-      </c>
-      <c r="D51" s="4">
-        <v>0.86</v>
-      </c>
-      <c r="E51" s="4">
-        <v>0.86</v>
-      </c>
-      <c r="F51" s="4">
-        <v>0.86</v>
-      </c>
-      <c r="G51" s="4">
-        <v>0.86</v>
-      </c>
-      <c r="H51" s="4">
         <v>0.86</v>
       </c>
     </row>
@@ -5177,10 +4400,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="C1" s="35"/>
       <c r="D1" s="2" t="s">
@@ -5199,13 +4422,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -5223,7 +4446,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="D3" s="4">
         <v>0.2</v>
@@ -5241,13 +4464,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -5266,7 +4489,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="29"/>
       <c r="C5" s="1" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="D5" s="4">
         <v>0.59</v>
@@ -5284,13 +4507,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="28" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -5309,7 +4532,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="29"/>
       <c r="C7" s="1" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="D7" s="4">
         <v>0.6</v>
@@ -5335,10 +4558,10 @@
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5359,42 +4582,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="58" t="s">
-        <v>86</v>
+      <c r="A2" s="57" t="s">
+        <v>83</v>
       </c>
       <c r="B2" s="53"/>
       <c r="C2" s="53"/>
@@ -5404,14 +4627,14 @@
       <c r="G2" s="53"/>
       <c r="H2" s="53"/>
       <c r="I2" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="J2" s="53"/>
       <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="58" t="s">
-        <v>132</v>
+      <c r="A3" s="57" t="s">
+        <v>114</v>
       </c>
       <c r="B3" s="53"/>
       <c r="C3" s="53"/>
@@ -5423,12 +4646,12 @@
       <c r="I3" s="53"/>
       <c r="J3" s="53"/>
       <c r="K3" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="58" t="s">
-        <v>131</v>
+      <c r="A4" s="57" t="s">
+        <v>113</v>
       </c>
       <c r="B4" s="53"/>
       <c r="C4" s="53"/>
@@ -5437,20 +4660,20 @@
       <c r="F4" s="53"/>
       <c r="G4" s="53"/>
       <c r="H4" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="I4" s="53"/>
       <c r="J4" s="53"/>
       <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="58" t="s">
-        <v>125</v>
+      <c r="A5" s="57" t="s">
+        <v>107</v>
       </c>
       <c r="B5" s="53"/>
       <c r="C5" s="53"/>
       <c r="D5" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="E5" s="53"/>
       <c r="F5" s="53"/>
@@ -5461,12 +4684,12 @@
       <c r="K5" s="53"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="58" t="s">
-        <v>160</v>
+      <c r="A6" s="57" t="s">
+        <v>142</v>
       </c>
       <c r="B6" s="53"/>
       <c r="C6" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="D6" s="53"/>
       <c r="E6" s="53"/>
@@ -5478,8 +4701,8 @@
       <c r="K6" s="53"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="58" t="s">
-        <v>142</v>
+      <c r="A7" s="57" t="s">
+        <v>124</v>
       </c>
       <c r="B7" s="53"/>
       <c r="C7" s="53"/>
@@ -5490,74 +4713,74 @@
       <c r="H7" s="53"/>
       <c r="I7" s="53"/>
       <c r="J7" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="58" t="s">
-        <v>89</v>
+      <c r="A8" s="57" t="s">
+        <v>86</v>
       </c>
       <c r="B8" s="53"/>
       <c r="C8" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="D8" s="53"/>
       <c r="E8" s="53"/>
       <c r="F8" s="53"/>
       <c r="G8" s="53"/>
       <c r="H8" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="I8" s="53"/>
       <c r="J8" s="53"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="58" t="s">
-        <v>88</v>
+      <c r="A9" s="57" t="s">
+        <v>85</v>
       </c>
       <c r="B9" s="53"/>
       <c r="C9" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="D9" s="53"/>
       <c r="E9" s="53"/>
       <c r="F9" s="53"/>
       <c r="G9" s="53"/>
       <c r="H9" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="I9" s="53"/>
       <c r="J9" s="53"/>
       <c r="K9" s="53"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="58" t="s">
-        <v>90</v>
+      <c r="A10" s="57" t="s">
+        <v>87</v>
       </c>
       <c r="B10" s="53"/>
       <c r="C10" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="D10" s="53"/>
       <c r="E10" s="53"/>
       <c r="F10" s="53"/>
       <c r="G10" s="53"/>
       <c r="H10" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="I10" s="53"/>
       <c r="J10" s="53"/>
       <c r="K10" s="53"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="58" t="s">
-        <v>104</v>
+      <c r="A11" s="57" t="s">
+        <v>164</v>
       </c>
       <c r="B11" s="53"/>
       <c r="C11" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="D11" s="53"/>
       <c r="E11" s="53"/>
@@ -5569,12 +4792,12 @@
       <c r="K11" s="53"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="58" t="s">
-        <v>97</v>
+      <c r="A12" s="57" t="s">
+        <v>165</v>
       </c>
       <c r="B12" s="53"/>
       <c r="C12" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="D12" s="53"/>
       <c r="E12" s="53"/>
@@ -5586,12 +4809,12 @@
       <c r="K12" s="53"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="58" t="s">
-        <v>103</v>
+      <c r="A13" s="57" t="s">
+        <v>166</v>
       </c>
       <c r="B13" s="53"/>
       <c r="C13" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="D13" s="53"/>
       <c r="E13" s="53"/>
@@ -5603,12 +4826,12 @@
       <c r="K13" s="53"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="58" t="s">
-        <v>96</v>
+      <c r="A14" s="57" t="s">
+        <v>167</v>
       </c>
       <c r="B14" s="53"/>
       <c r="C14" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="D14" s="53"/>
       <c r="E14" s="53"/>
@@ -5620,46 +4843,52 @@
       <c r="K14" s="53"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="58" t="s">
-        <v>102</v>
+      <c r="A15" s="57" t="s">
+        <v>80</v>
       </c>
       <c r="B15" s="53"/>
       <c r="C15" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="D15" s="53"/>
       <c r="E15" s="53"/>
       <c r="F15" s="53"/>
       <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
+      <c r="H15" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="I15" s="53" t="s">
+        <v>131</v>
+      </c>
       <c r="J15" s="53"/>
       <c r="K15" s="53"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="58" t="s">
-        <v>95</v>
+      <c r="A16" s="57" t="s">
+        <v>81</v>
       </c>
       <c r="B16" s="53"/>
       <c r="C16" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="D16" s="53"/>
       <c r="E16" s="53"/>
       <c r="F16" s="53"/>
       <c r="G16" s="53"/>
       <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
+      <c r="I16" s="53" t="s">
+        <v>131</v>
+      </c>
       <c r="J16" s="53"/>
       <c r="K16" s="53"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="58" t="s">
-        <v>105</v>
+      <c r="A17" s="57" t="s">
+        <v>88</v>
       </c>
       <c r="B17" s="53"/>
       <c r="C17" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="D17" s="53"/>
       <c r="E17" s="53"/>
@@ -5671,16 +4900,18 @@
       <c r="K17" s="53"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53" t="s">
-        <v>149</v>
-      </c>
+      <c r="A18" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="53"/>
       <c r="D18" s="53"/>
       <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
+      <c r="F18" s="53" t="s">
+        <v>131</v>
+      </c>
       <c r="G18" s="53"/>
       <c r="H18" s="53"/>
       <c r="I18" s="53"/>
@@ -5688,16 +4919,18 @@
       <c r="K18" s="53"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A19" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53" t="s">
-        <v>149</v>
-      </c>
+      <c r="A19" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="53"/>
       <c r="D19" s="53"/>
       <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
+      <c r="F19" s="53" t="s">
+        <v>131</v>
+      </c>
       <c r="G19" s="53"/>
       <c r="H19" s="53"/>
       <c r="I19" s="53"/>
@@ -5705,16 +4938,18 @@
       <c r="K19" s="53"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A20" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53" t="s">
-        <v>149</v>
-      </c>
+      <c r="A20" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="53"/>
       <c r="D20" s="53"/>
       <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
+      <c r="F20" s="53" t="s">
+        <v>131</v>
+      </c>
       <c r="G20" s="53"/>
       <c r="H20" s="53"/>
       <c r="I20" s="53"/>
@@ -5722,14 +4957,18 @@
       <c r="K20" s="53"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A21" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" s="53"/>
+      <c r="A21" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>131</v>
+      </c>
       <c r="C21" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="D21" s="53"/>
+        <v>131</v>
+      </c>
+      <c r="D21" s="53" t="s">
+        <v>131</v>
+      </c>
       <c r="E21" s="53"/>
       <c r="F21" s="53"/>
       <c r="G21" s="53"/>
@@ -5739,84 +4978,82 @@
       <c r="K21" s="53"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A22" s="58" t="s">
-        <v>99</v>
+      <c r="A22" s="57" t="s">
+        <v>79</v>
       </c>
       <c r="B22" s="53"/>
       <c r="C22" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="D22" s="53"/>
       <c r="E22" s="53"/>
       <c r="F22" s="53"/>
       <c r="G22" s="53"/>
       <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
+      <c r="I22" s="53" t="s">
+        <v>131</v>
+      </c>
       <c r="J22" s="53"/>
       <c r="K22" s="53"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A23" s="58" t="s">
-        <v>108</v>
+      <c r="A23" s="57" t="s">
+        <v>111</v>
       </c>
       <c r="B23" s="53"/>
-      <c r="C23" s="53" t="s">
-        <v>149</v>
-      </c>
+      <c r="C23" s="53"/>
       <c r="D23" s="53"/>
       <c r="E23" s="53"/>
       <c r="F23" s="53"/>
       <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
+      <c r="H23" s="53" t="s">
+        <v>131</v>
+      </c>
       <c r="I23" s="53"/>
       <c r="J23" s="53"/>
       <c r="K23" s="53"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A24" s="58" t="s">
-        <v>101</v>
+      <c r="A24" s="57" t="s">
+        <v>112</v>
       </c>
       <c r="B24" s="53"/>
-      <c r="C24" s="53" t="s">
-        <v>149</v>
-      </c>
+      <c r="C24" s="53"/>
       <c r="D24" s="53"/>
       <c r="E24" s="53"/>
       <c r="F24" s="53"/>
       <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
+      <c r="H24" s="53" t="s">
+        <v>131</v>
+      </c>
       <c r="I24" s="53"/>
       <c r="J24" s="53"/>
       <c r="K24" s="53"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A25" s="58" t="s">
-        <v>81</v>
+      <c r="A25" s="57" t="s">
+        <v>90</v>
       </c>
       <c r="B25" s="53"/>
       <c r="C25" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="D25" s="53"/>
       <c r="E25" s="53"/>
       <c r="F25" s="53"/>
       <c r="G25" s="53"/>
-      <c r="H25" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="I25" s="53" t="s">
-        <v>149</v>
-      </c>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
       <c r="J25" s="53"/>
       <c r="K25" s="53"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A26" s="58" t="s">
-        <v>83</v>
+      <c r="A26" s="57" t="s">
+        <v>82</v>
       </c>
       <c r="B26" s="53"/>
       <c r="C26" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="D26" s="53"/>
       <c r="E26" s="53"/>
@@ -5824,39 +5061,39 @@
       <c r="G26" s="53"/>
       <c r="H26" s="53"/>
       <c r="I26" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="J26" s="53"/>
       <c r="K26" s="53"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A27" s="58" t="s">
-        <v>82</v>
+      <c r="A27" s="57" t="s">
+        <v>99</v>
       </c>
       <c r="B27" s="53"/>
-      <c r="C27" s="53" t="s">
-        <v>149</v>
-      </c>
+      <c r="C27" s="53"/>
       <c r="D27" s="53"/>
       <c r="E27" s="53"/>
       <c r="F27" s="53"/>
       <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53" t="s">
-        <v>149</v>
-      </c>
+      <c r="H27" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="I27" s="53"/>
       <c r="J27" s="53"/>
       <c r="K27" s="53"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A28" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="D28" s="53"/>
+      <c r="A28" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53" t="s">
+        <v>131</v>
+      </c>
       <c r="E28" s="53"/>
       <c r="F28" s="53"/>
       <c r="G28" s="53"/>
@@ -5866,452 +5103,195 @@
       <c r="K28" s="53"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A29" s="58" t="s">
-        <v>80</v>
+      <c r="A29" s="57" t="s">
+        <v>92</v>
       </c>
       <c r="B29" s="53"/>
-      <c r="C29" s="53" t="s">
-        <v>149</v>
-      </c>
+      <c r="C29" s="53"/>
       <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
+      <c r="E29" s="53" t="s">
+        <v>131</v>
+      </c>
       <c r="F29" s="53"/>
       <c r="G29" s="53"/>
       <c r="H29" s="53"/>
-      <c r="I29" s="53" t="s">
-        <v>149</v>
-      </c>
+      <c r="I29" s="53"/>
       <c r="J29" s="53"/>
       <c r="K29" s="53"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A30" s="58" t="s">
-        <v>129</v>
+      <c r="A30" s="57" t="s">
+        <v>94</v>
       </c>
       <c r="B30" s="53"/>
       <c r="C30" s="53"/>
       <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
+      <c r="E30" s="53" t="s">
+        <v>131</v>
+      </c>
       <c r="F30" s="53"/>
       <c r="G30" s="53"/>
-      <c r="H30" s="53" t="s">
-        <v>149</v>
-      </c>
+      <c r="H30" s="53"/>
       <c r="I30" s="53"/>
       <c r="J30" s="53"/>
       <c r="K30" s="53"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A31" s="58" t="s">
-        <v>130</v>
+      <c r="A31" s="57" t="s">
+        <v>108</v>
       </c>
       <c r="B31" s="53"/>
       <c r="C31" s="53"/>
       <c r="D31" s="53"/>
       <c r="E31" s="53"/>
       <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
+      <c r="G31" s="53" t="s">
+        <v>131</v>
+      </c>
       <c r="H31" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="I31" s="53"/>
       <c r="J31" s="53"/>
       <c r="K31" s="53"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A32" s="58" t="s">
-        <v>85</v>
+      <c r="A32" s="57" t="s">
+        <v>102</v>
       </c>
       <c r="B32" s="53"/>
-      <c r="C32" s="53" t="s">
-        <v>149</v>
-      </c>
+      <c r="C32" s="53"/>
       <c r="D32" s="53"/>
       <c r="E32" s="53"/>
       <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53" t="s">
-        <v>149</v>
-      </c>
+      <c r="G32" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="H32" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="I32" s="53"/>
       <c r="J32" s="53"/>
       <c r="K32" s="53"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A33" s="58" t="s">
-        <v>84</v>
+      <c r="A33" s="57" t="s">
+        <v>103</v>
       </c>
       <c r="B33" s="53"/>
-      <c r="C33" s="53" t="s">
-        <v>149</v>
-      </c>
+      <c r="C33" s="53"/>
       <c r="D33" s="53"/>
       <c r="E33" s="53"/>
       <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53" t="s">
-        <v>149</v>
-      </c>
+      <c r="G33" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="H33" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="I33" s="53"/>
       <c r="J33" s="53"/>
       <c r="K33" s="53"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="58" t="s">
-        <v>117</v>
+      <c r="A34" s="57" t="s">
+        <v>104</v>
       </c>
       <c r="B34" s="53"/>
       <c r="C34" s="53"/>
       <c r="D34" s="53"/>
       <c r="E34" s="53"/>
       <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
+      <c r="G34" s="53" t="s">
+        <v>131</v>
+      </c>
       <c r="H34" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="I34" s="53"/>
       <c r="J34" s="53"/>
       <c r="K34" s="53"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" s="53" t="s">
-        <v>149</v>
-      </c>
+      <c r="A35" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="53"/>
       <c r="C35" s="53"/>
-      <c r="D35" s="53" t="s">
-        <v>149</v>
-      </c>
+      <c r="D35" s="53"/>
       <c r="E35" s="53"/>
       <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
+      <c r="G35" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="H35" s="53" t="s">
+        <v>131</v>
+      </c>
       <c r="I35" s="53"/>
       <c r="J35" s="53"/>
       <c r="K35" s="53"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A36" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="C36" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="D36" s="53" t="s">
-        <v>149</v>
-      </c>
+      <c r="A36" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
       <c r="E36" s="53"/>
       <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
+      <c r="G36" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="H36" s="53" t="s">
+        <v>131</v>
+      </c>
       <c r="I36" s="53"/>
       <c r="J36" s="53"/>
       <c r="K36" s="53"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A37" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="C37" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="D37" s="53" t="s">
-        <v>149</v>
-      </c>
+      <c r="A37" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
       <c r="E37" s="53"/>
       <c r="F37" s="53"/>
       <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
+      <c r="H37" s="53" t="s">
+        <v>131</v>
+      </c>
       <c r="I37" s="53"/>
       <c r="J37" s="53"/>
       <c r="K37" s="53"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A38" s="58" t="s">
-        <v>94</v>
-      </c>
-      <c r="B38" s="53"/>
-      <c r="C38" s="53" t="s">
-        <v>149</v>
-      </c>
+      <c r="A38" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" s="53"/>
       <c r="D38" s="53"/>
       <c r="E38" s="53"/>
       <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
+      <c r="G38" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="H38" s="53" t="s">
+        <v>131</v>
+      </c>
       <c r="I38" s="53"/>
       <c r="J38" s="53"/>
       <c r="K38" s="53"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A39" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="B39" s="53"/>
-      <c r="C39" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="53"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A40" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="B40" s="53"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A41" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="B41" s="53"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="53"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A42" s="58" t="s">
-        <v>126</v>
-      </c>
-      <c r="B42" s="53"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="H42" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A43" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="B43" s="53"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="H43" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="53"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A44" s="58" t="s">
-        <v>121</v>
-      </c>
-      <c r="B44" s="53"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="H44" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="I44" s="53"/>
-      <c r="J44" s="53"/>
-      <c r="K44" s="53"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A45" s="58" t="s">
-        <v>122</v>
-      </c>
-      <c r="B45" s="53"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="H45" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="I45" s="53"/>
-      <c r="J45" s="53"/>
-      <c r="K45" s="53"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A46" s="58" t="s">
-        <v>124</v>
-      </c>
-      <c r="B46" s="53"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="H46" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="I46" s="53"/>
-      <c r="J46" s="53"/>
-      <c r="K46" s="53"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A47" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B47" s="53"/>
-      <c r="C47" s="53"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="H47" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="I47" s="53"/>
-      <c r="J47" s="53"/>
-      <c r="K47" s="53"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A48" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="B48" s="53"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="53"/>
-      <c r="G48" s="53"/>
-      <c r="H48" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="I48" s="53"/>
-      <c r="J48" s="53"/>
-      <c r="K48" s="53"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A49" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="B49" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="C49" s="53"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="H49" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="I49" s="53"/>
-      <c r="J49" s="53"/>
-      <c r="K49" s="53"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A50" s="58" t="s">
-        <v>146</v>
-      </c>
-      <c r="B50" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="C50" s="53"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="G50" s="53"/>
-      <c r="H50" s="53"/>
-      <c r="I50" s="53"/>
-      <c r="J50" s="53"/>
-      <c r="K50" s="53"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A51" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="B51" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="C51" s="53"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="G51" s="53"/>
-      <c r="H51" s="53"/>
-      <c r="I51" s="53"/>
-      <c r="J51" s="53"/>
-      <c r="K51" s="53"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A52" s="58" t="s">
-        <v>144</v>
-      </c>
-      <c r="B52" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="C52" s="53"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="G52" s="53"/>
-      <c r="H52" s="53"/>
-      <c r="I52" s="53"/>
-      <c r="J52" s="53"/>
-      <c r="K52" s="53"/>
-    </row>
   </sheetData>
+  <sortState ref="A2:K38">
+    <sortCondition ref="A2:A38"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6345,37 +5325,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -6383,29 +5363,29 @@
         <v>45</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="E2" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="F2" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="G2" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="H2" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="I2" s="53"/>
       <c r="J2" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="K2" s="53"/>
     </row>
@@ -6414,29 +5394,29 @@
         <v>44</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="D3" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="E3" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="F3" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="G3" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="H3" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="I3" s="53"/>
       <c r="J3" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="K3" s="53"/>
     </row>
@@ -6445,29 +5425,29 @@
         <v>43</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="E4" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="G4" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="H4" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="I4" s="53"/>
       <c r="J4" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="K4" s="53"/>
     </row>
@@ -6476,29 +5456,29 @@
         <v>42</v>
       </c>
       <c r="B5" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="E5" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="F5" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="G5" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="H5" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="I5" s="53"/>
       <c r="J5" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="K5" s="53"/>
     </row>
@@ -6507,29 +5487,29 @@
         <v>41</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="E6" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="F6" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="G6" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="H6" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="I6" s="53"/>
       <c r="J6" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="K6" s="53"/>
     </row>
@@ -6539,17 +5519,17 @@
       </c>
       <c r="B7" s="53"/>
       <c r="C7" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="D7" s="53"/>
       <c r="E7" s="53"/>
       <c r="F7" s="53"/>
       <c r="G7" s="53"/>
       <c r="H7" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="I7" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="J7" s="53"/>
       <c r="K7" s="53"/>
@@ -6560,17 +5540,17 @@
       </c>
       <c r="B8" s="53"/>
       <c r="C8" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="D8" s="53"/>
       <c r="E8" s="53"/>
       <c r="F8" s="53"/>
       <c r="G8" s="53"/>
       <c r="H8" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="I8" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="J8" s="53"/>
       <c r="K8" s="53"/>
@@ -6581,17 +5561,17 @@
       </c>
       <c r="B9" s="53"/>
       <c r="C9" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="D9" s="53"/>
       <c r="E9" s="53"/>
       <c r="F9" s="53"/>
       <c r="G9" s="53"/>
       <c r="H9" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="I9" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="J9" s="53"/>
       <c r="K9" s="53"/>
@@ -6602,17 +5582,17 @@
       </c>
       <c r="B10" s="53"/>
       <c r="C10" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="D10" s="53"/>
       <c r="E10" s="53"/>
       <c r="F10" s="53"/>
       <c r="G10" s="53"/>
       <c r="H10" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="I10" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="J10" s="53"/>
       <c r="K10" s="53"/>
@@ -6623,7 +5603,7 @@
       </c>
       <c r="B11" s="53"/>
       <c r="C11" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="D11" s="53"/>
       <c r="E11" s="53"/>
@@ -6640,7 +5620,7 @@
       </c>
       <c r="B12" s="53"/>
       <c r="C12" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="D12" s="53"/>
       <c r="E12" s="53"/>
@@ -6657,7 +5637,7 @@
       </c>
       <c r="B13" s="53"/>
       <c r="C13" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="D13" s="53"/>
       <c r="E13" s="53"/>
@@ -6674,7 +5654,7 @@
       </c>
       <c r="B14" s="53"/>
       <c r="C14" s="53" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="D14" s="53"/>
       <c r="E14" s="53"/>
@@ -6711,13 +5691,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>45</v>
@@ -6737,13 +5717,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>137</v>
+        <v>150</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>119</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="D2" s="52">
         <v>1</v>
@@ -6762,9 +5742,9 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="57"/>
+      <c r="B3" s="59"/>
       <c r="C3" s="1" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="D3" s="52">
         <v>1</v>
@@ -6784,9 +5764,9 @@
       <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="57"/>
+      <c r="B4" s="59"/>
       <c r="C4" s="1" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="D4" s="52">
         <v>1</v>
@@ -6806,11 +5786,11 @@
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="59" t="s">
         <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="D5" s="52">
         <f>5.16</f>
@@ -6830,9 +5810,9 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="57"/>
+      <c r="B6" s="59"/>
       <c r="C6" s="1" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="D6" s="52">
         <v>5.16</v>
@@ -6851,9 +5831,9 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="57"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="1" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="D7" s="52">
         <v>1</v>
@@ -6872,11 +5852,11 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="59" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="D8" s="52">
         <v>1</v>
@@ -6895,9 +5875,9 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="57"/>
+      <c r="B9" s="59"/>
       <c r="C9" s="1" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="D9" s="52">
         <v>1</v>
@@ -6916,9 +5896,9 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="57"/>
+      <c r="B10" s="59"/>
       <c r="C10" s="1" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="D10" s="52">
         <v>1</v>
@@ -6937,11 +5917,11 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="59" t="s">
         <v>43</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="D11" s="52">
         <v>1</v>
@@ -6960,9 +5940,9 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="57"/>
+      <c r="B12" s="59"/>
       <c r="C12" s="1" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="D12" s="52">
         <v>1</v>
@@ -6981,9 +5961,9 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="57"/>
+      <c r="B13" s="59"/>
       <c r="C13" s="1" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="D13" s="52">
         <v>1</v>
@@ -7002,11 +5982,11 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="59" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="D14" s="52">
         <v>1</v>
@@ -7025,9 +6005,9 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="57"/>
+      <c r="B15" s="59"/>
       <c r="C15" s="1" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="D15" s="52">
         <v>1</v>
@@ -7046,9 +6026,9 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="57"/>
+      <c r="B16" s="59"/>
       <c r="C16" s="1" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="D16" s="52">
         <v>1</v>
@@ -7068,10 +6048,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B17" s="40" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="D17" s="51">
         <v>1.05</v>
@@ -7098,13 +6078,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="B19" s="57" t="s">
-        <v>137</v>
+        <v>151</v>
+      </c>
+      <c r="B19" s="59" t="s">
+        <v>119</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="D19" s="52">
         <v>1</v>
@@ -7123,9 +6103,9 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="57"/>
+      <c r="B20" s="59"/>
       <c r="C20" s="1" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="D20" s="52">
         <v>1</v>
@@ -7144,9 +6124,9 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="57"/>
+      <c r="B21" s="59"/>
       <c r="C21" s="1" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="D21" s="52">
         <v>1</v>
@@ -7165,11 +6145,11 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="59" t="s">
         <v>45</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="D22" s="52">
         <v>1</v>
@@ -7188,9 +6168,9 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="57"/>
+      <c r="B23" s="59"/>
       <c r="C23" s="1" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="D23" s="52">
         <v>1</v>
@@ -7209,9 +6189,9 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="57"/>
+      <c r="B24" s="59"/>
       <c r="C24" s="1" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="D24" s="52">
         <v>1</v>
@@ -7230,11 +6210,11 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="59" t="s">
         <v>44</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="D25" s="52">
         <v>1</v>
@@ -7253,9 +6233,9 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="57"/>
+      <c r="B26" s="59"/>
       <c r="C26" s="1" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="D26" s="52">
         <v>1</v>
@@ -7274,9 +6254,9 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="57"/>
+      <c r="B27" s="59"/>
       <c r="C27" s="1" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="D27" s="52">
         <v>1</v>
@@ -7295,11 +6275,11 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="59" t="s">
         <v>43</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="D28" s="52">
         <v>1</v>
@@ -7318,9 +6298,9 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="57"/>
+      <c r="B29" s="59"/>
       <c r="C29" s="1" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="D29" s="52">
         <v>1</v>
@@ -7339,9 +6319,9 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="57"/>
+      <c r="B30" s="59"/>
       <c r="C30" s="1" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="D30" s="52">
         <v>1</v>
@@ -7360,11 +6340,11 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="57" t="s">
+      <c r="B31" s="59" t="s">
         <v>42</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="D31" s="52">
         <v>1</v>
@@ -7383,9 +6363,9 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="57"/>
+      <c r="B32" s="59"/>
       <c r="C32" s="1" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="D32" s="52">
         <v>1</v>
@@ -7404,9 +6384,9 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B33" s="57"/>
+      <c r="B33" s="59"/>
       <c r="C33" s="1" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="D33" s="52">
         <v>1</v>
@@ -7426,10 +6406,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B34" s="41" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="D34" s="51">
         <v>1.05</v>
@@ -7449,13 +6429,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B36" s="57" t="s">
-        <v>137</v>
+        <v>152</v>
+      </c>
+      <c r="B36" s="59" t="s">
+        <v>119</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="D36" s="52">
         <v>1</v>
@@ -7474,9 +6454,9 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B37" s="57"/>
+      <c r="B37" s="59"/>
       <c r="C37" s="1" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="D37" s="52">
         <v>1</v>
@@ -7495,9 +6475,9 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B38" s="57"/>
+      <c r="B38" s="59"/>
       <c r="C38" s="1" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="D38" s="52">
         <v>1</v>
@@ -7516,11 +6496,11 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B39" s="57" t="s">
+      <c r="B39" s="59" t="s">
         <v>45</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="D39" s="52">
         <v>1</v>
@@ -7539,9 +6519,9 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B40" s="57"/>
+      <c r="B40" s="59"/>
       <c r="C40" s="1" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="D40" s="52">
         <v>1</v>
@@ -7560,9 +6540,9 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B41" s="57"/>
+      <c r="B41" s="59"/>
       <c r="C41" s="1" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="D41" s="52">
         <v>1</v>
@@ -7581,11 +6561,11 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B42" s="57" t="s">
+      <c r="B42" s="59" t="s">
         <v>44</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="D42" s="52">
         <v>1</v>
@@ -7604,9 +6584,9 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B43" s="57"/>
+      <c r="B43" s="59"/>
       <c r="C43" s="1" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="D43" s="52">
         <v>1</v>
@@ -7625,9 +6605,9 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B44" s="57"/>
+      <c r="B44" s="59"/>
       <c r="C44" s="1" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="D44" s="52">
         <v>1</v>
@@ -7646,11 +6626,11 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B45" s="57" t="s">
+      <c r="B45" s="59" t="s">
         <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="D45" s="52">
         <v>1</v>
@@ -7669,9 +6649,9 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B46" s="57"/>
+      <c r="B46" s="59"/>
       <c r="C46" s="1" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="D46" s="52">
         <v>1</v>
@@ -7690,9 +6670,9 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B47" s="57"/>
+      <c r="B47" s="59"/>
       <c r="C47" s="1" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="D47" s="52">
         <v>1</v>
@@ -7711,11 +6691,11 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B48" s="57" t="s">
+      <c r="B48" s="59" t="s">
         <v>42</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="D48" s="52">
         <v>1</v>
@@ -7734,9 +6714,9 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B49" s="57"/>
+      <c r="B49" s="59"/>
       <c r="C49" s="1" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="D49" s="52">
         <v>1</v>
@@ -7755,9 +6735,9 @@
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B50" s="57"/>
+      <c r="B50" s="59"/>
       <c r="C50" s="1" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="D50" s="52">
         <v>1</v>
@@ -7777,10 +6757,10 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B51" s="40" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="D51" s="51">
         <v>1</v>
@@ -7864,7 +6844,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8029,7 +7009,7 @@
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="21"/>
@@ -8389,8 +7369,8 @@
   </sheetPr>
   <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8411,7 +7391,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="27" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>51</v>
@@ -8449,7 +7429,7 @@
         <v>50</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
@@ -8477,7 +7457,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C4" s="28" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -8505,7 +7485,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C5" s="28" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -8533,7 +7513,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C6" s="28" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -8564,7 +7544,7 @@
         <v>49</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
@@ -8592,7 +7572,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C8" s="28" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
@@ -8620,7 +7600,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C9" s="28" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
@@ -8648,7 +7628,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C10" s="28" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -8679,7 +7659,7 @@
         <v>58</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="D11" s="5">
         <v>1</v>
@@ -8707,7 +7687,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C12" s="28" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -8735,7 +7715,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C13" s="28" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -8763,7 +7743,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C14" s="28" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -8794,7 +7774,7 @@
         <v>57</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="D15" s="5">
         <v>1</v>
@@ -8822,7 +7802,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C16" s="28" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -8850,7 +7830,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C17" s="28" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -8878,7 +7858,7 @@
     </row>
     <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="28" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -8909,7 +7889,7 @@
         <v>48</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="D19" s="5">
         <v>1</v>
@@ -8937,7 +7917,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C20" s="28" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -8965,7 +7945,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C21" s="28" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
@@ -8993,7 +7973,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C22" s="28" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
@@ -9024,7 +8004,7 @@
         <v>56</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="D23" s="5">
         <v>1</v>
@@ -9052,7 +8032,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C24" s="28" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="D24" s="4">
         <v>1</v>
@@ -9080,7 +8060,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C25" s="28" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
@@ -9108,7 +8088,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C26" s="28" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -9141,7 +8121,7 @@
     </row>
     <row r="29" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="33" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="B29" s="32" t="s">
         <v>51</v>
@@ -9179,7 +8159,7 @@
         <v>50</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="D30" s="5">
         <v>1</v>
@@ -9207,7 +8187,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C31" s="28" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -9294,7 +8274,7 @@
         <v>49</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="D34" s="5">
         <v>1</v>
@@ -9322,7 +8302,7 @@
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C35" s="28" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -9409,7 +8389,7 @@
         <v>58</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="D38" s="5">
         <v>1</v>
@@ -9437,7 +8417,7 @@
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C39" s="28" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="D39" s="4">
         <v>1</v>
@@ -9524,7 +8504,7 @@
         <v>57</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="D42" s="5">
         <v>1</v>
@@ -9552,7 +8532,7 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C43" s="28" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
@@ -9639,7 +8619,7 @@
         <v>48</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="D46" s="5">
         <v>1</v>
@@ -9667,7 +8647,7 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C47" s="28" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
@@ -9754,7 +8734,7 @@
         <v>56</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="D50" s="5">
         <v>1</v>
@@ -9782,7 +8762,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C51" s="28" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="D51" s="4">
         <v>1</v>
@@ -9875,7 +8855,7 @@
     </row>
     <row r="56" spans="1:16" s="29" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A56" s="33" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="B56" s="32" t="s">
         <v>51</v>
@@ -9907,7 +8887,7 @@
         <v>55</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="D57" s="5">
         <v>1</v>
@@ -9929,7 +8909,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C58" s="28" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="D58" s="4">
         <v>10.675000000000001</v>
@@ -9954,7 +8934,7 @@
         <v>54</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="D59" s="5">
         <v>1</v>
@@ -9976,7 +8956,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C60" s="28" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="D60" s="4">
         <v>10.675000000000001</v>
@@ -10001,7 +8981,7 @@
         <v>53</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="D61" s="5">
         <v>1</v>
@@ -10023,7 +9003,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C62" s="28" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="D62" s="4">
         <v>10.675000000000001</v>
@@ -10054,7 +9034,7 @@
     </row>
     <row r="65" spans="1:16" s="29" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A65" s="33" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B65" s="32" t="s">
         <v>51</v>
@@ -10092,7 +9072,7 @@
         <v>7</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="D66" s="5">
         <v>1</v>
@@ -10120,7 +9100,7 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C67" s="28" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="D67" s="4">
         <v>1.35</v>
@@ -10148,7 +9128,7 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C68" s="28" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="D68" s="4">
         <v>1.35</v>
@@ -10176,7 +9156,7 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C69" s="28" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="D69" s="4">
         <v>5.4</v>
@@ -10207,7 +9187,7 @@
         <v>6</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="D70" s="5">
         <v>1</v>
@@ -10235,7 +9215,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C71" s="28" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="D71" s="4">
         <v>1.35</v>
@@ -10263,7 +9243,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C72" s="28" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="D72" s="4">
         <v>1.35</v>
@@ -10291,7 +9271,7 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C73" s="28" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="D73" s="4">
         <v>5.4</v>
@@ -10322,7 +9302,7 @@
         <v>5</v>
       </c>
       <c r="C74" s="28" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="D74" s="5">
         <v>1</v>
@@ -10350,7 +9330,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C75" s="28" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="D75" s="4">
         <v>1.35</v>
@@ -10378,7 +9358,7 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C76" s="28" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="D76" s="4">
         <v>1.35</v>
@@ -10406,7 +9386,7 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C77" s="28" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="D77" s="4">
         <v>5.4</v>
@@ -10437,7 +9417,7 @@
         <v>3</v>
       </c>
       <c r="C78" s="28" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="D78" s="5">
         <v>1</v>
@@ -10465,7 +9445,7 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C79" s="28" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="D79" s="4">
         <v>1</v>
@@ -10493,7 +9473,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C80" s="28" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
@@ -10521,7 +9501,7 @@
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C81" s="28" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -10552,7 +9532,7 @@
         <v>50</v>
       </c>
       <c r="C82" s="28" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="D82" s="5">
         <v>1</v>
@@ -10580,7 +9560,7 @@
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C83" s="28" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="D83" s="4">
         <v>1</v>
@@ -10608,7 +9588,7 @@
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C84" s="28" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="D84" s="4">
         <v>1</v>
@@ -10636,7 +9616,7 @@
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C85" s="28" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="D85" s="4">
         <v>1</v>
@@ -10667,7 +9647,7 @@
         <v>49</v>
       </c>
       <c r="C86" s="28" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="D86" s="5">
         <v>1</v>
@@ -10695,7 +9675,7 @@
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C87" s="28" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
@@ -10723,7 +9703,7 @@
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C88" s="28" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="D88" s="4">
         <v>1</v>
@@ -10751,7 +9731,7 @@
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C89" s="28" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
@@ -10782,7 +9762,7 @@
         <v>58</v>
       </c>
       <c r="C90" s="28" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="D90" s="5">
         <v>1</v>
@@ -10810,7 +9790,7 @@
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C91" s="28" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="D91" s="4">
         <v>1</v>
@@ -10838,7 +9818,7 @@
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C92" s="28" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="D92" s="4">
         <v>1</v>
@@ -10866,7 +9846,7 @@
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C93" s="28" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -10897,7 +9877,7 @@
         <v>48</v>
       </c>
       <c r="C94" s="28" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="D94" s="5">
         <v>1</v>
@@ -10925,7 +9905,7 @@
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C95" s="28" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="D95" s="4">
         <v>1</v>
@@ -10953,7 +9933,7 @@
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C96" s="28" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="D96" s="4">
         <v>1</v>
@@ -10981,7 +9961,7 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C97" s="28" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="D97" s="4">
         <v>1</v>
@@ -11009,10 +9989,10 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B98" s="1" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="C98" s="28" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="D98" s="5">
         <v>1</v>
@@ -11040,7 +10020,7 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C99" s="28" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="D99" s="4">
         <v>1</v>
@@ -11068,7 +10048,7 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C100" s="28" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="D100" s="4">
         <v>1</v>
@@ -11096,7 +10076,7 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C101" s="28" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="D101" s="4">
         <v>1</v>
@@ -11132,7 +10112,7 @@
         <v>50</v>
       </c>
       <c r="B104" s="55" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="C104" s="31" t="s">
         <v>46</v>
@@ -11165,7 +10145,7 @@
       <c r="A105" s="2"/>
       <c r="B105" s="29"/>
       <c r="C105" s="28" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="D105" s="5">
         <v>1</v>
@@ -11193,7 +10173,7 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C106" s="28" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="D106" s="4">
         <v>1.26</v>
@@ -11221,7 +10201,7 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C107" s="28" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="D107" s="4">
         <v>1.68</v>
@@ -11249,7 +10229,7 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C108" s="28" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="D108" s="4">
         <v>2.65</v>
@@ -11289,10 +10269,10 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -11308,12 +10288,12 @@
   <sheetData>
     <row r="1" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="54" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="2" t="s">
@@ -11334,10 +10314,10 @@
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3" s="4">
         <v>45</v>
@@ -11355,7 +10335,7 @@
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="6" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="C4" s="4">
         <v>1.0249999999999999</v>
@@ -11375,12 +10355,12 @@
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -11400,7 +10380,7 @@
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -11420,7 +10400,7 @@
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
@@ -11440,7 +10420,7 @@
     </row>
     <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="6" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
@@ -11449,47 +10429,48 @@
         <v>1</v>
       </c>
       <c r="E9" s="4">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="F9" s="4">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="G9" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1</v>
-      </c>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="18" t="s">
+    <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="18" t="s">
         <v>69</v>
       </c>
     </row>
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1.0249999999999999</v>
+      </c>
+    </row>
     <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="54" t="s">
-        <v>165</v>
-      </c>
+      <c r="A13" s="2"/>
       <c r="B13" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" s="4">
         <v>1.0249999999999999</v>
@@ -11508,9 +10489,11 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
-      <c r="B14" s="6" t="s">
-        <v>67</v>
+      <c r="A14" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="C14" s="4">
         <v>1.0249999999999999</v>
@@ -11528,30 +10511,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="54" t="s">
-        <v>157</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C15" s="4">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="E15" s="4">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="F15" s="4">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="G15" s="4">
-        <v>1.0249999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -11564,10 +10524,10 @@
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11581,7 +10541,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
@@ -11599,10 +10559,10 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" s="4">
         <v>0.21</v>
@@ -11619,7 +10579,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
@@ -11636,10 +10596,10 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" s="4">
         <v>0.23</v>
@@ -11656,7 +10616,7 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -11673,16 +10633,16 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="4">
-        <v>0.23</v>
+        <v>0.15</v>
       </c>
       <c r="D6" s="4">
-        <v>0.23</v>
+        <v>0.15</v>
       </c>
       <c r="E6" s="4">
         <v>0</v>
@@ -11693,7 +10653,7 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -11710,16 +10670,16 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="4">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="D8" s="4">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="E8" s="4">
         <v>0</v>
@@ -11730,33 +10690,33 @@
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="4">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="C10" s="4">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="D10" s="4">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="E10" s="4">
         <v>0</v>
@@ -11767,7 +10727,7 @@
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
@@ -11776,83 +10736,9 @@
         <v>1</v>
       </c>
       <c r="E11" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0.35</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0.35</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="4">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0.35</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0.35</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="4">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4">
         <v>0</v>
       </c>
     </row>
@@ -11867,10 +10753,10 @@
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B16" sqref="B16:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -11926,18 +10812,18 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B3" s="36" t="s">
-        <v>83</v>
+      <c r="B3" s="37" t="s">
+        <v>142</v>
       </c>
       <c r="C3" s="4">
-        <v>1</v>
+        <v>0.53</v>
       </c>
       <c r="D3" s="4">
-        <v>1</v>
+        <v>0.53</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
@@ -11961,21 +10847,21 @@
         <v>1</v>
       </c>
       <c r="L3" s="4">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="M3" s="4">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="N3" s="4">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="O3" s="4">
-        <v>0.33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B4" s="36" t="s">
-        <v>82</v>
+      <c r="B4" s="37" t="s">
+        <v>164</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -11993,33 +10879,33 @@
         <v>1</v>
       </c>
       <c r="H4" s="4">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="I4" s="4">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="J4" s="4">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="K4" s="4">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="L4" s="4">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="M4" s="4">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="N4" s="4">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="O4" s="4">
-        <v>0.33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B5" s="37" t="s">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -12037,33 +10923,33 @@
         <v>1</v>
       </c>
       <c r="H5" s="4">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="I5" s="4">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="J5" s="4">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="K5" s="4">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="L5" s="4">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="M5" s="4">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="N5" s="4">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="O5" s="4">
-        <v>0.33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B6" s="37" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -12081,33 +10967,33 @@
         <v>1</v>
       </c>
       <c r="H6" s="4">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="I6" s="4">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="J6" s="4">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="K6" s="4">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="L6" s="4">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="M6" s="4">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="N6" s="4">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="O6" s="4">
-        <v>0.33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B7" s="37" t="s">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -12125,33 +11011,33 @@
         <v>1</v>
       </c>
       <c r="H7" s="4">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="I7" s="4">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="J7" s="4">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="K7" s="4">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="L7" s="4">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="M7" s="4">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="N7" s="4">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="O7" s="4">
-        <v>0.83</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
@@ -12169,33 +11055,33 @@
         <v>1</v>
       </c>
       <c r="H8" s="4">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="I8" s="4">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="J8" s="4">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="K8" s="4">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="L8" s="4">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="M8" s="4">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="N8" s="4">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="O8" s="4">
-        <v>1</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B9" s="37" t="s">
-        <v>107</v>
+      <c r="B9" s="36" t="s">
+        <v>81</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
@@ -12213,33 +11099,33 @@
         <v>1</v>
       </c>
       <c r="H9" s="4">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="I9" s="4">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="J9" s="4">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="K9" s="4">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="L9" s="4">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="M9" s="4">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="N9" s="4">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="O9" s="4">
-        <v>1</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B10" s="37" t="s">
-        <v>106</v>
+      <c r="B10" s="36" t="s">
+        <v>70</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
@@ -12248,25 +11134,25 @@
         <v>1</v>
       </c>
       <c r="E10" s="4">
-        <v>1</v>
+        <v>0.69</v>
       </c>
       <c r="F10" s="4">
-        <v>1</v>
+        <v>0.69</v>
       </c>
       <c r="G10" s="4">
         <v>1</v>
       </c>
       <c r="H10" s="4">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="I10" s="4">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="J10" s="4">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="K10" s="4">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="L10" s="4">
         <v>1</v>
@@ -12283,51 +11169,51 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B11" s="37" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="C11" s="4">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="D11" s="4">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="E11" s="4">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="F11" s="4">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="G11" s="4">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="H11" s="4">
-        <v>0.73</v>
+        <v>0.83</v>
       </c>
       <c r="I11" s="4">
-        <v>0.73</v>
+        <v>0.83</v>
       </c>
       <c r="J11" s="4">
-        <v>0.73</v>
+        <v>0.83</v>
       </c>
       <c r="K11" s="4">
-        <v>0.73</v>
+        <v>0.83</v>
       </c>
       <c r="L11" s="4">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="M11" s="4">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="N11" s="4">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="O11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="37" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C12" s="4">
         <v>1</v>
@@ -12336,25 +11222,25 @@
         <v>1</v>
       </c>
       <c r="E12" s="4">
-        <v>1</v>
+        <v>0.69</v>
       </c>
       <c r="F12" s="4">
-        <v>1</v>
+        <v>0.69</v>
       </c>
       <c r="G12" s="4">
-        <v>1</v>
+        <v>0.69</v>
       </c>
       <c r="H12" s="4">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="I12" s="4">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="J12" s="4">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="K12" s="4">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="L12" s="4">
         <v>1</v>
@@ -12371,7 +11257,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B13" s="37" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
@@ -12389,121 +11275,39 @@
         <v>1</v>
       </c>
       <c r="H13" s="4">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="I13" s="4">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="J13" s="4">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="K13" s="4">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="L13" s="4">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="M13" s="4">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="N13" s="4">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="O13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B14" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-      <c r="F14" s="4">
-        <v>1</v>
-      </c>
-      <c r="G14" s="4">
-        <v>1</v>
-      </c>
-      <c r="H14" s="4">
-        <v>0.73</v>
-      </c>
-      <c r="I14" s="4">
-        <v>0.73</v>
-      </c>
-      <c r="J14" s="4">
-        <v>0.73</v>
-      </c>
-      <c r="K14" s="4">
-        <v>0.73</v>
-      </c>
-      <c r="L14" s="4">
-        <v>1</v>
-      </c>
-      <c r="M14" s="4">
-        <v>1</v>
-      </c>
-      <c r="N14" s="4">
-        <v>1</v>
-      </c>
-      <c r="O14" s="4">
-        <v>1</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B15" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="4">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1</v>
-      </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-      <c r="F15" s="4">
-        <v>1</v>
-      </c>
-      <c r="G15" s="4">
-        <v>1</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0.73</v>
-      </c>
-      <c r="I15" s="4">
-        <v>0.73</v>
-      </c>
-      <c r="J15" s="4">
-        <v>0.73</v>
-      </c>
-      <c r="K15" s="4">
-        <v>0.73</v>
-      </c>
-      <c r="L15" s="4">
-        <v>1</v>
-      </c>
-      <c r="M15" s="4">
-        <v>1</v>
-      </c>
-      <c r="N15" s="4">
-        <v>1</v>
-      </c>
-      <c r="O15" s="4">
-        <v>1</v>
-      </c>
+      <c r="A15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="37"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B16" s="37" t="s">
-        <v>100</v>
+      <c r="B16" s="36" t="s">
+        <v>86</v>
       </c>
       <c r="C16" s="4">
         <v>1</v>
@@ -12512,42 +11316,42 @@
         <v>1</v>
       </c>
       <c r="E16" s="4">
-        <v>1</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="F16" s="4">
-        <v>1</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="G16" s="4">
-        <v>1</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="H16" s="4">
-        <v>0.73</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="I16" s="4">
-        <v>0.73</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="J16" s="4">
-        <v>0.73</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="K16" s="4">
-        <v>0.73</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="L16" s="4">
-        <v>1</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="M16" s="4">
-        <v>1</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="N16" s="4">
-        <v>1</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="O16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B17" s="37" t="s">
-        <v>99</v>
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B17" s="36" t="s">
+        <v>85</v>
       </c>
       <c r="C17" s="4">
         <v>1</v>
@@ -12556,42 +11360,42 @@
         <v>1</v>
       </c>
       <c r="E17" s="4">
-        <v>1</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="F17" s="4">
-        <v>1</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="G17" s="4">
-        <v>1</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="H17" s="4">
-        <v>0.73</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="I17" s="4">
-        <v>0.73</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="J17" s="4">
-        <v>0.73</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="K17" s="4">
-        <v>0.73</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="L17" s="4">
-        <v>1</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="M17" s="4">
-        <v>1</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="N17" s="4">
-        <v>1</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="O17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B18" s="37" t="s">
-        <v>98</v>
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B18" s="36" t="s">
+        <v>87</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
@@ -12600,42 +11404,42 @@
         <v>1</v>
       </c>
       <c r="E18" s="4">
-        <v>1</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="F18" s="4">
-        <v>1</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="G18" s="4">
-        <v>1</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="H18" s="4">
-        <v>0.73</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="I18" s="4">
-        <v>0.73</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="J18" s="4">
-        <v>0.73</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="K18" s="4">
-        <v>0.73</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="L18" s="4">
-        <v>1</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="M18" s="4">
-        <v>1</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="N18" s="4">
-        <v>1</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="O18" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B19" s="37" t="s">
-        <v>97</v>
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B19" s="36" t="s">
+        <v>88</v>
       </c>
       <c r="C19" s="4">
         <v>1</v>
@@ -12644,586 +11448,55 @@
         <v>1</v>
       </c>
       <c r="E19" s="4">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="F19" s="4">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G19" s="4">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H19" s="4">
-        <v>0.73</v>
+        <v>0.9</v>
       </c>
       <c r="I19" s="4">
-        <v>0.73</v>
+        <v>0.9</v>
       </c>
       <c r="J19" s="4">
-        <v>0.73</v>
+        <v>0.9</v>
       </c>
       <c r="K19" s="4">
-        <v>0.73</v>
+        <v>0.9</v>
       </c>
       <c r="L19" s="4">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="M19" s="4">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="N19" s="4">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O19" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B20" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="4">
-        <v>1</v>
-      </c>
-      <c r="D20" s="4">
-        <v>1</v>
-      </c>
-      <c r="E20" s="4">
-        <v>1</v>
-      </c>
-      <c r="F20" s="4">
-        <v>1</v>
-      </c>
-      <c r="G20" s="4">
-        <v>1</v>
-      </c>
-      <c r="H20" s="4">
-        <v>0.73</v>
-      </c>
-      <c r="I20" s="4">
-        <v>0.73</v>
-      </c>
-      <c r="J20" s="4">
-        <v>0.73</v>
-      </c>
-      <c r="K20" s="4">
-        <v>0.73</v>
-      </c>
-      <c r="L20" s="4">
-        <v>1</v>
-      </c>
-      <c r="M20" s="4">
-        <v>1</v>
-      </c>
-      <c r="N20" s="4">
-        <v>1</v>
-      </c>
-      <c r="O20" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B21" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="4">
-        <v>1</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1</v>
-      </c>
-      <c r="E21" s="4">
-        <v>1</v>
-      </c>
-      <c r="F21" s="4">
-        <v>1</v>
-      </c>
-      <c r="G21" s="4">
-        <v>1</v>
-      </c>
-      <c r="H21" s="4">
-        <v>0.73</v>
-      </c>
-      <c r="I21" s="4">
-        <v>0.73</v>
-      </c>
-      <c r="J21" s="4">
-        <v>0.73</v>
-      </c>
-      <c r="K21" s="4">
-        <v>0.73</v>
-      </c>
-      <c r="L21" s="4">
-        <v>1</v>
-      </c>
-      <c r="M21" s="4">
-        <v>1</v>
-      </c>
-      <c r="N21" s="4">
-        <v>1</v>
-      </c>
-      <c r="O21" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="4">
-        <v>1</v>
-      </c>
-      <c r="D22" s="4">
-        <v>1</v>
-      </c>
-      <c r="E22" s="4">
-        <v>0.69</v>
-      </c>
-      <c r="F22" s="4">
-        <v>0.69</v>
-      </c>
-      <c r="G22" s="4">
-        <v>1</v>
-      </c>
-      <c r="H22" s="4">
-        <v>1</v>
-      </c>
-      <c r="I22" s="4">
-        <v>1</v>
-      </c>
-      <c r="J22" s="4">
-        <v>1</v>
-      </c>
-      <c r="K22" s="4">
-        <v>1</v>
-      </c>
-      <c r="L22" s="4">
-        <v>1</v>
-      </c>
-      <c r="M22" s="4">
-        <v>1</v>
-      </c>
-      <c r="N22" s="4">
-        <v>1</v>
-      </c>
-      <c r="O22" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B23" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="4">
-        <v>1</v>
-      </c>
-      <c r="D23" s="4">
-        <v>1</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0.69</v>
-      </c>
-      <c r="F23" s="4">
-        <v>0.69</v>
-      </c>
-      <c r="G23" s="4">
-        <v>1</v>
-      </c>
-      <c r="H23" s="4">
-        <v>1</v>
-      </c>
-      <c r="I23" s="4">
-        <v>1</v>
-      </c>
-      <c r="J23" s="4">
-        <v>1</v>
-      </c>
-      <c r="K23" s="4">
-        <v>1</v>
-      </c>
-      <c r="L23" s="4">
-        <v>1</v>
-      </c>
-      <c r="M23" s="4">
-        <v>1</v>
-      </c>
-      <c r="N23" s="4">
-        <v>1</v>
-      </c>
-      <c r="O23" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B24" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="4">
-        <v>1</v>
-      </c>
-      <c r="D24" s="4">
-        <v>1</v>
-      </c>
-      <c r="E24" s="4">
-        <v>0.69</v>
-      </c>
-      <c r="F24" s="4">
-        <v>0.69</v>
-      </c>
-      <c r="G24" s="4">
-        <v>0.69</v>
-      </c>
-      <c r="H24" s="4">
-        <v>1</v>
-      </c>
-      <c r="I24" s="4">
-        <v>1</v>
-      </c>
-      <c r="J24" s="4">
-        <v>1</v>
-      </c>
-      <c r="K24" s="4">
-        <v>1</v>
-      </c>
-      <c r="L24" s="4">
-        <v>1</v>
-      </c>
-      <c r="M24" s="4">
-        <v>1</v>
-      </c>
-      <c r="N24" s="4">
-        <v>1</v>
-      </c>
-      <c r="O24" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B25" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="4">
-        <v>1</v>
-      </c>
-      <c r="D25" s="4">
-        <v>1</v>
-      </c>
-      <c r="E25" s="4">
-        <v>0.69</v>
-      </c>
-      <c r="F25" s="4">
-        <v>0.69</v>
-      </c>
-      <c r="G25" s="4">
-        <v>0.69</v>
-      </c>
-      <c r="H25" s="4">
-        <v>1</v>
-      </c>
-      <c r="I25" s="4">
-        <v>1</v>
-      </c>
-      <c r="J25" s="4">
-        <v>1</v>
-      </c>
-      <c r="K25" s="4">
-        <v>1</v>
-      </c>
-      <c r="L25" s="4">
-        <v>1</v>
-      </c>
-      <c r="M25" s="4">
-        <v>1</v>
-      </c>
-      <c r="N25" s="4">
-        <v>1</v>
-      </c>
-      <c r="O25" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B26" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="4">
-        <v>0.83</v>
-      </c>
-      <c r="D26" s="4">
-        <v>0.83</v>
-      </c>
-      <c r="E26" s="4">
-        <v>0.83</v>
-      </c>
-      <c r="F26" s="4">
-        <v>0.83</v>
-      </c>
-      <c r="G26" s="4">
-        <v>0.83</v>
-      </c>
-      <c r="H26" s="4">
-        <v>0.83</v>
-      </c>
-      <c r="I26" s="4">
-        <v>0.83</v>
-      </c>
-      <c r="J26" s="4">
-        <v>0.83</v>
-      </c>
-      <c r="K26" s="4">
-        <v>0.83</v>
-      </c>
-      <c r="L26" s="4">
-        <v>0.83</v>
-      </c>
-      <c r="M26" s="4">
-        <v>0.83</v>
-      </c>
-      <c r="N26" s="4">
-        <v>0.83</v>
-      </c>
-      <c r="O26" s="4">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B27" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="C27" s="4">
-        <v>0.53</v>
-      </c>
-      <c r="D27" s="4">
-        <v>0.53</v>
-      </c>
-      <c r="E27" s="4">
-        <v>1</v>
-      </c>
-      <c r="F27" s="4">
-        <v>1</v>
-      </c>
-      <c r="G27" s="4">
-        <v>1</v>
-      </c>
-      <c r="H27" s="4">
-        <v>1</v>
-      </c>
-      <c r="I27" s="4">
-        <v>1</v>
-      </c>
-      <c r="J27" s="4">
-        <v>1</v>
-      </c>
-      <c r="K27" s="4">
-        <v>1</v>
-      </c>
-      <c r="L27" s="4">
-        <v>1</v>
-      </c>
-      <c r="M27" s="4">
-        <v>1</v>
-      </c>
-      <c r="N27" s="4">
-        <v>1</v>
-      </c>
-      <c r="O27" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A29" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" s="37"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B30" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="4">
-        <v>1</v>
-      </c>
-      <c r="D30" s="4">
-        <v>1</v>
-      </c>
-      <c r="E30" s="4">
         <v>0.9</v>
       </c>
-      <c r="F30" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="G30" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="H30" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="I30" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="J30" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="K30" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="L30" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="M30" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="N30" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="O30" s="4">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B31" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" s="4">
-        <v>1</v>
-      </c>
-      <c r="D31" s="4">
-        <v>1</v>
-      </c>
-      <c r="E31" s="4">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="F31" s="4">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="G31" s="4">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="H31" s="4">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="I31" s="4">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="J31" s="4">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="K31" s="4">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="L31" s="4">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="M31" s="4">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="N31" s="4">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="O31" s="4">
-        <v>0.97599999999999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B32" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" s="4">
-        <v>1</v>
-      </c>
-      <c r="D32" s="4">
-        <v>1</v>
-      </c>
-      <c r="E32" s="4">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="F32" s="4">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="G32" s="4">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="H32" s="4">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="I32" s="4">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="J32" s="4">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="K32" s="4">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="L32" s="4">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="M32" s="4">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="N32" s="4">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="O32" s="4">
-        <v>0.97599999999999998</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B33" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" s="4">
-        <v>1</v>
-      </c>
-      <c r="D33" s="4">
-        <v>1</v>
-      </c>
-      <c r="E33" s="4">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="F33" s="4">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="G33" s="4">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="H33" s="4">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="I33" s="4">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="J33" s="4">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="K33" s="4">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="L33" s="4">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="M33" s="4">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="N33" s="4">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="O33" s="4">
-        <v>0.97599999999999998</v>
-      </c>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B38" s="28"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B39" s="28"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B40" s="28"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B41" s="28"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B24" s="28"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B25" s="28"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B26" s="28"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B27" s="28"/>
     </row>
   </sheetData>
+  <sortState ref="B16:O19">
+    <sortCondition ref="B16:B19"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>

--- a/nutrition/default_params.xlsx
+++ b/nutrition/default_params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/github_projects/Nutrition/nutrition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{134D4DF9-1558-3E49-A1E2-A5F5F27E3B34}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A4C48AB5-4D09-6F4E-907D-41CF8B53D6AA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="5" xr2:uid="{9D310A7F-FF26-7448-8337-E29F42B35A9E}"/>
+    <workbookView xWindow="0" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="9" xr2:uid="{9D310A7F-FF26-7448-8337-E29F42B35A9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Programs impacted population" sheetId="14" r:id="rId1"/>
@@ -230,7 +230,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="168">
   <si>
     <t>Neonatal other</t>
   </si>
@@ -508,9 +508,6 @@
     <t>Relative risks of anaemia when receiving intervention</t>
   </si>
   <si>
-    <t>Treatment of MAM</t>
-  </si>
-  <si>
     <t>Odds ratio of MAM when covered by program</t>
   </si>
   <si>
@@ -734,6 +731,9 @@
   </si>
   <si>
     <t>IFAS: school</t>
+  </si>
+  <si>
+    <t>Management of MAM</t>
   </si>
 </sst>
 </file>
@@ -1430,10 +1430,10 @@
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1451,7 +1451,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B1" s="47" t="s">
         <v>84</v>
@@ -1498,10 +1498,10 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2" s="53">
         <v>0</v>
@@ -1545,7 +1545,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="57" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C3" s="53">
         <v>1</v>
@@ -1589,7 +1589,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C4" s="53">
         <v>1</v>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="57" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C5" s="53">
         <v>1</v>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C6" s="53">
         <v>1</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" s="53">
         <v>1</v>
@@ -1895,9 +1895,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="57" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C11" s="53">
         <v>0</v>
@@ -1941,13 +1941,13 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="57" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="C12" s="53">
         <v>0</v>
       </c>
       <c r="D12" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="53">
         <v>1</v>
@@ -1985,13 +1985,13 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="57" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C13" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="53">
         <v>1</v>
@@ -2029,13 +2029,13 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="57" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C14" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="53">
         <v>1</v>
@@ -2072,71 +2072,72 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="53">
-        <v>0</v>
-      </c>
-      <c r="D15" s="53">
-        <v>0</v>
-      </c>
-      <c r="E15" s="53">
-        <v>1</v>
-      </c>
-      <c r="F15" s="53">
-        <v>1</v>
-      </c>
-      <c r="G15" s="53">
-        <v>1</v>
-      </c>
-      <c r="H15" s="53">
-        <v>0</v>
-      </c>
-      <c r="I15" s="53">
-        <v>0</v>
-      </c>
-      <c r="J15" s="53">
-        <v>0</v>
-      </c>
-      <c r="K15" s="53">
-        <v>0</v>
-      </c>
-      <c r="L15" s="53">
-        <v>0</v>
-      </c>
-      <c r="M15" s="53">
-        <v>0</v>
-      </c>
-      <c r="N15" s="53">
-        <v>0</v>
-      </c>
-      <c r="O15" s="53">
-        <v>0</v>
-      </c>
+      <c r="B15" s="57"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="57"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
+      <c r="A16" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="53">
+        <v>0</v>
+      </c>
+      <c r="D16" s="53">
+        <v>0</v>
+      </c>
+      <c r="E16" s="53">
+        <v>0</v>
+      </c>
+      <c r="F16" s="53">
+        <v>0</v>
+      </c>
+      <c r="G16" s="53">
+        <v>0</v>
+      </c>
+      <c r="H16" s="53">
+        <v>1</v>
+      </c>
+      <c r="I16" s="53">
+        <v>1</v>
+      </c>
+      <c r="J16" s="53">
+        <v>1</v>
+      </c>
+      <c r="K16" s="53">
+        <v>1</v>
+      </c>
+      <c r="L16" s="53">
+        <v>0</v>
+      </c>
+      <c r="M16" s="53">
+        <v>0</v>
+      </c>
+      <c r="N16" s="53">
+        <v>0</v>
+      </c>
+      <c r="O16" s="53">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="46" t="s">
-        <v>119</v>
-      </c>
+      <c r="A17" s="46"/>
       <c r="B17" s="57" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="C17" s="53">
         <v>0</v>
@@ -2179,9 +2180,8 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="46"/>
-      <c r="B18" s="57" t="s">
-        <v>113</v>
+      <c r="B18" s="58" t="s">
+        <v>80</v>
       </c>
       <c r="C18" s="53">
         <v>0</v>
@@ -2224,8 +2224,8 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="58" t="s">
-        <v>80</v>
+      <c r="B19" s="57" t="s">
+        <v>81</v>
       </c>
       <c r="C19" s="53">
         <v>0</v>
@@ -2269,7 +2269,7 @@
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="57" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="C20" s="53">
         <v>0</v>
@@ -2357,7 +2357,7 @@
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="57" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="C22" s="53">
         <v>0</v>
@@ -2400,71 +2400,71 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="57" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="53">
-        <v>0</v>
-      </c>
-      <c r="D23" s="53">
-        <v>0</v>
-      </c>
-      <c r="E23" s="53">
-        <v>0</v>
-      </c>
-      <c r="F23" s="53">
-        <v>0</v>
-      </c>
-      <c r="G23" s="53">
-        <v>0</v>
-      </c>
-      <c r="H23" s="53">
-        <v>1</v>
-      </c>
-      <c r="I23" s="53">
-        <v>1</v>
-      </c>
-      <c r="J23" s="53">
-        <v>1</v>
-      </c>
-      <c r="K23" s="53">
-        <v>1</v>
-      </c>
-      <c r="L23" s="53">
-        <v>0</v>
-      </c>
-      <c r="M23" s="53">
-        <v>0</v>
-      </c>
-      <c r="N23" s="53">
-        <v>0</v>
-      </c>
-      <c r="O23" s="53">
-        <v>0</v>
-      </c>
+      <c r="B23" s="57"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="57"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-    </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="46" t="s">
-        <v>125</v>
-      </c>
+      <c r="A24" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="53">
+        <v>0</v>
+      </c>
+      <c r="D24" s="53">
+        <v>0</v>
+      </c>
+      <c r="E24" s="53">
+        <v>0</v>
+      </c>
+      <c r="F24" s="53">
+        <v>0</v>
+      </c>
+      <c r="G24" s="53">
+        <v>0</v>
+      </c>
+      <c r="H24" s="53">
+        <v>0</v>
+      </c>
+      <c r="I24" s="53">
+        <v>0</v>
+      </c>
+      <c r="J24" s="53">
+        <v>0</v>
+      </c>
+      <c r="K24" s="53">
+        <v>0</v>
+      </c>
+      <c r="L24" s="53">
+        <v>1</v>
+      </c>
+      <c r="M24" s="53">
+        <v>1</v>
+      </c>
+      <c r="N24" s="53">
+        <v>1</v>
+      </c>
+      <c r="O24" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="57" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C25" s="53">
         <v>0</v>
@@ -2506,9 +2506,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="57" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="C26" s="53">
         <v>0</v>
@@ -2551,6 +2551,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="46"/>
       <c r="B27" s="57" t="s">
         <v>164</v>
       </c>
@@ -2595,7 +2596,6 @@
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="46"/>
       <c r="B28" s="57" t="s">
         <v>165</v>
       </c>
@@ -2674,81 +2674,81 @@
         <v>1</v>
       </c>
       <c r="M29" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="57" t="s">
-        <v>167</v>
-      </c>
-      <c r="C30" s="53">
-        <v>0</v>
-      </c>
-      <c r="D30" s="53">
-        <v>0</v>
-      </c>
-      <c r="E30" s="53">
-        <v>0</v>
-      </c>
-      <c r="F30" s="53">
-        <v>0</v>
-      </c>
-      <c r="G30" s="53">
-        <v>0</v>
-      </c>
-      <c r="H30" s="53">
-        <v>0</v>
-      </c>
-      <c r="I30" s="53">
-        <v>0</v>
-      </c>
-      <c r="J30" s="53">
-        <v>0</v>
-      </c>
-      <c r="K30" s="53">
-        <v>0</v>
-      </c>
-      <c r="L30" s="53">
-        <v>1</v>
-      </c>
-      <c r="M30" s="53">
-        <v>0</v>
-      </c>
-      <c r="N30" s="53">
-        <v>0</v>
-      </c>
-      <c r="O30" s="53">
-        <v>0</v>
-      </c>
+      <c r="B30" s="57"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="57"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="49"/>
+      <c r="A31" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="53">
+        <v>1</v>
+      </c>
+      <c r="D31" s="53">
+        <v>0</v>
+      </c>
+      <c r="E31" s="53">
+        <v>1</v>
+      </c>
+      <c r="F31" s="53">
+        <v>1</v>
+      </c>
+      <c r="G31" s="53">
+        <v>1</v>
+      </c>
+      <c r="H31" s="53">
+        <v>1</v>
+      </c>
+      <c r="I31" s="53">
+        <v>1</v>
+      </c>
+      <c r="J31" s="53">
+        <v>1</v>
+      </c>
+      <c r="K31" s="53">
+        <v>1</v>
+      </c>
+      <c r="L31" s="53">
+        <v>1</v>
+      </c>
+      <c r="M31" s="53">
+        <v>1</v>
+      </c>
+      <c r="N31" s="53">
+        <v>1</v>
+      </c>
+      <c r="O31" s="53">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="46" t="s">
-        <v>123</v>
-      </c>
       <c r="B32" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C32" s="53">
         <v>1</v>
@@ -2792,7 +2792,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="57" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C33" s="53">
         <v>1</v>
@@ -2836,7 +2836,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="57" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C34" s="53">
         <v>1</v>
@@ -2880,13 +2880,13 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="57" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C35" s="53">
         <v>1</v>
       </c>
       <c r="D35" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" s="53">
         <v>1</v>
@@ -2923,8 +2923,9 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="45"/>
       <c r="B36" s="57" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="C36" s="53">
         <v>1</v>
@@ -2966,8 +2967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="45"/>
+    <row r="37" spans="1:15" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="57" t="s">
         <v>102</v>
       </c>
@@ -3057,52 +3057,52 @@
     </row>
     <row r="39" spans="1:15" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="53">
+        <v>1</v>
+      </c>
+      <c r="D39" s="53">
+        <v>1</v>
+      </c>
+      <c r="E39" s="53">
+        <v>1</v>
+      </c>
+      <c r="F39" s="53">
+        <v>1</v>
+      </c>
+      <c r="G39" s="53">
+        <v>1</v>
+      </c>
+      <c r="H39" s="53">
+        <v>1</v>
+      </c>
+      <c r="I39" s="53">
+        <v>1</v>
+      </c>
+      <c r="J39" s="53">
+        <v>1</v>
+      </c>
+      <c r="K39" s="53">
+        <v>1</v>
+      </c>
+      <c r="L39" s="53">
+        <v>1</v>
+      </c>
+      <c r="M39" s="53">
+        <v>1</v>
+      </c>
+      <c r="N39" s="53">
+        <v>1</v>
+      </c>
+      <c r="O39" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="53">
-        <v>1</v>
-      </c>
-      <c r="D39" s="53">
-        <v>1</v>
-      </c>
-      <c r="E39" s="53">
-        <v>1</v>
-      </c>
-      <c r="F39" s="53">
-        <v>1</v>
-      </c>
-      <c r="G39" s="53">
-        <v>1</v>
-      </c>
-      <c r="H39" s="53">
-        <v>1</v>
-      </c>
-      <c r="I39" s="53">
-        <v>1</v>
-      </c>
-      <c r="J39" s="53">
-        <v>1</v>
-      </c>
-      <c r="K39" s="53">
-        <v>1</v>
-      </c>
-      <c r="L39" s="53">
-        <v>1</v>
-      </c>
-      <c r="M39" s="53">
-        <v>1</v>
-      </c>
-      <c r="N39" s="53">
-        <v>1</v>
-      </c>
-      <c r="O39" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="57" t="s">
-        <v>106</v>
-      </c>
       <c r="C40" s="53">
         <v>1</v>
       </c>
@@ -3143,53 +3143,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="57" t="s">
-        <v>105</v>
-      </c>
-      <c r="C41" s="53">
-        <v>1</v>
-      </c>
-      <c r="D41" s="53">
-        <v>1</v>
-      </c>
-      <c r="E41" s="53">
-        <v>1</v>
-      </c>
-      <c r="F41" s="53">
-        <v>1</v>
-      </c>
-      <c r="G41" s="53">
-        <v>1</v>
-      </c>
-      <c r="H41" s="53">
-        <v>1</v>
-      </c>
-      <c r="I41" s="53">
-        <v>1</v>
-      </c>
-      <c r="J41" s="53">
-        <v>1</v>
-      </c>
-      <c r="K41" s="53">
-        <v>1</v>
-      </c>
-      <c r="L41" s="53">
-        <v>1</v>
-      </c>
-      <c r="M41" s="53">
-        <v>1</v>
-      </c>
-      <c r="N41" s="53">
-        <v>1</v>
-      </c>
-      <c r="O41" s="53">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="B32:O41">
-    <sortCondition ref="B32:B41"/>
+  <sortState ref="B31:O40">
+    <sortCondition ref="B31:B40"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3202,8 +3158,8 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3235,12 +3191,12 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
@@ -3260,7 +3216,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" s="37"/>
       <c r="C4" s="38"/>
@@ -3271,7 +3227,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="36" t="s">
-        <v>92</v>
+        <v>167</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -3324,10 +3280,10 @@
         <v>84</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C1" s="54" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>45</v>
@@ -3347,13 +3303,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2" s="57" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
@@ -3373,7 +3329,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C3" s="57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
@@ -3393,7 +3349,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C4" s="57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
@@ -3419,7 +3375,7 @@
         <v>61</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
@@ -3439,7 +3395,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C6" s="57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
@@ -3462,7 +3418,7 @@
         <v>62</v>
       </c>
       <c r="C7" s="57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
@@ -3482,7 +3438,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C8" s="57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -3508,7 +3464,7 @@
         <v>61</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -3528,7 +3484,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C10" s="57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D10" s="4">
         <v>0</v>
@@ -3551,7 +3507,7 @@
         <v>62</v>
       </c>
       <c r="C11" s="57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D11" s="4">
         <v>0</v>
@@ -3571,7 +3527,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C12" s="57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D12" s="4">
         <v>0</v>
@@ -3591,13 +3547,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B13" s="57" t="s">
         <v>61</v>
       </c>
       <c r="C13" s="57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D13" s="4">
         <v>0</v>
@@ -3617,7 +3573,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C14" s="57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D14" s="4">
         <v>0</v>
@@ -3641,7 +3597,7 @@
         <v>62</v>
       </c>
       <c r="C15" s="57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D15" s="4">
         <v>0</v>
@@ -3662,7 +3618,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C16" s="57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D16" s="4">
         <v>0</v>
@@ -3689,7 +3645,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D17" s="4">
         <v>0.7</v>
@@ -3710,7 +3666,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C18" s="57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D18" s="4">
         <v>0.46</v>
@@ -3737,7 +3693,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D19" s="4">
         <v>0.7</v>
@@ -3757,7 +3713,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C20" s="57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D20" s="4">
         <v>0.46</v>
@@ -3783,7 +3739,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D21" s="4">
         <v>0.7</v>
@@ -3803,7 +3759,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C22" s="57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D22" s="4">
         <v>0.46</v>
@@ -3823,13 +3779,13 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B23" s="57" t="s">
         <v>50</v>
       </c>
       <c r="C23" s="57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D23" s="4">
         <v>1</v>
@@ -3849,7 +3805,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C24" s="57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D24" s="4">
         <v>0.17</v>
@@ -3869,7 +3825,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C25" s="57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D25" s="4">
         <v>0.17</v>
@@ -3889,13 +3845,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="57" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B26" s="57" t="s">
         <v>50</v>
       </c>
       <c r="C26" s="57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -3915,7 +3871,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C27" s="57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D27" s="4">
         <v>0.69</v>
@@ -3935,7 +3891,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C28" s="57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D28" s="4">
         <v>0.69</v>
@@ -3955,13 +3911,13 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B29" s="57" t="s">
         <v>50</v>
       </c>
       <c r="C29" s="57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D29" s="4">
         <v>1</v>
@@ -3981,7 +3937,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C30" s="57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="4">
         <v>0.36</v>
@@ -4001,7 +3957,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C31" s="57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="4">
         <v>0.36</v>
@@ -4021,13 +3977,13 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="57" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B32" s="57" t="s">
         <v>50</v>
       </c>
       <c r="C32" s="57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="4">
         <v>1</v>
@@ -4047,7 +4003,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C33" s="57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33" s="4">
         <v>0.2</v>
@@ -4067,7 +4023,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C34" s="57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D34" s="4">
         <v>0.2</v>
@@ -4087,13 +4043,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B35" s="57" t="s">
         <v>50</v>
       </c>
       <c r="C35" s="57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -4113,7 +4069,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C36" s="57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D36" s="4">
         <v>0.48</v>
@@ -4133,7 +4089,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C37" s="57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D37" s="4">
         <v>0.48</v>
@@ -4153,13 +4109,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B38" s="57" t="s">
         <v>50</v>
       </c>
       <c r="C38" s="57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D38" s="4">
         <v>0.3</v>
@@ -4179,7 +4135,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C39" s="57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D39" s="4">
         <v>0.5</v>
@@ -4199,7 +4155,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C40" s="57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D40" s="4">
         <v>0.65</v>
@@ -4222,7 +4178,7 @@
         <v>49</v>
       </c>
       <c r="C41" s="57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D41" s="4">
         <v>0.3</v>
@@ -4242,7 +4198,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C42" s="57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D42" s="4">
         <v>0.49</v>
@@ -4262,7 +4218,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C43" s="57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D43" s="4">
         <v>0.52</v>
@@ -4282,13 +4238,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B44" s="57" t="s">
         <v>50</v>
       </c>
       <c r="C44" s="57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D44" s="4">
         <v>0.88</v>
@@ -4308,7 +4264,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C45" s="57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D45" s="4">
         <v>0.93</v>
@@ -4328,13 +4284,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B46" s="57" t="s">
         <v>50</v>
       </c>
       <c r="C46" s="57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D46" s="4">
         <v>1</v>
@@ -4354,7 +4310,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C47" s="57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D47" s="4">
         <v>0.86</v>
@@ -4403,7 +4359,7 @@
         <v>84</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C1" s="35"/>
       <c r="D1" s="2" t="s">
@@ -4422,13 +4378,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -4446,7 +4402,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" s="4">
         <v>0.2</v>
@@ -4464,13 +4420,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -4489,7 +4445,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="29"/>
       <c r="C5" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" s="4">
         <v>0.59</v>
@@ -4507,13 +4463,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -4532,7 +4488,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="29"/>
       <c r="C7" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D7" s="4">
         <v>0.6</v>
@@ -4558,10 +4514,10 @@
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4585,34 +4541,34 @@
         <v>84</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -4627,14 +4583,14 @@
       <c r="G2" s="53"/>
       <c r="H2" s="53"/>
       <c r="I2" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J2" s="53"/>
       <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="57" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3" s="53"/>
       <c r="C3" s="53"/>
@@ -4646,12 +4602,12 @@
       <c r="I3" s="53"/>
       <c r="J3" s="53"/>
       <c r="K3" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" s="53"/>
       <c r="C4" s="53"/>
@@ -4660,7 +4616,7 @@
       <c r="F4" s="53"/>
       <c r="G4" s="53"/>
       <c r="H4" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I4" s="53"/>
       <c r="J4" s="53"/>
@@ -4668,12 +4624,12 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" s="53"/>
       <c r="C5" s="53"/>
       <c r="D5" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E5" s="53"/>
       <c r="F5" s="53"/>
@@ -4685,11 +4641,11 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="57" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B6" s="53"/>
       <c r="C6" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D6" s="53"/>
       <c r="E6" s="53"/>
@@ -4702,7 +4658,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B7" s="53"/>
       <c r="C7" s="53"/>
@@ -4713,7 +4669,7 @@
       <c r="H7" s="53"/>
       <c r="I7" s="53"/>
       <c r="J7" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K7" s="53"/>
     </row>
@@ -4723,14 +4679,14 @@
       </c>
       <c r="B8" s="53"/>
       <c r="C8" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D8" s="53"/>
       <c r="E8" s="53"/>
       <c r="F8" s="53"/>
       <c r="G8" s="53"/>
       <c r="H8" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I8" s="53"/>
       <c r="J8" s="53"/>
@@ -4742,14 +4698,14 @@
       </c>
       <c r="B9" s="53"/>
       <c r="C9" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D9" s="53"/>
       <c r="E9" s="53"/>
       <c r="F9" s="53"/>
       <c r="G9" s="53"/>
       <c r="H9" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I9" s="53"/>
       <c r="J9" s="53"/>
@@ -4761,14 +4717,14 @@
       </c>
       <c r="B10" s="53"/>
       <c r="C10" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D10" s="53"/>
       <c r="E10" s="53"/>
       <c r="F10" s="53"/>
       <c r="G10" s="53"/>
       <c r="H10" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I10" s="53"/>
       <c r="J10" s="53"/>
@@ -4776,11 +4732,11 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B11" s="53"/>
       <c r="C11" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D11" s="53"/>
       <c r="E11" s="53"/>
@@ -4793,11 +4749,11 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="57" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B12" s="53"/>
       <c r="C12" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D12" s="53"/>
       <c r="E12" s="53"/>
@@ -4810,11 +4766,11 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="57" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B13" s="53"/>
       <c r="C13" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D13" s="53"/>
       <c r="E13" s="53"/>
@@ -4827,11 +4783,11 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="57" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B14" s="53"/>
       <c r="C14" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D14" s="53"/>
       <c r="E14" s="53"/>
@@ -4848,17 +4804,17 @@
       </c>
       <c r="B15" s="53"/>
       <c r="C15" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D15" s="53"/>
       <c r="E15" s="53"/>
       <c r="F15" s="53"/>
       <c r="G15" s="53"/>
       <c r="H15" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I15" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J15" s="53"/>
       <c r="K15" s="53"/>
@@ -4869,7 +4825,7 @@
       </c>
       <c r="B16" s="53"/>
       <c r="C16" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D16" s="53"/>
       <c r="E16" s="53"/>
@@ -4877,7 +4833,7 @@
       <c r="G16" s="53"/>
       <c r="H16" s="53"/>
       <c r="I16" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J16" s="53"/>
       <c r="K16" s="53"/>
@@ -4888,7 +4844,7 @@
       </c>
       <c r="B17" s="53"/>
       <c r="C17" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D17" s="53"/>
       <c r="E17" s="53"/>
@@ -4901,16 +4857,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C18" s="53"/>
       <c r="D18" s="53"/>
       <c r="E18" s="53"/>
       <c r="F18" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G18" s="53"/>
       <c r="H18" s="53"/>
@@ -4920,16 +4876,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="57" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B19" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C19" s="53"/>
       <c r="D19" s="53"/>
       <c r="E19" s="53"/>
       <c r="F19" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G19" s="53"/>
       <c r="H19" s="53"/>
@@ -4939,16 +4895,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B20" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C20" s="53"/>
       <c r="D20" s="53"/>
       <c r="E20" s="53"/>
       <c r="F20" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G20" s="53"/>
       <c r="H20" s="53"/>
@@ -4961,13 +4917,13 @@
         <v>70</v>
       </c>
       <c r="B21" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C21" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D21" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E21" s="53"/>
       <c r="F21" s="53"/>
@@ -4983,7 +4939,7 @@
       </c>
       <c r="B22" s="53"/>
       <c r="C22" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D22" s="53"/>
       <c r="E22" s="53"/>
@@ -4991,14 +4947,14 @@
       <c r="G22" s="53"/>
       <c r="H22" s="53"/>
       <c r="I22" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J22" s="53"/>
       <c r="K22" s="53"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B23" s="53"/>
       <c r="C23" s="53"/>
@@ -5007,7 +4963,7 @@
       <c r="F23" s="53"/>
       <c r="G23" s="53"/>
       <c r="H23" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I23" s="53"/>
       <c r="J23" s="53"/>
@@ -5015,7 +4971,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B24" s="53"/>
       <c r="C24" s="53"/>
@@ -5024,7 +4980,7 @@
       <c r="F24" s="53"/>
       <c r="G24" s="53"/>
       <c r="H24" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I24" s="53"/>
       <c r="J24" s="53"/>
@@ -5036,7 +4992,7 @@
       </c>
       <c r="B25" s="53"/>
       <c r="C25" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D25" s="53"/>
       <c r="E25" s="53"/>
@@ -5053,7 +5009,7 @@
       </c>
       <c r="B26" s="53"/>
       <c r="C26" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D26" s="53"/>
       <c r="E26" s="53"/>
@@ -5061,14 +5017,14 @@
       <c r="G26" s="53"/>
       <c r="H26" s="53"/>
       <c r="I26" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J26" s="53"/>
       <c r="K26" s="53"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B27" s="53"/>
       <c r="C27" s="53"/>
@@ -5077,7 +5033,7 @@
       <c r="F27" s="53"/>
       <c r="G27" s="53"/>
       <c r="H27" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I27" s="53"/>
       <c r="J27" s="53"/>
@@ -5088,11 +5044,11 @@
         <v>71</v>
       </c>
       <c r="B28" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C28" s="53"/>
       <c r="D28" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E28" s="53"/>
       <c r="F28" s="53"/>
@@ -5104,13 +5060,13 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="57" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B29" s="53"/>
       <c r="C29" s="53"/>
       <c r="D29" s="53"/>
       <c r="E29" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F29" s="53"/>
       <c r="G29" s="53"/>
@@ -5121,24 +5077,26 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="57" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B30" s="53"/>
       <c r="C30" s="53"/>
       <c r="D30" s="53"/>
-      <c r="E30" s="53" t="s">
-        <v>131</v>
-      </c>
+      <c r="E30" s="53"/>
       <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
+      <c r="G30" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="H30" s="53" t="s">
+        <v>130</v>
+      </c>
       <c r="I30" s="53"/>
       <c r="J30" s="53"/>
       <c r="K30" s="53"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="57" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B31" s="53"/>
       <c r="C31" s="53"/>
@@ -5146,10 +5104,10 @@
       <c r="E31" s="53"/>
       <c r="F31" s="53"/>
       <c r="G31" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H31" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I31" s="53"/>
       <c r="J31" s="53"/>
@@ -5165,10 +5123,10 @@
       <c r="E32" s="53"/>
       <c r="F32" s="53"/>
       <c r="G32" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H32" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I32" s="53"/>
       <c r="J32" s="53"/>
@@ -5184,10 +5142,10 @@
       <c r="E33" s="53"/>
       <c r="F33" s="53"/>
       <c r="G33" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H33" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I33" s="53"/>
       <c r="J33" s="53"/>
@@ -5195,7 +5153,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="57" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B34" s="53"/>
       <c r="C34" s="53"/>
@@ -5203,10 +5161,10 @@
       <c r="E34" s="53"/>
       <c r="F34" s="53"/>
       <c r="G34" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H34" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I34" s="53"/>
       <c r="J34" s="53"/>
@@ -5214,7 +5172,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="57" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B35" s="53"/>
       <c r="C35" s="53"/>
@@ -5222,10 +5180,10 @@
       <c r="E35" s="53"/>
       <c r="F35" s="53"/>
       <c r="G35" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H35" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I35" s="53"/>
       <c r="J35" s="53"/>
@@ -5233,18 +5191,16 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="57" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B36" s="53"/>
       <c r="C36" s="53"/>
       <c r="D36" s="53"/>
       <c r="E36" s="53"/>
       <c r="F36" s="53"/>
-      <c r="G36" s="53" t="s">
-        <v>131</v>
-      </c>
+      <c r="G36" s="53"/>
       <c r="H36" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I36" s="53"/>
       <c r="J36" s="53"/>
@@ -5252,45 +5208,28 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="B37" s="53"/>
+        <v>100</v>
+      </c>
+      <c r="B37" s="53" t="s">
+        <v>130</v>
+      </c>
       <c r="C37" s="53"/>
       <c r="D37" s="53"/>
       <c r="E37" s="53"/>
       <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
+      <c r="G37" s="53" t="s">
+        <v>130</v>
+      </c>
       <c r="H37" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I37" s="53"/>
       <c r="J37" s="53"/>
       <c r="K37" s="53"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A38" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="B38" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="H38" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-    </row>
   </sheetData>
-  <sortState ref="A2:K38">
-    <sortCondition ref="A2:A38"/>
+  <sortState ref="A2:K37">
+    <sortCondition ref="A2:A37"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5325,37 +5264,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -5363,29 +5302,29 @@
         <v>45</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E2" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F2" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G2" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H2" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I2" s="53"/>
       <c r="J2" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K2" s="53"/>
     </row>
@@ -5394,29 +5333,29 @@
         <v>44</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D3" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E3" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F3" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G3" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H3" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I3" s="53"/>
       <c r="J3" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K3" s="53"/>
     </row>
@@ -5425,29 +5364,29 @@
         <v>43</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E4" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G4" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H4" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I4" s="53"/>
       <c r="J4" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K4" s="53"/>
     </row>
@@ -5456,29 +5395,29 @@
         <v>42</v>
       </c>
       <c r="B5" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E5" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F5" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G5" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H5" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I5" s="53"/>
       <c r="J5" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K5" s="53"/>
     </row>
@@ -5487,29 +5426,29 @@
         <v>41</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E6" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F6" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G6" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H6" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I6" s="53"/>
       <c r="J6" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K6" s="53"/>
     </row>
@@ -5519,17 +5458,17 @@
       </c>
       <c r="B7" s="53"/>
       <c r="C7" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D7" s="53"/>
       <c r="E7" s="53"/>
       <c r="F7" s="53"/>
       <c r="G7" s="53"/>
       <c r="H7" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I7" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J7" s="53"/>
       <c r="K7" s="53"/>
@@ -5540,17 +5479,17 @@
       </c>
       <c r="B8" s="53"/>
       <c r="C8" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D8" s="53"/>
       <c r="E8" s="53"/>
       <c r="F8" s="53"/>
       <c r="G8" s="53"/>
       <c r="H8" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I8" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J8" s="53"/>
       <c r="K8" s="53"/>
@@ -5561,17 +5500,17 @@
       </c>
       <c r="B9" s="53"/>
       <c r="C9" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D9" s="53"/>
       <c r="E9" s="53"/>
       <c r="F9" s="53"/>
       <c r="G9" s="53"/>
       <c r="H9" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I9" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J9" s="53"/>
       <c r="K9" s="53"/>
@@ -5582,17 +5521,17 @@
       </c>
       <c r="B10" s="53"/>
       <c r="C10" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D10" s="53"/>
       <c r="E10" s="53"/>
       <c r="F10" s="53"/>
       <c r="G10" s="53"/>
       <c r="H10" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I10" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J10" s="53"/>
       <c r="K10" s="53"/>
@@ -5603,7 +5542,7 @@
       </c>
       <c r="B11" s="53"/>
       <c r="C11" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D11" s="53"/>
       <c r="E11" s="53"/>
@@ -5620,7 +5559,7 @@
       </c>
       <c r="B12" s="53"/>
       <c r="C12" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D12" s="53"/>
       <c r="E12" s="53"/>
@@ -5637,7 +5576,7 @@
       </c>
       <c r="B13" s="53"/>
       <c r="C13" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D13" s="53"/>
       <c r="E13" s="53"/>
@@ -5654,7 +5593,7 @@
       </c>
       <c r="B14" s="53"/>
       <c r="C14" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D14" s="53"/>
       <c r="E14" s="53"/>
@@ -5691,13 +5630,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>45</v>
@@ -5717,13 +5656,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2" s="52">
         <v>1</v>
@@ -5744,7 +5683,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B3" s="59"/>
       <c r="C3" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" s="52">
         <v>1</v>
@@ -5766,7 +5705,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B4" s="59"/>
       <c r="C4" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" s="52">
         <v>1</v>
@@ -5790,7 +5729,7 @@
         <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D5" s="52">
         <f>5.16</f>
@@ -5812,7 +5751,7 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B6" s="59"/>
       <c r="C6" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D6" s="52">
         <v>5.16</v>
@@ -5833,7 +5772,7 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B7" s="59"/>
       <c r="C7" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D7" s="52">
         <v>1</v>
@@ -5856,7 +5795,7 @@
         <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D8" s="52">
         <v>1</v>
@@ -5877,7 +5816,7 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B9" s="59"/>
       <c r="C9" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D9" s="52">
         <v>1</v>
@@ -5898,7 +5837,7 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B10" s="59"/>
       <c r="C10" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D10" s="52">
         <v>1</v>
@@ -5921,7 +5860,7 @@
         <v>43</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D11" s="52">
         <v>1</v>
@@ -5942,7 +5881,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B12" s="59"/>
       <c r="C12" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D12" s="52">
         <v>1</v>
@@ -5963,7 +5902,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B13" s="59"/>
       <c r="C13" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D13" s="52">
         <v>1</v>
@@ -5986,7 +5925,7 @@
         <v>42</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D14" s="52">
         <v>1</v>
@@ -6007,7 +5946,7 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B15" s="59"/>
       <c r="C15" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D15" s="52">
         <v>1</v>
@@ -6028,7 +5967,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B16" s="59"/>
       <c r="C16" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D16" s="52">
         <v>1</v>
@@ -6048,10 +5987,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B17" s="40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D17" s="51">
         <v>1.05</v>
@@ -6078,13 +6017,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D19" s="52">
         <v>1</v>
@@ -6105,7 +6044,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B20" s="59"/>
       <c r="C20" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D20" s="52">
         <v>1</v>
@@ -6126,7 +6065,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B21" s="59"/>
       <c r="C21" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D21" s="52">
         <v>1</v>
@@ -6149,7 +6088,7 @@
         <v>45</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D22" s="52">
         <v>1</v>
@@ -6170,7 +6109,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B23" s="59"/>
       <c r="C23" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D23" s="52">
         <v>1</v>
@@ -6191,7 +6130,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B24" s="59"/>
       <c r="C24" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D24" s="52">
         <v>1</v>
@@ -6214,7 +6153,7 @@
         <v>44</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D25" s="52">
         <v>1</v>
@@ -6235,7 +6174,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B26" s="59"/>
       <c r="C26" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D26" s="52">
         <v>1</v>
@@ -6256,7 +6195,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B27" s="59"/>
       <c r="C27" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D27" s="52">
         <v>1</v>
@@ -6279,7 +6218,7 @@
         <v>43</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D28" s="52">
         <v>1</v>
@@ -6300,7 +6239,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B29" s="59"/>
       <c r="C29" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D29" s="52">
         <v>1</v>
@@ -6321,7 +6260,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B30" s="59"/>
       <c r="C30" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D30" s="52">
         <v>1</v>
@@ -6344,7 +6283,7 @@
         <v>42</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D31" s="52">
         <v>1</v>
@@ -6365,7 +6304,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B32" s="59"/>
       <c r="C32" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D32" s="52">
         <v>1</v>
@@ -6386,7 +6325,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B33" s="59"/>
       <c r="C33" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D33" s="52">
         <v>1</v>
@@ -6406,10 +6345,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B34" s="41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D34" s="51">
         <v>1.05</v>
@@ -6429,13 +6368,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B36" s="59" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D36" s="52">
         <v>1</v>
@@ -6456,7 +6395,7 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B37" s="59"/>
       <c r="C37" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="52">
         <v>1</v>
@@ -6477,7 +6416,7 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B38" s="59"/>
       <c r="C38" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="52">
         <v>1</v>
@@ -6500,7 +6439,7 @@
         <v>45</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="52">
         <v>1</v>
@@ -6521,7 +6460,7 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B40" s="59"/>
       <c r="C40" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D40" s="52">
         <v>1</v>
@@ -6542,7 +6481,7 @@
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B41" s="59"/>
       <c r="C41" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D41" s="52">
         <v>1</v>
@@ -6565,7 +6504,7 @@
         <v>44</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D42" s="52">
         <v>1</v>
@@ -6586,7 +6525,7 @@
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B43" s="59"/>
       <c r="C43" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D43" s="52">
         <v>1</v>
@@ -6607,7 +6546,7 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B44" s="59"/>
       <c r="C44" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D44" s="52">
         <v>1</v>
@@ -6630,7 +6569,7 @@
         <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D45" s="52">
         <v>1</v>
@@ -6651,7 +6590,7 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B46" s="59"/>
       <c r="C46" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D46" s="52">
         <v>1</v>
@@ -6672,7 +6611,7 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B47" s="59"/>
       <c r="C47" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D47" s="52">
         <v>1</v>
@@ -6695,7 +6634,7 @@
         <v>42</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D48" s="52">
         <v>1</v>
@@ -6716,7 +6655,7 @@
     <row r="49" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B49" s="59"/>
       <c r="C49" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D49" s="52">
         <v>1</v>
@@ -6737,7 +6676,7 @@
     <row r="50" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B50" s="59"/>
       <c r="C50" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D50" s="52">
         <v>1</v>
@@ -6757,10 +6696,10 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B51" s="40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D51" s="51">
         <v>1</v>
@@ -6844,7 +6783,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7009,7 +6948,7 @@
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="21"/>
@@ -7369,7 +7308,7 @@
   </sheetPr>
   <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -7391,7 +7330,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>51</v>
@@ -7429,7 +7368,7 @@
         <v>50</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
@@ -7457,7 +7396,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C4" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -7485,7 +7424,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C5" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -7513,7 +7452,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C6" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -7544,7 +7483,7 @@
         <v>49</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
@@ -7572,7 +7511,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C8" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
@@ -7600,7 +7539,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C9" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
@@ -7628,7 +7567,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C10" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -7659,7 +7598,7 @@
         <v>58</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D11" s="5">
         <v>1</v>
@@ -7687,7 +7626,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C12" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -7715,7 +7654,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C13" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -7743,7 +7682,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C14" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -7774,7 +7713,7 @@
         <v>57</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D15" s="5">
         <v>1</v>
@@ -7802,7 +7741,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C16" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -7830,7 +7769,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C17" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -7858,7 +7797,7 @@
     </row>
     <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -7889,7 +7828,7 @@
         <v>48</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D19" s="5">
         <v>1</v>
@@ -7917,7 +7856,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C20" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -7945,7 +7884,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C21" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
@@ -7973,7 +7912,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C22" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
@@ -8004,7 +7943,7 @@
         <v>56</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D23" s="5">
         <v>1</v>
@@ -8032,7 +7971,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C24" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D24" s="4">
         <v>1</v>
@@ -8060,7 +7999,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C25" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
@@ -8088,7 +8027,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C26" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -8121,7 +8060,7 @@
     </row>
     <row r="29" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B29" s="32" t="s">
         <v>51</v>
@@ -8159,7 +8098,7 @@
         <v>50</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D30" s="5">
         <v>1</v>
@@ -8187,7 +8126,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C31" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -8274,7 +8213,7 @@
         <v>49</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D34" s="5">
         <v>1</v>
@@ -8302,7 +8241,7 @@
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C35" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -8389,7 +8328,7 @@
         <v>58</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D38" s="5">
         <v>1</v>
@@ -8417,7 +8356,7 @@
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C39" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D39" s="4">
         <v>1</v>
@@ -8504,7 +8443,7 @@
         <v>57</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D42" s="5">
         <v>1</v>
@@ -8532,7 +8471,7 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C43" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
@@ -8619,7 +8558,7 @@
         <v>48</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D46" s="5">
         <v>1</v>
@@ -8647,7 +8586,7 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C47" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
@@ -8734,7 +8673,7 @@
         <v>56</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="5">
         <v>1</v>
@@ -8762,7 +8701,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C51" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="4">
         <v>1</v>
@@ -8855,7 +8794,7 @@
     </row>
     <row r="56" spans="1:16" s="29" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A56" s="33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B56" s="32" t="s">
         <v>51</v>
@@ -8887,7 +8826,7 @@
         <v>55</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D57" s="5">
         <v>1</v>
@@ -8909,7 +8848,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C58" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D58" s="4">
         <v>10.675000000000001</v>
@@ -8934,7 +8873,7 @@
         <v>54</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D59" s="5">
         <v>1</v>
@@ -8956,7 +8895,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C60" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D60" s="4">
         <v>10.675000000000001</v>
@@ -8981,7 +8920,7 @@
         <v>53</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D61" s="5">
         <v>1</v>
@@ -9003,7 +8942,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C62" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D62" s="4">
         <v>10.675000000000001</v>
@@ -9034,7 +8973,7 @@
     </row>
     <row r="65" spans="1:16" s="29" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A65" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B65" s="32" t="s">
         <v>51</v>
@@ -9072,7 +9011,7 @@
         <v>7</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D66" s="5">
         <v>1</v>
@@ -9100,7 +9039,7 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C67" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D67" s="4">
         <v>1.35</v>
@@ -9128,7 +9067,7 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C68" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D68" s="4">
         <v>1.35</v>
@@ -9156,7 +9095,7 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C69" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D69" s="4">
         <v>5.4</v>
@@ -9187,7 +9126,7 @@
         <v>6</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D70" s="5">
         <v>1</v>
@@ -9215,7 +9154,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C71" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D71" s="4">
         <v>1.35</v>
@@ -9243,7 +9182,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C72" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D72" s="4">
         <v>1.35</v>
@@ -9271,7 +9210,7 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C73" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D73" s="4">
         <v>5.4</v>
@@ -9302,7 +9241,7 @@
         <v>5</v>
       </c>
       <c r="C74" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D74" s="5">
         <v>1</v>
@@ -9330,7 +9269,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C75" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D75" s="4">
         <v>1.35</v>
@@ -9358,7 +9297,7 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C76" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D76" s="4">
         <v>1.35</v>
@@ -9386,7 +9325,7 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C77" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D77" s="4">
         <v>5.4</v>
@@ -9417,7 +9356,7 @@
         <v>3</v>
       </c>
       <c r="C78" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D78" s="5">
         <v>1</v>
@@ -9445,7 +9384,7 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C79" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D79" s="4">
         <v>1</v>
@@ -9473,7 +9412,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C80" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
@@ -9501,7 +9440,7 @@
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C81" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -9532,7 +9471,7 @@
         <v>50</v>
       </c>
       <c r="C82" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D82" s="5">
         <v>1</v>
@@ -9560,7 +9499,7 @@
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C83" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D83" s="4">
         <v>1</v>
@@ -9588,7 +9527,7 @@
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C84" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D84" s="4">
         <v>1</v>
@@ -9616,7 +9555,7 @@
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C85" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D85" s="4">
         <v>1</v>
@@ -9647,7 +9586,7 @@
         <v>49</v>
       </c>
       <c r="C86" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D86" s="5">
         <v>1</v>
@@ -9675,7 +9614,7 @@
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C87" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
@@ -9703,7 +9642,7 @@
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C88" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D88" s="4">
         <v>1</v>
@@ -9731,7 +9670,7 @@
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C89" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
@@ -9762,7 +9701,7 @@
         <v>58</v>
       </c>
       <c r="C90" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D90" s="5">
         <v>1</v>
@@ -9790,7 +9729,7 @@
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C91" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D91" s="4">
         <v>1</v>
@@ -9818,7 +9757,7 @@
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C92" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D92" s="4">
         <v>1</v>
@@ -9846,7 +9785,7 @@
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C93" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -9877,7 +9816,7 @@
         <v>48</v>
       </c>
       <c r="C94" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D94" s="5">
         <v>1</v>
@@ -9905,7 +9844,7 @@
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C95" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D95" s="4">
         <v>1</v>
@@ -9933,7 +9872,7 @@
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C96" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D96" s="4">
         <v>1</v>
@@ -9961,7 +9900,7 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C97" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D97" s="4">
         <v>1</v>
@@ -9989,10 +9928,10 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B98" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C98" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D98" s="5">
         <v>1</v>
@@ -10020,7 +9959,7 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C99" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D99" s="4">
         <v>1</v>
@@ -10048,7 +9987,7 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C100" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D100" s="4">
         <v>1</v>
@@ -10076,7 +10015,7 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C101" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D101" s="4">
         <v>1</v>
@@ -10112,7 +10051,7 @@
         <v>50</v>
       </c>
       <c r="B104" s="55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C104" s="31" t="s">
         <v>46</v>
@@ -10145,7 +10084,7 @@
       <c r="A105" s="2"/>
       <c r="B105" s="29"/>
       <c r="C105" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D105" s="5">
         <v>1</v>
@@ -10173,7 +10112,7 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C106" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D106" s="4">
         <v>1.26</v>
@@ -10201,7 +10140,7 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C107" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D107" s="4">
         <v>1.68</v>
@@ -10229,7 +10168,7 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C108" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D108" s="4">
         <v>2.65</v>
@@ -10293,7 +10232,7 @@
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="54" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="2" t="s">
@@ -10335,7 +10274,7 @@
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C4" s="4">
         <v>1.0249999999999999</v>
@@ -10420,7 +10359,7 @@
     </row>
     <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
@@ -10446,7 +10385,7 @@
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="54" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>68</v>
@@ -10490,10 +10429,10 @@
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C14" s="4">
         <v>1.0249999999999999</v>
@@ -10817,7 +10756,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B3" s="37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C3" s="4">
         <v>0.53</v>
@@ -10861,7 +10800,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B4" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -10905,7 +10844,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B5" s="37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -10949,7 +10888,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B6" s="37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -10993,7 +10932,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B7" s="37" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>

--- a/nutrition/default_params.xlsx
+++ b/nutrition/default_params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/github_projects/Nutrition/nutrition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A4C48AB5-4D09-6F4E-907D-41CF8B53D6AA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F877CB9F-3C71-1547-8A0F-39E4A5DDD15A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="9" xr2:uid="{9D310A7F-FF26-7448-8337-E29F42B35A9E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{9D310A7F-FF26-7448-8337-E29F42B35A9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Programs impacted population" sheetId="14" r:id="rId1"/>
@@ -230,7 +230,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="169">
   <si>
     <t>Neonatal other</t>
   </si>
@@ -475,9 +475,6 @@
     <t>IPTp</t>
   </si>
   <si>
-    <t>Iron and folic acid supplementation for pregnant women</t>
-  </si>
-  <si>
     <t>Multiple micronutrient supplementation</t>
   </si>
   <si>
@@ -721,19 +718,25 @@
     <t>Outcome</t>
   </si>
   <si>
-    <t>IFAS: community</t>
-  </si>
-  <si>
-    <t>IFAS: hospital</t>
-  </si>
-  <si>
-    <t>IFAS: retailer</t>
-  </si>
-  <si>
-    <t>IFAS: school</t>
-  </si>
-  <si>
     <t>Management of MAM</t>
+  </si>
+  <si>
+    <t>IFAS for pregnant women (community)</t>
+  </si>
+  <si>
+    <t>IFAS (community)</t>
+  </si>
+  <si>
+    <t>IFAS (hospital)</t>
+  </si>
+  <si>
+    <t>IFAS (retailer)</t>
+  </si>
+  <si>
+    <t>IFAS (school)</t>
+  </si>
+  <si>
+    <t>IFAS for pregnant women (hospital)</t>
   </si>
 </sst>
 </file>
@@ -1430,10 +1433,10 @@
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1451,10 +1454,10 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1" s="46" t="s">
         <v>45</v>
@@ -1498,10 +1501,10 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" s="53">
         <v>0</v>
@@ -1545,7 +1548,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="57" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C3" s="53">
         <v>1</v>
@@ -1589,7 +1592,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="57" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C4" s="53">
         <v>1</v>
@@ -1633,7 +1636,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C5" s="53">
         <v>1</v>
@@ -1677,7 +1680,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="57" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C6" s="53">
         <v>1</v>
@@ -1765,7 +1768,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" s="53">
         <v>0</v>
@@ -1809,7 +1812,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C9" s="53">
         <v>1</v>
@@ -1897,7 +1900,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" s="53">
         <v>0</v>
@@ -1941,7 +1944,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" s="53">
         <v>0</v>
@@ -1985,7 +1988,7 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13" s="53">
         <v>1</v>
@@ -2029,7 +2032,7 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C14" s="53">
         <v>0</v>
@@ -2089,10 +2092,10 @@
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="46" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B16" s="57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16" s="53">
         <v>0</v>
@@ -2137,7 +2140,7 @@
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="46"/>
       <c r="B17" s="57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C17" s="53">
         <v>0</v>
@@ -2180,96 +2183,96 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="58" t="s">
+      <c r="B18" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="53">
+        <v>0</v>
+      </c>
+      <c r="D18" s="53">
+        <v>0</v>
+      </c>
+      <c r="E18" s="53">
+        <v>0</v>
+      </c>
+      <c r="F18" s="53">
+        <v>0</v>
+      </c>
+      <c r="G18" s="53">
+        <v>0</v>
+      </c>
+      <c r="H18" s="53">
+        <v>1</v>
+      </c>
+      <c r="I18" s="53">
+        <v>1</v>
+      </c>
+      <c r="J18" s="53">
+        <v>1</v>
+      </c>
+      <c r="K18" s="53">
+        <v>1</v>
+      </c>
+      <c r="L18" s="53">
+        <v>0</v>
+      </c>
+      <c r="M18" s="53">
+        <v>0</v>
+      </c>
+      <c r="N18" s="53">
+        <v>0</v>
+      </c>
+      <c r="O18" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="C19" s="53">
+        <v>0</v>
+      </c>
+      <c r="D19" s="53">
+        <v>0</v>
+      </c>
+      <c r="E19" s="53">
+        <v>0</v>
+      </c>
+      <c r="F19" s="53">
+        <v>0</v>
+      </c>
+      <c r="G19" s="53">
+        <v>0</v>
+      </c>
+      <c r="H19" s="53">
+        <v>1</v>
+      </c>
+      <c r="I19" s="53">
+        <v>1</v>
+      </c>
+      <c r="J19" s="53">
+        <v>1</v>
+      </c>
+      <c r="K19" s="53">
+        <v>1</v>
+      </c>
+      <c r="L19" s="53">
+        <v>0</v>
+      </c>
+      <c r="M19" s="53">
+        <v>0</v>
+      </c>
+      <c r="N19" s="53">
+        <v>0</v>
+      </c>
+      <c r="O19" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="58" t="s">
         <v>80</v>
-      </c>
-      <c r="C18" s="53">
-        <v>0</v>
-      </c>
-      <c r="D18" s="53">
-        <v>0</v>
-      </c>
-      <c r="E18" s="53">
-        <v>0</v>
-      </c>
-      <c r="F18" s="53">
-        <v>0</v>
-      </c>
-      <c r="G18" s="53">
-        <v>0</v>
-      </c>
-      <c r="H18" s="53">
-        <v>1</v>
-      </c>
-      <c r="I18" s="53">
-        <v>1</v>
-      </c>
-      <c r="J18" s="53">
-        <v>1</v>
-      </c>
-      <c r="K18" s="53">
-        <v>1</v>
-      </c>
-      <c r="L18" s="53">
-        <v>0</v>
-      </c>
-      <c r="M18" s="53">
-        <v>0</v>
-      </c>
-      <c r="N18" s="53">
-        <v>0</v>
-      </c>
-      <c r="O18" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="53">
-        <v>0</v>
-      </c>
-      <c r="D19" s="53">
-        <v>0</v>
-      </c>
-      <c r="E19" s="53">
-        <v>0</v>
-      </c>
-      <c r="F19" s="53">
-        <v>0</v>
-      </c>
-      <c r="G19" s="53">
-        <v>0</v>
-      </c>
-      <c r="H19" s="53">
-        <v>1</v>
-      </c>
-      <c r="I19" s="53">
-        <v>1</v>
-      </c>
-      <c r="J19" s="53">
-        <v>1</v>
-      </c>
-      <c r="K19" s="53">
-        <v>1</v>
-      </c>
-      <c r="L19" s="53">
-        <v>0</v>
-      </c>
-      <c r="M19" s="53">
-        <v>0</v>
-      </c>
-      <c r="N19" s="53">
-        <v>0</v>
-      </c>
-      <c r="O19" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="57" t="s">
-        <v>110</v>
       </c>
       <c r="C20" s="53">
         <v>0</v>
@@ -2313,7 +2316,7 @@
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="57" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C21" s="53">
         <v>0</v>
@@ -2357,7 +2360,7 @@
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="57" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="C22" s="53">
         <v>0</v>
@@ -2400,71 +2403,71 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="57"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
+      <c r="B23" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="53">
+        <v>0</v>
+      </c>
+      <c r="D23" s="53">
+        <v>0</v>
+      </c>
+      <c r="E23" s="53">
+        <v>0</v>
+      </c>
+      <c r="F23" s="53">
+        <v>0</v>
+      </c>
+      <c r="G23" s="53">
+        <v>0</v>
+      </c>
+      <c r="H23" s="53">
+        <v>1</v>
+      </c>
+      <c r="I23" s="53">
+        <v>1</v>
+      </c>
+      <c r="J23" s="53">
+        <v>1</v>
+      </c>
+      <c r="K23" s="53">
+        <v>1</v>
+      </c>
+      <c r="L23" s="53">
+        <v>0</v>
+      </c>
+      <c r="M23" s="53">
+        <v>0</v>
+      </c>
+      <c r="N23" s="53">
+        <v>0</v>
+      </c>
+      <c r="O23" s="53">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="B24" s="57" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" s="53">
-        <v>0</v>
-      </c>
-      <c r="D24" s="53">
-        <v>0</v>
-      </c>
-      <c r="E24" s="53">
-        <v>0</v>
-      </c>
-      <c r="F24" s="53">
-        <v>0</v>
-      </c>
-      <c r="G24" s="53">
-        <v>0</v>
-      </c>
-      <c r="H24" s="53">
-        <v>0</v>
-      </c>
-      <c r="I24" s="53">
-        <v>0</v>
-      </c>
-      <c r="J24" s="53">
-        <v>0</v>
-      </c>
-      <c r="K24" s="53">
-        <v>0</v>
-      </c>
-      <c r="L24" s="53">
-        <v>1</v>
-      </c>
-      <c r="M24" s="53">
-        <v>1</v>
-      </c>
-      <c r="N24" s="53">
-        <v>1</v>
-      </c>
-      <c r="O24" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="57"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+    </row>
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="46" t="s">
+        <v>123</v>
+      </c>
       <c r="B25" s="57" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C25" s="53">
         <v>0</v>
@@ -2506,9 +2509,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="57" t="s">
-        <v>163</v>
+        <v>122</v>
       </c>
       <c r="C26" s="53">
         <v>0</v>
@@ -2551,8 +2554,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="46"/>
-      <c r="B27" s="57" t="s">
+      <c r="B27" s="37" t="s">
         <v>164</v>
       </c>
       <c r="C27" s="53">
@@ -2596,7 +2598,8 @@
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="57" t="s">
+      <c r="A28" s="46"/>
+      <c r="B28" s="37" t="s">
         <v>165</v>
       </c>
       <c r="C28" s="53">
@@ -2640,7 +2643,7 @@
       </c>
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="57" t="s">
+      <c r="B29" s="37" t="s">
         <v>166</v>
       </c>
       <c r="C29" s="53">
@@ -2674,79 +2677,79 @@
         <v>1</v>
       </c>
       <c r="M29" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="57"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="49"/>
+      <c r="B30" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="C30" s="53">
+        <v>0</v>
+      </c>
+      <c r="D30" s="53">
+        <v>0</v>
+      </c>
+      <c r="E30" s="53">
+        <v>0</v>
+      </c>
+      <c r="F30" s="53">
+        <v>0</v>
+      </c>
+      <c r="G30" s="53">
+        <v>0</v>
+      </c>
+      <c r="H30" s="53">
+        <v>0</v>
+      </c>
+      <c r="I30" s="53">
+        <v>0</v>
+      </c>
+      <c r="J30" s="53">
+        <v>0</v>
+      </c>
+      <c r="K30" s="53">
+        <v>0</v>
+      </c>
+      <c r="L30" s="53">
+        <v>1</v>
+      </c>
+      <c r="M30" s="53">
+        <v>0</v>
+      </c>
+      <c r="N30" s="53">
+        <v>0</v>
+      </c>
+      <c r="O30" s="53">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="B31" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" s="53">
-        <v>1</v>
-      </c>
-      <c r="D31" s="53">
-        <v>0</v>
-      </c>
-      <c r="E31" s="53">
-        <v>1</v>
-      </c>
-      <c r="F31" s="53">
-        <v>1</v>
-      </c>
-      <c r="G31" s="53">
-        <v>1</v>
-      </c>
-      <c r="H31" s="53">
-        <v>1</v>
-      </c>
-      <c r="I31" s="53">
-        <v>1</v>
-      </c>
-      <c r="J31" s="53">
-        <v>1</v>
-      </c>
-      <c r="K31" s="53">
-        <v>1</v>
-      </c>
-      <c r="L31" s="53">
-        <v>1</v>
-      </c>
-      <c r="M31" s="53">
-        <v>1</v>
-      </c>
-      <c r="N31" s="53">
-        <v>1</v>
-      </c>
-      <c r="O31" s="53">
-        <v>1</v>
-      </c>
+      <c r="B31" s="57"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="46" t="s">
+        <v>121</v>
+      </c>
       <c r="B32" s="57" t="s">
         <v>85</v>
       </c>
@@ -2792,7 +2795,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="57" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C33" s="53">
         <v>1</v>
@@ -2836,7 +2839,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="57" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C34" s="53">
         <v>1</v>
@@ -2880,53 +2883,52 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="53">
+        <v>1</v>
+      </c>
+      <c r="D35" s="53">
+        <v>0</v>
+      </c>
+      <c r="E35" s="53">
+        <v>1</v>
+      </c>
+      <c r="F35" s="53">
+        <v>1</v>
+      </c>
+      <c r="G35" s="53">
+        <v>1</v>
+      </c>
+      <c r="H35" s="53">
+        <v>1</v>
+      </c>
+      <c r="I35" s="53">
+        <v>1</v>
+      </c>
+      <c r="J35" s="53">
+        <v>1</v>
+      </c>
+      <c r="K35" s="53">
+        <v>1</v>
+      </c>
+      <c r="L35" s="53">
+        <v>1</v>
+      </c>
+      <c r="M35" s="53">
+        <v>1</v>
+      </c>
+      <c r="N35" s="53">
+        <v>1</v>
+      </c>
+      <c r="O35" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="53">
-        <v>1</v>
-      </c>
-      <c r="D35" s="53">
-        <v>1</v>
-      </c>
-      <c r="E35" s="53">
-        <v>1</v>
-      </c>
-      <c r="F35" s="53">
-        <v>1</v>
-      </c>
-      <c r="G35" s="53">
-        <v>1</v>
-      </c>
-      <c r="H35" s="53">
-        <v>1</v>
-      </c>
-      <c r="I35" s="53">
-        <v>1</v>
-      </c>
-      <c r="J35" s="53">
-        <v>1</v>
-      </c>
-      <c r="K35" s="53">
-        <v>1</v>
-      </c>
-      <c r="L35" s="53">
-        <v>1</v>
-      </c>
-      <c r="M35" s="53">
-        <v>1</v>
-      </c>
-      <c r="N35" s="53">
-        <v>1</v>
-      </c>
-      <c r="O35" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="45"/>
-      <c r="B36" s="57" t="s">
-        <v>101</v>
-      </c>
       <c r="C36" s="53">
         <v>1</v>
       </c>
@@ -2967,9 +2969,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="45"/>
       <c r="B37" s="57" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C37" s="53">
         <v>1</v>
@@ -3013,7 +3016,7 @@
     </row>
     <row r="38" spans="1:15" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="57" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C38" s="53">
         <v>1</v>
@@ -3057,7 +3060,7 @@
     </row>
     <row r="39" spans="1:15" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="57" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C39" s="53">
         <v>1</v>
@@ -3099,7 +3102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="57" t="s">
         <v>104</v>
       </c>
@@ -3143,9 +3146,53 @@
         <v>1</v>
       </c>
     </row>
+    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="53">
+        <v>1</v>
+      </c>
+      <c r="D41" s="53">
+        <v>1</v>
+      </c>
+      <c r="E41" s="53">
+        <v>1</v>
+      </c>
+      <c r="F41" s="53">
+        <v>1</v>
+      </c>
+      <c r="G41" s="53">
+        <v>1</v>
+      </c>
+      <c r="H41" s="53">
+        <v>1</v>
+      </c>
+      <c r="I41" s="53">
+        <v>1</v>
+      </c>
+      <c r="J41" s="53">
+        <v>1</v>
+      </c>
+      <c r="K41" s="53">
+        <v>1</v>
+      </c>
+      <c r="L41" s="53">
+        <v>1</v>
+      </c>
+      <c r="M41" s="53">
+        <v>1</v>
+      </c>
+      <c r="N41" s="53">
+        <v>1</v>
+      </c>
+      <c r="O41" s="53">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="B31:O40">
-    <sortCondition ref="B31:B40"/>
+  <sortState ref="B16:O23">
+    <sortCondition ref="B16:B23"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3158,7 +3205,7 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -3191,12 +3238,12 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
@@ -3216,7 +3263,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="37"/>
       <c r="C4" s="38"/>
@@ -3227,7 +3274,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="36" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -3277,13 +3324,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C1" s="54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>45</v>
@@ -3303,13 +3350,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="57" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
@@ -3329,7 +3376,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C3" s="57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
@@ -3349,7 +3396,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C4" s="57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
@@ -3375,7 +3422,7 @@
         <v>61</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
@@ -3395,7 +3442,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C6" s="57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
@@ -3418,7 +3465,7 @@
         <v>62</v>
       </c>
       <c r="C7" s="57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
@@ -3438,7 +3485,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C8" s="57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -3464,7 +3511,7 @@
         <v>61</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -3484,7 +3531,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C10" s="57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D10" s="4">
         <v>0</v>
@@ -3507,7 +3554,7 @@
         <v>62</v>
       </c>
       <c r="C11" s="57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D11" s="4">
         <v>0</v>
@@ -3527,7 +3574,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C12" s="57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D12" s="4">
         <v>0</v>
@@ -3547,13 +3594,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B13" s="57" t="s">
         <v>61</v>
       </c>
       <c r="C13" s="57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D13" s="4">
         <v>0</v>
@@ -3573,7 +3620,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C14" s="57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D14" s="4">
         <v>0</v>
@@ -3597,7 +3644,7 @@
         <v>62</v>
       </c>
       <c r="C15" s="57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D15" s="4">
         <v>0</v>
@@ -3618,7 +3665,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C16" s="57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D16" s="4">
         <v>0</v>
@@ -3639,13 +3686,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B17" s="57" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D17" s="4">
         <v>0.7</v>
@@ -3666,7 +3713,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C18" s="57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D18" s="4">
         <v>0.46</v>
@@ -3687,13 +3734,13 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B19" s="57" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D19" s="4">
         <v>0.7</v>
@@ -3713,7 +3760,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C20" s="57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D20" s="4">
         <v>0.46</v>
@@ -3733,13 +3780,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B21" s="57" t="s">
         <v>1</v>
       </c>
       <c r="C21" s="57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D21" s="4">
         <v>0.7</v>
@@ -3759,7 +3806,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C22" s="57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D22" s="4">
         <v>0.46</v>
@@ -3779,13 +3826,13 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="57" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B23" s="57" t="s">
         <v>50</v>
       </c>
       <c r="C23" s="57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D23" s="4">
         <v>1</v>
@@ -3805,7 +3852,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C24" s="57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D24" s="4">
         <v>0.17</v>
@@ -3825,7 +3872,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C25" s="57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D25" s="4">
         <v>0.17</v>
@@ -3845,13 +3892,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B26" s="57" t="s">
         <v>50</v>
       </c>
       <c r="C26" s="57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -3871,7 +3918,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C27" s="57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D27" s="4">
         <v>0.69</v>
@@ -3891,7 +3938,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C28" s="57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D28" s="4">
         <v>0.69</v>
@@ -3911,13 +3958,13 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="57" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" s="57" t="s">
         <v>50</v>
       </c>
       <c r="C29" s="57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D29" s="4">
         <v>1</v>
@@ -3937,7 +3984,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C30" s="57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="4">
         <v>0.36</v>
@@ -3957,7 +4004,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C31" s="57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="4">
         <v>0.36</v>
@@ -3977,13 +4024,13 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B32" s="57" t="s">
         <v>50</v>
       </c>
       <c r="C32" s="57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="4">
         <v>1</v>
@@ -4003,7 +4050,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C33" s="57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D33" s="4">
         <v>0.2</v>
@@ -4023,7 +4070,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C34" s="57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D34" s="4">
         <v>0.2</v>
@@ -4043,13 +4090,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B35" s="57" t="s">
         <v>50</v>
       </c>
       <c r="C35" s="57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -4069,7 +4116,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C36" s="57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D36" s="4">
         <v>0.48</v>
@@ -4089,7 +4136,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C37" s="57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D37" s="4">
         <v>0.48</v>
@@ -4109,13 +4156,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B38" s="57" t="s">
         <v>50</v>
       </c>
       <c r="C38" s="57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D38" s="4">
         <v>0.3</v>
@@ -4135,7 +4182,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C39" s="57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D39" s="4">
         <v>0.5</v>
@@ -4155,7 +4202,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C40" s="57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D40" s="4">
         <v>0.65</v>
@@ -4178,7 +4225,7 @@
         <v>49</v>
       </c>
       <c r="C41" s="57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D41" s="4">
         <v>0.3</v>
@@ -4198,7 +4245,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C42" s="57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D42" s="4">
         <v>0.49</v>
@@ -4218,7 +4265,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C43" s="57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D43" s="4">
         <v>0.52</v>
@@ -4238,13 +4285,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B44" s="57" t="s">
         <v>50</v>
       </c>
       <c r="C44" s="57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D44" s="4">
         <v>0.88</v>
@@ -4264,7 +4311,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C45" s="57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D45" s="4">
         <v>0.93</v>
@@ -4284,13 +4331,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B46" s="57" t="s">
         <v>50</v>
       </c>
       <c r="C46" s="57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D46" s="4">
         <v>1</v>
@@ -4310,7 +4357,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C47" s="57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D47" s="4">
         <v>0.86</v>
@@ -4356,10 +4403,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C1" s="35"/>
       <c r="D1" s="2" t="s">
@@ -4378,13 +4425,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -4402,7 +4449,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D3" s="4">
         <v>0.2</v>
@@ -4420,13 +4467,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -4445,7 +4492,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="29"/>
       <c r="C5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" s="4">
         <v>0.59</v>
@@ -4463,13 +4510,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -4488,7 +4535,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="29"/>
       <c r="C7" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D7" s="4">
         <v>0.6</v>
@@ -4514,10 +4561,10 @@
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4538,42 +4585,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="53"/>
       <c r="C2" s="53"/>
@@ -4583,14 +4630,14 @@
       <c r="G2" s="53"/>
       <c r="H2" s="53"/>
       <c r="I2" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J2" s="53"/>
       <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B3" s="53"/>
       <c r="C3" s="53"/>
@@ -4602,12 +4649,12 @@
       <c r="I3" s="53"/>
       <c r="J3" s="53"/>
       <c r="K3" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="53"/>
       <c r="C4" s="53"/>
@@ -4616,7 +4663,7 @@
       <c r="F4" s="53"/>
       <c r="G4" s="53"/>
       <c r="H4" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I4" s="53"/>
       <c r="J4" s="53"/>
@@ -4624,12 +4671,12 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" s="53"/>
       <c r="C5" s="53"/>
       <c r="D5" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E5" s="53"/>
       <c r="F5" s="53"/>
@@ -4641,11 +4688,11 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="57" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B6" s="53"/>
       <c r="C6" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D6" s="53"/>
       <c r="E6" s="53"/>
@@ -4658,7 +4705,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="57" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B7" s="53"/>
       <c r="C7" s="53"/>
@@ -4669,24 +4716,24 @@
       <c r="H7" s="53"/>
       <c r="I7" s="53"/>
       <c r="J7" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" s="53"/>
       <c r="C8" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D8" s="53"/>
       <c r="E8" s="53"/>
       <c r="F8" s="53"/>
       <c r="G8" s="53"/>
       <c r="H8" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I8" s="53"/>
       <c r="J8" s="53"/>
@@ -4694,18 +4741,18 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B9" s="53"/>
       <c r="C9" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D9" s="53"/>
       <c r="E9" s="53"/>
       <c r="F9" s="53"/>
       <c r="G9" s="53"/>
       <c r="H9" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I9" s="53"/>
       <c r="J9" s="53"/>
@@ -4713,30 +4760,30 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10" s="53"/>
       <c r="C10" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D10" s="53"/>
       <c r="E10" s="53"/>
       <c r="F10" s="53"/>
       <c r="G10" s="53"/>
       <c r="H10" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I10" s="53"/>
       <c r="J10" s="53"/>
       <c r="K10" s="53"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="57" t="s">
-        <v>163</v>
+      <c r="A11" s="37" t="s">
+        <v>164</v>
       </c>
       <c r="B11" s="53"/>
       <c r="C11" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D11" s="53"/>
       <c r="E11" s="53"/>
@@ -4748,12 +4795,12 @@
       <c r="K11" s="53"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="57" t="s">
-        <v>164</v>
+      <c r="A12" s="37" t="s">
+        <v>165</v>
       </c>
       <c r="B12" s="53"/>
       <c r="C12" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D12" s="53"/>
       <c r="E12" s="53"/>
@@ -4765,12 +4812,12 @@
       <c r="K12" s="53"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="57" t="s">
-        <v>165</v>
+      <c r="A13" s="37" t="s">
+        <v>166</v>
       </c>
       <c r="B13" s="53"/>
       <c r="C13" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D13" s="53"/>
       <c r="E13" s="53"/>
@@ -4782,12 +4829,12 @@
       <c r="K13" s="53"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="57" t="s">
-        <v>166</v>
+      <c r="A14" s="37" t="s">
+        <v>167</v>
       </c>
       <c r="B14" s="53"/>
       <c r="C14" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D14" s="53"/>
       <c r="E14" s="53"/>
@@ -4799,33 +4846,31 @@
       <c r="K14" s="53"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="57" t="s">
-        <v>80</v>
+      <c r="A15" s="36" t="s">
+        <v>163</v>
       </c>
       <c r="B15" s="53"/>
       <c r="C15" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D15" s="53"/>
       <c r="E15" s="53"/>
       <c r="F15" s="53"/>
       <c r="G15" s="53"/>
-      <c r="H15" s="53" t="s">
-        <v>130</v>
-      </c>
+      <c r="H15" s="53"/>
       <c r="I15" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J15" s="53"/>
       <c r="K15" s="53"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="57" t="s">
-        <v>81</v>
+      <c r="A16" s="36" t="s">
+        <v>168</v>
       </c>
       <c r="B16" s="53"/>
       <c r="C16" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D16" s="53"/>
       <c r="E16" s="53"/>
@@ -4833,41 +4878,43 @@
       <c r="G16" s="53"/>
       <c r="H16" s="53"/>
       <c r="I16" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J16" s="53"/>
       <c r="K16" s="53"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="57" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B17" s="53"/>
       <c r="C17" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D17" s="53"/>
       <c r="E17" s="53"/>
       <c r="F17" s="53"/>
       <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
+      <c r="H17" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="I17" s="53" t="s">
+        <v>129</v>
+      </c>
       <c r="J17" s="53"/>
       <c r="K17" s="53"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="57" t="s">
-        <v>127</v>
-      </c>
-      <c r="B18" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="C18" s="53"/>
+        <v>87</v>
+      </c>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53" t="s">
+        <v>129</v>
+      </c>
       <c r="D18" s="53"/>
       <c r="E18" s="53"/>
-      <c r="F18" s="53" t="s">
-        <v>130</v>
-      </c>
+      <c r="F18" s="53"/>
       <c r="G18" s="53"/>
       <c r="H18" s="53"/>
       <c r="I18" s="53"/>
@@ -4879,13 +4926,13 @@
         <v>126</v>
       </c>
       <c r="B19" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C19" s="53"/>
       <c r="D19" s="53"/>
       <c r="E19" s="53"/>
       <c r="F19" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G19" s="53"/>
       <c r="H19" s="53"/>
@@ -4898,13 +4945,13 @@
         <v>125</v>
       </c>
       <c r="B20" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C20" s="53"/>
       <c r="D20" s="53"/>
       <c r="E20" s="53"/>
       <c r="F20" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G20" s="53"/>
       <c r="H20" s="53"/>
@@ -4914,19 +4961,17 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="57" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="B21" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="C21" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="D21" s="53" t="s">
-        <v>130</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
       <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
+      <c r="F21" s="53" t="s">
+        <v>129</v>
+      </c>
       <c r="G21" s="53"/>
       <c r="H21" s="53"/>
       <c r="I21" s="53"/>
@@ -4935,43 +4980,47 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="53"/>
+        <v>70</v>
+      </c>
+      <c r="B22" s="53" t="s">
+        <v>129</v>
+      </c>
       <c r="C22" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="D22" s="53"/>
+        <v>129</v>
+      </c>
+      <c r="D22" s="53" t="s">
+        <v>129</v>
+      </c>
       <c r="E22" s="53"/>
       <c r="F22" s="53"/>
       <c r="G22" s="53"/>
       <c r="H22" s="53"/>
-      <c r="I22" s="53" t="s">
-        <v>130</v>
-      </c>
+      <c r="I22" s="53"/>
       <c r="J22" s="53"/>
       <c r="K22" s="53"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="57" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
+      <c r="C23" s="53" t="s">
+        <v>129</v>
+      </c>
       <c r="D23" s="53"/>
       <c r="E23" s="53"/>
       <c r="F23" s="53"/>
       <c r="G23" s="53"/>
-      <c r="H23" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="I23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53" t="s">
+        <v>129</v>
+      </c>
       <c r="J23" s="53"/>
       <c r="K23" s="53"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="57" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B24" s="53"/>
       <c r="C24" s="53"/>
@@ -4980,7 +5029,7 @@
       <c r="F24" s="53"/>
       <c r="G24" s="53"/>
       <c r="H24" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I24" s="53"/>
       <c r="J24" s="53"/>
@@ -4988,86 +5037,86 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="57" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="B25" s="53"/>
-      <c r="C25" s="53" t="s">
-        <v>130</v>
-      </c>
+      <c r="C25" s="53"/>
       <c r="D25" s="53"/>
       <c r="E25" s="53"/>
       <c r="F25" s="53"/>
       <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
+      <c r="H25" s="53" t="s">
+        <v>129</v>
+      </c>
       <c r="I25" s="53"/>
       <c r="J25" s="53"/>
       <c r="K25" s="53"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="57" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B26" s="53"/>
       <c r="C26" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D26" s="53"/>
       <c r="E26" s="53"/>
       <c r="F26" s="53"/>
       <c r="G26" s="53"/>
       <c r="H26" s="53"/>
-      <c r="I26" s="53" t="s">
-        <v>130</v>
-      </c>
+      <c r="I26" s="53"/>
       <c r="J26" s="53"/>
       <c r="K26" s="53"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="57" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
+      <c r="C27" s="53" t="s">
+        <v>129</v>
+      </c>
       <c r="D27" s="53"/>
       <c r="E27" s="53"/>
       <c r="F27" s="53"/>
       <c r="G27" s="53"/>
-      <c r="H27" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="I27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53" t="s">
+        <v>129</v>
+      </c>
       <c r="J27" s="53"/>
       <c r="K27" s="53"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" s="53" t="s">
-        <v>130</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="B28" s="53"/>
       <c r="C28" s="53"/>
-      <c r="D28" s="53" t="s">
-        <v>130</v>
-      </c>
+      <c r="D28" s="53"/>
       <c r="E28" s="53"/>
       <c r="F28" s="53"/>
       <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
+      <c r="H28" s="53" t="s">
+        <v>129</v>
+      </c>
       <c r="I28" s="53"/>
       <c r="J28" s="53"/>
       <c r="K28" s="53"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="B29" s="53"/>
+        <v>71</v>
+      </c>
+      <c r="B29" s="53" t="s">
+        <v>129</v>
+      </c>
       <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53" t="s">
-        <v>130</v>
-      </c>
+      <c r="D29" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29" s="53"/>
       <c r="F29" s="53"/>
       <c r="G29" s="53"/>
       <c r="H29" s="53"/>
@@ -5077,26 +5126,24 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="57" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="B30" s="53"/>
       <c r="C30" s="53"/>
       <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
+      <c r="E30" s="53" t="s">
+        <v>129</v>
+      </c>
       <c r="F30" s="53"/>
-      <c r="G30" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="H30" s="53" t="s">
-        <v>130</v>
-      </c>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
       <c r="I30" s="53"/>
       <c r="J30" s="53"/>
       <c r="K30" s="53"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="57" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B31" s="53"/>
       <c r="C31" s="53"/>
@@ -5104,10 +5151,10 @@
       <c r="E31" s="53"/>
       <c r="F31" s="53"/>
       <c r="G31" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H31" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I31" s="53"/>
       <c r="J31" s="53"/>
@@ -5115,7 +5162,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="57" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B32" s="53"/>
       <c r="C32" s="53"/>
@@ -5123,10 +5170,10 @@
       <c r="E32" s="53"/>
       <c r="F32" s="53"/>
       <c r="G32" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H32" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I32" s="53"/>
       <c r="J32" s="53"/>
@@ -5134,7 +5181,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="57" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B33" s="53"/>
       <c r="C33" s="53"/>
@@ -5142,10 +5189,10 @@
       <c r="E33" s="53"/>
       <c r="F33" s="53"/>
       <c r="G33" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H33" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I33" s="53"/>
       <c r="J33" s="53"/>
@@ -5153,7 +5200,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="57" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B34" s="53"/>
       <c r="C34" s="53"/>
@@ -5161,10 +5208,10 @@
       <c r="E34" s="53"/>
       <c r="F34" s="53"/>
       <c r="G34" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H34" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I34" s="53"/>
       <c r="J34" s="53"/>
@@ -5180,10 +5227,10 @@
       <c r="E35" s="53"/>
       <c r="F35" s="53"/>
       <c r="G35" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H35" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I35" s="53"/>
       <c r="J35" s="53"/>
@@ -5191,16 +5238,18 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="57" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B36" s="53"/>
       <c r="C36" s="53"/>
       <c r="D36" s="53"/>
       <c r="E36" s="53"/>
       <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
+      <c r="G36" s="53" t="s">
+        <v>129</v>
+      </c>
       <c r="H36" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I36" s="53"/>
       <c r="J36" s="53"/>
@@ -5208,28 +5257,45 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="B37" s="53" t="s">
-        <v>130</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="B37" s="53"/>
       <c r="C37" s="53"/>
       <c r="D37" s="53"/>
       <c r="E37" s="53"/>
       <c r="F37" s="53"/>
-      <c r="G37" s="53" t="s">
-        <v>130</v>
-      </c>
+      <c r="G37" s="53"/>
       <c r="H37" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I37" s="53"/>
       <c r="J37" s="53"/>
       <c r="K37" s="53"/>
     </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A38" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="H38" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="I38" s="53"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="53"/>
+    </row>
   </sheetData>
-  <sortState ref="A2:K37">
-    <sortCondition ref="A2:A37"/>
+  <sortState ref="A2:K38">
+    <sortCondition ref="A2:A38"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5264,37 +5330,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -5302,29 +5368,29 @@
         <v>45</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E2" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F2" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G2" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H2" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I2" s="53"/>
       <c r="J2" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K2" s="53"/>
     </row>
@@ -5333,29 +5399,29 @@
         <v>44</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D3" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E3" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F3" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G3" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H3" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I3" s="53"/>
       <c r="J3" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K3" s="53"/>
     </row>
@@ -5364,29 +5430,29 @@
         <v>43</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E4" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G4" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H4" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I4" s="53"/>
       <c r="J4" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K4" s="53"/>
     </row>
@@ -5395,29 +5461,29 @@
         <v>42</v>
       </c>
       <c r="B5" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E5" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F5" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G5" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H5" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I5" s="53"/>
       <c r="J5" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K5" s="53"/>
     </row>
@@ -5426,29 +5492,29 @@
         <v>41</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E6" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F6" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G6" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H6" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I6" s="53"/>
       <c r="J6" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K6" s="53"/>
     </row>
@@ -5458,17 +5524,17 @@
       </c>
       <c r="B7" s="53"/>
       <c r="C7" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D7" s="53"/>
       <c r="E7" s="53"/>
       <c r="F7" s="53"/>
       <c r="G7" s="53"/>
       <c r="H7" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I7" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J7" s="53"/>
       <c r="K7" s="53"/>
@@ -5479,17 +5545,17 @@
       </c>
       <c r="B8" s="53"/>
       <c r="C8" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D8" s="53"/>
       <c r="E8" s="53"/>
       <c r="F8" s="53"/>
       <c r="G8" s="53"/>
       <c r="H8" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I8" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J8" s="53"/>
       <c r="K8" s="53"/>
@@ -5500,17 +5566,17 @@
       </c>
       <c r="B9" s="53"/>
       <c r="C9" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D9" s="53"/>
       <c r="E9" s="53"/>
       <c r="F9" s="53"/>
       <c r="G9" s="53"/>
       <c r="H9" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I9" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J9" s="53"/>
       <c r="K9" s="53"/>
@@ -5521,17 +5587,17 @@
       </c>
       <c r="B10" s="53"/>
       <c r="C10" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D10" s="53"/>
       <c r="E10" s="53"/>
       <c r="F10" s="53"/>
       <c r="G10" s="53"/>
       <c r="H10" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I10" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J10" s="53"/>
       <c r="K10" s="53"/>
@@ -5542,7 +5608,7 @@
       </c>
       <c r="B11" s="53"/>
       <c r="C11" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D11" s="53"/>
       <c r="E11" s="53"/>
@@ -5559,7 +5625,7 @@
       </c>
       <c r="B12" s="53"/>
       <c r="C12" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D12" s="53"/>
       <c r="E12" s="53"/>
@@ -5576,7 +5642,7 @@
       </c>
       <c r="B13" s="53"/>
       <c r="C13" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D13" s="53"/>
       <c r="E13" s="53"/>
@@ -5593,7 +5659,7 @@
       </c>
       <c r="B14" s="53"/>
       <c r="C14" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D14" s="53"/>
       <c r="E14" s="53"/>
@@ -5630,13 +5696,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>45</v>
@@ -5656,13 +5722,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D2" s="52">
         <v>1</v>
@@ -5683,7 +5749,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B3" s="59"/>
       <c r="C3" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" s="52">
         <v>1</v>
@@ -5705,7 +5771,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B4" s="59"/>
       <c r="C4" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4" s="52">
         <v>1</v>
@@ -5729,7 +5795,7 @@
         <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D5" s="52">
         <f>5.16</f>
@@ -5751,7 +5817,7 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B6" s="59"/>
       <c r="C6" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D6" s="52">
         <v>5.16</v>
@@ -5772,7 +5838,7 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B7" s="59"/>
       <c r="C7" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D7" s="52">
         <v>1</v>
@@ -5795,7 +5861,7 @@
         <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D8" s="52">
         <v>1</v>
@@ -5816,7 +5882,7 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B9" s="59"/>
       <c r="C9" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D9" s="52">
         <v>1</v>
@@ -5837,7 +5903,7 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B10" s="59"/>
       <c r="C10" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D10" s="52">
         <v>1</v>
@@ -5860,7 +5926,7 @@
         <v>43</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D11" s="52">
         <v>1</v>
@@ -5881,7 +5947,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B12" s="59"/>
       <c r="C12" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D12" s="52">
         <v>1</v>
@@ -5902,7 +5968,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B13" s="59"/>
       <c r="C13" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D13" s="52">
         <v>1</v>
@@ -5925,7 +5991,7 @@
         <v>42</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D14" s="52">
         <v>1</v>
@@ -5946,7 +6012,7 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B15" s="59"/>
       <c r="C15" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D15" s="52">
         <v>1</v>
@@ -5967,7 +6033,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B16" s="59"/>
       <c r="C16" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D16" s="52">
         <v>1</v>
@@ -5987,10 +6053,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B17" s="40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D17" s="51">
         <v>1.05</v>
@@ -6017,13 +6083,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D19" s="52">
         <v>1</v>
@@ -6044,7 +6110,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B20" s="59"/>
       <c r="C20" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D20" s="52">
         <v>1</v>
@@ -6065,7 +6131,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B21" s="59"/>
       <c r="C21" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D21" s="52">
         <v>1</v>
@@ -6088,7 +6154,7 @@
         <v>45</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D22" s="52">
         <v>1</v>
@@ -6109,7 +6175,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B23" s="59"/>
       <c r="C23" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D23" s="52">
         <v>1</v>
@@ -6130,7 +6196,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B24" s="59"/>
       <c r="C24" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D24" s="52">
         <v>1</v>
@@ -6153,7 +6219,7 @@
         <v>44</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D25" s="52">
         <v>1</v>
@@ -6174,7 +6240,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B26" s="59"/>
       <c r="C26" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D26" s="52">
         <v>1</v>
@@ -6195,7 +6261,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B27" s="59"/>
       <c r="C27" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D27" s="52">
         <v>1</v>
@@ -6218,7 +6284,7 @@
         <v>43</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D28" s="52">
         <v>1</v>
@@ -6239,7 +6305,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B29" s="59"/>
       <c r="C29" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D29" s="52">
         <v>1</v>
@@ -6260,7 +6326,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B30" s="59"/>
       <c r="C30" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D30" s="52">
         <v>1</v>
@@ -6283,7 +6349,7 @@
         <v>42</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D31" s="52">
         <v>1</v>
@@ -6304,7 +6370,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B32" s="59"/>
       <c r="C32" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D32" s="52">
         <v>1</v>
@@ -6325,7 +6391,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B33" s="59"/>
       <c r="C33" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D33" s="52">
         <v>1</v>
@@ -6345,10 +6411,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B34" s="41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D34" s="51">
         <v>1.05</v>
@@ -6368,13 +6434,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B36" s="59" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D36" s="52">
         <v>1</v>
@@ -6395,7 +6461,7 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B37" s="59"/>
       <c r="C37" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="52">
         <v>1</v>
@@ -6416,7 +6482,7 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B38" s="59"/>
       <c r="C38" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" s="52">
         <v>1</v>
@@ -6439,7 +6505,7 @@
         <v>45</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="52">
         <v>1</v>
@@ -6460,7 +6526,7 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B40" s="59"/>
       <c r="C40" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D40" s="52">
         <v>1</v>
@@ -6481,7 +6547,7 @@
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B41" s="59"/>
       <c r="C41" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D41" s="52">
         <v>1</v>
@@ -6504,7 +6570,7 @@
         <v>44</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D42" s="52">
         <v>1</v>
@@ -6525,7 +6591,7 @@
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B43" s="59"/>
       <c r="C43" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D43" s="52">
         <v>1</v>
@@ -6546,7 +6612,7 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B44" s="59"/>
       <c r="C44" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D44" s="52">
         <v>1</v>
@@ -6569,7 +6635,7 @@
         <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D45" s="52">
         <v>1</v>
@@ -6590,7 +6656,7 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B46" s="59"/>
       <c r="C46" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D46" s="52">
         <v>1</v>
@@ -6611,7 +6677,7 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B47" s="59"/>
       <c r="C47" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D47" s="52">
         <v>1</v>
@@ -6634,7 +6700,7 @@
         <v>42</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D48" s="52">
         <v>1</v>
@@ -6655,7 +6721,7 @@
     <row r="49" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B49" s="59"/>
       <c r="C49" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D49" s="52">
         <v>1</v>
@@ -6676,7 +6742,7 @@
     <row r="50" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B50" s="59"/>
       <c r="C50" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D50" s="52">
         <v>1</v>
@@ -6696,10 +6762,10 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B51" s="40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D51" s="51">
         <v>1</v>
@@ -6783,7 +6849,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6948,7 +7014,7 @@
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="21"/>
@@ -7330,7 +7396,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>51</v>
@@ -7368,7 +7434,7 @@
         <v>50</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
@@ -7396,7 +7462,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C4" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -7424,7 +7490,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C5" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -7452,7 +7518,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C6" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -7483,7 +7549,7 @@
         <v>49</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
@@ -7511,7 +7577,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C8" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
@@ -7539,7 +7605,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C9" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
@@ -7567,7 +7633,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C10" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -7598,7 +7664,7 @@
         <v>58</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D11" s="5">
         <v>1</v>
@@ -7626,7 +7692,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C12" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -7654,7 +7720,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C13" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -7682,7 +7748,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C14" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -7713,7 +7779,7 @@
         <v>57</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D15" s="5">
         <v>1</v>
@@ -7741,7 +7807,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C16" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -7769,7 +7835,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C17" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -7797,7 +7863,7 @@
     </row>
     <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -7828,7 +7894,7 @@
         <v>48</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D19" s="5">
         <v>1</v>
@@ -7856,7 +7922,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C20" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -7884,7 +7950,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C21" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
@@ -7912,7 +7978,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C22" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
@@ -7943,7 +8009,7 @@
         <v>56</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D23" s="5">
         <v>1</v>
@@ -7971,7 +8037,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C24" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D24" s="4">
         <v>1</v>
@@ -7999,7 +8065,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C25" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
@@ -8027,7 +8093,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C26" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -8060,7 +8126,7 @@
     </row>
     <row r="29" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B29" s="32" t="s">
         <v>51</v>
@@ -8098,7 +8164,7 @@
         <v>50</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D30" s="5">
         <v>1</v>
@@ -8126,7 +8192,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C31" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -8213,7 +8279,7 @@
         <v>49</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D34" s="5">
         <v>1</v>
@@ -8241,7 +8307,7 @@
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C35" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -8328,7 +8394,7 @@
         <v>58</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D38" s="5">
         <v>1</v>
@@ -8356,7 +8422,7 @@
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C39" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D39" s="4">
         <v>1</v>
@@ -8443,7 +8509,7 @@
         <v>57</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D42" s="5">
         <v>1</v>
@@ -8471,7 +8537,7 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C43" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
@@ -8558,7 +8624,7 @@
         <v>48</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D46" s="5">
         <v>1</v>
@@ -8586,7 +8652,7 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C47" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
@@ -8673,7 +8739,7 @@
         <v>56</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="5">
         <v>1</v>
@@ -8701,7 +8767,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C51" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="4">
         <v>1</v>
@@ -8794,7 +8860,7 @@
     </row>
     <row r="56" spans="1:16" s="29" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A56" s="33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B56" s="32" t="s">
         <v>51</v>
@@ -8826,7 +8892,7 @@
         <v>55</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D57" s="5">
         <v>1</v>
@@ -8848,7 +8914,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C58" s="28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D58" s="4">
         <v>10.675000000000001</v>
@@ -8873,7 +8939,7 @@
         <v>54</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D59" s="5">
         <v>1</v>
@@ -8895,7 +8961,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C60" s="28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D60" s="4">
         <v>10.675000000000001</v>
@@ -8920,7 +8986,7 @@
         <v>53</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D61" s="5">
         <v>1</v>
@@ -8942,7 +9008,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C62" s="28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D62" s="4">
         <v>10.675000000000001</v>
@@ -8973,7 +9039,7 @@
     </row>
     <row r="65" spans="1:16" s="29" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A65" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B65" s="32" t="s">
         <v>51</v>
@@ -9011,7 +9077,7 @@
         <v>7</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D66" s="5">
         <v>1</v>
@@ -9039,7 +9105,7 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C67" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D67" s="4">
         <v>1.35</v>
@@ -9067,7 +9133,7 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C68" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D68" s="4">
         <v>1.35</v>
@@ -9095,7 +9161,7 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C69" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D69" s="4">
         <v>5.4</v>
@@ -9126,7 +9192,7 @@
         <v>6</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D70" s="5">
         <v>1</v>
@@ -9154,7 +9220,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C71" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D71" s="4">
         <v>1.35</v>
@@ -9182,7 +9248,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C72" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D72" s="4">
         <v>1.35</v>
@@ -9210,7 +9276,7 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C73" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D73" s="4">
         <v>5.4</v>
@@ -9241,7 +9307,7 @@
         <v>5</v>
       </c>
       <c r="C74" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D74" s="5">
         <v>1</v>
@@ -9269,7 +9335,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C75" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D75" s="4">
         <v>1.35</v>
@@ -9297,7 +9363,7 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C76" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D76" s="4">
         <v>1.35</v>
@@ -9325,7 +9391,7 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C77" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D77" s="4">
         <v>5.4</v>
@@ -9356,7 +9422,7 @@
         <v>3</v>
       </c>
       <c r="C78" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D78" s="5">
         <v>1</v>
@@ -9384,7 +9450,7 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C79" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D79" s="4">
         <v>1</v>
@@ -9412,7 +9478,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C80" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
@@ -9440,7 +9506,7 @@
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C81" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -9471,7 +9537,7 @@
         <v>50</v>
       </c>
       <c r="C82" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D82" s="5">
         <v>1</v>
@@ -9499,7 +9565,7 @@
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C83" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D83" s="4">
         <v>1</v>
@@ -9527,7 +9593,7 @@
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C84" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D84" s="4">
         <v>1</v>
@@ -9555,7 +9621,7 @@
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C85" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D85" s="4">
         <v>1</v>
@@ -9586,7 +9652,7 @@
         <v>49</v>
       </c>
       <c r="C86" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D86" s="5">
         <v>1</v>
@@ -9614,7 +9680,7 @@
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C87" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
@@ -9642,7 +9708,7 @@
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C88" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D88" s="4">
         <v>1</v>
@@ -9670,7 +9736,7 @@
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C89" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
@@ -9701,7 +9767,7 @@
         <v>58</v>
       </c>
       <c r="C90" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D90" s="5">
         <v>1</v>
@@ -9729,7 +9795,7 @@
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C91" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D91" s="4">
         <v>1</v>
@@ -9757,7 +9823,7 @@
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C92" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D92" s="4">
         <v>1</v>
@@ -9785,7 +9851,7 @@
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C93" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -9816,7 +9882,7 @@
         <v>48</v>
       </c>
       <c r="C94" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D94" s="5">
         <v>1</v>
@@ -9844,7 +9910,7 @@
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C95" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D95" s="4">
         <v>1</v>
@@ -9872,7 +9938,7 @@
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C96" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D96" s="4">
         <v>1</v>
@@ -9900,7 +9966,7 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C97" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D97" s="4">
         <v>1</v>
@@ -9928,10 +9994,10 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B98" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C98" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D98" s="5">
         <v>1</v>
@@ -9959,7 +10025,7 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C99" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D99" s="4">
         <v>1</v>
@@ -9987,7 +10053,7 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C100" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D100" s="4">
         <v>1</v>
@@ -10015,7 +10081,7 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C101" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D101" s="4">
         <v>1</v>
@@ -10051,7 +10117,7 @@
         <v>50</v>
       </c>
       <c r="B104" s="55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C104" s="31" t="s">
         <v>46</v>
@@ -10084,7 +10150,7 @@
       <c r="A105" s="2"/>
       <c r="B105" s="29"/>
       <c r="C105" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D105" s="5">
         <v>1</v>
@@ -10112,7 +10178,7 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C106" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D106" s="4">
         <v>1.26</v>
@@ -10140,7 +10206,7 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C107" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D107" s="4">
         <v>1.68</v>
@@ -10168,7 +10234,7 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C108" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D108" s="4">
         <v>2.65</v>
@@ -10232,7 +10298,7 @@
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="2" t="s">
@@ -10274,7 +10340,7 @@
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C4" s="4">
         <v>1.0249999999999999</v>
@@ -10359,7 +10425,7 @@
     </row>
     <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
@@ -10385,7 +10451,7 @@
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>68</v>
@@ -10429,10 +10495,10 @@
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="54" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C14" s="4">
         <v>1.0249999999999999</v>
@@ -10463,10 +10529,10 @@
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10480,7 +10546,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
@@ -10497,10 +10563,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>78</v>
       </c>
       <c r="C2" s="4">
@@ -10517,7 +10583,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36" t="s">
         <v>77</v>
       </c>
       <c r="C3" s="4">
@@ -10534,17 +10601,17 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="36" t="s">
         <v>78</v>
       </c>
       <c r="C4" s="4">
-        <v>0.23</v>
+        <v>0.15</v>
       </c>
       <c r="D4" s="4">
-        <v>0.23</v>
+        <v>0.15</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
@@ -10554,7 +10621,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="36"/>
+      <c r="B5" s="36" t="s">
         <v>77</v>
       </c>
       <c r="C5" s="4">
@@ -10571,10 +10639,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="36" t="s">
         <v>78</v>
       </c>
       <c r="C6" s="4">
@@ -10591,7 +10659,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="1" t="s">
+      <c r="A7" s="36"/>
+      <c r="B7" s="36" t="s">
         <v>77</v>
       </c>
       <c r="C7" s="4">
@@ -10608,10 +10677,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="36" t="s">
         <v>78</v>
       </c>
       <c r="C8" s="4">
@@ -10628,7 +10697,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="1" t="s">
+      <c r="A9" s="36"/>
+      <c r="B9" s="36" t="s">
         <v>77</v>
       </c>
       <c r="C9" s="4">
@@ -10645,10 +10715,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="36" t="s">
         <v>78</v>
       </c>
       <c r="C10" s="4">
@@ -10665,7 +10735,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="1" t="s">
+      <c r="A11" s="36"/>
+      <c r="B11" s="36" t="s">
         <v>77</v>
       </c>
       <c r="C11" s="4">
@@ -10680,6 +10751,50 @@
       <c r="F11" s="4">
         <v>0</v>
       </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.23</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.23</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="36"/>
+      <c r="B13" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="36"/>
+    </row>
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10692,10 +10807,10 @@
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:B17"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -10751,12 +10866,12 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B3" s="37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C3" s="4">
         <v>0.53</v>
@@ -10800,7 +10915,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B4" s="37" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -10844,7 +10959,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B5" s="37" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -10888,7 +11003,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B6" s="37" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -10932,7 +11047,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B7" s="37" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -10975,8 +11090,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B8" s="37" t="s">
-        <v>80</v>
+      <c r="B8" s="36" t="s">
+        <v>163</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
@@ -11006,21 +11121,21 @@
         <v>1</v>
       </c>
       <c r="L8" s="4">
-        <v>0.83</v>
+        <v>0.33</v>
       </c>
       <c r="M8" s="4">
-        <v>0.83</v>
+        <v>0.33</v>
       </c>
       <c r="N8" s="4">
-        <v>0.83</v>
+        <v>0.33</v>
       </c>
       <c r="O8" s="4">
-        <v>0.83</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B9" s="36" t="s">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
@@ -11063,156 +11178,156 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4">
+        <v>1</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B11" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
         <v>0.69</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F11" s="4">
         <v>0.69</v>
       </c>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4">
-        <v>1</v>
-      </c>
-      <c r="J10" s="4">
-        <v>1</v>
-      </c>
-      <c r="K10" s="4">
-        <v>1</v>
-      </c>
-      <c r="L10" s="4">
-        <v>1</v>
-      </c>
-      <c r="M10" s="4">
-        <v>1</v>
-      </c>
-      <c r="N10" s="4">
-        <v>1</v>
-      </c>
-      <c r="O10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B11" s="37" t="s">
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1</v>
+      </c>
+      <c r="K11" s="4">
+        <v>1</v>
+      </c>
+      <c r="L11" s="4">
+        <v>1</v>
+      </c>
+      <c r="M11" s="4">
+        <v>1</v>
+      </c>
+      <c r="N11" s="4">
+        <v>1</v>
+      </c>
+      <c r="O11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B12" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C12" s="4">
         <v>0.83</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D12" s="4">
         <v>0.83</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E12" s="4">
         <v>0.83</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F12" s="4">
         <v>0.83</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G12" s="4">
         <v>0.83</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H12" s="4">
         <v>0.83</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I12" s="4">
         <v>0.83</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J12" s="4">
         <v>0.83</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K12" s="4">
         <v>0.83</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L12" s="4">
         <v>0.83</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M12" s="4">
         <v>0.83</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N12" s="4">
         <v>0.83</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O12" s="4">
         <v>0.83</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4">
+    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
         <v>0.69</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F13" s="4">
         <v>0.69</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G13" s="4">
         <v>0.69</v>
       </c>
-      <c r="H12" s="4">
-        <v>1</v>
-      </c>
-      <c r="I12" s="4">
-        <v>1</v>
-      </c>
-      <c r="J12" s="4">
-        <v>1</v>
-      </c>
-      <c r="K12" s="4">
-        <v>1</v>
-      </c>
-      <c r="L12" s="4">
-        <v>1</v>
-      </c>
-      <c r="M12" s="4">
-        <v>1</v>
-      </c>
-      <c r="N12" s="4">
-        <v>1</v>
-      </c>
-      <c r="O12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B13" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="4">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4">
-        <v>1</v>
-      </c>
       <c r="H13" s="4">
         <v>1</v>
       </c>
@@ -11226,67 +11341,67 @@
         <v>1</v>
       </c>
       <c r="L13" s="4">
+        <v>1</v>
+      </c>
+      <c r="M13" s="4">
+        <v>1</v>
+      </c>
+      <c r="N13" s="4">
+        <v>1</v>
+      </c>
+      <c r="O13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B14" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1</v>
+      </c>
+      <c r="J14" s="4">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1</v>
+      </c>
+      <c r="L14" s="4">
         <v>0.33</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M14" s="4">
         <v>0.33</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N14" s="4">
         <v>0.33</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O14" s="4">
         <v>0.33</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15" s="37"/>
-    </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B16" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="4">
-        <v>1</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="H16" s="4">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="J16" s="4">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="K16" s="4">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="L16" s="4">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="M16" s="4">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="N16" s="4">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0.97599999999999998</v>
-      </c>
+      <c r="A16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="37"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B17" s="36" t="s">
@@ -11334,7 +11449,7 @@
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B18" s="36" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
@@ -11378,7 +11493,7 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B19" s="36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C19" s="4">
         <v>1</v>
@@ -11387,41 +11502,82 @@
         <v>1</v>
       </c>
       <c r="E19" s="4">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0.97599999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B20" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4">
         <v>0.9</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F20" s="4">
         <v>0.9</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G20" s="4">
         <v>0.9</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H20" s="4">
         <v>0.9</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I20" s="4">
         <v>0.9</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J20" s="4">
         <v>0.9</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K20" s="4">
         <v>0.9</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L20" s="4">
         <v>0.9</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M20" s="4">
         <v>0.9</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N20" s="4">
         <v>0.9</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O20" s="4">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B24" s="28"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B25" s="28"/>
@@ -11432,9 +11588,12 @@
     <row r="27" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B27" s="28"/>
     </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B28" s="28"/>
+    </row>
   </sheetData>
-  <sortState ref="B16:O19">
-    <sortCondition ref="B16:B19"/>
+  <sortState ref="B3:O14">
+    <sortCondition ref="B3:B14"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/nutrition/default_params.xlsx
+++ b/nutrition/default_params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/github_projects/Nutrition/nutrition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F877CB9F-3C71-1547-8A0F-39E4A5DDD15A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2F766ECB-F692-2D46-9BC6-F46F1C4B6342}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{9D310A7F-FF26-7448-8337-E29F42B35A9E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="4" xr2:uid="{9D310A7F-FF26-7448-8337-E29F42B35A9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Programs impacted population" sheetId="14" r:id="rId1"/>
@@ -230,7 +230,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="167">
   <si>
     <t>Neonatal other</t>
   </si>
@@ -568,9 +568,6 @@
     <t>Calcium supplementation</t>
   </si>
   <si>
-    <t>Birth age program</t>
-  </si>
-  <si>
     <t>Mass media</t>
   </si>
   <si>
@@ -620,9 +617,6 @@
   </si>
   <si>
     <t>x</t>
-  </si>
-  <si>
-    <t>Birth age</t>
   </si>
   <si>
     <t>Family planning</t>
@@ -1433,10 +1427,10 @@
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1454,7 +1448,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1" s="47" t="s">
         <v>83</v>
@@ -1501,7 +1495,7 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" s="57" t="s">
         <v>105</v>
@@ -1548,7 +1542,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="57" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C3" s="53">
         <v>1</v>
@@ -1592,7 +1586,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" s="53">
         <v>1</v>
@@ -1636,7 +1630,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="57" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C5" s="53">
         <v>1</v>
@@ -1680,7 +1674,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C6" s="53">
         <v>1</v>
@@ -2092,7 +2086,7 @@
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B16" s="57" t="s">
         <v>82</v>
@@ -2184,7 +2178,7 @@
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="36" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C18" s="53">
         <v>0</v>
@@ -2228,7 +2222,7 @@
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C19" s="53">
         <v>0</v>
@@ -2462,12 +2456,12 @@
       <c r="N24" s="49"/>
       <c r="O24" s="49"/>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B25" s="57" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C25" s="53">
         <v>0</v>
@@ -2509,9 +2503,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="57" t="s">
-        <v>122</v>
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="37" t="s">
+        <v>162</v>
       </c>
       <c r="C26" s="53">
         <v>0</v>
@@ -2554,53 +2548,53 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="46"/>
       <c r="B27" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" s="53">
+        <v>0</v>
+      </c>
+      <c r="D27" s="53">
+        <v>0</v>
+      </c>
+      <c r="E27" s="53">
+        <v>0</v>
+      </c>
+      <c r="F27" s="53">
+        <v>0</v>
+      </c>
+      <c r="G27" s="53">
+        <v>0</v>
+      </c>
+      <c r="H27" s="53">
+        <v>0</v>
+      </c>
+      <c r="I27" s="53">
+        <v>0</v>
+      </c>
+      <c r="J27" s="53">
+        <v>0</v>
+      </c>
+      <c r="K27" s="53">
+        <v>0</v>
+      </c>
+      <c r="L27" s="53">
+        <v>1</v>
+      </c>
+      <c r="M27" s="53">
+        <v>1</v>
+      </c>
+      <c r="N27" s="53">
+        <v>1</v>
+      </c>
+      <c r="O27" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="37" t="s">
         <v>164</v>
-      </c>
-      <c r="C27" s="53">
-        <v>0</v>
-      </c>
-      <c r="D27" s="53">
-        <v>0</v>
-      </c>
-      <c r="E27" s="53">
-        <v>0</v>
-      </c>
-      <c r="F27" s="53">
-        <v>0</v>
-      </c>
-      <c r="G27" s="53">
-        <v>0</v>
-      </c>
-      <c r="H27" s="53">
-        <v>0</v>
-      </c>
-      <c r="I27" s="53">
-        <v>0</v>
-      </c>
-      <c r="J27" s="53">
-        <v>0</v>
-      </c>
-      <c r="K27" s="53">
-        <v>0</v>
-      </c>
-      <c r="L27" s="53">
-        <v>1</v>
-      </c>
-      <c r="M27" s="53">
-        <v>1</v>
-      </c>
-      <c r="N27" s="53">
-        <v>1</v>
-      </c>
-      <c r="O27" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="46"/>
-      <c r="B28" s="37" t="s">
-        <v>165</v>
       </c>
       <c r="C28" s="53">
         <v>0</v>
@@ -2644,7 +2638,7 @@
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C29" s="53">
         <v>0</v>
@@ -2677,81 +2671,81 @@
         <v>1</v>
       </c>
       <c r="M29" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="37" t="s">
-        <v>167</v>
-      </c>
-      <c r="C30" s="53">
-        <v>0</v>
-      </c>
-      <c r="D30" s="53">
-        <v>0</v>
-      </c>
-      <c r="E30" s="53">
-        <v>0</v>
-      </c>
-      <c r="F30" s="53">
-        <v>0</v>
-      </c>
-      <c r="G30" s="53">
-        <v>0</v>
-      </c>
-      <c r="H30" s="53">
-        <v>0</v>
-      </c>
-      <c r="I30" s="53">
-        <v>0</v>
-      </c>
-      <c r="J30" s="53">
-        <v>0</v>
-      </c>
-      <c r="K30" s="53">
-        <v>0</v>
-      </c>
-      <c r="L30" s="53">
-        <v>1</v>
-      </c>
-      <c r="M30" s="53">
-        <v>0</v>
-      </c>
-      <c r="N30" s="53">
-        <v>0</v>
-      </c>
-      <c r="O30" s="53">
-        <v>0</v>
-      </c>
+      <c r="B30" s="57"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="57"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="49"/>
+      <c r="A31" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="53">
+        <v>1</v>
+      </c>
+      <c r="D31" s="53">
+        <v>0</v>
+      </c>
+      <c r="E31" s="53">
+        <v>1</v>
+      </c>
+      <c r="F31" s="53">
+        <v>1</v>
+      </c>
+      <c r="G31" s="53">
+        <v>1</v>
+      </c>
+      <c r="H31" s="53">
+        <v>1</v>
+      </c>
+      <c r="I31" s="53">
+        <v>1</v>
+      </c>
+      <c r="J31" s="53">
+        <v>1</v>
+      </c>
+      <c r="K31" s="53">
+        <v>1</v>
+      </c>
+      <c r="L31" s="53">
+        <v>1</v>
+      </c>
+      <c r="M31" s="53">
+        <v>1</v>
+      </c>
+      <c r="N31" s="53">
+        <v>1</v>
+      </c>
+      <c r="O31" s="53">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="46" t="s">
-        <v>121</v>
-      </c>
       <c r="B32" s="57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C32" s="53">
         <v>1</v>
@@ -2795,7 +2789,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="57" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C33" s="53">
         <v>1</v>
@@ -2839,7 +2833,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="57" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C34" s="53">
         <v>1</v>
@@ -2883,13 +2877,13 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="57" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C35" s="53">
         <v>1</v>
       </c>
       <c r="D35" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" s="53">
         <v>1</v>
@@ -2926,8 +2920,9 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="45"/>
       <c r="B36" s="57" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C36" s="53">
         <v>1</v>
@@ -2969,10 +2964,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="45"/>
+    <row r="37" spans="1:15" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="57" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C37" s="53">
         <v>1</v>
@@ -3016,7 +3010,7 @@
     </row>
     <row r="38" spans="1:15" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="57" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C38" s="53">
         <v>1</v>
@@ -3060,7 +3054,7 @@
     </row>
     <row r="39" spans="1:15" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="57" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C39" s="53">
         <v>1</v>
@@ -3102,9 +3096,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C40" s="53">
         <v>1</v>
@@ -3143,50 +3137,6 @@
         <v>1</v>
       </c>
       <c r="O40" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="57" t="s">
-        <v>103</v>
-      </c>
-      <c r="C41" s="53">
-        <v>1</v>
-      </c>
-      <c r="D41" s="53">
-        <v>1</v>
-      </c>
-      <c r="E41" s="53">
-        <v>1</v>
-      </c>
-      <c r="F41" s="53">
-        <v>1</v>
-      </c>
-      <c r="G41" s="53">
-        <v>1</v>
-      </c>
-      <c r="H41" s="53">
-        <v>1</v>
-      </c>
-      <c r="I41" s="53">
-        <v>1</v>
-      </c>
-      <c r="J41" s="53">
-        <v>1</v>
-      </c>
-      <c r="K41" s="53">
-        <v>1</v>
-      </c>
-      <c r="L41" s="53">
-        <v>1</v>
-      </c>
-      <c r="M41" s="53">
-        <v>1</v>
-      </c>
-      <c r="N41" s="53">
-        <v>1</v>
-      </c>
-      <c r="O41" s="53">
         <v>1</v>
       </c>
     </row>
@@ -3274,7 +3224,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="36" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -3330,7 +3280,7 @@
         <v>107</v>
       </c>
       <c r="C1" s="54" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>45</v>
@@ -4561,10 +4511,10 @@
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4579,46 +4529,42 @@
     <col min="8" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.5" style="1"/>
+    <col min="11" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="57" t="s">
         <v>82</v>
       </c>
@@ -4630,14 +4576,13 @@
       <c r="G2" s="53"/>
       <c r="H2" s="53"/>
       <c r="I2" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" s="53"/>
       <c r="C3" s="53"/>
@@ -4645,145 +4590,137 @@
       <c r="E3" s="53"/>
       <c r="F3" s="53"/>
       <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
+      <c r="H3" s="53" t="s">
+        <v>128</v>
+      </c>
       <c r="I3" s="53"/>
       <c r="J3" s="53"/>
-      <c r="K3" s="53" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="57" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B4" s="53"/>
       <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
+      <c r="D4" s="53" t="s">
+        <v>128</v>
+      </c>
       <c r="E4" s="53"/>
       <c r="F4" s="53"/>
       <c r="G4" s="53"/>
-      <c r="H4" s="53" t="s">
-        <v>129</v>
-      </c>
+      <c r="H4" s="53"/>
       <c r="I4" s="53"/>
       <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="57" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53" t="s">
-        <v>129</v>
-      </c>
+      <c r="C5" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="53"/>
       <c r="E5" s="53"/>
       <c r="F5" s="53"/>
       <c r="G5" s="53"/>
       <c r="H5" s="53"/>
       <c r="I5" s="53"/>
       <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="57" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="B6" s="53"/>
-      <c r="C6" s="53" t="s">
-        <v>129</v>
-      </c>
+      <c r="C6" s="53"/>
       <c r="D6" s="53"/>
       <c r="E6" s="53"/>
       <c r="F6" s="53"/>
       <c r="G6" s="53"/>
       <c r="H6" s="53"/>
       <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J6" s="53" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="57" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
+      <c r="C7" s="53" t="s">
+        <v>128</v>
+      </c>
       <c r="D7" s="53"/>
       <c r="E7" s="53"/>
       <c r="F7" s="53"/>
       <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
+      <c r="H7" s="53" t="s">
+        <v>128</v>
+      </c>
       <c r="I7" s="53"/>
-      <c r="J7" s="53" t="s">
-        <v>129</v>
-      </c>
-      <c r="K7" s="53"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J7" s="53"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B8" s="53"/>
       <c r="C8" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D8" s="53"/>
       <c r="E8" s="53"/>
       <c r="F8" s="53"/>
       <c r="G8" s="53"/>
       <c r="H8" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I8" s="53"/>
       <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="57" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B9" s="53"/>
       <c r="C9" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D9" s="53"/>
       <c r="E9" s="53"/>
       <c r="F9" s="53"/>
       <c r="G9" s="53"/>
       <c r="H9" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I9" s="53"/>
       <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="57" t="s">
-        <v>86</v>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="37" t="s">
+        <v>162</v>
       </c>
       <c r="B10" s="53"/>
       <c r="C10" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D10" s="53"/>
       <c r="E10" s="53"/>
       <c r="F10" s="53"/>
       <c r="G10" s="53"/>
-      <c r="H10" s="53" t="s">
-        <v>129</v>
-      </c>
+      <c r="H10" s="53"/>
       <c r="I10" s="53"/>
       <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B11" s="53"/>
       <c r="C11" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D11" s="53"/>
       <c r="E11" s="53"/>
@@ -4792,15 +4729,14 @@
       <c r="H11" s="53"/>
       <c r="I11" s="53"/>
       <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B12" s="53"/>
       <c r="C12" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D12" s="53"/>
       <c r="E12" s="53"/>
@@ -4809,15 +4745,14 @@
       <c r="H12" s="53"/>
       <c r="I12" s="53"/>
       <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B13" s="53"/>
       <c r="C13" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D13" s="53"/>
       <c r="E13" s="53"/>
@@ -4826,32 +4761,32 @@
       <c r="H13" s="53"/>
       <c r="I13" s="53"/>
       <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="37" t="s">
-        <v>167</v>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="36" t="s">
+        <v>161</v>
       </c>
       <c r="B14" s="53"/>
       <c r="C14" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D14" s="53"/>
       <c r="E14" s="53"/>
       <c r="F14" s="53"/>
       <c r="G14" s="53"/>
       <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
+      <c r="I14" s="53" t="s">
+        <v>128</v>
+      </c>
       <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="36" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B15" s="53"/>
       <c r="C15" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D15" s="53"/>
       <c r="E15" s="53"/>
@@ -4859,168 +4794,157 @@
       <c r="G15" s="53"/>
       <c r="H15" s="53"/>
       <c r="I15" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="36" t="s">
-        <v>168</v>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="57" t="s">
+        <v>80</v>
       </c>
       <c r="B16" s="53"/>
       <c r="C16" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D16" s="53"/>
       <c r="E16" s="53"/>
       <c r="F16" s="53"/>
       <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
+      <c r="H16" s="53" t="s">
+        <v>128</v>
+      </c>
       <c r="I16" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="57" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B17" s="53"/>
       <c r="C17" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D17" s="53"/>
       <c r="E17" s="53"/>
       <c r="F17" s="53"/>
       <c r="G17" s="53"/>
-      <c r="H17" s="53" t="s">
-        <v>129</v>
-      </c>
-      <c r="I17" s="53" t="s">
-        <v>129</v>
-      </c>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
       <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53" t="s">
-        <v>129</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="53"/>
       <c r="D18" s="53"/>
       <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
+      <c r="F18" s="53" t="s">
+        <v>128</v>
+      </c>
       <c r="G18" s="53"/>
       <c r="H18" s="53"/>
       <c r="I18" s="53"/>
       <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="57" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B19" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C19" s="53"/>
       <c r="D19" s="53"/>
       <c r="E19" s="53"/>
       <c r="F19" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G19" s="53"/>
       <c r="H19" s="53"/>
       <c r="I19" s="53"/>
       <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="57" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B20" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C20" s="53"/>
       <c r="D20" s="53"/>
       <c r="E20" s="53"/>
       <c r="F20" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G20" s="53"/>
       <c r="H20" s="53"/>
       <c r="I20" s="53"/>
       <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="57" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="B21" s="53" t="s">
-        <v>129</v>
-      </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
+        <v>128</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="53" t="s">
+        <v>128</v>
+      </c>
       <c r="E21" s="53"/>
-      <c r="F21" s="53" t="s">
-        <v>129</v>
-      </c>
+      <c r="F21" s="53"/>
       <c r="G21" s="53"/>
       <c r="H21" s="53"/>
       <c r="I21" s="53"/>
       <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" s="53" t="s">
-        <v>129</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B22" s="53"/>
       <c r="C22" s="53" t="s">
-        <v>129</v>
-      </c>
-      <c r="D22" s="53" t="s">
-        <v>129</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="D22" s="53"/>
       <c r="E22" s="53"/>
       <c r="F22" s="53"/>
       <c r="G22" s="53"/>
       <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
+      <c r="I22" s="53" t="s">
+        <v>128</v>
+      </c>
       <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="57" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="B23" s="53"/>
-      <c r="C23" s="53" t="s">
-        <v>129</v>
-      </c>
+      <c r="C23" s="53"/>
       <c r="D23" s="53"/>
       <c r="E23" s="53"/>
       <c r="F23" s="53"/>
       <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53" t="s">
-        <v>129</v>
-      </c>
+      <c r="H23" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="I23" s="53"/>
       <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="57" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B24" s="53"/>
       <c r="C24" s="53"/>
@@ -5029,121 +4953,116 @@
       <c r="F24" s="53"/>
       <c r="G24" s="53"/>
       <c r="H24" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I24" s="53"/>
       <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="57" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
+      <c r="C25" s="53" t="s">
+        <v>128</v>
+      </c>
       <c r="D25" s="53"/>
       <c r="E25" s="53"/>
       <c r="F25" s="53"/>
       <c r="G25" s="53"/>
-      <c r="H25" s="53" t="s">
-        <v>129</v>
-      </c>
+      <c r="H25" s="53"/>
       <c r="I25" s="53"/>
       <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="57" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B26" s="53"/>
       <c r="C26" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D26" s="53"/>
       <c r="E26" s="53"/>
       <c r="F26" s="53"/>
       <c r="G26" s="53"/>
       <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
+      <c r="I26" s="53" t="s">
+        <v>128</v>
+      </c>
       <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="57" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="B27" s="53"/>
-      <c r="C27" s="53" t="s">
-        <v>129</v>
-      </c>
+      <c r="C27" s="53"/>
       <c r="D27" s="53"/>
       <c r="E27" s="53"/>
       <c r="F27" s="53"/>
       <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53" t="s">
-        <v>129</v>
-      </c>
+      <c r="H27" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="I27" s="53"/>
       <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="57" t="s">
-        <v>97</v>
-      </c>
-      <c r="B28" s="53"/>
+        <v>71</v>
+      </c>
+      <c r="B28" s="53" t="s">
+        <v>128</v>
+      </c>
       <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
+      <c r="D28" s="53" t="s">
+        <v>128</v>
+      </c>
       <c r="E28" s="53"/>
       <c r="F28" s="53"/>
       <c r="G28" s="53"/>
-      <c r="H28" s="53" t="s">
-        <v>129</v>
-      </c>
+      <c r="H28" s="53"/>
       <c r="I28" s="53"/>
       <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" s="53" t="s">
-        <v>129</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="B29" s="53"/>
       <c r="C29" s="53"/>
-      <c r="D29" s="53" t="s">
-        <v>129</v>
-      </c>
-      <c r="E29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53" t="s">
+        <v>128</v>
+      </c>
       <c r="F29" s="53"/>
       <c r="G29" s="53"/>
       <c r="H29" s="53"/>
       <c r="I29" s="53"/>
       <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="57" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B30" s="53"/>
       <c r="C30" s="53"/>
       <c r="D30" s="53"/>
-      <c r="E30" s="53" t="s">
-        <v>129</v>
-      </c>
+      <c r="E30" s="53"/>
       <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
+      <c r="G30" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="H30" s="53" t="s">
+        <v>128</v>
+      </c>
       <c r="I30" s="53"/>
       <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="57" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B31" s="53"/>
       <c r="C31" s="53"/>
@@ -5151,18 +5070,17 @@
       <c r="E31" s="53"/>
       <c r="F31" s="53"/>
       <c r="G31" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H31" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I31" s="53"/>
       <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="57" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B32" s="53"/>
       <c r="C32" s="53"/>
@@ -5170,18 +5088,17 @@
       <c r="E32" s="53"/>
       <c r="F32" s="53"/>
       <c r="G32" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H32" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I32" s="53"/>
       <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="57" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B33" s="53"/>
       <c r="C33" s="53"/>
@@ -5189,18 +5106,17 @@
       <c r="E33" s="53"/>
       <c r="F33" s="53"/>
       <c r="G33" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H33" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I33" s="53"/>
       <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="57" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B34" s="53"/>
       <c r="C34" s="53"/>
@@ -5208,18 +5124,17 @@
       <c r="E34" s="53"/>
       <c r="F34" s="53"/>
       <c r="G34" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H34" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I34" s="53"/>
       <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35" s="53"/>
       <c r="C35" s="53"/>
@@ -5227,75 +5142,53 @@
       <c r="E35" s="53"/>
       <c r="F35" s="53"/>
       <c r="G35" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H35" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I35" s="53"/>
       <c r="J35" s="53"/>
-      <c r="K35" s="53"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="57" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B36" s="53"/>
       <c r="C36" s="53"/>
       <c r="D36" s="53"/>
       <c r="E36" s="53"/>
       <c r="F36" s="53"/>
-      <c r="G36" s="53" t="s">
-        <v>129</v>
-      </c>
+      <c r="G36" s="53"/>
       <c r="H36" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I36" s="53"/>
       <c r="J36" s="53"/>
-      <c r="K36" s="53"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="57" t="s">
-        <v>96</v>
-      </c>
-      <c r="B37" s="53"/>
+        <v>99</v>
+      </c>
+      <c r="B37" s="53" t="s">
+        <v>128</v>
+      </c>
       <c r="C37" s="53"/>
       <c r="D37" s="53"/>
       <c r="E37" s="53"/>
       <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
+      <c r="G37" s="53" t="s">
+        <v>128</v>
+      </c>
       <c r="H37" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I37" s="53"/>
       <c r="J37" s="53"/>
-      <c r="K37" s="53"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A38" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="B38" s="53" t="s">
-        <v>129</v>
-      </c>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53" t="s">
-        <v>129</v>
-      </c>
-      <c r="H38" s="53" t="s">
-        <v>129</v>
-      </c>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
     </row>
   </sheetData>
-  <sortState ref="A2:K38">
-    <sortCondition ref="A2:A38"/>
+  <sortState ref="A2:J37">
+    <sortCondition ref="A2:A37"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5306,10 +5199,10 @@
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5324,291 +5217,278 @@
     <col min="8" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.5" style="1"/>
+    <col min="11" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E2" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F2" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G2" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H2" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I2" s="53"/>
       <c r="J2" s="53" t="s">
-        <v>129</v>
-      </c>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D3" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E3" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F3" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G3" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H3" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I3" s="53"/>
       <c r="J3" s="53" t="s">
-        <v>129</v>
-      </c>
-      <c r="K3" s="53"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E4" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G4" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H4" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I4" s="53"/>
       <c r="J4" s="53" t="s">
-        <v>129</v>
-      </c>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E5" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F5" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G5" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H5" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I5" s="53"/>
       <c r="J5" s="53" t="s">
-        <v>129</v>
-      </c>
-      <c r="K5" s="53"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E6" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F6" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G6" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H6" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I6" s="53"/>
       <c r="J6" s="53" t="s">
-        <v>129</v>
-      </c>
-      <c r="K6" s="53"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="53"/>
       <c r="C7" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D7" s="53"/>
       <c r="E7" s="53"/>
       <c r="F7" s="53"/>
       <c r="G7" s="53"/>
       <c r="H7" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I7" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="53"/>
       <c r="C8" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D8" s="53"/>
       <c r="E8" s="53"/>
       <c r="F8" s="53"/>
       <c r="G8" s="53"/>
       <c r="H8" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I8" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="53"/>
       <c r="C9" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D9" s="53"/>
       <c r="E9" s="53"/>
       <c r="F9" s="53"/>
       <c r="G9" s="53"/>
       <c r="H9" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I9" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="53"/>
       <c r="C10" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D10" s="53"/>
       <c r="E10" s="53"/>
       <c r="F10" s="53"/>
       <c r="G10" s="53"/>
       <c r="H10" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I10" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="53"/>
       <c r="C11" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D11" s="53"/>
       <c r="E11" s="53"/>
@@ -5617,15 +5497,14 @@
       <c r="H11" s="53"/>
       <c r="I11" s="53"/>
       <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="53"/>
       <c r="C12" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D12" s="53"/>
       <c r="E12" s="53"/>
@@ -5634,15 +5513,14 @@
       <c r="H12" s="53"/>
       <c r="I12" s="53"/>
       <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B13" s="53"/>
       <c r="C13" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D13" s="53"/>
       <c r="E13" s="53"/>
@@ -5651,15 +5529,14 @@
       <c r="H13" s="53"/>
       <c r="I13" s="53"/>
       <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="53"/>
       <c r="C14" s="53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D14" s="53"/>
       <c r="E14" s="53"/>
@@ -5668,7 +5545,6 @@
       <c r="H14" s="53"/>
       <c r="I14" s="53"/>
       <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5696,13 +5572,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>45</v>
@@ -5722,13 +5598,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D2" s="52">
         <v>1</v>
@@ -5749,7 +5625,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B3" s="59"/>
       <c r="C3" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D3" s="52">
         <v>1</v>
@@ -5771,7 +5647,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B4" s="59"/>
       <c r="C4" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D4" s="52">
         <v>1</v>
@@ -5795,7 +5671,7 @@
         <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D5" s="52">
         <f>5.16</f>
@@ -5817,7 +5693,7 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B6" s="59"/>
       <c r="C6" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D6" s="52">
         <v>5.16</v>
@@ -5838,7 +5714,7 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B7" s="59"/>
       <c r="C7" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" s="52">
         <v>1</v>
@@ -5861,7 +5737,7 @@
         <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D8" s="52">
         <v>1</v>
@@ -5882,7 +5758,7 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B9" s="59"/>
       <c r="C9" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D9" s="52">
         <v>1</v>
@@ -5903,7 +5779,7 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B10" s="59"/>
       <c r="C10" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D10" s="52">
         <v>1</v>
@@ -5926,7 +5802,7 @@
         <v>43</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D11" s="52">
         <v>1</v>
@@ -5947,7 +5823,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B12" s="59"/>
       <c r="C12" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D12" s="52">
         <v>1</v>
@@ -5968,7 +5844,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B13" s="59"/>
       <c r="C13" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D13" s="52">
         <v>1</v>
@@ -5991,7 +5867,7 @@
         <v>42</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D14" s="52">
         <v>1</v>
@@ -6012,7 +5888,7 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B15" s="59"/>
       <c r="C15" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D15" s="52">
         <v>1</v>
@@ -6033,7 +5909,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B16" s="59"/>
       <c r="C16" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D16" s="52">
         <v>1</v>
@@ -6053,10 +5929,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B17" s="40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D17" s="51">
         <v>1.05</v>
@@ -6083,13 +5959,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="42" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D19" s="52">
         <v>1</v>
@@ -6110,7 +5986,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B20" s="59"/>
       <c r="C20" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D20" s="52">
         <v>1</v>
@@ -6131,7 +6007,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B21" s="59"/>
       <c r="C21" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D21" s="52">
         <v>1</v>
@@ -6154,7 +6030,7 @@
         <v>45</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D22" s="52">
         <v>1</v>
@@ -6175,7 +6051,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B23" s="59"/>
       <c r="C23" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D23" s="52">
         <v>1</v>
@@ -6196,7 +6072,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B24" s="59"/>
       <c r="C24" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D24" s="52">
         <v>1</v>
@@ -6219,7 +6095,7 @@
         <v>44</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D25" s="52">
         <v>1</v>
@@ -6240,7 +6116,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B26" s="59"/>
       <c r="C26" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D26" s="52">
         <v>1</v>
@@ -6261,7 +6137,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B27" s="59"/>
       <c r="C27" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D27" s="52">
         <v>1</v>
@@ -6284,7 +6160,7 @@
         <v>43</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D28" s="52">
         <v>1</v>
@@ -6305,7 +6181,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B29" s="59"/>
       <c r="C29" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D29" s="52">
         <v>1</v>
@@ -6326,7 +6202,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B30" s="59"/>
       <c r="C30" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D30" s="52">
         <v>1</v>
@@ -6349,7 +6225,7 @@
         <v>42</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D31" s="52">
         <v>1</v>
@@ -6370,7 +6246,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B32" s="59"/>
       <c r="C32" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D32" s="52">
         <v>1</v>
@@ -6391,7 +6267,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B33" s="59"/>
       <c r="C33" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D33" s="52">
         <v>1</v>
@@ -6411,10 +6287,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B34" s="41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D34" s="51">
         <v>1.05</v>
@@ -6434,13 +6310,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B36" s="59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D36" s="52">
         <v>1</v>
@@ -6461,7 +6337,7 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B37" s="59"/>
       <c r="C37" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="52">
         <v>1</v>
@@ -6482,7 +6358,7 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B38" s="59"/>
       <c r="C38" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D38" s="52">
         <v>1</v>
@@ -6505,7 +6381,7 @@
         <v>45</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D39" s="52">
         <v>1</v>
@@ -6526,7 +6402,7 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B40" s="59"/>
       <c r="C40" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D40" s="52">
         <v>1</v>
@@ -6547,7 +6423,7 @@
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B41" s="59"/>
       <c r="C41" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D41" s="52">
         <v>1</v>
@@ -6570,7 +6446,7 @@
         <v>44</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D42" s="52">
         <v>1</v>
@@ -6591,7 +6467,7 @@
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B43" s="59"/>
       <c r="C43" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D43" s="52">
         <v>1</v>
@@ -6612,7 +6488,7 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B44" s="59"/>
       <c r="C44" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D44" s="52">
         <v>1</v>
@@ -6635,7 +6511,7 @@
         <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D45" s="52">
         <v>1</v>
@@ -6656,7 +6532,7 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B46" s="59"/>
       <c r="C46" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D46" s="52">
         <v>1</v>
@@ -6677,7 +6553,7 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B47" s="59"/>
       <c r="C47" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D47" s="52">
         <v>1</v>
@@ -6700,7 +6576,7 @@
         <v>42</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D48" s="52">
         <v>1</v>
@@ -6721,7 +6597,7 @@
     <row r="49" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B49" s="59"/>
       <c r="C49" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D49" s="52">
         <v>1</v>
@@ -6742,7 +6618,7 @@
     <row r="50" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B50" s="59"/>
       <c r="C50" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D50" s="52">
         <v>1</v>
@@ -6762,10 +6638,10 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B51" s="40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D51" s="51">
         <v>1</v>
@@ -6813,8 +6689,8 @@
   </sheetPr>
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6849,7 +6725,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7014,7 +6890,7 @@
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="21"/>
@@ -7396,7 +7272,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="27" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>51</v>
@@ -7434,7 +7310,7 @@
         <v>50</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
@@ -7462,7 +7338,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C4" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -7490,7 +7366,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C5" s="28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -7518,7 +7394,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C6" s="28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -7549,7 +7425,7 @@
         <v>49</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
@@ -7577,7 +7453,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C8" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
@@ -7605,7 +7481,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C9" s="28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
@@ -7633,7 +7509,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C10" s="28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -7664,7 +7540,7 @@
         <v>58</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D11" s="5">
         <v>1</v>
@@ -7692,7 +7568,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C12" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -7720,7 +7596,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C13" s="28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -7748,7 +7624,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C14" s="28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -7779,7 +7655,7 @@
         <v>57</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D15" s="5">
         <v>1</v>
@@ -7807,7 +7683,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C16" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -7835,7 +7711,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C17" s="28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -7863,7 +7739,7 @@
     </row>
     <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -7894,7 +7770,7 @@
         <v>48</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D19" s="5">
         <v>1</v>
@@ -7922,7 +7798,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C20" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -7950,7 +7826,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C21" s="28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
@@ -7978,7 +7854,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C22" s="28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
@@ -8009,7 +7885,7 @@
         <v>56</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D23" s="5">
         <v>1</v>
@@ -8037,7 +7913,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C24" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D24" s="4">
         <v>1</v>
@@ -8065,7 +7941,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C25" s="28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
@@ -8093,7 +7969,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C26" s="28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -8126,7 +8002,7 @@
     </row>
     <row r="29" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="33" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B29" s="32" t="s">
         <v>51</v>
@@ -8164,7 +8040,7 @@
         <v>50</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D30" s="5">
         <v>1</v>
@@ -8192,7 +8068,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C31" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -8279,7 +8155,7 @@
         <v>49</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D34" s="5">
         <v>1</v>
@@ -8307,7 +8183,7 @@
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C35" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -8394,7 +8270,7 @@
         <v>58</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D38" s="5">
         <v>1</v>
@@ -8422,7 +8298,7 @@
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C39" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D39" s="4">
         <v>1</v>
@@ -8509,7 +8385,7 @@
         <v>57</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D42" s="5">
         <v>1</v>
@@ -8537,7 +8413,7 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C43" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
@@ -8624,7 +8500,7 @@
         <v>48</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D46" s="5">
         <v>1</v>
@@ -8652,7 +8528,7 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C47" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
@@ -8739,7 +8615,7 @@
         <v>56</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D50" s="5">
         <v>1</v>
@@ -8767,7 +8643,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C51" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D51" s="4">
         <v>1</v>
@@ -8860,7 +8736,7 @@
     </row>
     <row r="56" spans="1:16" s="29" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A56" s="33" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B56" s="32" t="s">
         <v>51</v>
@@ -8892,7 +8768,7 @@
         <v>55</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D57" s="5">
         <v>1</v>
@@ -8914,7 +8790,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C58" s="28" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D58" s="4">
         <v>10.675000000000001</v>
@@ -8939,7 +8815,7 @@
         <v>54</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D59" s="5">
         <v>1</v>
@@ -8961,7 +8837,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C60" s="28" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D60" s="4">
         <v>10.675000000000001</v>
@@ -8986,7 +8862,7 @@
         <v>53</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D61" s="5">
         <v>1</v>
@@ -9008,7 +8884,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C62" s="28" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D62" s="4">
         <v>10.675000000000001</v>
@@ -9039,7 +8915,7 @@
     </row>
     <row r="65" spans="1:16" s="29" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A65" s="33" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B65" s="32" t="s">
         <v>51</v>
@@ -9077,7 +8953,7 @@
         <v>7</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D66" s="5">
         <v>1</v>
@@ -9105,7 +8981,7 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C67" s="28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D67" s="4">
         <v>1.35</v>
@@ -9133,7 +9009,7 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C68" s="28" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D68" s="4">
         <v>1.35</v>
@@ -9161,7 +9037,7 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C69" s="28" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D69" s="4">
         <v>5.4</v>
@@ -9192,7 +9068,7 @@
         <v>6</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D70" s="5">
         <v>1</v>
@@ -9220,7 +9096,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C71" s="28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D71" s="4">
         <v>1.35</v>
@@ -9248,7 +9124,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C72" s="28" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D72" s="4">
         <v>1.35</v>
@@ -9276,7 +9152,7 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C73" s="28" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D73" s="4">
         <v>5.4</v>
@@ -9307,7 +9183,7 @@
         <v>5</v>
       </c>
       <c r="C74" s="28" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D74" s="5">
         <v>1</v>
@@ -9335,7 +9211,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C75" s="28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D75" s="4">
         <v>1.35</v>
@@ -9363,7 +9239,7 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C76" s="28" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D76" s="4">
         <v>1.35</v>
@@ -9391,7 +9267,7 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C77" s="28" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D77" s="4">
         <v>5.4</v>
@@ -9422,7 +9298,7 @@
         <v>3</v>
       </c>
       <c r="C78" s="28" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D78" s="5">
         <v>1</v>
@@ -9450,7 +9326,7 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C79" s="28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D79" s="4">
         <v>1</v>
@@ -9478,7 +9354,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C80" s="28" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
@@ -9506,7 +9382,7 @@
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C81" s="28" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -9537,7 +9413,7 @@
         <v>50</v>
       </c>
       <c r="C82" s="28" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D82" s="5">
         <v>1</v>
@@ -9565,7 +9441,7 @@
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C83" s="28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D83" s="4">
         <v>1</v>
@@ -9593,7 +9469,7 @@
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C84" s="28" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D84" s="4">
         <v>1</v>
@@ -9621,7 +9497,7 @@
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C85" s="28" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D85" s="4">
         <v>1</v>
@@ -9652,7 +9528,7 @@
         <v>49</v>
       </c>
       <c r="C86" s="28" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D86" s="5">
         <v>1</v>
@@ -9680,7 +9556,7 @@
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C87" s="28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
@@ -9708,7 +9584,7 @@
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C88" s="28" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D88" s="4">
         <v>1</v>
@@ -9736,7 +9612,7 @@
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C89" s="28" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
@@ -9767,7 +9643,7 @@
         <v>58</v>
       </c>
       <c r="C90" s="28" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D90" s="5">
         <v>1</v>
@@ -9795,7 +9671,7 @@
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C91" s="28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D91" s="4">
         <v>1</v>
@@ -9823,7 +9699,7 @@
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C92" s="28" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D92" s="4">
         <v>1</v>
@@ -9851,7 +9727,7 @@
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C93" s="28" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -9882,7 +9758,7 @@
         <v>48</v>
       </c>
       <c r="C94" s="28" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D94" s="5">
         <v>1</v>
@@ -9910,7 +9786,7 @@
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C95" s="28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D95" s="4">
         <v>1</v>
@@ -9938,7 +9814,7 @@
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C96" s="28" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D96" s="4">
         <v>1</v>
@@ -9966,7 +9842,7 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C97" s="28" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D97" s="4">
         <v>1</v>
@@ -9994,10 +9870,10 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B98" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C98" s="28" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D98" s="5">
         <v>1</v>
@@ -10025,7 +9901,7 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C99" s="28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D99" s="4">
         <v>1</v>
@@ -10053,7 +9929,7 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C100" s="28" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D100" s="4">
         <v>1</v>
@@ -10081,7 +9957,7 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C101" s="28" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D101" s="4">
         <v>1</v>
@@ -10117,7 +9993,7 @@
         <v>50</v>
       </c>
       <c r="B104" s="55" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C104" s="31" t="s">
         <v>46</v>
@@ -10150,7 +10026,7 @@
       <c r="A105" s="2"/>
       <c r="B105" s="29"/>
       <c r="C105" s="28" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D105" s="5">
         <v>1</v>
@@ -10178,7 +10054,7 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C106" s="28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D106" s="4">
         <v>1.26</v>
@@ -10206,7 +10082,7 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C107" s="28" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D107" s="4">
         <v>1.68</v>
@@ -10234,7 +10110,7 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C108" s="28" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D108" s="4">
         <v>2.65</v>
@@ -10298,7 +10174,7 @@
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="54" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="2" t="s">
@@ -10340,7 +10216,7 @@
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C4" s="4">
         <v>1.0249999999999999</v>
@@ -10451,7 +10327,7 @@
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="54" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>68</v>
@@ -10495,10 +10371,10 @@
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="54" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C14" s="4">
         <v>1.0249999999999999</v>
@@ -10602,7 +10478,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B4" s="36" t="s">
         <v>78</v>
@@ -10640,7 +10516,7 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B6" s="36" t="s">
         <v>78</v>
@@ -10871,7 +10747,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B3" s="37" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C3" s="4">
         <v>0.53</v>
@@ -10915,7 +10791,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B4" s="37" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -10959,7 +10835,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B5" s="37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -11003,7 +10879,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B6" s="37" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -11047,7 +10923,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B7" s="37" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -11091,7 +10967,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B8" s="36" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
@@ -11135,7 +11011,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B9" s="36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>

--- a/nutrition/default_params.xlsx
+++ b/nutrition/default_params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/github_projects/Nutrition/nutrition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2F766ECB-F692-2D46-9BC6-F46F1C4B6342}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E9E09D6D-931E-D64A-82AA-BA7C410B25D3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="4" xr2:uid="{9D310A7F-FF26-7448-8337-E29F42B35A9E}"/>
+    <workbookView xWindow="-38400" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="6" xr2:uid="{9D310A7F-FF26-7448-8337-E29F42B35A9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Programs impacted population" sheetId="14" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <definedName name="stillbirth">'[1]Baseline year population inputs'!$C$27</definedName>
     <definedName name="term_SGA">'[1]Baseline year population inputs'!$C$35</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -230,7 +230,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="169">
   <si>
     <t>Neonatal other</t>
   </si>
@@ -731,6 +731,12 @@
   </si>
   <si>
     <t>IFAS for pregnant women (hospital)</t>
+  </si>
+  <si>
+    <t>Kangaroo mother care</t>
+  </si>
+  <si>
+    <t>Odds ratios for correct breastfeeding by program</t>
   </si>
 </sst>
 </file>
@@ -1427,10 +1433,10 @@
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1718,19 +1724,19 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="57" t="s">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="C7" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="53">
         <v>0</v>
@@ -1762,7 +1768,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="57" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C8" s="53">
         <v>0</v>
@@ -1777,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="53">
         <v>0</v>
@@ -1806,13 +1812,13 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="57" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C9" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="53">
         <v>1</v>
@@ -1850,13 +1856,13 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="57" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="C10" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="53">
         <v>1</v>
@@ -1865,7 +1871,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="53">
         <v>0</v>
@@ -1894,13 +1900,13 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="57" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="C11" s="53">
         <v>0</v>
       </c>
       <c r="D11" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="53">
         <v>1</v>
@@ -1909,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="53">
         <v>0</v>
@@ -1938,13 +1944,13 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="57" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C12" s="53">
         <v>0</v>
       </c>
       <c r="D12" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="53">
         <v>1</v>
@@ -1982,13 +1988,13 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="57" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C13" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="53">
         <v>1</v>
@@ -2026,159 +2032,159 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="53">
+        <v>1</v>
+      </c>
+      <c r="D14" s="53">
+        <v>1</v>
+      </c>
+      <c r="E14" s="53">
+        <v>1</v>
+      </c>
+      <c r="F14" s="53">
+        <v>1</v>
+      </c>
+      <c r="G14" s="53">
+        <v>1</v>
+      </c>
+      <c r="H14" s="53">
+        <v>0</v>
+      </c>
+      <c r="I14" s="53">
+        <v>0</v>
+      </c>
+      <c r="J14" s="53">
+        <v>0</v>
+      </c>
+      <c r="K14" s="53">
+        <v>0</v>
+      </c>
+      <c r="L14" s="53">
+        <v>0</v>
+      </c>
+      <c r="M14" s="53">
+        <v>0</v>
+      </c>
+      <c r="N14" s="53">
+        <v>0</v>
+      </c>
+      <c r="O14" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="53">
-        <v>0</v>
-      </c>
-      <c r="D14" s="53">
-        <v>0</v>
-      </c>
-      <c r="E14" s="53">
-        <v>1</v>
-      </c>
-      <c r="F14" s="53">
-        <v>1</v>
-      </c>
-      <c r="G14" s="53">
-        <v>1</v>
-      </c>
-      <c r="H14" s="53">
-        <v>0</v>
-      </c>
-      <c r="I14" s="53">
-        <v>0</v>
-      </c>
-      <c r="J14" s="53">
-        <v>0</v>
-      </c>
-      <c r="K14" s="53">
-        <v>0</v>
-      </c>
-      <c r="L14" s="53">
-        <v>0</v>
-      </c>
-      <c r="M14" s="53">
-        <v>0</v>
-      </c>
-      <c r="N14" s="53">
-        <v>0</v>
-      </c>
-      <c r="O14" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="57"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
+      <c r="C15" s="53">
+        <v>0</v>
+      </c>
+      <c r="D15" s="53">
+        <v>0</v>
+      </c>
+      <c r="E15" s="53">
+        <v>1</v>
+      </c>
+      <c r="F15" s="53">
+        <v>1</v>
+      </c>
+      <c r="G15" s="53">
+        <v>1</v>
+      </c>
+      <c r="H15" s="53">
+        <v>0</v>
+      </c>
+      <c r="I15" s="53">
+        <v>0</v>
+      </c>
+      <c r="J15" s="53">
+        <v>0</v>
+      </c>
+      <c r="K15" s="53">
+        <v>0</v>
+      </c>
+      <c r="L15" s="53">
+        <v>0</v>
+      </c>
+      <c r="M15" s="53">
+        <v>0</v>
+      </c>
+      <c r="N15" s="53">
+        <v>0</v>
+      </c>
+      <c r="O15" s="53">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="46" t="s">
+      <c r="B16" s="57"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="B16" s="57" t="s">
+      <c r="B17" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="53">
-        <v>0</v>
-      </c>
-      <c r="D16" s="53">
-        <v>0</v>
-      </c>
-      <c r="E16" s="53">
-        <v>0</v>
-      </c>
-      <c r="F16" s="53">
-        <v>0</v>
-      </c>
-      <c r="G16" s="53">
-        <v>0</v>
-      </c>
-      <c r="H16" s="53">
-        <v>1</v>
-      </c>
-      <c r="I16" s="53">
-        <v>1</v>
-      </c>
-      <c r="J16" s="53">
-        <v>1</v>
-      </c>
-      <c r="K16" s="53">
-        <v>1</v>
-      </c>
-      <c r="L16" s="53">
-        <v>0</v>
-      </c>
-      <c r="M16" s="53">
-        <v>0</v>
-      </c>
-      <c r="N16" s="53">
-        <v>0</v>
-      </c>
-      <c r="O16" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="46"/>
-      <c r="B17" s="57" t="s">
+      <c r="C17" s="53">
+        <v>0</v>
+      </c>
+      <c r="D17" s="53">
+        <v>0</v>
+      </c>
+      <c r="E17" s="53">
+        <v>0</v>
+      </c>
+      <c r="F17" s="53">
+        <v>0</v>
+      </c>
+      <c r="G17" s="53">
+        <v>0</v>
+      </c>
+      <c r="H17" s="53">
+        <v>1</v>
+      </c>
+      <c r="I17" s="53">
+        <v>1</v>
+      </c>
+      <c r="J17" s="53">
+        <v>1</v>
+      </c>
+      <c r="K17" s="53">
+        <v>1</v>
+      </c>
+      <c r="L17" s="53">
+        <v>0</v>
+      </c>
+      <c r="M17" s="53">
+        <v>0</v>
+      </c>
+      <c r="N17" s="53">
+        <v>0</v>
+      </c>
+      <c r="O17" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="46"/>
+      <c r="B18" s="57" t="s">
         <v>111</v>
-      </c>
-      <c r="C17" s="53">
-        <v>0</v>
-      </c>
-      <c r="D17" s="53">
-        <v>0</v>
-      </c>
-      <c r="E17" s="53">
-        <v>0</v>
-      </c>
-      <c r="F17" s="53">
-        <v>0</v>
-      </c>
-      <c r="G17" s="53">
-        <v>0</v>
-      </c>
-      <c r="H17" s="53">
-        <v>1</v>
-      </c>
-      <c r="I17" s="53">
-        <v>1</v>
-      </c>
-      <c r="J17" s="53">
-        <v>1</v>
-      </c>
-      <c r="K17" s="53">
-        <v>1</v>
-      </c>
-      <c r="L17" s="53">
-        <v>0</v>
-      </c>
-      <c r="M17" s="53">
-        <v>0</v>
-      </c>
-      <c r="N17" s="53">
-        <v>0</v>
-      </c>
-      <c r="O17" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="36" t="s">
-        <v>161</v>
       </c>
       <c r="C18" s="53">
         <v>0</v>
@@ -2222,95 +2228,95 @@
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" s="53">
+        <v>0</v>
+      </c>
+      <c r="D19" s="53">
+        <v>0</v>
+      </c>
+      <c r="E19" s="53">
+        <v>0</v>
+      </c>
+      <c r="F19" s="53">
+        <v>0</v>
+      </c>
+      <c r="G19" s="53">
+        <v>0</v>
+      </c>
+      <c r="H19" s="53">
+        <v>1</v>
+      </c>
+      <c r="I19" s="53">
+        <v>1</v>
+      </c>
+      <c r="J19" s="53">
+        <v>1</v>
+      </c>
+      <c r="K19" s="53">
+        <v>1</v>
+      </c>
+      <c r="L19" s="53">
+        <v>0</v>
+      </c>
+      <c r="M19" s="53">
+        <v>0</v>
+      </c>
+      <c r="N19" s="53">
+        <v>0</v>
+      </c>
+      <c r="O19" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="C19" s="53">
-        <v>0</v>
-      </c>
-      <c r="D19" s="53">
-        <v>0</v>
-      </c>
-      <c r="E19" s="53">
-        <v>0</v>
-      </c>
-      <c r="F19" s="53">
-        <v>0</v>
-      </c>
-      <c r="G19" s="53">
-        <v>0</v>
-      </c>
-      <c r="H19" s="53">
-        <v>1</v>
-      </c>
-      <c r="I19" s="53">
-        <v>1</v>
-      </c>
-      <c r="J19" s="53">
-        <v>1</v>
-      </c>
-      <c r="K19" s="53">
-        <v>1</v>
-      </c>
-      <c r="L19" s="53">
-        <v>0</v>
-      </c>
-      <c r="M19" s="53">
-        <v>0</v>
-      </c>
-      <c r="N19" s="53">
-        <v>0</v>
-      </c>
-      <c r="O19" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="58" t="s">
+      <c r="C20" s="53">
+        <v>0</v>
+      </c>
+      <c r="D20" s="53">
+        <v>0</v>
+      </c>
+      <c r="E20" s="53">
+        <v>0</v>
+      </c>
+      <c r="F20" s="53">
+        <v>0</v>
+      </c>
+      <c r="G20" s="53">
+        <v>0</v>
+      </c>
+      <c r="H20" s="53">
+        <v>1</v>
+      </c>
+      <c r="I20" s="53">
+        <v>1</v>
+      </c>
+      <c r="J20" s="53">
+        <v>1</v>
+      </c>
+      <c r="K20" s="53">
+        <v>1</v>
+      </c>
+      <c r="L20" s="53">
+        <v>0</v>
+      </c>
+      <c r="M20" s="53">
+        <v>0</v>
+      </c>
+      <c r="N20" s="53">
+        <v>0</v>
+      </c>
+      <c r="O20" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="58" t="s">
         <v>80</v>
-      </c>
-      <c r="C20" s="53">
-        <v>0</v>
-      </c>
-      <c r="D20" s="53">
-        <v>0</v>
-      </c>
-      <c r="E20" s="53">
-        <v>0</v>
-      </c>
-      <c r="F20" s="53">
-        <v>0</v>
-      </c>
-      <c r="G20" s="53">
-        <v>0</v>
-      </c>
-      <c r="H20" s="53">
-        <v>1</v>
-      </c>
-      <c r="I20" s="53">
-        <v>1</v>
-      </c>
-      <c r="J20" s="53">
-        <v>1</v>
-      </c>
-      <c r="K20" s="53">
-        <v>1</v>
-      </c>
-      <c r="L20" s="53">
-        <v>0</v>
-      </c>
-      <c r="M20" s="53">
-        <v>0</v>
-      </c>
-      <c r="N20" s="53">
-        <v>0</v>
-      </c>
-      <c r="O20" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="57" t="s">
-        <v>109</v>
       </c>
       <c r="C21" s="53">
         <v>0</v>
@@ -2354,7 +2360,7 @@
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="57" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C22" s="53">
         <v>0</v>
@@ -2398,203 +2404,203 @@
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="53">
+        <v>0</v>
+      </c>
+      <c r="D23" s="53">
+        <v>0</v>
+      </c>
+      <c r="E23" s="53">
+        <v>0</v>
+      </c>
+      <c r="F23" s="53">
+        <v>0</v>
+      </c>
+      <c r="G23" s="53">
+        <v>0</v>
+      </c>
+      <c r="H23" s="53">
+        <v>1</v>
+      </c>
+      <c r="I23" s="53">
+        <v>1</v>
+      </c>
+      <c r="J23" s="53">
+        <v>1</v>
+      </c>
+      <c r="K23" s="53">
+        <v>1</v>
+      </c>
+      <c r="L23" s="53">
+        <v>0</v>
+      </c>
+      <c r="M23" s="53">
+        <v>0</v>
+      </c>
+      <c r="N23" s="53">
+        <v>0</v>
+      </c>
+      <c r="O23" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="53">
-        <v>0</v>
-      </c>
-      <c r="D23" s="53">
-        <v>0</v>
-      </c>
-      <c r="E23" s="53">
-        <v>0</v>
-      </c>
-      <c r="F23" s="53">
-        <v>0</v>
-      </c>
-      <c r="G23" s="53">
-        <v>0</v>
-      </c>
-      <c r="H23" s="53">
-        <v>1</v>
-      </c>
-      <c r="I23" s="53">
-        <v>1</v>
-      </c>
-      <c r="J23" s="53">
-        <v>1</v>
-      </c>
-      <c r="K23" s="53">
-        <v>1</v>
-      </c>
-      <c r="L23" s="53">
-        <v>0</v>
-      </c>
-      <c r="M23" s="53">
-        <v>0</v>
-      </c>
-      <c r="N23" s="53">
-        <v>0</v>
-      </c>
-      <c r="O23" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="57"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-    </row>
-    <row r="25" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="46" t="s">
+      <c r="C24" s="53">
+        <v>0</v>
+      </c>
+      <c r="D24" s="53">
+        <v>0</v>
+      </c>
+      <c r="E24" s="53">
+        <v>0</v>
+      </c>
+      <c r="F24" s="53">
+        <v>0</v>
+      </c>
+      <c r="G24" s="53">
+        <v>0</v>
+      </c>
+      <c r="H24" s="53">
+        <v>1</v>
+      </c>
+      <c r="I24" s="53">
+        <v>1</v>
+      </c>
+      <c r="J24" s="53">
+        <v>1</v>
+      </c>
+      <c r="K24" s="53">
+        <v>1</v>
+      </c>
+      <c r="L24" s="53">
+        <v>0</v>
+      </c>
+      <c r="M24" s="53">
+        <v>0</v>
+      </c>
+      <c r="N24" s="53">
+        <v>0</v>
+      </c>
+      <c r="O24" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="57"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+    </row>
+    <row r="26" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="B25" s="57" t="s">
+      <c r="B26" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="C25" s="53">
-        <v>0</v>
-      </c>
-      <c r="D25" s="53">
-        <v>0</v>
-      </c>
-      <c r="E25" s="53">
-        <v>0</v>
-      </c>
-      <c r="F25" s="53">
-        <v>0</v>
-      </c>
-      <c r="G25" s="53">
-        <v>0</v>
-      </c>
-      <c r="H25" s="53">
-        <v>0</v>
-      </c>
-      <c r="I25" s="53">
-        <v>0</v>
-      </c>
-      <c r="J25" s="53">
-        <v>0</v>
-      </c>
-      <c r="K25" s="53">
-        <v>0</v>
-      </c>
-      <c r="L25" s="53">
-        <v>1</v>
-      </c>
-      <c r="M25" s="53">
-        <v>1</v>
-      </c>
-      <c r="N25" s="53">
-        <v>1</v>
-      </c>
-      <c r="O25" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="37" t="s">
+      <c r="C26" s="53">
+        <v>0</v>
+      </c>
+      <c r="D26" s="53">
+        <v>0</v>
+      </c>
+      <c r="E26" s="53">
+        <v>0</v>
+      </c>
+      <c r="F26" s="53">
+        <v>0</v>
+      </c>
+      <c r="G26" s="53">
+        <v>0</v>
+      </c>
+      <c r="H26" s="53">
+        <v>0</v>
+      </c>
+      <c r="I26" s="53">
+        <v>0</v>
+      </c>
+      <c r="J26" s="53">
+        <v>0</v>
+      </c>
+      <c r="K26" s="53">
+        <v>0</v>
+      </c>
+      <c r="L26" s="53">
+        <v>1</v>
+      </c>
+      <c r="M26" s="53">
+        <v>1</v>
+      </c>
+      <c r="N26" s="53">
+        <v>1</v>
+      </c>
+      <c r="O26" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="C26" s="53">
-        <v>0</v>
-      </c>
-      <c r="D26" s="53">
-        <v>0</v>
-      </c>
-      <c r="E26" s="53">
-        <v>0</v>
-      </c>
-      <c r="F26" s="53">
-        <v>0</v>
-      </c>
-      <c r="G26" s="53">
-        <v>0</v>
-      </c>
-      <c r="H26" s="53">
-        <v>0</v>
-      </c>
-      <c r="I26" s="53">
-        <v>0</v>
-      </c>
-      <c r="J26" s="53">
-        <v>0</v>
-      </c>
-      <c r="K26" s="53">
-        <v>0</v>
-      </c>
-      <c r="L26" s="53">
-        <v>1</v>
-      </c>
-      <c r="M26" s="53">
-        <v>1</v>
-      </c>
-      <c r="N26" s="53">
-        <v>1</v>
-      </c>
-      <c r="O26" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="46"/>
-      <c r="B27" s="37" t="s">
+      <c r="C27" s="53">
+        <v>0</v>
+      </c>
+      <c r="D27" s="53">
+        <v>0</v>
+      </c>
+      <c r="E27" s="53">
+        <v>0</v>
+      </c>
+      <c r="F27" s="53">
+        <v>0</v>
+      </c>
+      <c r="G27" s="53">
+        <v>0</v>
+      </c>
+      <c r="H27" s="53">
+        <v>0</v>
+      </c>
+      <c r="I27" s="53">
+        <v>0</v>
+      </c>
+      <c r="J27" s="53">
+        <v>0</v>
+      </c>
+      <c r="K27" s="53">
+        <v>0</v>
+      </c>
+      <c r="L27" s="53">
+        <v>1</v>
+      </c>
+      <c r="M27" s="53">
+        <v>1</v>
+      </c>
+      <c r="N27" s="53">
+        <v>1</v>
+      </c>
+      <c r="O27" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="46"/>
+      <c r="B28" s="37" t="s">
         <v>163</v>
-      </c>
-      <c r="C27" s="53">
-        <v>0</v>
-      </c>
-      <c r="D27" s="53">
-        <v>0</v>
-      </c>
-      <c r="E27" s="53">
-        <v>0</v>
-      </c>
-      <c r="F27" s="53">
-        <v>0</v>
-      </c>
-      <c r="G27" s="53">
-        <v>0</v>
-      </c>
-      <c r="H27" s="53">
-        <v>0</v>
-      </c>
-      <c r="I27" s="53">
-        <v>0</v>
-      </c>
-      <c r="J27" s="53">
-        <v>0</v>
-      </c>
-      <c r="K27" s="53">
-        <v>0</v>
-      </c>
-      <c r="L27" s="53">
-        <v>1</v>
-      </c>
-      <c r="M27" s="53">
-        <v>1</v>
-      </c>
-      <c r="N27" s="53">
-        <v>1</v>
-      </c>
-      <c r="O27" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="37" t="s">
-        <v>164</v>
       </c>
       <c r="C28" s="53">
         <v>0</v>
@@ -2638,114 +2644,114 @@
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="C29" s="53">
+        <v>0</v>
+      </c>
+      <c r="D29" s="53">
+        <v>0</v>
+      </c>
+      <c r="E29" s="53">
+        <v>0</v>
+      </c>
+      <c r="F29" s="53">
+        <v>0</v>
+      </c>
+      <c r="G29" s="53">
+        <v>0</v>
+      </c>
+      <c r="H29" s="53">
+        <v>0</v>
+      </c>
+      <c r="I29" s="53">
+        <v>0</v>
+      </c>
+      <c r="J29" s="53">
+        <v>0</v>
+      </c>
+      <c r="K29" s="53">
+        <v>0</v>
+      </c>
+      <c r="L29" s="53">
+        <v>1</v>
+      </c>
+      <c r="M29" s="53">
+        <v>1</v>
+      </c>
+      <c r="N29" s="53">
+        <v>1</v>
+      </c>
+      <c r="O29" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="C29" s="53">
-        <v>0</v>
-      </c>
-      <c r="D29" s="53">
-        <v>0</v>
-      </c>
-      <c r="E29" s="53">
-        <v>0</v>
-      </c>
-      <c r="F29" s="53">
-        <v>0</v>
-      </c>
-      <c r="G29" s="53">
-        <v>0</v>
-      </c>
-      <c r="H29" s="53">
-        <v>0</v>
-      </c>
-      <c r="I29" s="53">
-        <v>0</v>
-      </c>
-      <c r="J29" s="53">
-        <v>0</v>
-      </c>
-      <c r="K29" s="53">
-        <v>0</v>
-      </c>
-      <c r="L29" s="53">
-        <v>1</v>
-      </c>
-      <c r="M29" s="53">
-        <v>0</v>
-      </c>
-      <c r="N29" s="53">
-        <v>0</v>
-      </c>
-      <c r="O29" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="57"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="49"/>
+      <c r="C30" s="53">
+        <v>0</v>
+      </c>
+      <c r="D30" s="53">
+        <v>0</v>
+      </c>
+      <c r="E30" s="53">
+        <v>0</v>
+      </c>
+      <c r="F30" s="53">
+        <v>0</v>
+      </c>
+      <c r="G30" s="53">
+        <v>0</v>
+      </c>
+      <c r="H30" s="53">
+        <v>0</v>
+      </c>
+      <c r="I30" s="53">
+        <v>0</v>
+      </c>
+      <c r="J30" s="53">
+        <v>0</v>
+      </c>
+      <c r="K30" s="53">
+        <v>0</v>
+      </c>
+      <c r="L30" s="53">
+        <v>1</v>
+      </c>
+      <c r="M30" s="53">
+        <v>0</v>
+      </c>
+      <c r="N30" s="53">
+        <v>0</v>
+      </c>
+      <c r="O30" s="53">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="46" t="s">
+      <c r="B31" s="57"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+    </row>
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="B31" s="57" t="s">
+      <c r="B32" s="57" t="s">
         <v>85</v>
-      </c>
-      <c r="C31" s="53">
-        <v>1</v>
-      </c>
-      <c r="D31" s="53">
-        <v>0</v>
-      </c>
-      <c r="E31" s="53">
-        <v>1</v>
-      </c>
-      <c r="F31" s="53">
-        <v>1</v>
-      </c>
-      <c r="G31" s="53">
-        <v>1</v>
-      </c>
-      <c r="H31" s="53">
-        <v>1</v>
-      </c>
-      <c r="I31" s="53">
-        <v>1</v>
-      </c>
-      <c r="J31" s="53">
-        <v>1</v>
-      </c>
-      <c r="K31" s="53">
-        <v>1</v>
-      </c>
-      <c r="L31" s="53">
-        <v>1</v>
-      </c>
-      <c r="M31" s="53">
-        <v>1</v>
-      </c>
-      <c r="N31" s="53">
-        <v>1</v>
-      </c>
-      <c r="O31" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="57" t="s">
-        <v>84</v>
       </c>
       <c r="C32" s="53">
         <v>1</v>
@@ -2789,7 +2795,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="57" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C33" s="53">
         <v>1</v>
@@ -2833,7 +2839,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C34" s="53">
         <v>1</v>
@@ -2877,96 +2883,96 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="53">
+        <v>1</v>
+      </c>
+      <c r="D35" s="53">
+        <v>0</v>
+      </c>
+      <c r="E35" s="53">
+        <v>1</v>
+      </c>
+      <c r="F35" s="53">
+        <v>1</v>
+      </c>
+      <c r="G35" s="53">
+        <v>1</v>
+      </c>
+      <c r="H35" s="53">
+        <v>1</v>
+      </c>
+      <c r="I35" s="53">
+        <v>1</v>
+      </c>
+      <c r="J35" s="53">
+        <v>1</v>
+      </c>
+      <c r="K35" s="53">
+        <v>1</v>
+      </c>
+      <c r="L35" s="53">
+        <v>1</v>
+      </c>
+      <c r="M35" s="53">
+        <v>1</v>
+      </c>
+      <c r="N35" s="53">
+        <v>1</v>
+      </c>
+      <c r="O35" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="53">
-        <v>1</v>
-      </c>
-      <c r="D35" s="53">
-        <v>1</v>
-      </c>
-      <c r="E35" s="53">
-        <v>1</v>
-      </c>
-      <c r="F35" s="53">
-        <v>1</v>
-      </c>
-      <c r="G35" s="53">
-        <v>1</v>
-      </c>
-      <c r="H35" s="53">
-        <v>1</v>
-      </c>
-      <c r="I35" s="53">
-        <v>1</v>
-      </c>
-      <c r="J35" s="53">
-        <v>1</v>
-      </c>
-      <c r="K35" s="53">
-        <v>1</v>
-      </c>
-      <c r="L35" s="53">
-        <v>1</v>
-      </c>
-      <c r="M35" s="53">
-        <v>1</v>
-      </c>
-      <c r="N35" s="53">
-        <v>1</v>
-      </c>
-      <c r="O35" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="45"/>
-      <c r="B36" s="57" t="s">
+      <c r="C36" s="53">
+        <v>1</v>
+      </c>
+      <c r="D36" s="53">
+        <v>1</v>
+      </c>
+      <c r="E36" s="53">
+        <v>1</v>
+      </c>
+      <c r="F36" s="53">
+        <v>1</v>
+      </c>
+      <c r="G36" s="53">
+        <v>1</v>
+      </c>
+      <c r="H36" s="53">
+        <v>1</v>
+      </c>
+      <c r="I36" s="53">
+        <v>1</v>
+      </c>
+      <c r="J36" s="53">
+        <v>1</v>
+      </c>
+      <c r="K36" s="53">
+        <v>1</v>
+      </c>
+      <c r="L36" s="53">
+        <v>1</v>
+      </c>
+      <c r="M36" s="53">
+        <v>1</v>
+      </c>
+      <c r="N36" s="53">
+        <v>1</v>
+      </c>
+      <c r="O36" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="45"/>
+      <c r="B37" s="57" t="s">
         <v>100</v>
-      </c>
-      <c r="C36" s="53">
-        <v>1</v>
-      </c>
-      <c r="D36" s="53">
-        <v>1</v>
-      </c>
-      <c r="E36" s="53">
-        <v>1</v>
-      </c>
-      <c r="F36" s="53">
-        <v>1</v>
-      </c>
-      <c r="G36" s="53">
-        <v>1</v>
-      </c>
-      <c r="H36" s="53">
-        <v>1</v>
-      </c>
-      <c r="I36" s="53">
-        <v>1</v>
-      </c>
-      <c r="J36" s="53">
-        <v>1</v>
-      </c>
-      <c r="K36" s="53">
-        <v>1</v>
-      </c>
-      <c r="L36" s="53">
-        <v>1</v>
-      </c>
-      <c r="M36" s="53">
-        <v>1</v>
-      </c>
-      <c r="N36" s="53">
-        <v>1</v>
-      </c>
-      <c r="O36" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="57" t="s">
-        <v>101</v>
       </c>
       <c r="C37" s="53">
         <v>1</v>
@@ -3010,7 +3016,7 @@
     </row>
     <row r="38" spans="1:15" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C38" s="53">
         <v>1</v>
@@ -3054,95 +3060,139 @@
     </row>
     <row r="39" spans="1:15" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="53">
+        <v>1</v>
+      </c>
+      <c r="D39" s="53">
+        <v>1</v>
+      </c>
+      <c r="E39" s="53">
+        <v>1</v>
+      </c>
+      <c r="F39" s="53">
+        <v>1</v>
+      </c>
+      <c r="G39" s="53">
+        <v>1</v>
+      </c>
+      <c r="H39" s="53">
+        <v>1</v>
+      </c>
+      <c r="I39" s="53">
+        <v>1</v>
+      </c>
+      <c r="J39" s="53">
+        <v>1</v>
+      </c>
+      <c r="K39" s="53">
+        <v>1</v>
+      </c>
+      <c r="L39" s="53">
+        <v>1</v>
+      </c>
+      <c r="M39" s="53">
+        <v>1</v>
+      </c>
+      <c r="N39" s="53">
+        <v>1</v>
+      </c>
+      <c r="O39" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="53">
-        <v>1</v>
-      </c>
-      <c r="D39" s="53">
-        <v>1</v>
-      </c>
-      <c r="E39" s="53">
-        <v>1</v>
-      </c>
-      <c r="F39" s="53">
-        <v>1</v>
-      </c>
-      <c r="G39" s="53">
-        <v>1</v>
-      </c>
-      <c r="H39" s="53">
-        <v>1</v>
-      </c>
-      <c r="I39" s="53">
-        <v>1</v>
-      </c>
-      <c r="J39" s="53">
-        <v>1</v>
-      </c>
-      <c r="K39" s="53">
-        <v>1</v>
-      </c>
-      <c r="L39" s="53">
-        <v>1</v>
-      </c>
-      <c r="M39" s="53">
-        <v>1</v>
-      </c>
-      <c r="N39" s="53">
-        <v>1</v>
-      </c>
-      <c r="O39" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="57" t="s">
+      <c r="C40" s="53">
+        <v>1</v>
+      </c>
+      <c r="D40" s="53">
+        <v>1</v>
+      </c>
+      <c r="E40" s="53">
+        <v>1</v>
+      </c>
+      <c r="F40" s="53">
+        <v>1</v>
+      </c>
+      <c r="G40" s="53">
+        <v>1</v>
+      </c>
+      <c r="H40" s="53">
+        <v>1</v>
+      </c>
+      <c r="I40" s="53">
+        <v>1</v>
+      </c>
+      <c r="J40" s="53">
+        <v>1</v>
+      </c>
+      <c r="K40" s="53">
+        <v>1</v>
+      </c>
+      <c r="L40" s="53">
+        <v>1</v>
+      </c>
+      <c r="M40" s="53">
+        <v>1</v>
+      </c>
+      <c r="N40" s="53">
+        <v>1</v>
+      </c>
+      <c r="O40" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="C40" s="53">
-        <v>1</v>
-      </c>
-      <c r="D40" s="53">
-        <v>1</v>
-      </c>
-      <c r="E40" s="53">
-        <v>1</v>
-      </c>
-      <c r="F40" s="53">
-        <v>1</v>
-      </c>
-      <c r="G40" s="53">
-        <v>1</v>
-      </c>
-      <c r="H40" s="53">
-        <v>1</v>
-      </c>
-      <c r="I40" s="53">
-        <v>1</v>
-      </c>
-      <c r="J40" s="53">
-        <v>1</v>
-      </c>
-      <c r="K40" s="53">
-        <v>1</v>
-      </c>
-      <c r="L40" s="53">
-        <v>1</v>
-      </c>
-      <c r="M40" s="53">
-        <v>1</v>
-      </c>
-      <c r="N40" s="53">
-        <v>1</v>
-      </c>
-      <c r="O40" s="53">
+      <c r="C41" s="53">
+        <v>1</v>
+      </c>
+      <c r="D41" s="53">
+        <v>1</v>
+      </c>
+      <c r="E41" s="53">
+        <v>1</v>
+      </c>
+      <c r="F41" s="53">
+        <v>1</v>
+      </c>
+      <c r="G41" s="53">
+        <v>1</v>
+      </c>
+      <c r="H41" s="53">
+        <v>1</v>
+      </c>
+      <c r="I41" s="53">
+        <v>1</v>
+      </c>
+      <c r="J41" s="53">
+        <v>1</v>
+      </c>
+      <c r="K41" s="53">
+        <v>1</v>
+      </c>
+      <c r="L41" s="53">
+        <v>1</v>
+      </c>
+      <c r="M41" s="53">
+        <v>1</v>
+      </c>
+      <c r="N41" s="53">
+        <v>1</v>
+      </c>
+      <c r="O41" s="53">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B16:O23">
-    <sortCondition ref="B16:B23"/>
+  <sortState ref="B17:O24">
+    <sortCondition ref="B17:B24"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3253,10 +3303,10 @@
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView zoomScale="111" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4323,6 +4373,52 @@
       </c>
       <c r="H47" s="4">
         <v>0.86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="B48" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E48" s="4">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F48" s="4">
+        <v>0</v>
+      </c>
+      <c r="G48" s="4">
+        <v>0</v>
+      </c>
+      <c r="H48" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C49" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="F49" s="4">
+        <v>0</v>
+      </c>
+      <c r="G49" s="4">
+        <v>0</v>
+      </c>
+      <c r="H49" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4511,10 +4607,10 @@
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4890,61 +4986,63 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="C21" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="D21" s="53" t="s">
-        <v>128</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
       <c r="E21" s="53"/>
       <c r="F21" s="53"/>
       <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
+      <c r="H21" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="I21" s="53" t="s">
+        <v>128</v>
+      </c>
       <c r="J21" s="53"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="53"/>
+        <v>70</v>
+      </c>
+      <c r="B22" s="53" t="s">
+        <v>128</v>
+      </c>
       <c r="C22" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="D22" s="53"/>
+      <c r="D22" s="53" t="s">
+        <v>128</v>
+      </c>
       <c r="E22" s="53"/>
       <c r="F22" s="53"/>
       <c r="G22" s="53"/>
       <c r="H22" s="53"/>
-      <c r="I22" s="53" t="s">
-        <v>128</v>
-      </c>
+      <c r="I22" s="53"/>
       <c r="J22" s="53"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="57" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
+      <c r="C23" s="53" t="s">
+        <v>128</v>
+      </c>
       <c r="D23" s="53"/>
       <c r="E23" s="53"/>
       <c r="F23" s="53"/>
       <c r="G23" s="53"/>
-      <c r="H23" s="53" t="s">
+      <c r="H23" s="53"/>
+      <c r="I23" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="I23" s="53"/>
       <c r="J23" s="53"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="57" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B24" s="53"/>
       <c r="C24" s="53"/>
@@ -4960,23 +5058,23 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="57" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="B25" s="53"/>
-      <c r="C25" s="53" t="s">
-        <v>128</v>
-      </c>
+      <c r="C25" s="53"/>
       <c r="D25" s="53"/>
       <c r="E25" s="53"/>
       <c r="F25" s="53"/>
       <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
+      <c r="H25" s="53" t="s">
+        <v>128</v>
+      </c>
       <c r="I25" s="53"/>
       <c r="J25" s="53"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="57" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B26" s="53"/>
       <c r="C26" s="53" t="s">
@@ -4987,55 +5085,55 @@
       <c r="F26" s="53"/>
       <c r="G26" s="53"/>
       <c r="H26" s="53"/>
-      <c r="I26" s="53" t="s">
-        <v>128</v>
-      </c>
+      <c r="I26" s="53"/>
       <c r="J26" s="53"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="57" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
+      <c r="C27" s="53" t="s">
+        <v>128</v>
+      </c>
       <c r="D27" s="53"/>
       <c r="E27" s="53"/>
       <c r="F27" s="53"/>
       <c r="G27" s="53"/>
-      <c r="H27" s="53" t="s">
+      <c r="H27" s="53"/>
+      <c r="I27" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="I27" s="53"/>
       <c r="J27" s="53"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" s="53" t="s">
-        <v>128</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="B28" s="53"/>
       <c r="C28" s="53"/>
-      <c r="D28" s="53" t="s">
-        <v>128</v>
-      </c>
+      <c r="D28" s="53"/>
       <c r="E28" s="53"/>
       <c r="F28" s="53"/>
       <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
+      <c r="H28" s="53" t="s">
+        <v>128</v>
+      </c>
       <c r="I28" s="53"/>
       <c r="J28" s="53"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="57" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" s="53"/>
+        <v>71</v>
+      </c>
+      <c r="B29" s="53" t="s">
+        <v>128</v>
+      </c>
       <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53" t="s">
+      <c r="D29" s="53" t="s">
         <v>128</v>
       </c>
+      <c r="E29" s="53"/>
       <c r="F29" s="53"/>
       <c r="G29" s="53"/>
       <c r="H29" s="53"/>
@@ -5044,25 +5142,23 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="57" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B30" s="53"/>
       <c r="C30" s="53"/>
       <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
+      <c r="E30" s="53" t="s">
+        <v>128</v>
+      </c>
       <c r="F30" s="53"/>
-      <c r="G30" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="H30" s="53" t="s">
-        <v>128</v>
-      </c>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
       <c r="I30" s="53"/>
       <c r="J30" s="53"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="57" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B31" s="53"/>
       <c r="C31" s="53"/>
@@ -5080,7 +5176,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B32" s="53"/>
       <c r="C32" s="53"/>
@@ -5098,7 +5194,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B33" s="53"/>
       <c r="C33" s="53"/>
@@ -5116,7 +5212,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="57" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B34" s="53"/>
       <c r="C34" s="53"/>
@@ -5134,7 +5230,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="57" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B35" s="53"/>
       <c r="C35" s="53"/>
@@ -5152,14 +5248,16 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="57" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B36" s="53"/>
       <c r="C36" s="53"/>
       <c r="D36" s="53"/>
       <c r="E36" s="53"/>
       <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
+      <c r="G36" s="53" t="s">
+        <v>128</v>
+      </c>
       <c r="H36" s="53" t="s">
         <v>128</v>
       </c>
@@ -5168,27 +5266,43 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="B37" s="53" t="s">
-        <v>128</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="B37" s="53"/>
       <c r="C37" s="53"/>
       <c r="D37" s="53"/>
       <c r="E37" s="53"/>
       <c r="F37" s="53"/>
-      <c r="G37" s="53" t="s">
-        <v>128</v>
-      </c>
+      <c r="G37" s="53"/>
       <c r="H37" s="53" t="s">
         <v>128</v>
       </c>
       <c r="I37" s="53"/>
       <c r="J37" s="53"/>
     </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A38" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="H38" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="I38" s="53"/>
+      <c r="J38" s="53"/>
+    </row>
   </sheetData>
-  <sortState ref="A2:J37">
-    <sortCondition ref="A2:A37"/>
+  <sortState ref="A2:J38">
+    <sortCondition ref="A2:A38"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6689,7 +6803,7 @@
   </sheetPr>
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -10150,10 +10264,10 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -10319,80 +10433,116 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+    </row>
     <row r="11" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="10"/>
+      <c r="B12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1.39</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="18" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="54" t="s">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B15" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C15" s="4">
         <v>1.0249999999999999</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D15" s="4">
         <v>1.0249999999999999</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E15" s="4">
         <v>1.0249999999999999</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F15" s="4">
         <v>1.0249999999999999</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G15" s="4">
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
-      <c r="B13" s="6" t="s">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C16" s="4">
         <v>1.0249999999999999</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D16" s="4">
         <v>1.0249999999999999</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E16" s="4">
         <v>1.0249999999999999</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F16" s="4">
         <v>1.0249999999999999</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G16" s="4">
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="54" t="s">
+    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C17" s="4">
         <v>1.0249999999999999</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D17" s="4">
         <v>1.0249999999999999</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E17" s="4">
         <v>1.0249999999999999</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F17" s="4">
         <v>1.0249999999999999</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G17" s="4">
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/nutrition/default_params.xlsx
+++ b/nutrition/default_params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/github_projects/Nutrition/nutrition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E9E09D6D-931E-D64A-82AA-BA7C410B25D3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0395F450-8693-E044-BD4A-7093A4919E7C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="6" xr2:uid="{9D310A7F-FF26-7448-8337-E29F42B35A9E}"/>
   </bookViews>
@@ -10267,7 +10267,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/nutrition/default_params.xlsx
+++ b/nutrition/default_params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/github_projects/Nutrition/nutrition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{311BF776-F428-8C4F-A3AE-4D75AC30171C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BE7CD60D-B535-6D46-B36C-9C5E0FD327DE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="4" xr2:uid="{9D310A7F-FF26-7448-8337-E29F42B35A9E}"/>
+    <workbookView xWindow="-6180" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="6" xr2:uid="{9D310A7F-FF26-7448-8337-E29F42B35A9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Programs impacted population" sheetId="14" r:id="rId1"/>
@@ -58,40 +58,7 @@
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{4FEDF80A-9240-494E-A520-EBA227B14C13}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>We should think about the values we have in here and make sure it matches with the params document. THESE VALUES MULTIPLY</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000001000000}">
+    <comment ref="A36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -230,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="161">
   <si>
     <t>Neonatal other</t>
   </si>
@@ -568,9 +535,6 @@
     <t>General population</t>
   </si>
   <si>
-    <t>Family Planning</t>
-  </si>
-  <si>
     <t>Non-pregnant WRA</t>
   </si>
   <si>
@@ -628,9 +592,6 @@
     <t>Pertussis</t>
   </si>
   <si>
-    <t>Relative risk by birth interval</t>
-  </si>
-  <si>
     <t>Wasting</t>
   </si>
   <si>
@@ -707,6 +668,18 @@
   </si>
   <si>
     <t>Odds ratios for correct breastfeeding by program</t>
+  </si>
+  <si>
+    <t>Relative risk by birth spacing</t>
+  </si>
+  <si>
+    <t>Odds ratios for correct birth spacing by program</t>
+  </si>
+  <si>
+    <t>Birth spacing</t>
+  </si>
+  <si>
+    <t>Birth number</t>
   </si>
 </sst>
 </file>
@@ -717,7 +690,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -791,19 +764,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -957,7 +917,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -970,11 +929,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="14" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -985,6 +944,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1400,1757 +1362,1757 @@
   <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53" style="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="42" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="42" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.83203125" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.83203125" style="42" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.1640625" style="42" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="14.5" style="42"/>
+    <col min="1" max="1" width="20" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53" style="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="41" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.83203125" style="41" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.83203125" style="41" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.1640625" style="41" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="14.5" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="45" t="s">
+      <c r="A1" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="M1" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="N1" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="44" t="s">
+      <c r="O1" s="43" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="55" t="s">
+      <c r="A2" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="51">
-        <v>0</v>
-      </c>
-      <c r="D2" s="51">
-        <v>1</v>
-      </c>
-      <c r="E2" s="51">
-        <v>1</v>
-      </c>
-      <c r="F2" s="51">
-        <v>1</v>
-      </c>
-      <c r="G2" s="51">
-        <v>1</v>
-      </c>
-      <c r="H2" s="51">
-        <v>0</v>
-      </c>
-      <c r="I2" s="51">
-        <v>0</v>
-      </c>
-      <c r="J2" s="51">
-        <v>0</v>
-      </c>
-      <c r="K2" s="51">
-        <v>0</v>
-      </c>
-      <c r="L2" s="51">
-        <v>0</v>
-      </c>
-      <c r="M2" s="51">
-        <v>0</v>
-      </c>
-      <c r="N2" s="51">
-        <v>0</v>
-      </c>
-      <c r="O2" s="51">
+      <c r="C2" s="50">
+        <v>0</v>
+      </c>
+      <c r="D2" s="50">
+        <v>1</v>
+      </c>
+      <c r="E2" s="50">
+        <v>1</v>
+      </c>
+      <c r="F2" s="50">
+        <v>1</v>
+      </c>
+      <c r="G2" s="50">
+        <v>1</v>
+      </c>
+      <c r="H2" s="50">
+        <v>0</v>
+      </c>
+      <c r="I2" s="50">
+        <v>0</v>
+      </c>
+      <c r="J2" s="50">
+        <v>0</v>
+      </c>
+      <c r="K2" s="50">
+        <v>0</v>
+      </c>
+      <c r="L2" s="50">
+        <v>0</v>
+      </c>
+      <c r="M2" s="50">
+        <v>0</v>
+      </c>
+      <c r="N2" s="50">
+        <v>0</v>
+      </c>
+      <c r="O2" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="51">
-        <v>1</v>
-      </c>
-      <c r="D3" s="51">
-        <v>1</v>
-      </c>
-      <c r="E3" s="51">
-        <v>0</v>
-      </c>
-      <c r="F3" s="51">
-        <v>0</v>
-      </c>
-      <c r="G3" s="51">
-        <v>0</v>
-      </c>
-      <c r="H3" s="51">
-        <v>0</v>
-      </c>
-      <c r="I3" s="51">
-        <v>0</v>
-      </c>
-      <c r="J3" s="51">
-        <v>0</v>
-      </c>
-      <c r="K3" s="51">
-        <v>0</v>
-      </c>
-      <c r="L3" s="51">
-        <v>0</v>
-      </c>
-      <c r="M3" s="51">
-        <v>0</v>
-      </c>
-      <c r="N3" s="51">
-        <v>0</v>
-      </c>
-      <c r="O3" s="51">
+      <c r="B3" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="50">
+        <v>1</v>
+      </c>
+      <c r="D3" s="50">
+        <v>1</v>
+      </c>
+      <c r="E3" s="50">
+        <v>0</v>
+      </c>
+      <c r="F3" s="50">
+        <v>0</v>
+      </c>
+      <c r="G3" s="50">
+        <v>0</v>
+      </c>
+      <c r="H3" s="50">
+        <v>0</v>
+      </c>
+      <c r="I3" s="50">
+        <v>0</v>
+      </c>
+      <c r="J3" s="50">
+        <v>0</v>
+      </c>
+      <c r="K3" s="50">
+        <v>0</v>
+      </c>
+      <c r="L3" s="50">
+        <v>0</v>
+      </c>
+      <c r="M3" s="50">
+        <v>0</v>
+      </c>
+      <c r="N3" s="50">
+        <v>0</v>
+      </c>
+      <c r="O3" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" s="51">
-        <v>1</v>
-      </c>
-      <c r="D4" s="51">
-        <v>1</v>
-      </c>
-      <c r="E4" s="51">
-        <v>1</v>
-      </c>
-      <c r="F4" s="51">
-        <v>1</v>
-      </c>
-      <c r="G4" s="51">
-        <v>1</v>
-      </c>
-      <c r="H4" s="51">
-        <v>0</v>
-      </c>
-      <c r="I4" s="51">
-        <v>0</v>
-      </c>
-      <c r="J4" s="51">
-        <v>0</v>
-      </c>
-      <c r="K4" s="51">
-        <v>0</v>
-      </c>
-      <c r="L4" s="51">
-        <v>0</v>
-      </c>
-      <c r="M4" s="51">
-        <v>0</v>
-      </c>
-      <c r="N4" s="51">
-        <v>0</v>
-      </c>
-      <c r="O4" s="51">
+      <c r="B4" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="50">
+        <v>1</v>
+      </c>
+      <c r="D4" s="50">
+        <v>1</v>
+      </c>
+      <c r="E4" s="50">
+        <v>1</v>
+      </c>
+      <c r="F4" s="50">
+        <v>1</v>
+      </c>
+      <c r="G4" s="50">
+        <v>1</v>
+      </c>
+      <c r="H4" s="50">
+        <v>0</v>
+      </c>
+      <c r="I4" s="50">
+        <v>0</v>
+      </c>
+      <c r="J4" s="50">
+        <v>0</v>
+      </c>
+      <c r="K4" s="50">
+        <v>0</v>
+      </c>
+      <c r="L4" s="50">
+        <v>0</v>
+      </c>
+      <c r="M4" s="50">
+        <v>0</v>
+      </c>
+      <c r="N4" s="50">
+        <v>0</v>
+      </c>
+      <c r="O4" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="55" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="51">
-        <v>1</v>
-      </c>
-      <c r="D5" s="51">
-        <v>1</v>
-      </c>
-      <c r="E5" s="51">
-        <v>1</v>
-      </c>
-      <c r="F5" s="51">
-        <v>1</v>
-      </c>
-      <c r="G5" s="51">
-        <v>1</v>
-      </c>
-      <c r="H5" s="51">
-        <v>0</v>
-      </c>
-      <c r="I5" s="51">
-        <v>0</v>
-      </c>
-      <c r="J5" s="51">
-        <v>0</v>
-      </c>
-      <c r="K5" s="51">
-        <v>0</v>
-      </c>
-      <c r="L5" s="51">
-        <v>0</v>
-      </c>
-      <c r="M5" s="51">
-        <v>0</v>
-      </c>
-      <c r="N5" s="51">
-        <v>0</v>
-      </c>
-      <c r="O5" s="51">
+      <c r="B5" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="50">
+        <v>1</v>
+      </c>
+      <c r="D5" s="50">
+        <v>1</v>
+      </c>
+      <c r="E5" s="50">
+        <v>1</v>
+      </c>
+      <c r="F5" s="50">
+        <v>1</v>
+      </c>
+      <c r="G5" s="50">
+        <v>1</v>
+      </c>
+      <c r="H5" s="50">
+        <v>0</v>
+      </c>
+      <c r="I5" s="50">
+        <v>0</v>
+      </c>
+      <c r="J5" s="50">
+        <v>0</v>
+      </c>
+      <c r="K5" s="50">
+        <v>0</v>
+      </c>
+      <c r="L5" s="50">
+        <v>0</v>
+      </c>
+      <c r="M5" s="50">
+        <v>0</v>
+      </c>
+      <c r="N5" s="50">
+        <v>0</v>
+      </c>
+      <c r="O5" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="55" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" s="51">
-        <v>1</v>
-      </c>
-      <c r="D6" s="51">
-        <v>1</v>
-      </c>
-      <c r="E6" s="51">
-        <v>1</v>
-      </c>
-      <c r="F6" s="51">
-        <v>1</v>
-      </c>
-      <c r="G6" s="51">
-        <v>1</v>
-      </c>
-      <c r="H6" s="51">
-        <v>0</v>
-      </c>
-      <c r="I6" s="51">
-        <v>0</v>
-      </c>
-      <c r="J6" s="51">
-        <v>0</v>
-      </c>
-      <c r="K6" s="51">
-        <v>0</v>
-      </c>
-      <c r="L6" s="51">
-        <v>0</v>
-      </c>
-      <c r="M6" s="51">
-        <v>0</v>
-      </c>
-      <c r="N6" s="51">
-        <v>0</v>
-      </c>
-      <c r="O6" s="51">
+      <c r="B6" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="50">
+        <v>1</v>
+      </c>
+      <c r="D6" s="50">
+        <v>1</v>
+      </c>
+      <c r="E6" s="50">
+        <v>1</v>
+      </c>
+      <c r="F6" s="50">
+        <v>1</v>
+      </c>
+      <c r="G6" s="50">
+        <v>1</v>
+      </c>
+      <c r="H6" s="50">
+        <v>0</v>
+      </c>
+      <c r="I6" s="50">
+        <v>0</v>
+      </c>
+      <c r="J6" s="50">
+        <v>0</v>
+      </c>
+      <c r="K6" s="50">
+        <v>0</v>
+      </c>
+      <c r="L6" s="50">
+        <v>0</v>
+      </c>
+      <c r="M6" s="50">
+        <v>0</v>
+      </c>
+      <c r="N6" s="50">
+        <v>0</v>
+      </c>
+      <c r="O6" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="55" t="s">
-        <v>157</v>
-      </c>
-      <c r="C7" s="51">
-        <v>1</v>
-      </c>
-      <c r="D7" s="51">
-        <v>1</v>
-      </c>
-      <c r="E7" s="51">
-        <v>0</v>
-      </c>
-      <c r="F7" s="51">
-        <v>0</v>
-      </c>
-      <c r="G7" s="51">
-        <v>0</v>
-      </c>
-      <c r="H7" s="51">
-        <v>0</v>
-      </c>
-      <c r="I7" s="51">
-        <v>0</v>
-      </c>
-      <c r="J7" s="51">
-        <v>0</v>
-      </c>
-      <c r="K7" s="51">
-        <v>0</v>
-      </c>
-      <c r="L7" s="51">
-        <v>0</v>
-      </c>
-      <c r="M7" s="51">
-        <v>0</v>
-      </c>
-      <c r="N7" s="51">
-        <v>0</v>
-      </c>
-      <c r="O7" s="51">
+      <c r="B7" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="50">
+        <v>1</v>
+      </c>
+      <c r="D7" s="50">
+        <v>1</v>
+      </c>
+      <c r="E7" s="50">
+        <v>0</v>
+      </c>
+      <c r="F7" s="50">
+        <v>0</v>
+      </c>
+      <c r="G7" s="50">
+        <v>0</v>
+      </c>
+      <c r="H7" s="50">
+        <v>0</v>
+      </c>
+      <c r="I7" s="50">
+        <v>0</v>
+      </c>
+      <c r="J7" s="50">
+        <v>0</v>
+      </c>
+      <c r="K7" s="50">
+        <v>0</v>
+      </c>
+      <c r="L7" s="50">
+        <v>0</v>
+      </c>
+      <c r="M7" s="50">
+        <v>0</v>
+      </c>
+      <c r="N7" s="50">
+        <v>0</v>
+      </c>
+      <c r="O7" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="51">
-        <v>0</v>
-      </c>
-      <c r="D8" s="51">
-        <v>0</v>
-      </c>
-      <c r="E8" s="51">
-        <v>1</v>
-      </c>
-      <c r="F8" s="51">
-        <v>1</v>
-      </c>
-      <c r="G8" s="51">
-        <v>0</v>
-      </c>
-      <c r="H8" s="51">
-        <v>0</v>
-      </c>
-      <c r="I8" s="51">
-        <v>0</v>
-      </c>
-      <c r="J8" s="51">
-        <v>0</v>
-      </c>
-      <c r="K8" s="51">
-        <v>0</v>
-      </c>
-      <c r="L8" s="51">
-        <v>0</v>
-      </c>
-      <c r="M8" s="51">
-        <v>0</v>
-      </c>
-      <c r="N8" s="51">
-        <v>0</v>
-      </c>
-      <c r="O8" s="51">
+      <c r="C8" s="50">
+        <v>0</v>
+      </c>
+      <c r="D8" s="50">
+        <v>0</v>
+      </c>
+      <c r="E8" s="50">
+        <v>1</v>
+      </c>
+      <c r="F8" s="50">
+        <v>1</v>
+      </c>
+      <c r="G8" s="50">
+        <v>0</v>
+      </c>
+      <c r="H8" s="50">
+        <v>0</v>
+      </c>
+      <c r="I8" s="50">
+        <v>0</v>
+      </c>
+      <c r="J8" s="50">
+        <v>0</v>
+      </c>
+      <c r="K8" s="50">
+        <v>0</v>
+      </c>
+      <c r="L8" s="50">
+        <v>0</v>
+      </c>
+      <c r="M8" s="50">
+        <v>0</v>
+      </c>
+      <c r="N8" s="50">
+        <v>0</v>
+      </c>
+      <c r="O8" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="51">
-        <v>0</v>
-      </c>
-      <c r="D9" s="51">
-        <v>0</v>
-      </c>
-      <c r="E9" s="51">
-        <v>1</v>
-      </c>
-      <c r="F9" s="51">
-        <v>1</v>
-      </c>
-      <c r="G9" s="51">
-        <v>1</v>
-      </c>
-      <c r="H9" s="51">
-        <v>0</v>
-      </c>
-      <c r="I9" s="51">
-        <v>0</v>
-      </c>
-      <c r="J9" s="51">
-        <v>0</v>
-      </c>
-      <c r="K9" s="51">
-        <v>0</v>
-      </c>
-      <c r="L9" s="51">
-        <v>0</v>
-      </c>
-      <c r="M9" s="51">
-        <v>0</v>
-      </c>
-      <c r="N9" s="51">
-        <v>0</v>
-      </c>
-      <c r="O9" s="51">
+      <c r="C9" s="50">
+        <v>0</v>
+      </c>
+      <c r="D9" s="50">
+        <v>0</v>
+      </c>
+      <c r="E9" s="50">
+        <v>1</v>
+      </c>
+      <c r="F9" s="50">
+        <v>1</v>
+      </c>
+      <c r="G9" s="50">
+        <v>1</v>
+      </c>
+      <c r="H9" s="50">
+        <v>0</v>
+      </c>
+      <c r="I9" s="50">
+        <v>0</v>
+      </c>
+      <c r="J9" s="50">
+        <v>0</v>
+      </c>
+      <c r="K9" s="50">
+        <v>0</v>
+      </c>
+      <c r="L9" s="50">
+        <v>0</v>
+      </c>
+      <c r="M9" s="50">
+        <v>0</v>
+      </c>
+      <c r="N9" s="50">
+        <v>0</v>
+      </c>
+      <c r="O9" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="51">
-        <v>1</v>
-      </c>
-      <c r="D10" s="51">
-        <v>1</v>
-      </c>
-      <c r="E10" s="51">
-        <v>1</v>
-      </c>
-      <c r="F10" s="51">
-        <v>1</v>
-      </c>
-      <c r="G10" s="51">
-        <v>1</v>
-      </c>
-      <c r="H10" s="51">
-        <v>0</v>
-      </c>
-      <c r="I10" s="51">
-        <v>0</v>
-      </c>
-      <c r="J10" s="51">
-        <v>0</v>
-      </c>
-      <c r="K10" s="51">
-        <v>0</v>
-      </c>
-      <c r="L10" s="51">
-        <v>0</v>
-      </c>
-      <c r="M10" s="51">
-        <v>0</v>
-      </c>
-      <c r="N10" s="51">
-        <v>0</v>
-      </c>
-      <c r="O10" s="51">
+      <c r="C10" s="50">
+        <v>1</v>
+      </c>
+      <c r="D10" s="50">
+        <v>1</v>
+      </c>
+      <c r="E10" s="50">
+        <v>1</v>
+      </c>
+      <c r="F10" s="50">
+        <v>1</v>
+      </c>
+      <c r="G10" s="50">
+        <v>1</v>
+      </c>
+      <c r="H10" s="50">
+        <v>0</v>
+      </c>
+      <c r="I10" s="50">
+        <v>0</v>
+      </c>
+      <c r="J10" s="50">
+        <v>0</v>
+      </c>
+      <c r="K10" s="50">
+        <v>0</v>
+      </c>
+      <c r="L10" s="50">
+        <v>0</v>
+      </c>
+      <c r="M10" s="50">
+        <v>0</v>
+      </c>
+      <c r="N10" s="50">
+        <v>0</v>
+      </c>
+      <c r="O10" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="51">
-        <v>0</v>
-      </c>
-      <c r="D11" s="51">
-        <v>0</v>
-      </c>
-      <c r="E11" s="51">
-        <v>1</v>
-      </c>
-      <c r="F11" s="51">
-        <v>1</v>
-      </c>
-      <c r="G11" s="51">
-        <v>0</v>
-      </c>
-      <c r="H11" s="51">
-        <v>0</v>
-      </c>
-      <c r="I11" s="51">
-        <v>0</v>
-      </c>
-      <c r="J11" s="51">
-        <v>0</v>
-      </c>
-      <c r="K11" s="51">
-        <v>0</v>
-      </c>
-      <c r="L11" s="51">
-        <v>0</v>
-      </c>
-      <c r="M11" s="51">
-        <v>0</v>
-      </c>
-      <c r="N11" s="51">
-        <v>0</v>
-      </c>
-      <c r="O11" s="51">
+      <c r="C11" s="50">
+        <v>0</v>
+      </c>
+      <c r="D11" s="50">
+        <v>0</v>
+      </c>
+      <c r="E11" s="50">
+        <v>1</v>
+      </c>
+      <c r="F11" s="50">
+        <v>1</v>
+      </c>
+      <c r="G11" s="50">
+        <v>0</v>
+      </c>
+      <c r="H11" s="50">
+        <v>0</v>
+      </c>
+      <c r="I11" s="50">
+        <v>0</v>
+      </c>
+      <c r="J11" s="50">
+        <v>0</v>
+      </c>
+      <c r="K11" s="50">
+        <v>0</v>
+      </c>
+      <c r="L11" s="50">
+        <v>0</v>
+      </c>
+      <c r="M11" s="50">
+        <v>0</v>
+      </c>
+      <c r="N11" s="50">
+        <v>0</v>
+      </c>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="51">
-        <v>0</v>
-      </c>
-      <c r="D12" s="51">
-        <v>1</v>
-      </c>
-      <c r="E12" s="51">
-        <v>1</v>
-      </c>
-      <c r="F12" s="51">
-        <v>1</v>
-      </c>
-      <c r="G12" s="51">
-        <v>1</v>
-      </c>
-      <c r="H12" s="51">
-        <v>0</v>
-      </c>
-      <c r="I12" s="51">
-        <v>0</v>
-      </c>
-      <c r="J12" s="51">
-        <v>0</v>
-      </c>
-      <c r="K12" s="51">
-        <v>0</v>
-      </c>
-      <c r="L12" s="51">
-        <v>0</v>
-      </c>
-      <c r="M12" s="51">
-        <v>0</v>
-      </c>
-      <c r="N12" s="51">
-        <v>0</v>
-      </c>
-      <c r="O12" s="51">
+      <c r="C12" s="50">
+        <v>0</v>
+      </c>
+      <c r="D12" s="50">
+        <v>1</v>
+      </c>
+      <c r="E12" s="50">
+        <v>1</v>
+      </c>
+      <c r="F12" s="50">
+        <v>1</v>
+      </c>
+      <c r="G12" s="50">
+        <v>1</v>
+      </c>
+      <c r="H12" s="50">
+        <v>0</v>
+      </c>
+      <c r="I12" s="50">
+        <v>0</v>
+      </c>
+      <c r="J12" s="50">
+        <v>0</v>
+      </c>
+      <c r="K12" s="50">
+        <v>0</v>
+      </c>
+      <c r="L12" s="50">
+        <v>0</v>
+      </c>
+      <c r="M12" s="50">
+        <v>0</v>
+      </c>
+      <c r="N12" s="50">
+        <v>0</v>
+      </c>
+      <c r="O12" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="51">
-        <v>0</v>
-      </c>
-      <c r="D13" s="51">
-        <v>0</v>
-      </c>
-      <c r="E13" s="51">
-        <v>1</v>
-      </c>
-      <c r="F13" s="51">
-        <v>1</v>
-      </c>
-      <c r="G13" s="51">
-        <v>1</v>
-      </c>
-      <c r="H13" s="51">
-        <v>0</v>
-      </c>
-      <c r="I13" s="51">
-        <v>0</v>
-      </c>
-      <c r="J13" s="51">
-        <v>0</v>
-      </c>
-      <c r="K13" s="51">
-        <v>0</v>
-      </c>
-      <c r="L13" s="51">
-        <v>0</v>
-      </c>
-      <c r="M13" s="51">
-        <v>0</v>
-      </c>
-      <c r="N13" s="51">
-        <v>0</v>
-      </c>
-      <c r="O13" s="51">
+      <c r="C13" s="50">
+        <v>0</v>
+      </c>
+      <c r="D13" s="50">
+        <v>0</v>
+      </c>
+      <c r="E13" s="50">
+        <v>1</v>
+      </c>
+      <c r="F13" s="50">
+        <v>1</v>
+      </c>
+      <c r="G13" s="50">
+        <v>1</v>
+      </c>
+      <c r="H13" s="50">
+        <v>0</v>
+      </c>
+      <c r="I13" s="50">
+        <v>0</v>
+      </c>
+      <c r="J13" s="50">
+        <v>0</v>
+      </c>
+      <c r="K13" s="50">
+        <v>0</v>
+      </c>
+      <c r="L13" s="50">
+        <v>0</v>
+      </c>
+      <c r="M13" s="50">
+        <v>0</v>
+      </c>
+      <c r="N13" s="50">
+        <v>0</v>
+      </c>
+      <c r="O13" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="51">
-        <v>1</v>
-      </c>
-      <c r="D14" s="51">
-        <v>1</v>
-      </c>
-      <c r="E14" s="51">
-        <v>1</v>
-      </c>
-      <c r="F14" s="51">
-        <v>1</v>
-      </c>
-      <c r="G14" s="51">
-        <v>1</v>
-      </c>
-      <c r="H14" s="51">
-        <v>0</v>
-      </c>
-      <c r="I14" s="51">
-        <v>0</v>
-      </c>
-      <c r="J14" s="51">
-        <v>0</v>
-      </c>
-      <c r="K14" s="51">
-        <v>0</v>
-      </c>
-      <c r="L14" s="51">
-        <v>0</v>
-      </c>
-      <c r="M14" s="51">
-        <v>0</v>
-      </c>
-      <c r="N14" s="51">
-        <v>0</v>
-      </c>
-      <c r="O14" s="51">
+      <c r="C14" s="50">
+        <v>1</v>
+      </c>
+      <c r="D14" s="50">
+        <v>1</v>
+      </c>
+      <c r="E14" s="50">
+        <v>1</v>
+      </c>
+      <c r="F14" s="50">
+        <v>1</v>
+      </c>
+      <c r="G14" s="50">
+        <v>1</v>
+      </c>
+      <c r="H14" s="50">
+        <v>0</v>
+      </c>
+      <c r="I14" s="50">
+        <v>0</v>
+      </c>
+      <c r="J14" s="50">
+        <v>0</v>
+      </c>
+      <c r="K14" s="50">
+        <v>0</v>
+      </c>
+      <c r="L14" s="50">
+        <v>0</v>
+      </c>
+      <c r="M14" s="50">
+        <v>0</v>
+      </c>
+      <c r="N14" s="50">
+        <v>0</v>
+      </c>
+      <c r="O14" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="51">
-        <v>0</v>
-      </c>
-      <c r="D15" s="51">
-        <v>0</v>
-      </c>
-      <c r="E15" s="51">
-        <v>1</v>
-      </c>
-      <c r="F15" s="51">
-        <v>1</v>
-      </c>
-      <c r="G15" s="51">
-        <v>1</v>
-      </c>
-      <c r="H15" s="51">
-        <v>0</v>
-      </c>
-      <c r="I15" s="51">
-        <v>0</v>
-      </c>
-      <c r="J15" s="51">
-        <v>0</v>
-      </c>
-      <c r="K15" s="51">
-        <v>0</v>
-      </c>
-      <c r="L15" s="51">
-        <v>0</v>
-      </c>
-      <c r="M15" s="51">
-        <v>0</v>
-      </c>
-      <c r="N15" s="51">
-        <v>0</v>
-      </c>
-      <c r="O15" s="51">
+      <c r="C15" s="50">
+        <v>0</v>
+      </c>
+      <c r="D15" s="50">
+        <v>0</v>
+      </c>
+      <c r="E15" s="50">
+        <v>1</v>
+      </c>
+      <c r="F15" s="50">
+        <v>1</v>
+      </c>
+      <c r="G15" s="50">
+        <v>1</v>
+      </c>
+      <c r="H15" s="50">
+        <v>0</v>
+      </c>
+      <c r="I15" s="50">
+        <v>0</v>
+      </c>
+      <c r="J15" s="50">
+        <v>0</v>
+      </c>
+      <c r="K15" s="50">
+        <v>0</v>
+      </c>
+      <c r="L15" s="50">
+        <v>0</v>
+      </c>
+      <c r="M15" s="50">
+        <v>0</v>
+      </c>
+      <c r="N15" s="50">
+        <v>0</v>
+      </c>
+      <c r="O15" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="55"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="51">
-        <v>0</v>
-      </c>
-      <c r="D17" s="51">
-        <v>0</v>
-      </c>
-      <c r="E17" s="51">
-        <v>0</v>
-      </c>
-      <c r="F17" s="51">
-        <v>0</v>
-      </c>
-      <c r="G17" s="51">
-        <v>0</v>
-      </c>
-      <c r="H17" s="51">
-        <v>1</v>
-      </c>
-      <c r="I17" s="51">
-        <v>1</v>
-      </c>
-      <c r="J17" s="51">
-        <v>1</v>
-      </c>
-      <c r="K17" s="51">
-        <v>1</v>
-      </c>
-      <c r="L17" s="51">
-        <v>0</v>
-      </c>
-      <c r="M17" s="51">
-        <v>0</v>
-      </c>
-      <c r="N17" s="51">
-        <v>0</v>
-      </c>
-      <c r="O17" s="51">
+      <c r="C17" s="50">
+        <v>0</v>
+      </c>
+      <c r="D17" s="50">
+        <v>0</v>
+      </c>
+      <c r="E17" s="50">
+        <v>0</v>
+      </c>
+      <c r="F17" s="50">
+        <v>0</v>
+      </c>
+      <c r="G17" s="50">
+        <v>0</v>
+      </c>
+      <c r="H17" s="50">
+        <v>1</v>
+      </c>
+      <c r="I17" s="50">
+        <v>1</v>
+      </c>
+      <c r="J17" s="50">
+        <v>1</v>
+      </c>
+      <c r="K17" s="50">
+        <v>1</v>
+      </c>
+      <c r="L17" s="50">
+        <v>0</v>
+      </c>
+      <c r="M17" s="50">
+        <v>0</v>
+      </c>
+      <c r="N17" s="50">
+        <v>0</v>
+      </c>
+      <c r="O17" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="44"/>
-      <c r="B18" s="55" t="s">
+      <c r="A18" s="43"/>
+      <c r="B18" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="51">
-        <v>0</v>
-      </c>
-      <c r="D18" s="51">
-        <v>0</v>
-      </c>
-      <c r="E18" s="51">
-        <v>0</v>
-      </c>
-      <c r="F18" s="51">
-        <v>0</v>
-      </c>
-      <c r="G18" s="51">
-        <v>0</v>
-      </c>
-      <c r="H18" s="51">
-        <v>1</v>
-      </c>
-      <c r="I18" s="51">
-        <v>1</v>
-      </c>
-      <c r="J18" s="51">
-        <v>1</v>
-      </c>
-      <c r="K18" s="51">
-        <v>1</v>
-      </c>
-      <c r="L18" s="51">
-        <v>0</v>
-      </c>
-      <c r="M18" s="51">
-        <v>0</v>
-      </c>
-      <c r="N18" s="51">
-        <v>0</v>
-      </c>
-      <c r="O18" s="51">
+      <c r="C18" s="50">
+        <v>0</v>
+      </c>
+      <c r="D18" s="50">
+        <v>0</v>
+      </c>
+      <c r="E18" s="50">
+        <v>0</v>
+      </c>
+      <c r="F18" s="50">
+        <v>0</v>
+      </c>
+      <c r="G18" s="50">
+        <v>0</v>
+      </c>
+      <c r="H18" s="50">
+        <v>1</v>
+      </c>
+      <c r="I18" s="50">
+        <v>1</v>
+      </c>
+      <c r="J18" s="50">
+        <v>1</v>
+      </c>
+      <c r="K18" s="50">
+        <v>1</v>
+      </c>
+      <c r="L18" s="50">
+        <v>0</v>
+      </c>
+      <c r="M18" s="50">
+        <v>0</v>
+      </c>
+      <c r="N18" s="50">
+        <v>0</v>
+      </c>
+      <c r="O18" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="C19" s="51">
-        <v>0</v>
-      </c>
-      <c r="D19" s="51">
-        <v>0</v>
-      </c>
-      <c r="E19" s="51">
-        <v>0</v>
-      </c>
-      <c r="F19" s="51">
-        <v>0</v>
-      </c>
-      <c r="G19" s="51">
-        <v>0</v>
-      </c>
-      <c r="H19" s="51">
-        <v>1</v>
-      </c>
-      <c r="I19" s="51">
-        <v>1</v>
-      </c>
-      <c r="J19" s="51">
-        <v>1</v>
-      </c>
-      <c r="K19" s="51">
-        <v>1</v>
-      </c>
-      <c r="L19" s="51">
-        <v>0</v>
-      </c>
-      <c r="M19" s="51">
-        <v>0</v>
-      </c>
-      <c r="N19" s="51">
-        <v>0</v>
-      </c>
-      <c r="O19" s="51">
+        <v>149</v>
+      </c>
+      <c r="C19" s="50">
+        <v>0</v>
+      </c>
+      <c r="D19" s="50">
+        <v>0</v>
+      </c>
+      <c r="E19" s="50">
+        <v>0</v>
+      </c>
+      <c r="F19" s="50">
+        <v>0</v>
+      </c>
+      <c r="G19" s="50">
+        <v>0</v>
+      </c>
+      <c r="H19" s="50">
+        <v>1</v>
+      </c>
+      <c r="I19" s="50">
+        <v>1</v>
+      </c>
+      <c r="J19" s="50">
+        <v>1</v>
+      </c>
+      <c r="K19" s="50">
+        <v>1</v>
+      </c>
+      <c r="L19" s="50">
+        <v>0</v>
+      </c>
+      <c r="M19" s="50">
+        <v>0</v>
+      </c>
+      <c r="N19" s="50">
+        <v>0</v>
+      </c>
+      <c r="O19" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="C20" s="51">
-        <v>0</v>
-      </c>
-      <c r="D20" s="51">
-        <v>0</v>
-      </c>
-      <c r="E20" s="51">
-        <v>0</v>
-      </c>
-      <c r="F20" s="51">
-        <v>0</v>
-      </c>
-      <c r="G20" s="51">
-        <v>0</v>
-      </c>
-      <c r="H20" s="51">
-        <v>1</v>
-      </c>
-      <c r="I20" s="51">
-        <v>1</v>
-      </c>
-      <c r="J20" s="51">
-        <v>1</v>
-      </c>
-      <c r="K20" s="51">
-        <v>1</v>
-      </c>
-      <c r="L20" s="51">
-        <v>0</v>
-      </c>
-      <c r="M20" s="51">
-        <v>0</v>
-      </c>
-      <c r="N20" s="51">
-        <v>0</v>
-      </c>
-      <c r="O20" s="51">
+        <v>154</v>
+      </c>
+      <c r="C20" s="50">
+        <v>0</v>
+      </c>
+      <c r="D20" s="50">
+        <v>0</v>
+      </c>
+      <c r="E20" s="50">
+        <v>0</v>
+      </c>
+      <c r="F20" s="50">
+        <v>0</v>
+      </c>
+      <c r="G20" s="50">
+        <v>0</v>
+      </c>
+      <c r="H20" s="50">
+        <v>1</v>
+      </c>
+      <c r="I20" s="50">
+        <v>1</v>
+      </c>
+      <c r="J20" s="50">
+        <v>1</v>
+      </c>
+      <c r="K20" s="50">
+        <v>1</v>
+      </c>
+      <c r="L20" s="50">
+        <v>0</v>
+      </c>
+      <c r="M20" s="50">
+        <v>0</v>
+      </c>
+      <c r="N20" s="50">
+        <v>0</v>
+      </c>
+      <c r="O20" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="51">
-        <v>0</v>
-      </c>
-      <c r="D21" s="51">
-        <v>0</v>
-      </c>
-      <c r="E21" s="51">
-        <v>0</v>
-      </c>
-      <c r="F21" s="51">
-        <v>0</v>
-      </c>
-      <c r="G21" s="51">
-        <v>0</v>
-      </c>
-      <c r="H21" s="51">
-        <v>1</v>
-      </c>
-      <c r="I21" s="51">
-        <v>1</v>
-      </c>
-      <c r="J21" s="51">
-        <v>1</v>
-      </c>
-      <c r="K21" s="51">
-        <v>1</v>
-      </c>
-      <c r="L21" s="51">
-        <v>0</v>
-      </c>
-      <c r="M21" s="51">
-        <v>0</v>
-      </c>
-      <c r="N21" s="51">
-        <v>0</v>
-      </c>
-      <c r="O21" s="51">
+      <c r="C21" s="50">
+        <v>0</v>
+      </c>
+      <c r="D21" s="50">
+        <v>0</v>
+      </c>
+      <c r="E21" s="50">
+        <v>0</v>
+      </c>
+      <c r="F21" s="50">
+        <v>0</v>
+      </c>
+      <c r="G21" s="50">
+        <v>0</v>
+      </c>
+      <c r="H21" s="50">
+        <v>1</v>
+      </c>
+      <c r="I21" s="50">
+        <v>1</v>
+      </c>
+      <c r="J21" s="50">
+        <v>1</v>
+      </c>
+      <c r="K21" s="50">
+        <v>1</v>
+      </c>
+      <c r="L21" s="50">
+        <v>0</v>
+      </c>
+      <c r="M21" s="50">
+        <v>0</v>
+      </c>
+      <c r="N21" s="50">
+        <v>0</v>
+      </c>
+      <c r="O21" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="51">
-        <v>0</v>
-      </c>
-      <c r="D22" s="51">
-        <v>0</v>
-      </c>
-      <c r="E22" s="51">
-        <v>0</v>
-      </c>
-      <c r="F22" s="51">
-        <v>0</v>
-      </c>
-      <c r="G22" s="51">
-        <v>0</v>
-      </c>
-      <c r="H22" s="51">
-        <v>1</v>
-      </c>
-      <c r="I22" s="51">
-        <v>1</v>
-      </c>
-      <c r="J22" s="51">
-        <v>1</v>
-      </c>
-      <c r="K22" s="51">
-        <v>1</v>
-      </c>
-      <c r="L22" s="51">
-        <v>0</v>
-      </c>
-      <c r="M22" s="51">
-        <v>0</v>
-      </c>
-      <c r="N22" s="51">
-        <v>0</v>
-      </c>
-      <c r="O22" s="51">
+      <c r="C22" s="50">
+        <v>0</v>
+      </c>
+      <c r="D22" s="50">
+        <v>0</v>
+      </c>
+      <c r="E22" s="50">
+        <v>0</v>
+      </c>
+      <c r="F22" s="50">
+        <v>0</v>
+      </c>
+      <c r="G22" s="50">
+        <v>0</v>
+      </c>
+      <c r="H22" s="50">
+        <v>1</v>
+      </c>
+      <c r="I22" s="50">
+        <v>1</v>
+      </c>
+      <c r="J22" s="50">
+        <v>1</v>
+      </c>
+      <c r="K22" s="50">
+        <v>1</v>
+      </c>
+      <c r="L22" s="50">
+        <v>0</v>
+      </c>
+      <c r="M22" s="50">
+        <v>0</v>
+      </c>
+      <c r="N22" s="50">
+        <v>0</v>
+      </c>
+      <c r="O22" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="51">
-        <v>0</v>
-      </c>
-      <c r="D23" s="51">
-        <v>0</v>
-      </c>
-      <c r="E23" s="51">
-        <v>0</v>
-      </c>
-      <c r="F23" s="51">
-        <v>0</v>
-      </c>
-      <c r="G23" s="51">
-        <v>0</v>
-      </c>
-      <c r="H23" s="51">
-        <v>1</v>
-      </c>
-      <c r="I23" s="51">
-        <v>1</v>
-      </c>
-      <c r="J23" s="51">
-        <v>1</v>
-      </c>
-      <c r="K23" s="51">
-        <v>1</v>
-      </c>
-      <c r="L23" s="51">
-        <v>0</v>
-      </c>
-      <c r="M23" s="51">
-        <v>0</v>
-      </c>
-      <c r="N23" s="51">
-        <v>0</v>
-      </c>
-      <c r="O23" s="51">
+      <c r="C23" s="50">
+        <v>0</v>
+      </c>
+      <c r="D23" s="50">
+        <v>0</v>
+      </c>
+      <c r="E23" s="50">
+        <v>0</v>
+      </c>
+      <c r="F23" s="50">
+        <v>0</v>
+      </c>
+      <c r="G23" s="50">
+        <v>0</v>
+      </c>
+      <c r="H23" s="50">
+        <v>1</v>
+      </c>
+      <c r="I23" s="50">
+        <v>1</v>
+      </c>
+      <c r="J23" s="50">
+        <v>1</v>
+      </c>
+      <c r="K23" s="50">
+        <v>1</v>
+      </c>
+      <c r="L23" s="50">
+        <v>0</v>
+      </c>
+      <c r="M23" s="50">
+        <v>0</v>
+      </c>
+      <c r="N23" s="50">
+        <v>0</v>
+      </c>
+      <c r="O23" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="55" t="s">
+      <c r="B24" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="51">
-        <v>0</v>
-      </c>
-      <c r="D24" s="51">
-        <v>0</v>
-      </c>
-      <c r="E24" s="51">
-        <v>0</v>
-      </c>
-      <c r="F24" s="51">
-        <v>0</v>
-      </c>
-      <c r="G24" s="51">
-        <v>0</v>
-      </c>
-      <c r="H24" s="51">
-        <v>1</v>
-      </c>
-      <c r="I24" s="51">
-        <v>1</v>
-      </c>
-      <c r="J24" s="51">
-        <v>1</v>
-      </c>
-      <c r="K24" s="51">
-        <v>1</v>
-      </c>
-      <c r="L24" s="51">
-        <v>0</v>
-      </c>
-      <c r="M24" s="51">
-        <v>0</v>
-      </c>
-      <c r="N24" s="51">
-        <v>0</v>
-      </c>
-      <c r="O24" s="51">
+      <c r="C24" s="50">
+        <v>0</v>
+      </c>
+      <c r="D24" s="50">
+        <v>0</v>
+      </c>
+      <c r="E24" s="50">
+        <v>0</v>
+      </c>
+      <c r="F24" s="50">
+        <v>0</v>
+      </c>
+      <c r="G24" s="50">
+        <v>0</v>
+      </c>
+      <c r="H24" s="50">
+        <v>1</v>
+      </c>
+      <c r="I24" s="50">
+        <v>1</v>
+      </c>
+      <c r="J24" s="50">
+        <v>1</v>
+      </c>
+      <c r="K24" s="50">
+        <v>1</v>
+      </c>
+      <c r="L24" s="50">
+        <v>0</v>
+      </c>
+      <c r="M24" s="50">
+        <v>0</v>
+      </c>
+      <c r="N24" s="50">
+        <v>0</v>
+      </c>
+      <c r="O24" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="55"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="46"/>
     </row>
     <row r="26" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="B26" s="55" t="s">
+      <c r="A26" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="C26" s="51">
-        <v>0</v>
-      </c>
-      <c r="D26" s="51">
-        <v>0</v>
-      </c>
-      <c r="E26" s="51">
-        <v>0</v>
-      </c>
-      <c r="F26" s="51">
-        <v>0</v>
-      </c>
-      <c r="G26" s="51">
-        <v>0</v>
-      </c>
-      <c r="H26" s="51">
-        <v>0</v>
-      </c>
-      <c r="I26" s="51">
-        <v>0</v>
-      </c>
-      <c r="J26" s="51">
-        <v>0</v>
-      </c>
-      <c r="K26" s="51">
-        <v>0</v>
-      </c>
-      <c r="L26" s="51">
-        <v>1</v>
-      </c>
-      <c r="M26" s="51">
-        <v>1</v>
-      </c>
-      <c r="N26" s="51">
-        <v>1</v>
-      </c>
-      <c r="O26" s="51">
+      <c r="B26" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="50">
+        <v>0</v>
+      </c>
+      <c r="D26" s="50">
+        <v>0</v>
+      </c>
+      <c r="E26" s="50">
+        <v>0</v>
+      </c>
+      <c r="F26" s="50">
+        <v>0</v>
+      </c>
+      <c r="G26" s="50">
+        <v>0</v>
+      </c>
+      <c r="H26" s="50">
+        <v>0</v>
+      </c>
+      <c r="I26" s="50">
+        <v>0</v>
+      </c>
+      <c r="J26" s="50">
+        <v>0</v>
+      </c>
+      <c r="K26" s="50">
+        <v>0</v>
+      </c>
+      <c r="L26" s="50">
+        <v>1</v>
+      </c>
+      <c r="M26" s="50">
+        <v>1</v>
+      </c>
+      <c r="N26" s="50">
+        <v>1</v>
+      </c>
+      <c r="O26" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="C27" s="51">
-        <v>0</v>
-      </c>
-      <c r="D27" s="51">
-        <v>0</v>
-      </c>
-      <c r="E27" s="51">
-        <v>0</v>
-      </c>
-      <c r="F27" s="51">
-        <v>0</v>
-      </c>
-      <c r="G27" s="51">
-        <v>0</v>
-      </c>
-      <c r="H27" s="51">
-        <v>0</v>
-      </c>
-      <c r="I27" s="51">
-        <v>0</v>
-      </c>
-      <c r="J27" s="51">
-        <v>0</v>
-      </c>
-      <c r="K27" s="51">
-        <v>0</v>
-      </c>
-      <c r="L27" s="51">
-        <v>1</v>
-      </c>
-      <c r="M27" s="51">
-        <v>1</v>
-      </c>
-      <c r="N27" s="51">
-        <v>1</v>
-      </c>
-      <c r="O27" s="51">
+        <v>150</v>
+      </c>
+      <c r="C27" s="50">
+        <v>0</v>
+      </c>
+      <c r="D27" s="50">
+        <v>0</v>
+      </c>
+      <c r="E27" s="50">
+        <v>0</v>
+      </c>
+      <c r="F27" s="50">
+        <v>0</v>
+      </c>
+      <c r="G27" s="50">
+        <v>0</v>
+      </c>
+      <c r="H27" s="50">
+        <v>0</v>
+      </c>
+      <c r="I27" s="50">
+        <v>0</v>
+      </c>
+      <c r="J27" s="50">
+        <v>0</v>
+      </c>
+      <c r="K27" s="50">
+        <v>0</v>
+      </c>
+      <c r="L27" s="50">
+        <v>1</v>
+      </c>
+      <c r="M27" s="50">
+        <v>1</v>
+      </c>
+      <c r="N27" s="50">
+        <v>1</v>
+      </c>
+      <c r="O27" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="44"/>
+      <c r="A28" s="43"/>
       <c r="B28" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="C28" s="51">
-        <v>0</v>
-      </c>
-      <c r="D28" s="51">
-        <v>0</v>
-      </c>
-      <c r="E28" s="51">
-        <v>0</v>
-      </c>
-      <c r="F28" s="51">
-        <v>0</v>
-      </c>
-      <c r="G28" s="51">
-        <v>0</v>
-      </c>
-      <c r="H28" s="51">
-        <v>0</v>
-      </c>
-      <c r="I28" s="51">
-        <v>0</v>
-      </c>
-      <c r="J28" s="51">
-        <v>0</v>
-      </c>
-      <c r="K28" s="51">
-        <v>0</v>
-      </c>
-      <c r="L28" s="51">
-        <v>1</v>
-      </c>
-      <c r="M28" s="51">
-        <v>1</v>
-      </c>
-      <c r="N28" s="51">
-        <v>1</v>
-      </c>
-      <c r="O28" s="51">
+        <v>151</v>
+      </c>
+      <c r="C28" s="50">
+        <v>0</v>
+      </c>
+      <c r="D28" s="50">
+        <v>0</v>
+      </c>
+      <c r="E28" s="50">
+        <v>0</v>
+      </c>
+      <c r="F28" s="50">
+        <v>0</v>
+      </c>
+      <c r="G28" s="50">
+        <v>0</v>
+      </c>
+      <c r="H28" s="50">
+        <v>0</v>
+      </c>
+      <c r="I28" s="50">
+        <v>0</v>
+      </c>
+      <c r="J28" s="50">
+        <v>0</v>
+      </c>
+      <c r="K28" s="50">
+        <v>0</v>
+      </c>
+      <c r="L28" s="50">
+        <v>1</v>
+      </c>
+      <c r="M28" s="50">
+        <v>1</v>
+      </c>
+      <c r="N28" s="50">
+        <v>1</v>
+      </c>
+      <c r="O28" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="C29" s="51">
-        <v>0</v>
-      </c>
-      <c r="D29" s="51">
-        <v>0</v>
-      </c>
-      <c r="E29" s="51">
-        <v>0</v>
-      </c>
-      <c r="F29" s="51">
-        <v>0</v>
-      </c>
-      <c r="G29" s="51">
-        <v>0</v>
-      </c>
-      <c r="H29" s="51">
-        <v>0</v>
-      </c>
-      <c r="I29" s="51">
-        <v>0</v>
-      </c>
-      <c r="J29" s="51">
-        <v>0</v>
-      </c>
-      <c r="K29" s="51">
-        <v>0</v>
-      </c>
-      <c r="L29" s="51">
-        <v>1</v>
-      </c>
-      <c r="M29" s="51">
-        <v>1</v>
-      </c>
-      <c r="N29" s="51">
-        <v>1</v>
-      </c>
-      <c r="O29" s="51">
+        <v>152</v>
+      </c>
+      <c r="C29" s="50">
+        <v>0</v>
+      </c>
+      <c r="D29" s="50">
+        <v>0</v>
+      </c>
+      <c r="E29" s="50">
+        <v>0</v>
+      </c>
+      <c r="F29" s="50">
+        <v>0</v>
+      </c>
+      <c r="G29" s="50">
+        <v>0</v>
+      </c>
+      <c r="H29" s="50">
+        <v>0</v>
+      </c>
+      <c r="I29" s="50">
+        <v>0</v>
+      </c>
+      <c r="J29" s="50">
+        <v>0</v>
+      </c>
+      <c r="K29" s="50">
+        <v>0</v>
+      </c>
+      <c r="L29" s="50">
+        <v>1</v>
+      </c>
+      <c r="M29" s="50">
+        <v>1</v>
+      </c>
+      <c r="N29" s="50">
+        <v>1</v>
+      </c>
+      <c r="O29" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="C30" s="51">
-        <v>0</v>
-      </c>
-      <c r="D30" s="51">
-        <v>0</v>
-      </c>
-      <c r="E30" s="51">
-        <v>0</v>
-      </c>
-      <c r="F30" s="51">
-        <v>0</v>
-      </c>
-      <c r="G30" s="51">
-        <v>0</v>
-      </c>
-      <c r="H30" s="51">
-        <v>0</v>
-      </c>
-      <c r="I30" s="51">
-        <v>0</v>
-      </c>
-      <c r="J30" s="51">
-        <v>0</v>
-      </c>
-      <c r="K30" s="51">
-        <v>0</v>
-      </c>
-      <c r="L30" s="51">
-        <v>1</v>
-      </c>
-      <c r="M30" s="51">
-        <v>0</v>
-      </c>
-      <c r="N30" s="51">
-        <v>0</v>
-      </c>
-      <c r="O30" s="51">
+        <v>153</v>
+      </c>
+      <c r="C30" s="50">
+        <v>0</v>
+      </c>
+      <c r="D30" s="50">
+        <v>0</v>
+      </c>
+      <c r="E30" s="50">
+        <v>0</v>
+      </c>
+      <c r="F30" s="50">
+        <v>0</v>
+      </c>
+      <c r="G30" s="50">
+        <v>0</v>
+      </c>
+      <c r="H30" s="50">
+        <v>0</v>
+      </c>
+      <c r="I30" s="50">
+        <v>0</v>
+      </c>
+      <c r="J30" s="50">
+        <v>0</v>
+      </c>
+      <c r="K30" s="50">
+        <v>0</v>
+      </c>
+      <c r="L30" s="50">
+        <v>1</v>
+      </c>
+      <c r="M30" s="50">
+        <v>0</v>
+      </c>
+      <c r="N30" s="50">
+        <v>0</v>
+      </c>
+      <c r="O30" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="55"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="46"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="51">
-        <v>1</v>
-      </c>
-      <c r="D32" s="51">
-        <v>0</v>
-      </c>
-      <c r="E32" s="51">
-        <v>1</v>
-      </c>
-      <c r="F32" s="51">
-        <v>1</v>
-      </c>
-      <c r="G32" s="51">
-        <v>1</v>
-      </c>
-      <c r="H32" s="51">
-        <v>1</v>
-      </c>
-      <c r="I32" s="51">
-        <v>1</v>
-      </c>
-      <c r="J32" s="51">
-        <v>1</v>
-      </c>
-      <c r="K32" s="51">
-        <v>1</v>
-      </c>
-      <c r="L32" s="51">
-        <v>1</v>
-      </c>
-      <c r="M32" s="51">
-        <v>1</v>
-      </c>
-      <c r="N32" s="51">
-        <v>1</v>
-      </c>
-      <c r="O32" s="51">
+      <c r="C32" s="50">
+        <v>1</v>
+      </c>
+      <c r="D32" s="50">
+        <v>0</v>
+      </c>
+      <c r="E32" s="50">
+        <v>1</v>
+      </c>
+      <c r="F32" s="50">
+        <v>1</v>
+      </c>
+      <c r="G32" s="50">
+        <v>1</v>
+      </c>
+      <c r="H32" s="50">
+        <v>1</v>
+      </c>
+      <c r="I32" s="50">
+        <v>1</v>
+      </c>
+      <c r="J32" s="50">
+        <v>1</v>
+      </c>
+      <c r="K32" s="50">
+        <v>1</v>
+      </c>
+      <c r="L32" s="50">
+        <v>1</v>
+      </c>
+      <c r="M32" s="50">
+        <v>1</v>
+      </c>
+      <c r="N32" s="50">
+        <v>1</v>
+      </c>
+      <c r="O32" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="55" t="s">
+      <c r="B33" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="51">
-        <v>1</v>
-      </c>
-      <c r="D33" s="51">
-        <v>0</v>
-      </c>
-      <c r="E33" s="51">
-        <v>1</v>
-      </c>
-      <c r="F33" s="51">
-        <v>1</v>
-      </c>
-      <c r="G33" s="51">
-        <v>1</v>
-      </c>
-      <c r="H33" s="51">
-        <v>1</v>
-      </c>
-      <c r="I33" s="51">
-        <v>1</v>
-      </c>
-      <c r="J33" s="51">
-        <v>1</v>
-      </c>
-      <c r="K33" s="51">
-        <v>1</v>
-      </c>
-      <c r="L33" s="51">
-        <v>1</v>
-      </c>
-      <c r="M33" s="51">
-        <v>1</v>
-      </c>
-      <c r="N33" s="51">
-        <v>1</v>
-      </c>
-      <c r="O33" s="51">
+      <c r="C33" s="50">
+        <v>1</v>
+      </c>
+      <c r="D33" s="50">
+        <v>0</v>
+      </c>
+      <c r="E33" s="50">
+        <v>1</v>
+      </c>
+      <c r="F33" s="50">
+        <v>1</v>
+      </c>
+      <c r="G33" s="50">
+        <v>1</v>
+      </c>
+      <c r="H33" s="50">
+        <v>1</v>
+      </c>
+      <c r="I33" s="50">
+        <v>1</v>
+      </c>
+      <c r="J33" s="50">
+        <v>1</v>
+      </c>
+      <c r="K33" s="50">
+        <v>1</v>
+      </c>
+      <c r="L33" s="50">
+        <v>1</v>
+      </c>
+      <c r="M33" s="50">
+        <v>1</v>
+      </c>
+      <c r="N33" s="50">
+        <v>1</v>
+      </c>
+      <c r="O33" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="51">
-        <v>1</v>
-      </c>
-      <c r="D34" s="51">
-        <v>0</v>
-      </c>
-      <c r="E34" s="51">
-        <v>1</v>
-      </c>
-      <c r="F34" s="51">
-        <v>1</v>
-      </c>
-      <c r="G34" s="51">
-        <v>1</v>
-      </c>
-      <c r="H34" s="51">
-        <v>1</v>
-      </c>
-      <c r="I34" s="51">
-        <v>1</v>
-      </c>
-      <c r="J34" s="51">
-        <v>1</v>
-      </c>
-      <c r="K34" s="51">
-        <v>1</v>
-      </c>
-      <c r="L34" s="51">
-        <v>1</v>
-      </c>
-      <c r="M34" s="51">
-        <v>1</v>
-      </c>
-      <c r="N34" s="51">
-        <v>1</v>
-      </c>
-      <c r="O34" s="51">
+      <c r="C34" s="50">
+        <v>1</v>
+      </c>
+      <c r="D34" s="50">
+        <v>0</v>
+      </c>
+      <c r="E34" s="50">
+        <v>1</v>
+      </c>
+      <c r="F34" s="50">
+        <v>1</v>
+      </c>
+      <c r="G34" s="50">
+        <v>1</v>
+      </c>
+      <c r="H34" s="50">
+        <v>1</v>
+      </c>
+      <c r="I34" s="50">
+        <v>1</v>
+      </c>
+      <c r="J34" s="50">
+        <v>1</v>
+      </c>
+      <c r="K34" s="50">
+        <v>1</v>
+      </c>
+      <c r="L34" s="50">
+        <v>1</v>
+      </c>
+      <c r="M34" s="50">
+        <v>1</v>
+      </c>
+      <c r="N34" s="50">
+        <v>1</v>
+      </c>
+      <c r="O34" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="55" t="s">
+      <c r="B35" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="51">
-        <v>1</v>
-      </c>
-      <c r="D35" s="51">
-        <v>0</v>
-      </c>
-      <c r="E35" s="51">
-        <v>1</v>
-      </c>
-      <c r="F35" s="51">
-        <v>1</v>
-      </c>
-      <c r="G35" s="51">
-        <v>1</v>
-      </c>
-      <c r="H35" s="51">
-        <v>1</v>
-      </c>
-      <c r="I35" s="51">
-        <v>1</v>
-      </c>
-      <c r="J35" s="51">
-        <v>1</v>
-      </c>
-      <c r="K35" s="51">
-        <v>1</v>
-      </c>
-      <c r="L35" s="51">
-        <v>1</v>
-      </c>
-      <c r="M35" s="51">
-        <v>1</v>
-      </c>
-      <c r="N35" s="51">
-        <v>1</v>
-      </c>
-      <c r="O35" s="51">
+      <c r="C35" s="50">
+        <v>1</v>
+      </c>
+      <c r="D35" s="50">
+        <v>0</v>
+      </c>
+      <c r="E35" s="50">
+        <v>1</v>
+      </c>
+      <c r="F35" s="50">
+        <v>1</v>
+      </c>
+      <c r="G35" s="50">
+        <v>1</v>
+      </c>
+      <c r="H35" s="50">
+        <v>1</v>
+      </c>
+      <c r="I35" s="50">
+        <v>1</v>
+      </c>
+      <c r="J35" s="50">
+        <v>1</v>
+      </c>
+      <c r="K35" s="50">
+        <v>1</v>
+      </c>
+      <c r="L35" s="50">
+        <v>1</v>
+      </c>
+      <c r="M35" s="50">
+        <v>1</v>
+      </c>
+      <c r="N35" s="50">
+        <v>1</v>
+      </c>
+      <c r="O35" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="55" t="s">
+      <c r="B36" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="51">
-        <v>1</v>
-      </c>
-      <c r="D36" s="51">
-        <v>1</v>
-      </c>
-      <c r="E36" s="51">
-        <v>1</v>
-      </c>
-      <c r="F36" s="51">
-        <v>1</v>
-      </c>
-      <c r="G36" s="51">
-        <v>1</v>
-      </c>
-      <c r="H36" s="51">
-        <v>1</v>
-      </c>
-      <c r="I36" s="51">
-        <v>1</v>
-      </c>
-      <c r="J36" s="51">
-        <v>1</v>
-      </c>
-      <c r="K36" s="51">
-        <v>1</v>
-      </c>
-      <c r="L36" s="51">
-        <v>1</v>
-      </c>
-      <c r="M36" s="51">
-        <v>1</v>
-      </c>
-      <c r="N36" s="51">
-        <v>1</v>
-      </c>
-      <c r="O36" s="51">
+      <c r="C36" s="50">
+        <v>1</v>
+      </c>
+      <c r="D36" s="50">
+        <v>1</v>
+      </c>
+      <c r="E36" s="50">
+        <v>1</v>
+      </c>
+      <c r="F36" s="50">
+        <v>1</v>
+      </c>
+      <c r="G36" s="50">
+        <v>1</v>
+      </c>
+      <c r="H36" s="50">
+        <v>1</v>
+      </c>
+      <c r="I36" s="50">
+        <v>1</v>
+      </c>
+      <c r="J36" s="50">
+        <v>1</v>
+      </c>
+      <c r="K36" s="50">
+        <v>1</v>
+      </c>
+      <c r="L36" s="50">
+        <v>1</v>
+      </c>
+      <c r="M36" s="50">
+        <v>1</v>
+      </c>
+      <c r="N36" s="50">
+        <v>1</v>
+      </c>
+      <c r="O36" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="43"/>
-      <c r="B37" s="55" t="s">
+      <c r="A37" s="42"/>
+      <c r="B37" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="51">
-        <v>1</v>
-      </c>
-      <c r="D37" s="51">
-        <v>1</v>
-      </c>
-      <c r="E37" s="51">
-        <v>1</v>
-      </c>
-      <c r="F37" s="51">
-        <v>1</v>
-      </c>
-      <c r="G37" s="51">
-        <v>1</v>
-      </c>
-      <c r="H37" s="51">
-        <v>1</v>
-      </c>
-      <c r="I37" s="51">
-        <v>1</v>
-      </c>
-      <c r="J37" s="51">
-        <v>1</v>
-      </c>
-      <c r="K37" s="51">
-        <v>1</v>
-      </c>
-      <c r="L37" s="51">
-        <v>1</v>
-      </c>
-      <c r="M37" s="51">
-        <v>1</v>
-      </c>
-      <c r="N37" s="51">
-        <v>1</v>
-      </c>
-      <c r="O37" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="55" t="s">
+      <c r="C37" s="50">
+        <v>1</v>
+      </c>
+      <c r="D37" s="50">
+        <v>1</v>
+      </c>
+      <c r="E37" s="50">
+        <v>1</v>
+      </c>
+      <c r="F37" s="50">
+        <v>1</v>
+      </c>
+      <c r="G37" s="50">
+        <v>1</v>
+      </c>
+      <c r="H37" s="50">
+        <v>1</v>
+      </c>
+      <c r="I37" s="50">
+        <v>1</v>
+      </c>
+      <c r="J37" s="50">
+        <v>1</v>
+      </c>
+      <c r="K37" s="50">
+        <v>1</v>
+      </c>
+      <c r="L37" s="50">
+        <v>1</v>
+      </c>
+      <c r="M37" s="50">
+        <v>1</v>
+      </c>
+      <c r="N37" s="50">
+        <v>1</v>
+      </c>
+      <c r="O37" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="51">
-        <v>1</v>
-      </c>
-      <c r="D38" s="51">
-        <v>1</v>
-      </c>
-      <c r="E38" s="51">
-        <v>1</v>
-      </c>
-      <c r="F38" s="51">
-        <v>1</v>
-      </c>
-      <c r="G38" s="51">
-        <v>1</v>
-      </c>
-      <c r="H38" s="51">
-        <v>1</v>
-      </c>
-      <c r="I38" s="51">
-        <v>1</v>
-      </c>
-      <c r="J38" s="51">
-        <v>1</v>
-      </c>
-      <c r="K38" s="51">
-        <v>1</v>
-      </c>
-      <c r="L38" s="51">
-        <v>1</v>
-      </c>
-      <c r="M38" s="51">
-        <v>1</v>
-      </c>
-      <c r="N38" s="51">
-        <v>1</v>
-      </c>
-      <c r="O38" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="55" t="s">
+      <c r="C38" s="50">
+        <v>1</v>
+      </c>
+      <c r="D38" s="50">
+        <v>1</v>
+      </c>
+      <c r="E38" s="50">
+        <v>1</v>
+      </c>
+      <c r="F38" s="50">
+        <v>1</v>
+      </c>
+      <c r="G38" s="50">
+        <v>1</v>
+      </c>
+      <c r="H38" s="50">
+        <v>1</v>
+      </c>
+      <c r="I38" s="50">
+        <v>1</v>
+      </c>
+      <c r="J38" s="50">
+        <v>1</v>
+      </c>
+      <c r="K38" s="50">
+        <v>1</v>
+      </c>
+      <c r="L38" s="50">
+        <v>1</v>
+      </c>
+      <c r="M38" s="50">
+        <v>1</v>
+      </c>
+      <c r="N38" s="50">
+        <v>1</v>
+      </c>
+      <c r="O38" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="C39" s="51">
-        <v>1</v>
-      </c>
-      <c r="D39" s="51">
-        <v>1</v>
-      </c>
-      <c r="E39" s="51">
-        <v>1</v>
-      </c>
-      <c r="F39" s="51">
-        <v>1</v>
-      </c>
-      <c r="G39" s="51">
-        <v>1</v>
-      </c>
-      <c r="H39" s="51">
-        <v>1</v>
-      </c>
-      <c r="I39" s="51">
-        <v>1</v>
-      </c>
-      <c r="J39" s="51">
-        <v>1</v>
-      </c>
-      <c r="K39" s="51">
-        <v>1</v>
-      </c>
-      <c r="L39" s="51">
-        <v>1</v>
-      </c>
-      <c r="M39" s="51">
-        <v>1</v>
-      </c>
-      <c r="N39" s="51">
-        <v>1</v>
-      </c>
-      <c r="O39" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="55" t="s">
+      <c r="C39" s="50">
+        <v>1</v>
+      </c>
+      <c r="D39" s="50">
+        <v>1</v>
+      </c>
+      <c r="E39" s="50">
+        <v>1</v>
+      </c>
+      <c r="F39" s="50">
+        <v>1</v>
+      </c>
+      <c r="G39" s="50">
+        <v>1</v>
+      </c>
+      <c r="H39" s="50">
+        <v>1</v>
+      </c>
+      <c r="I39" s="50">
+        <v>1</v>
+      </c>
+      <c r="J39" s="50">
+        <v>1</v>
+      </c>
+      <c r="K39" s="50">
+        <v>1</v>
+      </c>
+      <c r="L39" s="50">
+        <v>1</v>
+      </c>
+      <c r="M39" s="50">
+        <v>1</v>
+      </c>
+      <c r="N39" s="50">
+        <v>1</v>
+      </c>
+      <c r="O39" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="C40" s="51">
-        <v>1</v>
-      </c>
-      <c r="D40" s="51">
-        <v>1</v>
-      </c>
-      <c r="E40" s="51">
-        <v>1</v>
-      </c>
-      <c r="F40" s="51">
-        <v>1</v>
-      </c>
-      <c r="G40" s="51">
-        <v>1</v>
-      </c>
-      <c r="H40" s="51">
-        <v>1</v>
-      </c>
-      <c r="I40" s="51">
-        <v>1</v>
-      </c>
-      <c r="J40" s="51">
-        <v>1</v>
-      </c>
-      <c r="K40" s="51">
-        <v>1</v>
-      </c>
-      <c r="L40" s="51">
-        <v>1</v>
-      </c>
-      <c r="M40" s="51">
-        <v>1</v>
-      </c>
-      <c r="N40" s="51">
-        <v>1</v>
-      </c>
-      <c r="O40" s="51">
+      <c r="C40" s="50">
+        <v>1</v>
+      </c>
+      <c r="D40" s="50">
+        <v>1</v>
+      </c>
+      <c r="E40" s="50">
+        <v>1</v>
+      </c>
+      <c r="F40" s="50">
+        <v>1</v>
+      </c>
+      <c r="G40" s="50">
+        <v>1</v>
+      </c>
+      <c r="H40" s="50">
+        <v>1</v>
+      </c>
+      <c r="I40" s="50">
+        <v>1</v>
+      </c>
+      <c r="J40" s="50">
+        <v>1</v>
+      </c>
+      <c r="K40" s="50">
+        <v>1</v>
+      </c>
+      <c r="L40" s="50">
+        <v>1</v>
+      </c>
+      <c r="M40" s="50">
+        <v>1</v>
+      </c>
+      <c r="N40" s="50">
+        <v>1</v>
+      </c>
+      <c r="O40" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="55" t="s">
+      <c r="B41" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="51">
-        <v>1</v>
-      </c>
-      <c r="D41" s="51">
-        <v>1</v>
-      </c>
-      <c r="E41" s="51">
-        <v>1</v>
-      </c>
-      <c r="F41" s="51">
-        <v>1</v>
-      </c>
-      <c r="G41" s="51">
-        <v>1</v>
-      </c>
-      <c r="H41" s="51">
-        <v>1</v>
-      </c>
-      <c r="I41" s="51">
-        <v>1</v>
-      </c>
-      <c r="J41" s="51">
-        <v>1</v>
-      </c>
-      <c r="K41" s="51">
-        <v>1</v>
-      </c>
-      <c r="L41" s="51">
-        <v>1</v>
-      </c>
-      <c r="M41" s="51">
-        <v>1</v>
-      </c>
-      <c r="N41" s="51">
-        <v>1</v>
-      </c>
-      <c r="O41" s="51">
+      <c r="C41" s="50">
+        <v>1</v>
+      </c>
+      <c r="D41" s="50">
+        <v>1</v>
+      </c>
+      <c r="E41" s="50">
+        <v>1</v>
+      </c>
+      <c r="F41" s="50">
+        <v>1</v>
+      </c>
+      <c r="G41" s="50">
+        <v>1</v>
+      </c>
+      <c r="H41" s="50">
+        <v>1</v>
+      </c>
+      <c r="I41" s="50">
+        <v>1</v>
+      </c>
+      <c r="J41" s="50">
+        <v>1</v>
+      </c>
+      <c r="K41" s="50">
+        <v>1</v>
+      </c>
+      <c r="L41" s="50">
+        <v>1</v>
+      </c>
+      <c r="M41" s="50">
+        <v>1</v>
+      </c>
+      <c r="N41" s="50">
+        <v>1</v>
+      </c>
+      <c r="O41" s="50">
         <v>1</v>
       </c>
     </row>
@@ -3238,7 +3200,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="34" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -3275,9 +3237,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="47.6640625" style="55" customWidth="1"/>
-    <col min="2" max="2" width="27.5" style="55" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" style="55" customWidth="1"/>
+    <col min="1" max="1" width="47.6640625" style="54" customWidth="1"/>
+    <col min="2" max="2" width="27.5" style="54" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="54" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
@@ -3293,8 +3255,8 @@
       <c r="B1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="52" t="s">
-        <v>149</v>
+      <c r="C1" s="51" t="s">
+        <v>147</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>36</v>
@@ -3313,13 +3275,13 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="54" t="s">
         <v>86</v>
       </c>
       <c r="D2" s="4">
@@ -3339,7 +3301,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="54" t="s">
         <v>85</v>
       </c>
       <c r="D3" s="4">
@@ -3359,7 +3321,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="54" t="s">
         <v>89</v>
       </c>
       <c r="D4" s="4">
@@ -3379,13 +3341,13 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="54" t="s">
         <v>86</v>
       </c>
       <c r="D5" s="4">
@@ -3405,7 +3367,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="54" t="s">
         <v>89</v>
       </c>
       <c r="D6" s="4">
@@ -3425,10 +3387,10 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="54" t="s">
         <v>86</v>
       </c>
       <c r="D7" s="4">
@@ -3448,7 +3410,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="54" t="s">
         <v>89</v>
       </c>
       <c r="D8" s="4">
@@ -3468,13 +3430,13 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="54" t="s">
         <v>86</v>
       </c>
       <c r="D9" s="4">
@@ -3494,7 +3456,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="54" t="s">
         <v>89</v>
       </c>
       <c r="D10" s="4">
@@ -3514,10 +3476,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="54" t="s">
         <v>86</v>
       </c>
       <c r="D11" s="4">
@@ -3537,7 +3499,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="54" t="s">
         <v>89</v>
       </c>
       <c r="D12" s="4">
@@ -3557,13 +3519,13 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="54" t="s">
         <v>86</v>
       </c>
       <c r="D13" s="4">
@@ -3583,7 +3545,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="54" t="s">
         <v>89</v>
       </c>
       <c r="D14" s="4">
@@ -3604,10 +3566,10 @@
       <c r="I14" s="27"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="54" t="s">
         <v>86</v>
       </c>
       <c r="D15" s="4">
@@ -3628,7 +3590,7 @@
       <c r="I15" s="27"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="54" t="s">
         <v>89</v>
       </c>
       <c r="D16" s="4">
@@ -3649,13 +3611,13 @@
       <c r="I16" s="27"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="55" t="s">
+      <c r="A17" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="55" t="s">
+      <c r="B17" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="54" t="s">
         <v>86</v>
       </c>
       <c r="D17" s="4">
@@ -3676,7 +3638,7 @@
       <c r="I17" s="27"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="54" t="s">
         <v>85</v>
       </c>
       <c r="D18" s="4">
@@ -3697,13 +3659,13 @@
       <c r="I18" s="27"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="55" t="s">
+      <c r="B19" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="54" t="s">
         <v>86</v>
       </c>
       <c r="D19" s="4">
@@ -3723,7 +3685,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="54" t="s">
         <v>85</v>
       </c>
       <c r="D20" s="4">
@@ -3743,13 +3705,13 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="55" t="s">
+      <c r="B21" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="54" t="s">
         <v>86</v>
       </c>
       <c r="D21" s="4">
@@ -3769,7 +3731,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="54" t="s">
         <v>85</v>
       </c>
       <c r="D22" s="4">
@@ -3789,13 +3751,13 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="55" t="s">
+      <c r="A23" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="54" t="s">
         <v>86</v>
       </c>
       <c r="D23" s="4">
@@ -3815,7 +3777,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="54" t="s">
         <v>85</v>
       </c>
       <c r="D24" s="4">
@@ -3835,7 +3797,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="54" t="s">
         <v>89</v>
       </c>
       <c r="D25" s="4">
@@ -3855,13 +3817,13 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="55" t="s">
+      <c r="A26" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="B26" s="55" t="s">
+      <c r="B26" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="54" t="s">
         <v>86</v>
       </c>
       <c r="D26" s="4">
@@ -3881,7 +3843,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C27" s="55" t="s">
+      <c r="C27" s="54" t="s">
         <v>85</v>
       </c>
       <c r="D27" s="4">
@@ -3901,7 +3863,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="54" t="s">
         <v>89</v>
       </c>
       <c r="D28" s="4">
@@ -3921,13 +3883,13 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="55" t="s">
+      <c r="A29" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="55" t="s">
+      <c r="B29" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="55" t="s">
+      <c r="C29" s="54" t="s">
         <v>86</v>
       </c>
       <c r="D29" s="4">
@@ -3947,7 +3909,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="54" t="s">
         <v>85</v>
       </c>
       <c r="D30" s="4">
@@ -3967,7 +3929,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C31" s="55" t="s">
+      <c r="C31" s="54" t="s">
         <v>89</v>
       </c>
       <c r="D31" s="4">
@@ -3987,13 +3949,13 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="55" t="s">
+      <c r="A32" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="55" t="s">
+      <c r="C32" s="54" t="s">
         <v>86</v>
       </c>
       <c r="D32" s="4">
@@ -4013,7 +3975,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C33" s="55" t="s">
+      <c r="C33" s="54" t="s">
         <v>85</v>
       </c>
       <c r="D33" s="4">
@@ -4033,7 +3995,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C34" s="55" t="s">
+      <c r="C34" s="54" t="s">
         <v>89</v>
       </c>
       <c r="D34" s="4">
@@ -4053,13 +4015,13 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="55" t="s">
+      <c r="A35" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="B35" s="55" t="s">
+      <c r="B35" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="55" t="s">
+      <c r="C35" s="54" t="s">
         <v>86</v>
       </c>
       <c r="D35" s="4">
@@ -4079,7 +4041,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C36" s="55" t="s">
+      <c r="C36" s="54" t="s">
         <v>85</v>
       </c>
       <c r="D36" s="4">
@@ -4099,7 +4061,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C37" s="55" t="s">
+      <c r="C37" s="54" t="s">
         <v>89</v>
       </c>
       <c r="D37" s="4">
@@ -4119,13 +4081,13 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="55" t="s">
+      <c r="A38" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="B38" s="55" t="s">
+      <c r="B38" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="55" t="s">
+      <c r="C38" s="54" t="s">
         <v>86</v>
       </c>
       <c r="D38" s="4">
@@ -4145,7 +4107,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C39" s="55" t="s">
+      <c r="C39" s="54" t="s">
         <v>85</v>
       </c>
       <c r="D39" s="4">
@@ -4165,7 +4127,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C40" s="55" t="s">
+      <c r="C40" s="54" t="s">
         <v>89</v>
       </c>
       <c r="D40" s="4">
@@ -4185,10 +4147,10 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B41" s="55" t="s">
+      <c r="B41" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="55" t="s">
+      <c r="C41" s="54" t="s">
         <v>86</v>
       </c>
       <c r="D41" s="4">
@@ -4208,7 +4170,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C42" s="55" t="s">
+      <c r="C42" s="54" t="s">
         <v>85</v>
       </c>
       <c r="D42" s="4">
@@ -4228,7 +4190,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C43" s="55" t="s">
+      <c r="C43" s="54" t="s">
         <v>89</v>
       </c>
       <c r="D43" s="4">
@@ -4248,13 +4210,13 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A44" s="55" t="s">
+      <c r="A44" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="55" t="s">
+      <c r="B44" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="55" t="s">
+      <c r="C44" s="54" t="s">
         <v>86</v>
       </c>
       <c r="D44" s="4">
@@ -4274,7 +4236,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C45" s="55" t="s">
+      <c r="C45" s="54" t="s">
         <v>85</v>
       </c>
       <c r="D45" s="4">
@@ -4294,13 +4256,13 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A46" s="55" t="s">
+      <c r="A46" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="B46" s="55" t="s">
+      <c r="B46" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="55" t="s">
+      <c r="C46" s="54" t="s">
         <v>86</v>
       </c>
       <c r="D46" s="4">
@@ -4320,7 +4282,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C47" s="55" t="s">
+      <c r="C47" s="54" t="s">
         <v>85</v>
       </c>
       <c r="D47" s="4">
@@ -4340,13 +4302,13 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A48" s="55" t="s">
-        <v>157</v>
-      </c>
-      <c r="B48" s="55" t="s">
+      <c r="A48" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="B48" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="55" t="s">
+      <c r="C48" s="54" t="s">
         <v>86</v>
       </c>
       <c r="D48" s="4">
@@ -4366,7 +4328,7 @@
       </c>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C49" s="55" t="s">
+      <c r="C49" s="54" t="s">
         <v>85</v>
       </c>
       <c r="D49" s="4">
@@ -4571,10 +4533,10 @@
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4592,677 +4554,719 @@
     <col min="11" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="J2" s="51"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="55" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="55" t="s">
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="K6" s="50" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="55" t="s">
+      <c r="B7" s="50"/>
+      <c r="C7" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="55" t="s">
+      <c r="B8" s="50"/>
+      <c r="C8" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B9" s="50"/>
+      <c r="C9" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="35" t="s">
+      <c r="B12" s="50"/>
+      <c r="C12" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="35" t="s">
+      <c r="B13" s="50"/>
+      <c r="C13" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="35" t="s">
+      <c r="B15" s="50"/>
+      <c r="C15" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="I16" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A19" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A20" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A21" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="J14" s="51"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="J15" s="51"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="I16" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="J16" s="51"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="55" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="55" t="s">
-        <v>115</v>
-      </c>
-      <c r="B19" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="55" t="s">
-        <v>114</v>
-      </c>
-      <c r="B20" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="55" t="s">
-        <v>157</v>
-      </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="I21" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="J21" s="51"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="55" t="s">
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="I21" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A22" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="C22" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="D22" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="55" t="s">
+      <c r="B22" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A23" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="J23" s="51"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="55" t="s">
+      <c r="B23" s="50"/>
+      <c r="C23" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A24" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="55" t="s">
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A25" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="55" t="s">
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A26" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="55" t="s">
+      <c r="B26" s="50"/>
+      <c r="C26" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A27" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="J27" s="51"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="55" t="s">
+      <c r="B27" s="50"/>
+      <c r="C27" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A28" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" s="55" t="s">
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A29" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="55" t="s">
+      <c r="B29" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A30" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31" s="55" t="s">
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A31" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="H31" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A32" s="55" t="s">
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="H31" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A32" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="B32" s="51"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="H32" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A33" s="55" t="s">
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="H32" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A33" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="H33" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A34" s="55" t="s">
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="H33" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A34" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="H34" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A35" s="55" t="s">
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="H34" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A35" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="51"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="H35" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="I35" s="51"/>
-      <c r="J35" s="51"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A36" s="55" t="s">
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="H35" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A36" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="H36" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A37" s="55" t="s">
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="H36" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A37" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A38" s="55" t="s">
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A38" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="B38" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="H38" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="I38" s="51"/>
-      <c r="J38" s="51"/>
+      <c r="B38" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="H38" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="50"/>
     </row>
   </sheetData>
   <sortState ref="A2:J38">
@@ -5277,10 +5281,10 @@
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5298,331 +5302,353 @@
     <col min="11" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+        <v>159</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="E2" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="F2" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="G2" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="H2" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B2" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="F3" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="G3" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="H3" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B3" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="H3" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="E4" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="F4" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="G4" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="H4" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B4" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="E5" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="F5" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="G5" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="H5" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B5" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="H5" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="E6" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="F6" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="G6" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="H6" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B6" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="I7" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="J7" s="51"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B7" s="50"/>
+      <c r="C7" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="I7" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="I8" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="J8" s="51"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B8" s="50"/>
+      <c r="C8" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="I8" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="I9" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="J9" s="51"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B9" s="50"/>
+      <c r="C9" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="I9" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="I10" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="J10" s="51"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B10" s="50"/>
+      <c r="C10" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="I10" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B11" s="50"/>
+      <c r="C11" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" s="50" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B12" s="50"/>
+      <c r="C12" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" s="50" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B13" s="50"/>
+      <c r="C13" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="K13" s="50" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="K14" s="50" t="s">
+        <v>118</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5637,7 +5663,7 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5676,332 +5702,332 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" s="57" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="56" t="s">
         <v>107</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="50">
-        <v>1</v>
-      </c>
-      <c r="E2" s="50">
-        <v>1</v>
-      </c>
-      <c r="F2" s="50">
-        <v>1</v>
-      </c>
-      <c r="G2" s="50">
-        <v>1</v>
-      </c>
-      <c r="H2" s="50">
+      <c r="D2" s="49">
+        <v>1</v>
+      </c>
+      <c r="E2" s="49">
+        <v>1</v>
+      </c>
+      <c r="F2" s="49">
+        <v>1</v>
+      </c>
+      <c r="G2" s="49">
+        <v>1</v>
+      </c>
+      <c r="H2" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="57"/>
+      <c r="B3" s="56"/>
       <c r="C3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="50">
-        <v>1</v>
-      </c>
-      <c r="E3" s="50">
-        <v>1</v>
-      </c>
-      <c r="F3" s="50">
-        <v>1</v>
-      </c>
-      <c r="G3" s="50">
-        <v>1</v>
-      </c>
-      <c r="H3" s="50">
+      <c r="D3" s="49">
+        <v>1</v>
+      </c>
+      <c r="E3" s="49">
+        <v>1</v>
+      </c>
+      <c r="F3" s="49">
+        <v>1</v>
+      </c>
+      <c r="G3" s="49">
+        <v>1</v>
+      </c>
+      <c r="H3" s="49">
         <v>1</v>
       </c>
       <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="57"/>
+      <c r="B4" s="56"/>
       <c r="C4" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="50">
-        <v>1</v>
-      </c>
-      <c r="E4" s="50">
-        <v>1</v>
-      </c>
-      <c r="F4" s="50">
-        <v>1</v>
-      </c>
-      <c r="G4" s="50">
-        <v>1</v>
-      </c>
-      <c r="H4" s="50">
+      <c r="D4" s="49">
+        <v>1</v>
+      </c>
+      <c r="E4" s="49">
+        <v>1</v>
+      </c>
+      <c r="F4" s="49">
+        <v>1</v>
+      </c>
+      <c r="G4" s="49">
+        <v>1</v>
+      </c>
+      <c r="H4" s="49">
         <v>1</v>
       </c>
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="56" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="50">
+      <c r="D5" s="49">
         <f>5.16</f>
         <v>5.16</v>
       </c>
-      <c r="E5" s="50">
-        <v>1</v>
-      </c>
-      <c r="F5" s="50">
-        <v>1</v>
-      </c>
-      <c r="G5" s="50">
-        <v>1</v>
-      </c>
-      <c r="H5" s="50">
+      <c r="E5" s="49">
+        <v>1</v>
+      </c>
+      <c r="F5" s="49">
+        <v>1</v>
+      </c>
+      <c r="G5" s="49">
+        <v>1</v>
+      </c>
+      <c r="H5" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="57"/>
+      <c r="B6" s="56"/>
       <c r="C6" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="50">
+      <c r="D6" s="49">
         <v>5.16</v>
       </c>
-      <c r="E6" s="50">
-        <v>1</v>
-      </c>
-      <c r="F6" s="50">
-        <v>1</v>
-      </c>
-      <c r="G6" s="50">
-        <v>1</v>
-      </c>
-      <c r="H6" s="50">
+      <c r="E6" s="49">
+        <v>1</v>
+      </c>
+      <c r="F6" s="49">
+        <v>1</v>
+      </c>
+      <c r="G6" s="49">
+        <v>1</v>
+      </c>
+      <c r="H6" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="57"/>
+      <c r="B7" s="56"/>
       <c r="C7" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="50">
-        <v>1</v>
-      </c>
-      <c r="E7" s="50">
-        <v>1</v>
-      </c>
-      <c r="F7" s="50">
-        <v>1</v>
-      </c>
-      <c r="G7" s="50">
-        <v>1</v>
-      </c>
-      <c r="H7" s="50">
+      <c r="D7" s="49">
+        <v>1</v>
+      </c>
+      <c r="E7" s="49">
+        <v>1</v>
+      </c>
+      <c r="F7" s="49">
+        <v>1</v>
+      </c>
+      <c r="G7" s="49">
+        <v>1</v>
+      </c>
+      <c r="H7" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="56" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D8" s="50">
-        <v>1</v>
-      </c>
-      <c r="E8" s="50">
+      <c r="D8" s="49">
+        <v>1</v>
+      </c>
+      <c r="E8" s="49">
         <v>5.16</v>
       </c>
-      <c r="F8" s="50">
-        <v>1</v>
-      </c>
-      <c r="G8" s="50">
-        <v>1</v>
-      </c>
-      <c r="H8" s="50">
+      <c r="F8" s="49">
+        <v>1</v>
+      </c>
+      <c r="G8" s="49">
+        <v>1</v>
+      </c>
+      <c r="H8" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="57"/>
+      <c r="B9" s="56"/>
       <c r="C9" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="50">
-        <v>1</v>
-      </c>
-      <c r="E9" s="50">
+      <c r="D9" s="49">
+        <v>1</v>
+      </c>
+      <c r="E9" s="49">
         <v>5.16</v>
       </c>
-      <c r="F9" s="50">
-        <v>1</v>
-      </c>
-      <c r="G9" s="50">
-        <v>1</v>
-      </c>
-      <c r="H9" s="50">
+      <c r="F9" s="49">
+        <v>1</v>
+      </c>
+      <c r="G9" s="49">
+        <v>1</v>
+      </c>
+      <c r="H9" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="57"/>
+      <c r="B10" s="56"/>
       <c r="C10" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="50">
-        <v>1</v>
-      </c>
-      <c r="E10" s="50">
-        <v>1</v>
-      </c>
-      <c r="F10" s="50">
-        <v>1</v>
-      </c>
-      <c r="G10" s="50">
-        <v>1</v>
-      </c>
-      <c r="H10" s="50">
+      <c r="D10" s="49">
+        <v>1</v>
+      </c>
+      <c r="E10" s="49">
+        <v>1</v>
+      </c>
+      <c r="F10" s="49">
+        <v>1</v>
+      </c>
+      <c r="G10" s="49">
+        <v>1</v>
+      </c>
+      <c r="H10" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="56" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D11" s="50">
-        <v>1</v>
-      </c>
-      <c r="E11" s="50">
-        <v>1</v>
-      </c>
-      <c r="F11" s="50">
+      <c r="D11" s="49">
+        <v>1</v>
+      </c>
+      <c r="E11" s="49">
+        <v>1</v>
+      </c>
+      <c r="F11" s="49">
         <v>1.82</v>
       </c>
-      <c r="G11" s="50">
-        <v>1</v>
-      </c>
-      <c r="H11" s="50">
+      <c r="G11" s="49">
+        <v>1</v>
+      </c>
+      <c r="H11" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="57"/>
+      <c r="B12" s="56"/>
       <c r="C12" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="50">
-        <v>1</v>
-      </c>
-      <c r="E12" s="50">
-        <v>1</v>
-      </c>
-      <c r="F12" s="50">
+      <c r="D12" s="49">
+        <v>1</v>
+      </c>
+      <c r="E12" s="49">
+        <v>1</v>
+      </c>
+      <c r="F12" s="49">
         <v>1.82</v>
       </c>
-      <c r="G12" s="50">
-        <v>1</v>
-      </c>
-      <c r="H12" s="50">
+      <c r="G12" s="49">
+        <v>1</v>
+      </c>
+      <c r="H12" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="57"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="50">
-        <v>1</v>
-      </c>
-      <c r="E13" s="50">
-        <v>1</v>
-      </c>
-      <c r="F13" s="50">
-        <v>1</v>
-      </c>
-      <c r="G13" s="50">
-        <v>1</v>
-      </c>
-      <c r="H13" s="50">
+      <c r="D13" s="49">
+        <v>1</v>
+      </c>
+      <c r="E13" s="49">
+        <v>1</v>
+      </c>
+      <c r="F13" s="49">
+        <v>1</v>
+      </c>
+      <c r="G13" s="49">
+        <v>1</v>
+      </c>
+      <c r="H13" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="56" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D14" s="50">
-        <v>1</v>
-      </c>
-      <c r="E14" s="50">
-        <v>1</v>
-      </c>
-      <c r="F14" s="50">
-        <v>1</v>
-      </c>
-      <c r="G14" s="50">
+      <c r="D14" s="49">
+        <v>1</v>
+      </c>
+      <c r="E14" s="49">
+        <v>1</v>
+      </c>
+      <c r="F14" s="49">
+        <v>1</v>
+      </c>
+      <c r="G14" s="49">
         <v>1.82</v>
       </c>
-      <c r="H14" s="50">
+      <c r="H14" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="57"/>
+      <c r="B15" s="56"/>
       <c r="C15" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="50">
-        <v>1</v>
-      </c>
-      <c r="E15" s="50">
-        <v>1</v>
-      </c>
-      <c r="F15" s="50">
-        <v>1</v>
-      </c>
-      <c r="G15" s="50">
+      <c r="D15" s="49">
+        <v>1</v>
+      </c>
+      <c r="E15" s="49">
+        <v>1</v>
+      </c>
+      <c r="F15" s="49">
+        <v>1</v>
+      </c>
+      <c r="G15" s="49">
         <v>1.82</v>
       </c>
-      <c r="H15" s="50">
+      <c r="H15" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="57"/>
+      <c r="B16" s="56"/>
       <c r="C16" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D16" s="50">
-        <v>1</v>
-      </c>
-      <c r="E16" s="50">
-        <v>1</v>
-      </c>
-      <c r="F16" s="50">
-        <v>1</v>
-      </c>
-      <c r="G16" s="50">
-        <v>1</v>
-      </c>
-      <c r="H16" s="50">
+      <c r="D16" s="49">
+        <v>1</v>
+      </c>
+      <c r="E16" s="49">
+        <v>1</v>
+      </c>
+      <c r="F16" s="49">
+        <v>1</v>
+      </c>
+      <c r="G16" s="49">
+        <v>1</v>
+      </c>
+      <c r="H16" s="49">
         <v>1</v>
       </c>
     </row>
@@ -6012,748 +6038,741 @@
       <c r="C17" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D17" s="49">
+      <c r="D17" s="48">
         <v>1.05</v>
       </c>
-      <c r="E17" s="49">
+      <c r="E17" s="48">
         <v>1.05</v>
       </c>
-      <c r="F17" s="49">
+      <c r="F17" s="48">
         <v>1.05</v>
       </c>
-      <c r="G17" s="49">
+      <c r="G17" s="48">
         <v>1.05</v>
       </c>
-      <c r="H17" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
+      <c r="H17" s="48">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="B19" s="57" t="s">
+      <c r="A19" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" s="56" t="s">
         <v>107</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D19" s="50">
-        <v>1</v>
-      </c>
-      <c r="E19" s="50">
-        <v>1</v>
-      </c>
-      <c r="F19" s="50">
-        <v>1</v>
-      </c>
-      <c r="G19" s="50">
-        <v>1</v>
-      </c>
-      <c r="H19" s="50">
+      <c r="D19" s="49">
+        <v>1</v>
+      </c>
+      <c r="E19" s="49">
+        <v>1</v>
+      </c>
+      <c r="F19" s="49">
+        <v>0.98</v>
+      </c>
+      <c r="G19" s="49">
+        <v>0.98</v>
+      </c>
+      <c r="H19" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="57"/>
+      <c r="B20" s="56"/>
       <c r="C20" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D20" s="50">
-        <v>1</v>
-      </c>
-      <c r="E20" s="50">
-        <v>1</v>
-      </c>
-      <c r="F20" s="50">
-        <v>1</v>
-      </c>
-      <c r="G20" s="50">
-        <v>1</v>
-      </c>
-      <c r="H20" s="50">
+      <c r="D20" s="49">
+        <v>1</v>
+      </c>
+      <c r="E20" s="49">
+        <v>1</v>
+      </c>
+      <c r="F20" s="49">
+        <v>0.98</v>
+      </c>
+      <c r="G20" s="49">
+        <v>0.98</v>
+      </c>
+      <c r="H20" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="57"/>
+      <c r="B21" s="56"/>
       <c r="C21" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D21" s="50">
-        <v>1</v>
-      </c>
-      <c r="E21" s="50">
-        <v>1</v>
-      </c>
-      <c r="F21" s="50">
-        <v>1</v>
-      </c>
-      <c r="G21" s="50">
-        <v>1</v>
-      </c>
-      <c r="H21" s="50">
+      <c r="D21" s="49">
+        <v>1</v>
+      </c>
+      <c r="E21" s="49">
+        <v>1</v>
+      </c>
+      <c r="F21" s="49">
+        <v>0.99</v>
+      </c>
+      <c r="G21" s="49">
+        <v>0.99</v>
+      </c>
+      <c r="H21" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="56" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D22" s="50">
-        <v>1</v>
-      </c>
-      <c r="E22" s="50">
-        <v>1</v>
-      </c>
-      <c r="F22" s="50">
-        <v>1</v>
-      </c>
-      <c r="G22" s="50">
-        <v>1</v>
-      </c>
-      <c r="H22" s="50">
+      <c r="D22" s="49">
+        <v>1</v>
+      </c>
+      <c r="E22" s="49">
+        <v>1</v>
+      </c>
+      <c r="F22" s="49">
+        <v>1</v>
+      </c>
+      <c r="G22" s="49">
+        <v>1</v>
+      </c>
+      <c r="H22" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="57"/>
+      <c r="B23" s="56"/>
       <c r="C23" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D23" s="50">
-        <v>1</v>
-      </c>
-      <c r="E23" s="50">
-        <v>1</v>
-      </c>
-      <c r="F23" s="50">
-        <v>1</v>
-      </c>
-      <c r="G23" s="50">
-        <v>1</v>
-      </c>
-      <c r="H23" s="50">
+      <c r="D23" s="49">
+        <v>1</v>
+      </c>
+      <c r="E23" s="49">
+        <v>1</v>
+      </c>
+      <c r="F23" s="49">
+        <v>1</v>
+      </c>
+      <c r="G23" s="49">
+        <v>1</v>
+      </c>
+      <c r="H23" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="57"/>
+      <c r="B24" s="56"/>
       <c r="C24" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="50">
-        <v>1</v>
-      </c>
-      <c r="E24" s="50">
-        <v>1</v>
-      </c>
-      <c r="F24" s="50">
-        <v>1</v>
-      </c>
-      <c r="G24" s="50">
-        <v>1</v>
-      </c>
-      <c r="H24" s="50">
+      <c r="D24" s="49">
+        <v>1</v>
+      </c>
+      <c r="E24" s="49">
+        <v>1</v>
+      </c>
+      <c r="F24" s="49">
+        <v>0.99</v>
+      </c>
+      <c r="G24" s="49">
+        <v>0.99</v>
+      </c>
+      <c r="H24" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="56" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D25" s="50">
-        <v>1</v>
-      </c>
-      <c r="E25" s="50">
-        <v>1</v>
-      </c>
-      <c r="F25" s="50">
-        <v>1</v>
-      </c>
-      <c r="G25" s="50">
-        <v>1</v>
-      </c>
-      <c r="H25" s="50">
+      <c r="D25" s="49">
+        <v>1</v>
+      </c>
+      <c r="E25" s="49">
+        <v>1</v>
+      </c>
+      <c r="F25" s="49">
+        <v>1</v>
+      </c>
+      <c r="G25" s="49">
+        <v>1</v>
+      </c>
+      <c r="H25" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="57"/>
+      <c r="B26" s="56"/>
       <c r="C26" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D26" s="50">
-        <v>1</v>
-      </c>
-      <c r="E26" s="50">
-        <v>1</v>
-      </c>
-      <c r="F26" s="50">
-        <v>1</v>
-      </c>
-      <c r="G26" s="50">
-        <v>1</v>
-      </c>
-      <c r="H26" s="50">
+      <c r="D26" s="49">
+        <v>1</v>
+      </c>
+      <c r="E26" s="49">
+        <v>1</v>
+      </c>
+      <c r="F26" s="49">
+        <v>1</v>
+      </c>
+      <c r="G26" s="49">
+        <v>1</v>
+      </c>
+      <c r="H26" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="57"/>
+      <c r="B27" s="56"/>
       <c r="C27" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D27" s="50">
-        <v>1</v>
-      </c>
-      <c r="E27" s="50">
-        <v>1</v>
-      </c>
-      <c r="F27" s="50">
-        <v>1</v>
-      </c>
-      <c r="G27" s="50">
-        <v>1</v>
-      </c>
-      <c r="H27" s="50">
+      <c r="D27" s="49">
+        <v>1</v>
+      </c>
+      <c r="E27" s="49">
+        <v>1</v>
+      </c>
+      <c r="F27" s="49">
+        <v>0.99</v>
+      </c>
+      <c r="G27" s="49">
+        <v>0.99</v>
+      </c>
+      <c r="H27" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="56" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D28" s="50">
-        <v>1</v>
-      </c>
-      <c r="E28" s="50">
-        <v>1</v>
-      </c>
-      <c r="F28" s="50">
-        <v>1.82</v>
-      </c>
-      <c r="G28" s="50">
-        <v>1</v>
-      </c>
-      <c r="H28" s="50">
+      <c r="D28" s="49">
+        <v>1</v>
+      </c>
+      <c r="E28" s="49">
+        <v>1</v>
+      </c>
+      <c r="F28" s="49">
+        <v>0.78</v>
+      </c>
+      <c r="G28" s="49">
+        <v>1</v>
+      </c>
+      <c r="H28" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="57"/>
+      <c r="B29" s="56"/>
       <c r="C29" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D29" s="50">
-        <v>1</v>
-      </c>
-      <c r="E29" s="50">
-        <v>1</v>
-      </c>
-      <c r="F29" s="50">
-        <v>1.82</v>
-      </c>
-      <c r="G29" s="50">
-        <v>1</v>
-      </c>
-      <c r="H29" s="50">
+      <c r="D29" s="49">
+        <v>1</v>
+      </c>
+      <c r="E29" s="49">
+        <v>1</v>
+      </c>
+      <c r="F29" s="49">
+        <v>0.78</v>
+      </c>
+      <c r="G29" s="49">
+        <v>1</v>
+      </c>
+      <c r="H29" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="57"/>
+      <c r="B30" s="56"/>
       <c r="C30" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D30" s="50">
-        <v>1</v>
-      </c>
-      <c r="E30" s="50">
-        <v>1</v>
-      </c>
-      <c r="F30" s="50">
-        <v>1</v>
-      </c>
-      <c r="G30" s="50">
-        <v>1</v>
-      </c>
-      <c r="H30" s="50">
+      <c r="D30" s="49">
+        <v>1</v>
+      </c>
+      <c r="E30" s="49">
+        <v>1</v>
+      </c>
+      <c r="F30" s="49">
+        <v>0.99</v>
+      </c>
+      <c r="G30" s="49">
+        <v>0.99</v>
+      </c>
+      <c r="H30" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="57" t="s">
+      <c r="B31" s="56" t="s">
         <v>33</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D31" s="50">
-        <v>1</v>
-      </c>
-      <c r="E31" s="50">
-        <v>1</v>
-      </c>
-      <c r="F31" s="50">
-        <v>1</v>
-      </c>
-      <c r="G31" s="50">
-        <v>1.82</v>
-      </c>
-      <c r="H31" s="50">
+      <c r="D31" s="49">
+        <v>1</v>
+      </c>
+      <c r="E31" s="49">
+        <v>1</v>
+      </c>
+      <c r="F31" s="49">
+        <v>1</v>
+      </c>
+      <c r="G31" s="49">
+        <v>0.78</v>
+      </c>
+      <c r="H31" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="57"/>
+      <c r="B32" s="56"/>
       <c r="C32" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D32" s="50">
-        <v>1</v>
-      </c>
-      <c r="E32" s="50">
-        <v>1</v>
-      </c>
-      <c r="F32" s="50">
-        <v>1</v>
-      </c>
-      <c r="G32" s="50">
-        <v>1.82</v>
-      </c>
-      <c r="H32" s="50">
+      <c r="D32" s="49">
+        <v>1</v>
+      </c>
+      <c r="E32" s="49">
+        <v>1</v>
+      </c>
+      <c r="F32" s="49">
+        <v>1</v>
+      </c>
+      <c r="G32" s="49">
+        <v>0.78</v>
+      </c>
+      <c r="H32" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B33" s="57"/>
+      <c r="B33" s="56"/>
       <c r="C33" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D33" s="50">
-        <v>1</v>
-      </c>
-      <c r="E33" s="50">
-        <v>1</v>
-      </c>
-      <c r="F33" s="50">
-        <v>1</v>
-      </c>
-      <c r="G33" s="50">
-        <v>1</v>
-      </c>
-      <c r="H33" s="50">
+      <c r="D33" s="49">
+        <v>1</v>
+      </c>
+      <c r="E33" s="49">
+        <v>1</v>
+      </c>
+      <c r="F33" s="49">
+        <v>1</v>
+      </c>
+      <c r="G33" s="49">
+        <v>0.99</v>
+      </c>
+      <c r="H33" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="38" t="s">
         <v>104</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D34" s="49">
-        <v>1.05</v>
-      </c>
-      <c r="E34" s="49">
-        <v>1.05</v>
-      </c>
-      <c r="F34" s="49">
-        <v>1.05</v>
-      </c>
-      <c r="G34" s="49">
-        <v>1.05</v>
-      </c>
-      <c r="H34" s="49">
+      <c r="D34" s="48">
+        <v>1</v>
+      </c>
+      <c r="E34" s="48">
+        <v>1</v>
+      </c>
+      <c r="F34" s="48">
+        <v>0.95</v>
+      </c>
+      <c r="G34" s="48">
+        <v>0.95</v>
+      </c>
+      <c r="H34" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B36" s="57" t="s">
+      <c r="A36" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" s="56" t="s">
         <v>107</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D36" s="50">
-        <v>1</v>
-      </c>
-      <c r="E36" s="50">
-        <v>1</v>
-      </c>
-      <c r="F36" s="50">
-        <v>0.98</v>
-      </c>
-      <c r="G36" s="50">
-        <v>0.98</v>
-      </c>
-      <c r="H36" s="50">
+      <c r="D36" s="49">
+        <v>1</v>
+      </c>
+      <c r="E36" s="49">
+        <v>1</v>
+      </c>
+      <c r="F36" s="49">
+        <v>1</v>
+      </c>
+      <c r="G36" s="49">
+        <v>1</v>
+      </c>
+      <c r="H36" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B37" s="57"/>
+      <c r="B37" s="56"/>
       <c r="C37" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D37" s="50">
-        <v>1</v>
-      </c>
-      <c r="E37" s="50">
-        <v>1</v>
-      </c>
-      <c r="F37" s="50">
-        <v>0.98</v>
-      </c>
-      <c r="G37" s="50">
-        <v>0.98</v>
-      </c>
-      <c r="H37" s="50">
+      <c r="D37" s="49">
+        <v>1</v>
+      </c>
+      <c r="E37" s="49">
+        <v>1</v>
+      </c>
+      <c r="F37" s="49">
+        <v>1</v>
+      </c>
+      <c r="G37" s="49">
+        <v>1</v>
+      </c>
+      <c r="H37" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B38" s="57"/>
+      <c r="B38" s="56"/>
       <c r="C38" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D38" s="50">
-        <v>1</v>
-      </c>
-      <c r="E38" s="50">
-        <v>1</v>
-      </c>
-      <c r="F38" s="50">
-        <v>0.99</v>
-      </c>
-      <c r="G38" s="50">
-        <v>0.99</v>
-      </c>
-      <c r="H38" s="50">
+      <c r="D38" s="49">
+        <v>1</v>
+      </c>
+      <c r="E38" s="49">
+        <v>1</v>
+      </c>
+      <c r="F38" s="49">
+        <v>1</v>
+      </c>
+      <c r="G38" s="49">
+        <v>1</v>
+      </c>
+      <c r="H38" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B39" s="57" t="s">
+      <c r="B39" s="56" t="s">
         <v>36</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D39" s="50">
-        <v>1</v>
-      </c>
-      <c r="E39" s="50">
-        <v>1</v>
-      </c>
-      <c r="F39" s="50">
-        <v>1</v>
-      </c>
-      <c r="G39" s="50">
-        <v>1</v>
-      </c>
-      <c r="H39" s="50">
+      <c r="D39" s="49">
+        <v>1</v>
+      </c>
+      <c r="E39" s="49">
+        <v>1</v>
+      </c>
+      <c r="F39" s="49">
+        <v>1</v>
+      </c>
+      <c r="G39" s="49">
+        <v>1</v>
+      </c>
+      <c r="H39" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B40" s="57"/>
+      <c r="B40" s="56"/>
       <c r="C40" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D40" s="50">
-        <v>1</v>
-      </c>
-      <c r="E40" s="50">
-        <v>1</v>
-      </c>
-      <c r="F40" s="50">
-        <v>1</v>
-      </c>
-      <c r="G40" s="50">
-        <v>1</v>
-      </c>
-      <c r="H40" s="50">
+      <c r="D40" s="49">
+        <v>1</v>
+      </c>
+      <c r="E40" s="49">
+        <v>1</v>
+      </c>
+      <c r="F40" s="49">
+        <v>1</v>
+      </c>
+      <c r="G40" s="49">
+        <v>1</v>
+      </c>
+      <c r="H40" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B41" s="57"/>
+      <c r="B41" s="56"/>
       <c r="C41" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D41" s="50">
-        <v>1</v>
-      </c>
-      <c r="E41" s="50">
-        <v>1</v>
-      </c>
-      <c r="F41" s="50">
-        <v>0.99</v>
-      </c>
-      <c r="G41" s="50">
-        <v>0.99</v>
-      </c>
-      <c r="H41" s="50">
+      <c r="D41" s="49">
+        <v>1</v>
+      </c>
+      <c r="E41" s="49">
+        <v>1</v>
+      </c>
+      <c r="F41" s="49">
+        <v>1</v>
+      </c>
+      <c r="G41" s="49">
+        <v>1</v>
+      </c>
+      <c r="H41" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B42" s="57" t="s">
+      <c r="B42" s="56" t="s">
         <v>35</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D42" s="50">
-        <v>1</v>
-      </c>
-      <c r="E42" s="50">
-        <v>1</v>
-      </c>
-      <c r="F42" s="50">
-        <v>1</v>
-      </c>
-      <c r="G42" s="50">
-        <v>1</v>
-      </c>
-      <c r="H42" s="50">
+      <c r="D42" s="49">
+        <v>1</v>
+      </c>
+      <c r="E42" s="49">
+        <v>1</v>
+      </c>
+      <c r="F42" s="49">
+        <v>1</v>
+      </c>
+      <c r="G42" s="49">
+        <v>1</v>
+      </c>
+      <c r="H42" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B43" s="57"/>
+      <c r="B43" s="56"/>
       <c r="C43" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D43" s="50">
-        <v>1</v>
-      </c>
-      <c r="E43" s="50">
-        <v>1</v>
-      </c>
-      <c r="F43" s="50">
-        <v>1</v>
-      </c>
-      <c r="G43" s="50">
-        <v>1</v>
-      </c>
-      <c r="H43" s="50">
+      <c r="D43" s="49">
+        <v>1</v>
+      </c>
+      <c r="E43" s="49">
+        <v>1</v>
+      </c>
+      <c r="F43" s="49">
+        <v>1</v>
+      </c>
+      <c r="G43" s="49">
+        <v>1</v>
+      </c>
+      <c r="H43" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B44" s="57"/>
+      <c r="B44" s="56"/>
       <c r="C44" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D44" s="50">
-        <v>1</v>
-      </c>
-      <c r="E44" s="50">
-        <v>1</v>
-      </c>
-      <c r="F44" s="50">
-        <v>0.99</v>
-      </c>
-      <c r="G44" s="50">
-        <v>0.99</v>
-      </c>
-      <c r="H44" s="50">
+      <c r="D44" s="49">
+        <v>1</v>
+      </c>
+      <c r="E44" s="49">
+        <v>1</v>
+      </c>
+      <c r="F44" s="49">
+        <v>1</v>
+      </c>
+      <c r="G44" s="49">
+        <v>1</v>
+      </c>
+      <c r="H44" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B45" s="57" t="s">
+      <c r="B45" s="56" t="s">
         <v>34</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D45" s="50">
-        <v>1</v>
-      </c>
-      <c r="E45" s="50">
-        <v>1</v>
-      </c>
-      <c r="F45" s="50">
-        <v>0.78</v>
-      </c>
-      <c r="G45" s="50">
-        <v>1</v>
-      </c>
-      <c r="H45" s="50">
+      <c r="D45" s="49">
+        <v>1</v>
+      </c>
+      <c r="E45" s="49">
+        <v>1</v>
+      </c>
+      <c r="F45" s="49">
+        <v>1.82</v>
+      </c>
+      <c r="G45" s="49">
+        <v>1</v>
+      </c>
+      <c r="H45" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B46" s="57"/>
+      <c r="B46" s="56"/>
       <c r="C46" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D46" s="50">
-        <v>1</v>
-      </c>
-      <c r="E46" s="50">
-        <v>1</v>
-      </c>
-      <c r="F46" s="50">
-        <v>0.78</v>
-      </c>
-      <c r="G46" s="50">
-        <v>1</v>
-      </c>
-      <c r="H46" s="50">
+      <c r="D46" s="49">
+        <v>1</v>
+      </c>
+      <c r="E46" s="49">
+        <v>1</v>
+      </c>
+      <c r="F46" s="49">
+        <v>1.82</v>
+      </c>
+      <c r="G46" s="49">
+        <v>1</v>
+      </c>
+      <c r="H46" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B47" s="57"/>
+      <c r="B47" s="56"/>
       <c r="C47" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D47" s="50">
-        <v>1</v>
-      </c>
-      <c r="E47" s="50">
-        <v>1</v>
-      </c>
-      <c r="F47" s="50">
-        <v>0.99</v>
-      </c>
-      <c r="G47" s="50">
-        <v>0.99</v>
-      </c>
-      <c r="H47" s="50">
+      <c r="D47" s="49">
+        <v>1</v>
+      </c>
+      <c r="E47" s="49">
+        <v>1</v>
+      </c>
+      <c r="F47" s="49">
+        <v>1</v>
+      </c>
+      <c r="G47" s="49">
+        <v>1</v>
+      </c>
+      <c r="H47" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B48" s="57" t="s">
+      <c r="B48" s="56" t="s">
         <v>33</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D48" s="50">
-        <v>1</v>
-      </c>
-      <c r="E48" s="50">
-        <v>1</v>
-      </c>
-      <c r="F48" s="50">
-        <v>1</v>
-      </c>
-      <c r="G48" s="50">
-        <v>0.78</v>
-      </c>
-      <c r="H48" s="50">
+      <c r="D48" s="49">
+        <v>1</v>
+      </c>
+      <c r="E48" s="49">
+        <v>1</v>
+      </c>
+      <c r="F48" s="49">
+        <v>1</v>
+      </c>
+      <c r="G48" s="49">
+        <v>1.82</v>
+      </c>
+      <c r="H48" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B49" s="57"/>
+      <c r="B49" s="56"/>
       <c r="C49" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D49" s="50">
-        <v>1</v>
-      </c>
-      <c r="E49" s="50">
-        <v>1</v>
-      </c>
-      <c r="F49" s="50">
-        <v>1</v>
-      </c>
-      <c r="G49" s="50">
-        <v>0.78</v>
-      </c>
-      <c r="H49" s="50">
+      <c r="D49" s="49">
+        <v>1</v>
+      </c>
+      <c r="E49" s="49">
+        <v>1</v>
+      </c>
+      <c r="F49" s="49">
+        <v>1</v>
+      </c>
+      <c r="G49" s="49">
+        <v>1.82</v>
+      </c>
+      <c r="H49" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B50" s="57"/>
+      <c r="B50" s="56"/>
       <c r="C50" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D50" s="50">
-        <v>1</v>
-      </c>
-      <c r="E50" s="50">
-        <v>1</v>
-      </c>
-      <c r="F50" s="50">
-        <v>1</v>
-      </c>
-      <c r="G50" s="50">
-        <v>0.99</v>
-      </c>
-      <c r="H50" s="50">
+      <c r="D50" s="49">
+        <v>1</v>
+      </c>
+      <c r="E50" s="49">
+        <v>1</v>
+      </c>
+      <c r="F50" s="49">
+        <v>1</v>
+      </c>
+      <c r="G50" s="49">
+        <v>1</v>
+      </c>
+      <c r="H50" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B51" s="38" t="s">
+      <c r="B51" s="39" t="s">
         <v>104</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D51" s="49">
-        <v>1</v>
-      </c>
-      <c r="E51" s="49">
-        <v>1</v>
-      </c>
-      <c r="F51" s="49">
-        <v>0.95</v>
-      </c>
-      <c r="G51" s="49">
-        <v>0.95</v>
-      </c>
-      <c r="H51" s="49">
+      <c r="D51" s="48">
+        <v>1.05</v>
+      </c>
+      <c r="E51" s="48">
+        <v>1.05</v>
+      </c>
+      <c r="F51" s="48">
+        <v>1.05</v>
+      </c>
+      <c r="G51" s="48">
+        <v>1.05</v>
+      </c>
+      <c r="H51" s="48">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B39:B41"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B22:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6767,8 +6786,8 @@
   </sheetPr>
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6803,7 +6822,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="21"/>
@@ -7164,7 +7183,7 @@
   <dimension ref="A1:P111"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -7185,7 +7204,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" s="33" t="s">
         <v>42</v>
@@ -7223,7 +7242,7 @@
         <v>41</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
@@ -7251,7 +7270,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C4" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -7279,7 +7298,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C5" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -7307,7 +7326,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C6" s="26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -7338,7 +7357,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
@@ -7366,7 +7385,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C8" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
@@ -7394,7 +7413,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C9" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
@@ -7422,7 +7441,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C10" s="26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -7453,7 +7472,7 @@
         <v>49</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D11" s="5">
         <v>1</v>
@@ -7481,7 +7500,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C12" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -7509,7 +7528,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C13" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -7537,7 +7556,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C14" s="26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -7568,7 +7587,7 @@
         <v>48</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D15" s="5">
         <v>1</v>
@@ -7596,7 +7615,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C16" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -7624,7 +7643,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C17" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -7652,7 +7671,7 @@
     </row>
     <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -7683,7 +7702,7 @@
         <v>39</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D19" s="5">
         <v>1</v>
@@ -7711,7 +7730,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C20" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -7739,7 +7758,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C21" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
@@ -7767,7 +7786,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C22" s="26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
@@ -7798,7 +7817,7 @@
         <v>47</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D23" s="5">
         <v>1</v>
@@ -7826,7 +7845,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C24" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D24" s="4">
         <v>1</v>
@@ -7854,7 +7873,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C25" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
@@ -7882,7 +7901,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C26" s="26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -7915,7 +7934,7 @@
     </row>
     <row r="29" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="31" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B29" s="30" t="s">
         <v>42</v>
@@ -7953,7 +7972,7 @@
         <v>41</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D30" s="5">
         <v>1</v>
@@ -7981,7 +8000,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C31" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -8068,7 +8087,7 @@
         <v>40</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D34" s="5">
         <v>1</v>
@@ -8096,7 +8115,7 @@
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C35" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -8183,7 +8202,7 @@
         <v>49</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D38" s="5">
         <v>1</v>
@@ -8211,7 +8230,7 @@
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C39" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D39" s="4">
         <v>1</v>
@@ -8298,7 +8317,7 @@
         <v>48</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D42" s="5">
         <v>1</v>
@@ -8326,7 +8345,7 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C43" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
@@ -8413,7 +8432,7 @@
         <v>39</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D46" s="5">
         <v>1</v>
@@ -8441,7 +8460,7 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C47" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
@@ -8528,7 +8547,7 @@
         <v>47</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D50" s="5">
         <v>1</v>
@@ -8556,7 +8575,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C51" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D51" s="4">
         <v>1</v>
@@ -8649,7 +8668,7 @@
     </row>
     <row r="56" spans="1:16" s="27" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A56" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B56" s="30" t="s">
         <v>42</v>
@@ -8681,7 +8700,7 @@
         <v>46</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D57" s="5">
         <v>1</v>
@@ -8703,7 +8722,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C58" s="26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D58" s="4">
         <v>10.675000000000001</v>
@@ -8728,7 +8747,7 @@
         <v>45</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D59" s="5">
         <v>1</v>
@@ -8750,7 +8769,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C60" s="26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D60" s="4">
         <v>10.675000000000001</v>
@@ -8775,7 +8794,7 @@
         <v>44</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D61" s="5">
         <v>1</v>
@@ -8797,7 +8816,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C62" s="26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D62" s="4">
         <v>10.675000000000001</v>
@@ -8828,7 +8847,7 @@
     </row>
     <row r="65" spans="1:16" s="27" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A65" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B65" s="30" t="s">
         <v>42</v>
@@ -8848,7 +8867,7 @@
       <c r="G65" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="H65" s="54" t="s">
+      <c r="H65" s="53" t="s">
         <v>32</v>
       </c>
       <c r="I65" s="28"/>
@@ -8861,12 +8880,12 @@
       <c r="P65" s="28"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A66" s="52"/>
+      <c r="A66" s="51"/>
       <c r="B66" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D66" s="5">
         <v>1</v>
@@ -8894,7 +8913,7 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C67" s="26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D67" s="4">
         <v>1.35</v>
@@ -8922,7 +8941,7 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C68" s="26" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D68" s="4">
         <v>1.35</v>
@@ -8950,7 +8969,7 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C69" s="26" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D69" s="4">
         <v>5.4</v>
@@ -8981,7 +9000,7 @@
         <v>6</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D70" s="5">
         <v>1</v>
@@ -9009,7 +9028,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C71" s="26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D71" s="4">
         <v>1.35</v>
@@ -9037,7 +9056,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C72" s="26" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D72" s="4">
         <v>1.35</v>
@@ -9065,7 +9084,7 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C73" s="26" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D73" s="4">
         <v>5.4</v>
@@ -9096,7 +9115,7 @@
         <v>5</v>
       </c>
       <c r="C74" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D74" s="5">
         <v>1</v>
@@ -9124,7 +9143,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C75" s="26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D75" s="4">
         <v>1.35</v>
@@ -9152,7 +9171,7 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C76" s="26" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D76" s="4">
         <v>1.35</v>
@@ -9180,7 +9199,7 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C77" s="26" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D77" s="4">
         <v>5.4</v>
@@ -9211,7 +9230,7 @@
         <v>3</v>
       </c>
       <c r="C78" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D78" s="5">
         <v>1</v>
@@ -9239,7 +9258,7 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C79" s="26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D79" s="4">
         <v>1</v>
@@ -9267,7 +9286,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C80" s="26" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
@@ -9295,7 +9314,7 @@
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C81" s="26" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -9326,7 +9345,7 @@
         <v>41</v>
       </c>
       <c r="C82" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D82" s="5">
         <v>1</v>
@@ -9354,7 +9373,7 @@
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C83" s="26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D83" s="4">
         <v>1</v>
@@ -9382,7 +9401,7 @@
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C84" s="26" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D84" s="4">
         <v>1</v>
@@ -9410,7 +9429,7 @@
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C85" s="26" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D85" s="4">
         <v>1</v>
@@ -9441,7 +9460,7 @@
         <v>40</v>
       </c>
       <c r="C86" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D86" s="5">
         <v>1</v>
@@ -9469,7 +9488,7 @@
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C87" s="26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
@@ -9497,7 +9516,7 @@
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C88" s="26" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D88" s="4">
         <v>1</v>
@@ -9525,7 +9544,7 @@
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C89" s="26" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
@@ -9556,7 +9575,7 @@
         <v>49</v>
       </c>
       <c r="C90" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D90" s="5">
         <v>1</v>
@@ -9584,7 +9603,7 @@
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C91" s="26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D91" s="4">
         <v>1</v>
@@ -9612,7 +9631,7 @@
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C92" s="26" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D92" s="4">
         <v>1</v>
@@ -9640,7 +9659,7 @@
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C93" s="26" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -9671,7 +9690,7 @@
         <v>39</v>
       </c>
       <c r="C94" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D94" s="5">
         <v>1</v>
@@ -9699,7 +9718,7 @@
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C95" s="26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D95" s="4">
         <v>1</v>
@@ -9727,7 +9746,7 @@
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C96" s="26" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D96" s="4">
         <v>1</v>
@@ -9755,7 +9774,7 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C97" s="26" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D97" s="4">
         <v>1</v>
@@ -9783,10 +9802,10 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B98" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C98" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D98" s="5">
         <v>1</v>
@@ -9814,7 +9833,7 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C99" s="26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D99" s="4">
         <v>1</v>
@@ -9842,7 +9861,7 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C100" s="26" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D100" s="4">
         <v>1</v>
@@ -9870,7 +9889,7 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C101" s="26" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D101" s="4">
         <v>1</v>
@@ -9905,8 +9924,8 @@
       <c r="A104" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B104" s="53" t="s">
-        <v>134</v>
+      <c r="B104" s="52" t="s">
+        <v>132</v>
       </c>
       <c r="C104" s="29" t="s">
         <v>37</v>
@@ -9923,7 +9942,7 @@
       <c r="G104" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="H104" s="54" t="s">
+      <c r="H104" s="53" t="s">
         <v>32</v>
       </c>
       <c r="I104" s="28"/>
@@ -9939,7 +9958,7 @@
       <c r="A105" s="2"/>
       <c r="B105" s="27"/>
       <c r="C105" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D105" s="5">
         <v>1</v>
@@ -9967,7 +9986,7 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C106" s="26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D106" s="4">
         <v>1.26</v>
@@ -9995,7 +10014,7 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C107" s="26" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D107" s="4">
         <v>1.68</v>
@@ -10023,7 +10042,7 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C108" s="26" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D108" s="4">
         <v>2.65</v>
@@ -10063,21 +10082,22 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.5" style="1"/>
+    <col min="7" max="7" width="12.33203125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10086,8 +10106,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="52" t="s">
-        <v>135</v>
+      <c r="A2" s="51" t="s">
+        <v>133</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="2" t="s">
@@ -10129,7 +10149,7 @@
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C4" s="4">
         <v>1.0249999999999999</v>
@@ -10242,13 +10262,13 @@
     </row>
     <row r="11" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
-      <c r="B12" s="1" t="s">
-        <v>157</v>
+      <c r="B12" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="C12" s="4">
         <v>1.5</v>
@@ -10268,6 +10288,7 @@
     </row>
     <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
+      <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="18" t="s">
@@ -10275,8 +10296,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="52" t="s">
-        <v>133</v>
+      <c r="A15" s="51" t="s">
+        <v>131</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>59</v>
@@ -10319,11 +10340,11 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="52" t="s">
-        <v>126</v>
+      <c r="A17" s="51" t="s">
+        <v>125</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C17" s="4">
         <v>1.0249999999999999</v>
@@ -10342,6 +10363,42 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B21" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="57">
+        <v>1</v>
+      </c>
+      <c r="D21" s="57">
+        <v>1</v>
+      </c>
+      <c r="E21" s="57">
+        <v>1</v>
+      </c>
+      <c r="F21" s="57">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -10427,7 +10484,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="34" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B4" s="34" t="s">
         <v>69</v>
@@ -10465,7 +10522,7 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="34" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>69</v>
@@ -10696,7 +10753,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B3" s="35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C3" s="4">
         <v>0.53</v>
@@ -10740,7 +10797,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B4" s="35" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -10784,7 +10841,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -10828,7 +10885,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B6" s="35" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -10872,7 +10929,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B7" s="35" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -10916,7 +10973,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B8" s="34" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
@@ -10960,7 +11017,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B9" s="34" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>

--- a/nutrition/default_params.xlsx
+++ b/nutrition/default_params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/github_projects/Nutrition/nutrition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BE7CD60D-B535-6D46-B36C-9C5E0FD327DE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{69A7711A-3B72-2640-A0F6-6950EC4E552B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6180" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="6" xr2:uid="{9D310A7F-FF26-7448-8337-E29F42B35A9E}"/>
+    <workbookView xWindow="-38400" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="6" xr2:uid="{9D310A7F-FF26-7448-8337-E29F42B35A9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Programs impacted population" sheetId="14" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <externalReference r:id="rId13"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Birth outcome risks'!$A$1:$F$7</definedName>
     <definedName name="abortion">'[1]Baseline year population inputs'!$C$26</definedName>
     <definedName name="food_insecure">'[1]Baseline year population inputs'!$C$3</definedName>
     <definedName name="frac_maize">'[1]Baseline year population inputs'!$C$14</definedName>
@@ -197,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="161">
   <si>
     <t>Neonatal other</t>
   </si>
@@ -812,7 +813,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -835,13 +836,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
@@ -948,6 +960,7 @@
     <xf numFmtId="2" fontId="3" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{126E324F-EC88-2347-908A-4D1058B147A7}"/>
@@ -1359,10 +1372,10 @@
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2060,7 +2073,7 @@
       <c r="N16" s="46"/>
       <c r="O16" s="46"/>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="43" t="s">
         <v>107</v>
       </c>
@@ -2107,7 +2120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="43"/>
       <c r="B18" s="54" t="s">
         <v>102</v>
@@ -2152,7 +2165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="34" t="s">
         <v>149</v>
       </c>
@@ -2196,7 +2209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="34" t="s">
         <v>154</v>
       </c>
@@ -2240,7 +2253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="55" t="s">
         <v>71</v>
       </c>
@@ -2284,7 +2297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="54" t="s">
         <v>100</v>
       </c>
@@ -2328,7 +2341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="54" t="s">
         <v>101</v>
       </c>
@@ -2372,7 +2385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="54" t="s">
         <v>72</v>
       </c>
@@ -2416,7 +2429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="54"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -2432,7 +2445,7 @@
       <c r="N25" s="46"/>
       <c r="O25" s="46"/>
     </row>
-    <row r="26" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="43" t="s">
         <v>112</v>
       </c>
@@ -2470,16 +2483,17 @@
         <v>1</v>
       </c>
       <c r="M26" s="50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" s="50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P26" s="58"/>
+    </row>
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="35" t="s">
         <v>150</v>
       </c>
@@ -2523,7 +2537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="43"/>
       <c r="B28" s="35" t="s">
         <v>151</v>
@@ -2568,7 +2582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="35" t="s">
         <v>152</v>
       </c>
@@ -2612,7 +2626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="35" t="s">
         <v>153</v>
       </c>
@@ -2656,7 +2670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="54"/>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
@@ -2672,7 +2686,7 @@
       <c r="N31" s="46"/>
       <c r="O31" s="46"/>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="43" t="s">
         <v>111</v>
       </c>
@@ -5284,7 +5298,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5601,9 +5615,7 @@
       <c r="G12" s="50"/>
       <c r="H12" s="50"/>
       <c r="I12" s="50"/>
-      <c r="J12" s="50" t="s">
-        <v>118</v>
-      </c>
+      <c r="J12" s="50"/>
       <c r="K12" s="50" t="s">
         <v>118</v>
       </c>
@@ -5622,9 +5634,7 @@
       <c r="G13" s="50"/>
       <c r="H13" s="50"/>
       <c r="I13" s="50"/>
-      <c r="J13" s="50" t="s">
-        <v>118</v>
-      </c>
+      <c r="J13" s="50"/>
       <c r="K13" s="50" t="s">
         <v>118</v>
       </c>
@@ -5643,9 +5653,7 @@
       <c r="G14" s="50"/>
       <c r="H14" s="50"/>
       <c r="I14" s="50"/>
-      <c r="J14" s="50" t="s">
-        <v>118</v>
-      </c>
+      <c r="J14" s="50"/>
       <c r="K14" s="50" t="s">
         <v>118</v>
       </c>
@@ -6787,7 +6795,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10085,7 +10093,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -10387,7 +10395,7 @@
         <v>119</v>
       </c>
       <c r="C21" s="57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="57">
         <v>1</v>

--- a/nutrition/default_params.xlsx
+++ b/nutrition/default_params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/github_projects/Nutrition/nutrition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{69A7711A-3B72-2640-A0F6-6950EC4E552B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D1B4ACD3-D4B4-A945-A0EB-397DCF092165}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="6" xr2:uid="{9D310A7F-FF26-7448-8337-E29F42B35A9E}"/>
   </bookViews>
@@ -674,13 +674,13 @@
     <t>Relative risk by birth spacing</t>
   </si>
   <si>
-    <t>Odds ratios for correct birth spacing by program</t>
-  </si>
-  <si>
     <t>Birth spacing</t>
   </si>
   <si>
     <t>Birth number</t>
+  </si>
+  <si>
+    <t>Odds ratios for optimal birth spacing by program</t>
   </si>
 </sst>
 </file>
@@ -853,7 +853,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
@@ -956,9 +956,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
@@ -2491,7 +2488,7 @@
       <c r="O26" s="50">
         <v>0</v>
       </c>
-      <c r="P26" s="58"/>
+      <c r="P26" s="57"/>
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="35" t="s">
@@ -4597,10 +4594,10 @@
         <v>120</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -5298,7 +5295,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5345,10 +5342,10 @@
         <v>120</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -10093,7 +10090,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -10373,7 +10370,7 @@
     <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="19" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10394,16 +10391,16 @@
       <c r="B21" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C21" s="57">
-        <v>2</v>
-      </c>
-      <c r="D21" s="57">
-        <v>1</v>
-      </c>
-      <c r="E21" s="57">
-        <v>1</v>
-      </c>
-      <c r="F21" s="57">
+      <c r="C21" s="4">
+        <v>1.52</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4">
         <v>1</v>
       </c>
     </row>

--- a/nutrition/default_params.xlsx
+++ b/nutrition/default_params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/github_projects/Nutrition/nutrition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D1B4ACD3-D4B4-A945-A0EB-397DCF092165}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ECB35F06-6614-9940-96BE-9AB11F147AAC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="6" xr2:uid="{9D310A7F-FF26-7448-8337-E29F42B35A9E}"/>
+    <workbookView xWindow="-140" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="10" xr2:uid="{9D310A7F-FF26-7448-8337-E29F42B35A9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Programs impacted population" sheetId="14" r:id="rId1"/>
@@ -99,35 +99,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Janka Petravic</author>
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-LiST: 1.11</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000004000000}">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000004000000}">
       <text>
         <r>
           <rPr>
@@ -160,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000005000000}">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000005000000}">
       <text>
         <r>
           <rPr>
@@ -198,7 +173,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="160">
   <si>
     <t>Neonatal other</t>
   </si>
@@ -387,9 +362,6 @@
   </si>
   <si>
     <t>Public provision of complementary foods</t>
-  </si>
-  <si>
-    <t>Prophylactic zinc supplementation</t>
   </si>
   <si>
     <t>By program</t>
@@ -691,7 +663,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -732,19 +704,6 @@
     <font>
       <sz val="10"/>
       <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -937,15 +896,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -954,10 +913,10 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{126E324F-EC88-2347-908A-4D1058B147A7}"/>
@@ -1372,7 +1331,7 @@
   <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1390,10 +1349,10 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C1" s="43" t="s">
         <v>36</v>
@@ -1437,10 +1396,10 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" s="50">
         <v>0</v>
@@ -1484,7 +1443,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="54" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C3" s="50">
         <v>1</v>
@@ -1528,7 +1487,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="54" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C4" s="50">
         <v>1</v>
@@ -1572,7 +1531,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C5" s="50">
         <v>1</v>
@@ -1616,7 +1575,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="54" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6" s="50">
         <v>1</v>
@@ -1660,7 +1619,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="54" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C7" s="50">
         <v>1</v>
@@ -1748,7 +1707,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="54" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" s="50">
         <v>0</v>
@@ -1792,7 +1751,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="54" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" s="50">
         <v>1</v>
@@ -1880,7 +1839,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="50">
         <v>0</v>
@@ -1924,7 +1883,7 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13" s="50">
         <v>0</v>
@@ -1968,7 +1927,7 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="54" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" s="50">
         <v>1</v>
@@ -2012,7 +1971,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C15" s="50">
         <v>0</v>
@@ -2072,10 +2031,10 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B17" s="54" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" s="50">
         <v>0</v>
@@ -2120,7 +2079,7 @@
     <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="43"/>
       <c r="B18" s="54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C18" s="50">
         <v>0</v>
@@ -2164,7 +2123,7 @@
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C19" s="50">
         <v>0</v>
@@ -2208,7 +2167,7 @@
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C20" s="50">
         <v>0</v>
@@ -2252,7 +2211,7 @@
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C21" s="50">
         <v>0</v>
@@ -2296,7 +2255,7 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="54" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C22" s="50">
         <v>0</v>
@@ -2340,7 +2299,7 @@
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" s="50">
         <v>0</v>
@@ -2384,7 +2343,7 @@
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C24" s="50">
         <v>0</v>
@@ -2444,10 +2403,10 @@
     </row>
     <row r="26" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B26" s="54" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C26" s="50">
         <v>0</v>
@@ -2488,11 +2447,11 @@
       <c r="O26" s="50">
         <v>0</v>
       </c>
-      <c r="P26" s="57"/>
+      <c r="P26" s="56"/>
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C27" s="50">
         <v>0</v>
@@ -2537,7 +2496,7 @@
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="43"/>
       <c r="B28" s="35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C28" s="50">
         <v>0</v>
@@ -2581,7 +2540,7 @@
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C29" s="50">
         <v>0</v>
@@ -2625,7 +2584,7 @@
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C30" s="50">
         <v>0</v>
@@ -2685,10 +2644,10 @@
     </row>
     <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B32" s="54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C32" s="50">
         <v>1</v>
@@ -2732,7 +2691,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C33" s="50">
         <v>1</v>
@@ -2776,7 +2735,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C34" s="50">
         <v>1</v>
@@ -2820,7 +2779,7 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C35" s="50">
         <v>1</v>
@@ -2864,7 +2823,7 @@
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C36" s="50">
         <v>1</v>
@@ -2909,7 +2868,7 @@
     <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="42"/>
       <c r="B37" s="54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="50">
         <v>1</v>
@@ -2953,7 +2912,7 @@
     </row>
     <row r="38" spans="1:15" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="54" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="50">
         <v>1</v>
@@ -2997,7 +2956,7 @@
     </row>
     <row r="39" spans="1:15" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C39" s="50">
         <v>1</v>
@@ -3041,7 +3000,7 @@
     </row>
     <row r="40" spans="1:15" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C40" s="50">
         <v>1</v>
@@ -3085,7 +3044,7 @@
     </row>
     <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="54" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C41" s="50">
         <v>1</v>
@@ -3175,12 +3134,12 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
@@ -3200,7 +3159,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" s="35"/>
       <c r="C4" s="36"/>
@@ -3211,7 +3170,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -3242,8 +3201,8 @@
   </sheetPr>
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView zoomScale="111" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3261,13 +3220,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C1" s="51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>36</v>
@@ -3287,13 +3246,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2" s="54" t="s">
         <v>41</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
@@ -3313,7 +3272,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C3" s="54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
@@ -3333,7 +3292,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C4" s="54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
@@ -3359,7 +3318,7 @@
         <v>52</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
@@ -3379,7 +3338,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C6" s="54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
@@ -3402,7 +3361,7 @@
         <v>53</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
@@ -3422,7 +3381,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C8" s="54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -3448,7 +3407,7 @@
         <v>52</v>
       </c>
       <c r="C9" s="54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -3468,7 +3427,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C10" s="54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="4">
         <v>0</v>
@@ -3491,7 +3450,7 @@
         <v>53</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" s="4">
         <v>0</v>
@@ -3511,7 +3470,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C12" s="54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D12" s="4">
         <v>0</v>
@@ -3531,13 +3490,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B13" s="54" t="s">
         <v>52</v>
       </c>
       <c r="C13" s="54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D13" s="4">
         <v>0</v>
@@ -3557,7 +3516,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C14" s="54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D14" s="4">
         <v>0</v>
@@ -3581,7 +3540,7 @@
         <v>53</v>
       </c>
       <c r="C15" s="54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D15" s="4">
         <v>0</v>
@@ -3602,7 +3561,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C16" s="54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D16" s="4">
         <v>0</v>
@@ -3623,13 +3582,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B17" s="54" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D17" s="4">
         <v>0.7</v>
@@ -3650,7 +3609,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C18" s="54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D18" s="4">
         <v>0.46</v>
@@ -3671,13 +3630,13 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B19" s="54" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19" s="4">
         <v>0.7</v>
@@ -3697,7 +3656,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C20" s="54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D20" s="4">
         <v>0.46</v>
@@ -3717,13 +3676,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B21" s="54" t="s">
         <v>1</v>
       </c>
       <c r="C21" s="54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D21" s="4">
         <v>0.7</v>
@@ -3743,7 +3702,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C22" s="54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D22" s="4">
         <v>0.46</v>
@@ -3763,13 +3722,13 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B23" s="54" t="s">
         <v>41</v>
       </c>
       <c r="C23" s="54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" s="4">
         <v>1</v>
@@ -3789,7 +3748,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C24" s="54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D24" s="4">
         <v>0.17</v>
@@ -3809,7 +3768,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C25" s="54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D25" s="4">
         <v>0.17</v>
@@ -3829,13 +3788,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="54" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B26" s="54" t="s">
         <v>41</v>
       </c>
       <c r="C26" s="54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -3855,7 +3814,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C27" s="54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="4">
         <v>0.69</v>
@@ -3875,7 +3834,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C28" s="54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="4">
         <v>0.69</v>
@@ -3895,13 +3854,13 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B29" s="54" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" s="4">
         <v>1</v>
@@ -3921,7 +3880,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C30" s="54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D30" s="4">
         <v>0.36</v>
@@ -3941,7 +3900,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C31" s="54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D31" s="4">
         <v>0.36</v>
@@ -3961,13 +3920,13 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="54" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B32" s="54" t="s">
         <v>41</v>
       </c>
       <c r="C32" s="54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D32" s="4">
         <v>1</v>
@@ -3987,7 +3946,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C33" s="54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D33" s="4">
         <v>0.2</v>
@@ -4007,7 +3966,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C34" s="54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D34" s="4">
         <v>0.2</v>
@@ -4027,13 +3986,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B35" s="54" t="s">
         <v>41</v>
       </c>
       <c r="C35" s="54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -4053,7 +4012,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C36" s="54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D36" s="4">
         <v>0.48</v>
@@ -4073,7 +4032,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C37" s="54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D37" s="4">
         <v>0.48</v>
@@ -4093,13 +4052,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B38" s="54" t="s">
         <v>41</v>
       </c>
       <c r="C38" s="54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D38" s="4">
         <v>0.3</v>
@@ -4119,7 +4078,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C39" s="54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D39" s="4">
         <v>0.5</v>
@@ -4139,7 +4098,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C40" s="54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D40" s="4">
         <v>0.65</v>
@@ -4162,7 +4121,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D41" s="4">
         <v>0.3</v>
@@ -4182,7 +4141,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C42" s="54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D42" s="4">
         <v>0.49</v>
@@ -4202,7 +4161,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C43" s="54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D43" s="4">
         <v>0.52</v>
@@ -4222,13 +4181,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="54" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B44" s="54" t="s">
         <v>41</v>
       </c>
       <c r="C44" s="54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D44" s="4">
         <v>0.88</v>
@@ -4248,7 +4207,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C45" s="54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D45" s="4">
         <v>0.93</v>
@@ -4268,13 +4227,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="54" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B46" s="54" t="s">
         <v>41</v>
       </c>
       <c r="C46" s="54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D46" s="4">
         <v>1</v>
@@ -4294,7 +4253,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C47" s="54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D47" s="4">
         <v>0.86</v>
@@ -4314,13 +4273,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="54" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B48" s="54" t="s">
         <v>3</v>
       </c>
       <c r="C48" s="54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D48" s="4">
         <v>0.57999999999999996</v>
@@ -4340,7 +4299,7 @@
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C49" s="54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D49" s="4">
         <v>0.51</v>
@@ -4386,10 +4345,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C1" s="33"/>
       <c r="D1" s="2" t="s">
@@ -4408,13 +4367,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -4432,7 +4391,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" s="4">
         <v>0.2</v>
@@ -4450,13 +4409,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -4475,7 +4434,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="27"/>
       <c r="C5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" s="4">
         <v>0.59</v>
@@ -4493,13 +4452,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -4518,7 +4477,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="27"/>
       <c r="C7" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" s="4">
         <v>0.6</v>
@@ -4547,7 +4506,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4567,42 +4526,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="54" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="50"/>
       <c r="C2" s="50"/>
@@ -4612,14 +4571,14 @@
       <c r="G2" s="50"/>
       <c r="H2" s="50"/>
       <c r="I2" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J2" s="50"/>
       <c r="K2" s="50"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" s="50"/>
       <c r="C3" s="50"/>
@@ -4628,7 +4587,7 @@
       <c r="F3" s="50"/>
       <c r="G3" s="50"/>
       <c r="H3" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I3" s="50"/>
       <c r="J3" s="50"/>
@@ -4636,12 +4595,12 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="50"/>
       <c r="C4" s="50"/>
       <c r="D4" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E4" s="50"/>
       <c r="F4" s="50"/>
@@ -4653,11 +4612,11 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="54" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B5" s="50"/>
       <c r="C5" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D5" s="50"/>
       <c r="E5" s="50"/>
@@ -4670,7 +4629,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="54" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B6" s="50"/>
       <c r="C6" s="50"/>
@@ -4681,26 +4640,26 @@
       <c r="H6" s="50"/>
       <c r="I6" s="50"/>
       <c r="J6" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K6" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" s="50"/>
       <c r="C7" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="50"/>
       <c r="E7" s="50"/>
       <c r="F7" s="50"/>
       <c r="G7" s="50"/>
       <c r="H7" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I7" s="50"/>
       <c r="J7" s="50"/>
@@ -4708,18 +4667,18 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" s="50"/>
       <c r="C8" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D8" s="50"/>
       <c r="E8" s="50"/>
       <c r="F8" s="50"/>
       <c r="G8" s="50"/>
       <c r="H8" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I8" s="50"/>
       <c r="J8" s="50"/>
@@ -4727,18 +4686,18 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" s="50"/>
       <c r="C9" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D9" s="50"/>
       <c r="E9" s="50"/>
       <c r="F9" s="50"/>
       <c r="G9" s="50"/>
       <c r="H9" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I9" s="50"/>
       <c r="J9" s="50"/>
@@ -4746,11 +4705,11 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B10" s="50"/>
       <c r="C10" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D10" s="50"/>
       <c r="E10" s="50"/>
@@ -4763,11 +4722,11 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B11" s="50"/>
       <c r="C11" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D11" s="50"/>
       <c r="E11" s="50"/>
@@ -4780,11 +4739,11 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B12" s="50"/>
       <c r="C12" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D12" s="50"/>
       <c r="E12" s="50"/>
@@ -4797,11 +4756,11 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B13" s="50"/>
       <c r="C13" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D13" s="50"/>
       <c r="E13" s="50"/>
@@ -4814,11 +4773,11 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B14" s="50"/>
       <c r="C14" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D14" s="50"/>
       <c r="E14" s="50"/>
@@ -4826,18 +4785,18 @@
       <c r="G14" s="50"/>
       <c r="H14" s="50"/>
       <c r="I14" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J14" s="50"/>
       <c r="K14" s="50"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B15" s="50"/>
       <c r="C15" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D15" s="50"/>
       <c r="E15" s="50"/>
@@ -4845,39 +4804,39 @@
       <c r="G15" s="50"/>
       <c r="H15" s="50"/>
       <c r="I15" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J15" s="50"/>
       <c r="K15" s="50"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16" s="50"/>
       <c r="C16" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D16" s="50"/>
       <c r="E16" s="50"/>
       <c r="F16" s="50"/>
       <c r="G16" s="50"/>
       <c r="H16" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I16" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J16" s="50"/>
       <c r="K16" s="50"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B17" s="50"/>
       <c r="C17" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D17" s="50"/>
       <c r="E17" s="50"/>
@@ -4890,16 +4849,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="54" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B18" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C18" s="50"/>
       <c r="D18" s="50"/>
       <c r="E18" s="50"/>
       <c r="F18" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G18" s="50"/>
       <c r="H18" s="50"/>
@@ -4909,16 +4868,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C19" s="50"/>
       <c r="D19" s="50"/>
       <c r="E19" s="50"/>
       <c r="F19" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G19" s="50"/>
       <c r="H19" s="50"/>
@@ -4928,16 +4887,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="54" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B20" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C20" s="50"/>
       <c r="D20" s="50"/>
       <c r="E20" s="50"/>
       <c r="F20" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G20" s="50"/>
       <c r="H20" s="50"/>
@@ -4947,7 +4906,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="54" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B21" s="50"/>
       <c r="C21" s="50"/>
@@ -4956,10 +4915,10 @@
       <c r="F21" s="50"/>
       <c r="G21" s="50"/>
       <c r="H21" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I21" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J21" s="50"/>
       <c r="K21" s="50"/>
@@ -4969,13 +4928,13 @@
         <v>61</v>
       </c>
       <c r="B22" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D22" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E22" s="50"/>
       <c r="F22" s="50"/>
@@ -4987,11 +4946,11 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23" s="50"/>
       <c r="C23" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D23" s="50"/>
       <c r="E23" s="50"/>
@@ -4999,14 +4958,14 @@
       <c r="G23" s="50"/>
       <c r="H23" s="50"/>
       <c r="I23" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J23" s="50"/>
       <c r="K23" s="50"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="54" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B24" s="50"/>
       <c r="C24" s="50"/>
@@ -5015,7 +4974,7 @@
       <c r="F24" s="50"/>
       <c r="G24" s="50"/>
       <c r="H24" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I24" s="50"/>
       <c r="J24" s="50"/>
@@ -5023,7 +4982,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B25" s="50"/>
       <c r="C25" s="50"/>
@@ -5032,7 +4991,7 @@
       <c r="F25" s="50"/>
       <c r="G25" s="50"/>
       <c r="H25" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I25" s="50"/>
       <c r="J25" s="50"/>
@@ -5040,11 +4999,11 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="54" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B26" s="50"/>
       <c r="C26" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D26" s="50"/>
       <c r="E26" s="50"/>
@@ -5057,11 +5016,11 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B27" s="50"/>
       <c r="C27" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D27" s="50"/>
       <c r="E27" s="50"/>
@@ -5069,14 +5028,14 @@
       <c r="G27" s="50"/>
       <c r="H27" s="50"/>
       <c r="I27" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J27" s="50"/>
       <c r="K27" s="50"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="54" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B28" s="50"/>
       <c r="C28" s="50"/>
@@ -5085,7 +5044,7 @@
       <c r="F28" s="50"/>
       <c r="G28" s="50"/>
       <c r="H28" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I28" s="50"/>
       <c r="J28" s="50"/>
@@ -5096,11 +5055,11 @@
         <v>62</v>
       </c>
       <c r="B29" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C29" s="50"/>
       <c r="D29" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E29" s="50"/>
       <c r="F29" s="50"/>
@@ -5112,13 +5071,13 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B30" s="50"/>
       <c r="C30" s="50"/>
       <c r="D30" s="50"/>
       <c r="E30" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F30" s="50"/>
       <c r="G30" s="50"/>
@@ -5129,7 +5088,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B31" s="50"/>
       <c r="C31" s="50"/>
@@ -5137,10 +5096,10 @@
       <c r="E31" s="50"/>
       <c r="F31" s="50"/>
       <c r="G31" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H31" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I31" s="50"/>
       <c r="J31" s="50"/>
@@ -5148,7 +5107,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B32" s="50"/>
       <c r="C32" s="50"/>
@@ -5156,10 +5115,10 @@
       <c r="E32" s="50"/>
       <c r="F32" s="50"/>
       <c r="G32" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H32" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I32" s="50"/>
       <c r="J32" s="50"/>
@@ -5167,7 +5126,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="54" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B33" s="50"/>
       <c r="C33" s="50"/>
@@ -5175,10 +5134,10 @@
       <c r="E33" s="50"/>
       <c r="F33" s="50"/>
       <c r="G33" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H33" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I33" s="50"/>
       <c r="J33" s="50"/>
@@ -5186,7 +5145,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B34" s="50"/>
       <c r="C34" s="50"/>
@@ -5194,10 +5153,10 @@
       <c r="E34" s="50"/>
       <c r="F34" s="50"/>
       <c r="G34" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H34" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I34" s="50"/>
       <c r="J34" s="50"/>
@@ -5205,7 +5164,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B35" s="50"/>
       <c r="C35" s="50"/>
@@ -5213,10 +5172,10 @@
       <c r="E35" s="50"/>
       <c r="F35" s="50"/>
       <c r="G35" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H35" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I35" s="50"/>
       <c r="J35" s="50"/>
@@ -5224,7 +5183,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="54" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B36" s="50"/>
       <c r="C36" s="50"/>
@@ -5232,10 +5191,10 @@
       <c r="E36" s="50"/>
       <c r="F36" s="50"/>
       <c r="G36" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H36" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I36" s="50"/>
       <c r="J36" s="50"/>
@@ -5243,7 +5202,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="54" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B37" s="50"/>
       <c r="C37" s="50"/>
@@ -5252,7 +5211,7 @@
       <c r="F37" s="50"/>
       <c r="G37" s="50"/>
       <c r="H37" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I37" s="50"/>
       <c r="J37" s="50"/>
@@ -5260,20 +5219,20 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" s="54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B38" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C38" s="50"/>
       <c r="D38" s="50"/>
       <c r="E38" s="50"/>
       <c r="F38" s="50"/>
       <c r="G38" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H38" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I38" s="50"/>
       <c r="J38" s="50"/>
@@ -5315,37 +5274,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -5353,25 +5312,25 @@
         <v>36</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E2" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F2" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G2" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H2" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I2" s="50"/>
       <c r="J2" s="50"/>
@@ -5382,25 +5341,25 @@
         <v>35</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E3" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F3" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G3" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H3" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I3" s="50"/>
       <c r="J3" s="50"/>
@@ -5411,25 +5370,25 @@
         <v>34</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F4" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G4" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H4" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I4" s="50"/>
       <c r="J4" s="50"/>
@@ -5440,25 +5399,25 @@
         <v>33</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E5" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F5" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G5" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H5" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I5" s="50"/>
       <c r="J5" s="50"/>
@@ -5469,25 +5428,25 @@
         <v>32</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E6" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F6" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G6" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H6" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I6" s="50"/>
       <c r="J6" s="50"/>
@@ -5499,17 +5458,17 @@
       </c>
       <c r="B7" s="50"/>
       <c r="C7" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="50"/>
       <c r="E7" s="50"/>
       <c r="F7" s="50"/>
       <c r="G7" s="50"/>
       <c r="H7" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I7" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J7" s="50"/>
       <c r="K7" s="50"/>
@@ -5520,17 +5479,17 @@
       </c>
       <c r="B8" s="50"/>
       <c r="C8" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D8" s="50"/>
       <c r="E8" s="50"/>
       <c r="F8" s="50"/>
       <c r="G8" s="50"/>
       <c r="H8" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I8" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J8" s="50"/>
       <c r="K8" s="50"/>
@@ -5541,17 +5500,17 @@
       </c>
       <c r="B9" s="50"/>
       <c r="C9" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D9" s="50"/>
       <c r="E9" s="50"/>
       <c r="F9" s="50"/>
       <c r="G9" s="50"/>
       <c r="H9" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I9" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J9" s="50"/>
       <c r="K9" s="50"/>
@@ -5562,17 +5521,17 @@
       </c>
       <c r="B10" s="50"/>
       <c r="C10" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D10" s="50"/>
       <c r="E10" s="50"/>
       <c r="F10" s="50"/>
       <c r="G10" s="50"/>
       <c r="H10" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I10" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J10" s="50"/>
       <c r="K10" s="50"/>
@@ -5583,7 +5542,7 @@
       </c>
       <c r="B11" s="50"/>
       <c r="C11" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D11" s="50"/>
       <c r="E11" s="50"/>
@@ -5592,10 +5551,10 @@
       <c r="H11" s="50"/>
       <c r="I11" s="50"/>
       <c r="J11" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K11" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
@@ -5604,7 +5563,7 @@
       </c>
       <c r="B12" s="50"/>
       <c r="C12" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D12" s="50"/>
       <c r="E12" s="50"/>
@@ -5614,7 +5573,7 @@
       <c r="I12" s="50"/>
       <c r="J12" s="50"/>
       <c r="K12" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
@@ -5623,7 +5582,7 @@
       </c>
       <c r="B13" s="50"/>
       <c r="C13" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D13" s="50"/>
       <c r="E13" s="50"/>
@@ -5633,7 +5592,7 @@
       <c r="I13" s="50"/>
       <c r="J13" s="50"/>
       <c r="K13" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
@@ -5642,7 +5601,7 @@
       </c>
       <c r="B14" s="50"/>
       <c r="C14" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D14" s="50"/>
       <c r="E14" s="50"/>
@@ -5652,7 +5611,7 @@
       <c r="I14" s="50"/>
       <c r="J14" s="50"/>
       <c r="K14" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -5681,13 +5640,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>36</v>
@@ -5707,13 +5666,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="56" t="s">
-        <v>107</v>
+        <v>133</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>106</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D2" s="49">
         <v>1</v>
@@ -5732,55 +5691,55 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="56"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="49">
+        <v>1</v>
+      </c>
+      <c r="E3" s="49">
+        <v>1</v>
+      </c>
+      <c r="F3" s="49">
+        <v>1</v>
+      </c>
+      <c r="G3" s="49">
+        <v>1</v>
+      </c>
+      <c r="H3" s="49">
+        <v>1</v>
+      </c>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B4" s="57"/>
+      <c r="C4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="49">
+        <v>1</v>
+      </c>
+      <c r="E4" s="49">
+        <v>1</v>
+      </c>
+      <c r="F4" s="49">
+        <v>1</v>
+      </c>
+      <c r="G4" s="49">
+        <v>1</v>
+      </c>
+      <c r="H4" s="49">
+        <v>1</v>
+      </c>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B5" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="D3" s="49">
-        <v>1</v>
-      </c>
-      <c r="E3" s="49">
-        <v>1</v>
-      </c>
-      <c r="F3" s="49">
-        <v>1</v>
-      </c>
-      <c r="G3" s="49">
-        <v>1</v>
-      </c>
-      <c r="H3" s="49">
-        <v>1</v>
-      </c>
-      <c r="J3" s="11"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="56"/>
-      <c r="C4" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" s="49">
-        <v>1</v>
-      </c>
-      <c r="E4" s="49">
-        <v>1</v>
-      </c>
-      <c r="F4" s="49">
-        <v>1</v>
-      </c>
-      <c r="G4" s="49">
-        <v>1</v>
-      </c>
-      <c r="H4" s="49">
-        <v>1</v>
-      </c>
-      <c r="J4" s="11"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="D5" s="49">
         <f>5.16</f>
@@ -5800,9 +5759,9 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="56"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D6" s="49">
         <v>5.16</v>
@@ -5821,9 +5780,9 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="56"/>
+      <c r="B7" s="57"/>
       <c r="C7" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D7" s="49">
         <v>1</v>
@@ -5842,11 +5801,11 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="57" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D8" s="49">
         <v>1</v>
@@ -5865,9 +5824,9 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="56"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D9" s="49">
         <v>1</v>
@@ -5886,9 +5845,9 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="56"/>
+      <c r="B10" s="57"/>
       <c r="C10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" s="49">
         <v>1</v>
@@ -5907,11 +5866,11 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="57" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D11" s="49">
         <v>1</v>
@@ -5930,9 +5889,9 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="56"/>
+      <c r="B12" s="57"/>
       <c r="C12" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D12" s="49">
         <v>1</v>
@@ -5951,9 +5910,9 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="56"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" s="49">
         <v>1</v>
@@ -5972,11 +5931,11 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="57" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D14" s="49">
         <v>1</v>
@@ -5995,9 +5954,9 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="56"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D15" s="49">
         <v>1</v>
@@ -6016,9 +5975,9 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="56"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D16" s="49">
         <v>1</v>
@@ -6038,10 +5997,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B17" s="38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D17" s="48">
         <v>1.05</v>
@@ -6061,13 +6020,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B19" s="56" t="s">
-        <v>107</v>
+        <v>135</v>
+      </c>
+      <c r="B19" s="57" t="s">
+        <v>106</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D19" s="49">
         <v>1</v>
@@ -6086,9 +6045,9 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="56"/>
+      <c r="B20" s="57"/>
       <c r="C20" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D20" s="49">
         <v>1</v>
@@ -6107,9 +6066,9 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="56"/>
+      <c r="B21" s="57"/>
       <c r="C21" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D21" s="49">
         <v>1</v>
@@ -6128,11 +6087,11 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="57" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D22" s="49">
         <v>1</v>
@@ -6151,9 +6110,9 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="56"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D23" s="49">
         <v>1</v>
@@ -6172,9 +6131,9 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="56"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D24" s="49">
         <v>1</v>
@@ -6193,11 +6152,11 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="57" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D25" s="49">
         <v>1</v>
@@ -6216,9 +6175,9 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="56"/>
+      <c r="B26" s="57"/>
       <c r="C26" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D26" s="49">
         <v>1</v>
@@ -6237,9 +6196,9 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="56"/>
+      <c r="B27" s="57"/>
       <c r="C27" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D27" s="49">
         <v>1</v>
@@ -6258,11 +6217,11 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="56" t="s">
+      <c r="B28" s="57" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D28" s="49">
         <v>1</v>
@@ -6281,9 +6240,9 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="56"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D29" s="49">
         <v>1</v>
@@ -6302,9 +6261,9 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="56"/>
+      <c r="B30" s="57"/>
       <c r="C30" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D30" s="49">
         <v>1</v>
@@ -6323,11 +6282,11 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="56" t="s">
+      <c r="B31" s="57" t="s">
         <v>33</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D31" s="49">
         <v>1</v>
@@ -6346,9 +6305,9 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="56"/>
+      <c r="B32" s="57"/>
       <c r="C32" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D32" s="49">
         <v>1</v>
@@ -6367,9 +6326,9 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B33" s="56"/>
+      <c r="B33" s="57"/>
       <c r="C33" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="49">
         <v>1</v>
@@ -6389,10 +6348,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B34" s="38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="48">
         <v>1</v>
@@ -6412,13 +6371,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="B36" s="56" t="s">
-        <v>107</v>
+        <v>134</v>
+      </c>
+      <c r="B36" s="57" t="s">
+        <v>106</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D36" s="49">
         <v>1</v>
@@ -6437,54 +6396,54 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B37" s="56"/>
+      <c r="B37" s="57"/>
       <c r="C37" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" s="49">
+        <v>1</v>
+      </c>
+      <c r="E37" s="49">
+        <v>1</v>
+      </c>
+      <c r="F37" s="49">
+        <v>1</v>
+      </c>
+      <c r="G37" s="49">
+        <v>1</v>
+      </c>
+      <c r="H37" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B38" s="57"/>
+      <c r="C38" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="49">
+        <v>1</v>
+      </c>
+      <c r="E38" s="49">
+        <v>1</v>
+      </c>
+      <c r="F38" s="49">
+        <v>1</v>
+      </c>
+      <c r="G38" s="49">
+        <v>1</v>
+      </c>
+      <c r="H38" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B39" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D37" s="49">
-        <v>1</v>
-      </c>
-      <c r="E37" s="49">
-        <v>1</v>
-      </c>
-      <c r="F37" s="49">
-        <v>1</v>
-      </c>
-      <c r="G37" s="49">
-        <v>1</v>
-      </c>
-      <c r="H37" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B38" s="56"/>
-      <c r="C38" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D38" s="49">
-        <v>1</v>
-      </c>
-      <c r="E38" s="49">
-        <v>1</v>
-      </c>
-      <c r="F38" s="49">
-        <v>1</v>
-      </c>
-      <c r="G38" s="49">
-        <v>1</v>
-      </c>
-      <c r="H38" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B39" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="D39" s="49">
         <v>1</v>
       </c>
@@ -6502,54 +6461,54 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B40" s="56"/>
+      <c r="B40" s="57"/>
       <c r="C40" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="49">
+        <v>1</v>
+      </c>
+      <c r="E40" s="49">
+        <v>1</v>
+      </c>
+      <c r="F40" s="49">
+        <v>1</v>
+      </c>
+      <c r="G40" s="49">
+        <v>1</v>
+      </c>
+      <c r="H40" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B41" s="57"/>
+      <c r="C41" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" s="49">
+        <v>1</v>
+      </c>
+      <c r="E41" s="49">
+        <v>1</v>
+      </c>
+      <c r="F41" s="49">
+        <v>1</v>
+      </c>
+      <c r="G41" s="49">
+        <v>1</v>
+      </c>
+      <c r="H41" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B42" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D40" s="49">
-        <v>1</v>
-      </c>
-      <c r="E40" s="49">
-        <v>1</v>
-      </c>
-      <c r="F40" s="49">
-        <v>1</v>
-      </c>
-      <c r="G40" s="49">
-        <v>1</v>
-      </c>
-      <c r="H40" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B41" s="56"/>
-      <c r="C41" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D41" s="49">
-        <v>1</v>
-      </c>
-      <c r="E41" s="49">
-        <v>1</v>
-      </c>
-      <c r="F41" s="49">
-        <v>1</v>
-      </c>
-      <c r="G41" s="49">
-        <v>1</v>
-      </c>
-      <c r="H41" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B42" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="D42" s="49">
         <v>1</v>
       </c>
@@ -6567,53 +6526,53 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B43" s="56"/>
+      <c r="B43" s="57"/>
       <c r="C43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" s="49">
+        <v>1</v>
+      </c>
+      <c r="E43" s="49">
+        <v>1</v>
+      </c>
+      <c r="F43" s="49">
+        <v>1</v>
+      </c>
+      <c r="G43" s="49">
+        <v>1</v>
+      </c>
+      <c r="H43" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B44" s="57"/>
+      <c r="C44" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D44" s="49">
+        <v>1</v>
+      </c>
+      <c r="E44" s="49">
+        <v>1</v>
+      </c>
+      <c r="F44" s="49">
+        <v>1</v>
+      </c>
+      <c r="G44" s="49">
+        <v>1</v>
+      </c>
+      <c r="H44" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B45" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="D43" s="49">
-        <v>1</v>
-      </c>
-      <c r="E43" s="49">
-        <v>1</v>
-      </c>
-      <c r="F43" s="49">
-        <v>1</v>
-      </c>
-      <c r="G43" s="49">
-        <v>1</v>
-      </c>
-      <c r="H43" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B44" s="56"/>
-      <c r="C44" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D44" s="49">
-        <v>1</v>
-      </c>
-      <c r="E44" s="49">
-        <v>1</v>
-      </c>
-      <c r="F44" s="49">
-        <v>1</v>
-      </c>
-      <c r="G44" s="49">
-        <v>1</v>
-      </c>
-      <c r="H44" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B45" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="D45" s="49">
         <v>1</v>
@@ -6632,9 +6591,9 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B46" s="56"/>
+      <c r="B46" s="57"/>
       <c r="C46" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D46" s="49">
         <v>1</v>
@@ -6653,9 +6612,9 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B47" s="56"/>
+      <c r="B47" s="57"/>
       <c r="C47" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D47" s="49">
         <v>1</v>
@@ -6674,11 +6633,11 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B48" s="56" t="s">
+      <c r="B48" s="57" t="s">
         <v>33</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D48" s="49">
         <v>1</v>
@@ -6697,9 +6656,9 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B49" s="56"/>
+      <c r="B49" s="57"/>
       <c r="C49" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D49" s="49">
         <v>1</v>
@@ -6718,9 +6677,9 @@
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B50" s="56"/>
+      <c r="B50" s="57"/>
       <c r="C50" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D50" s="49">
         <v>1</v>
@@ -6740,10 +6699,10 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B51" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D51" s="48">
         <v>1.05</v>
@@ -6763,6 +6722,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B24"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -6773,11 +6737,6 @@
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B22:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6827,7 +6786,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="21"/>
@@ -7209,7 +7168,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" s="33" t="s">
         <v>42</v>
@@ -7247,7 +7206,7 @@
         <v>41</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
@@ -7275,7 +7234,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C4" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -7303,7 +7262,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C5" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -7331,7 +7290,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C6" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -7362,7 +7321,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
@@ -7390,7 +7349,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C8" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
@@ -7418,7 +7377,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C9" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
@@ -7446,7 +7405,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C10" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -7477,7 +7436,7 @@
         <v>49</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D11" s="5">
         <v>1</v>
@@ -7505,7 +7464,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C12" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -7533,7 +7492,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C13" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -7561,7 +7520,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C14" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -7592,7 +7551,7 @@
         <v>48</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D15" s="5">
         <v>1</v>
@@ -7620,7 +7579,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C16" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -7648,7 +7607,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C17" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -7676,7 +7635,7 @@
     </row>
     <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -7707,7 +7666,7 @@
         <v>39</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D19" s="5">
         <v>1</v>
@@ -7735,7 +7694,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C20" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -7763,7 +7722,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C21" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
@@ -7791,7 +7750,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C22" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
@@ -7822,7 +7781,7 @@
         <v>47</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D23" s="5">
         <v>1</v>
@@ -7850,7 +7809,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C24" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D24" s="4">
         <v>1</v>
@@ -7878,7 +7837,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C25" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
@@ -7906,7 +7865,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C26" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -7939,7 +7898,7 @@
     </row>
     <row r="29" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B29" s="30" t="s">
         <v>42</v>
@@ -7977,7 +7936,7 @@
         <v>41</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D30" s="5">
         <v>1</v>
@@ -8005,7 +7964,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C31" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -8092,7 +8051,7 @@
         <v>40</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D34" s="5">
         <v>1</v>
@@ -8120,7 +8079,7 @@
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C35" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -8207,7 +8166,7 @@
         <v>49</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D38" s="5">
         <v>1</v>
@@ -8235,7 +8194,7 @@
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C39" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D39" s="4">
         <v>1</v>
@@ -8322,7 +8281,7 @@
         <v>48</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D42" s="5">
         <v>1</v>
@@ -8350,7 +8309,7 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C43" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
@@ -8437,7 +8396,7 @@
         <v>39</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="5">
         <v>1</v>
@@ -8465,7 +8424,7 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C47" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
@@ -8552,7 +8511,7 @@
         <v>47</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D50" s="5">
         <v>1</v>
@@ -8580,7 +8539,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C51" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D51" s="4">
         <v>1</v>
@@ -8673,7 +8632,7 @@
     </row>
     <row r="56" spans="1:16" s="27" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A56" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B56" s="30" t="s">
         <v>42</v>
@@ -8705,7 +8664,7 @@
         <v>46</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D57" s="5">
         <v>1</v>
@@ -8727,7 +8686,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C58" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D58" s="4">
         <v>10.675000000000001</v>
@@ -8752,7 +8711,7 @@
         <v>45</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D59" s="5">
         <v>1</v>
@@ -8774,7 +8733,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C60" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D60" s="4">
         <v>10.675000000000001</v>
@@ -8799,7 +8758,7 @@
         <v>44</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D61" s="5">
         <v>1</v>
@@ -8821,7 +8780,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C62" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D62" s="4">
         <v>10.675000000000001</v>
@@ -8852,7 +8811,7 @@
     </row>
     <row r="65" spans="1:16" s="27" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A65" s="31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B65" s="30" t="s">
         <v>42</v>
@@ -8890,7 +8849,7 @@
         <v>7</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D66" s="5">
         <v>1</v>
@@ -8918,7 +8877,7 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C67" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D67" s="4">
         <v>1.35</v>
@@ -8946,7 +8905,7 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C68" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D68" s="4">
         <v>1.35</v>
@@ -8974,7 +8933,7 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C69" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D69" s="4">
         <v>5.4</v>
@@ -9005,7 +8964,7 @@
         <v>6</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D70" s="5">
         <v>1</v>
@@ -9033,7 +8992,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C71" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D71" s="4">
         <v>1.35</v>
@@ -9061,7 +9020,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C72" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D72" s="4">
         <v>1.35</v>
@@ -9089,7 +9048,7 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C73" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D73" s="4">
         <v>5.4</v>
@@ -9120,7 +9079,7 @@
         <v>5</v>
       </c>
       <c r="C74" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D74" s="5">
         <v>1</v>
@@ -9148,7 +9107,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C75" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D75" s="4">
         <v>1.35</v>
@@ -9176,7 +9135,7 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C76" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D76" s="4">
         <v>1.35</v>
@@ -9204,7 +9163,7 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C77" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D77" s="4">
         <v>5.4</v>
@@ -9235,7 +9194,7 @@
         <v>3</v>
       </c>
       <c r="C78" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D78" s="5">
         <v>1</v>
@@ -9263,7 +9222,7 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C79" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D79" s="4">
         <v>1</v>
@@ -9291,7 +9250,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C80" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
@@ -9319,7 +9278,7 @@
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C81" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -9350,7 +9309,7 @@
         <v>41</v>
       </c>
       <c r="C82" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D82" s="5">
         <v>1</v>
@@ -9378,7 +9337,7 @@
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C83" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D83" s="4">
         <v>1</v>
@@ -9406,7 +9365,7 @@
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C84" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D84" s="4">
         <v>1</v>
@@ -9434,7 +9393,7 @@
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C85" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D85" s="4">
         <v>1</v>
@@ -9465,7 +9424,7 @@
         <v>40</v>
       </c>
       <c r="C86" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D86" s="5">
         <v>1</v>
@@ -9493,7 +9452,7 @@
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C87" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
@@ -9521,7 +9480,7 @@
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C88" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D88" s="4">
         <v>1</v>
@@ -9549,7 +9508,7 @@
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C89" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
@@ -9580,7 +9539,7 @@
         <v>49</v>
       </c>
       <c r="C90" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D90" s="5">
         <v>1</v>
@@ -9608,7 +9567,7 @@
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C91" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D91" s="4">
         <v>1</v>
@@ -9636,7 +9595,7 @@
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C92" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D92" s="4">
         <v>1</v>
@@ -9664,7 +9623,7 @@
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C93" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -9695,7 +9654,7 @@
         <v>39</v>
       </c>
       <c r="C94" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D94" s="5">
         <v>1</v>
@@ -9723,7 +9682,7 @@
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C95" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D95" s="4">
         <v>1</v>
@@ -9751,7 +9710,7 @@
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C96" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D96" s="4">
         <v>1</v>
@@ -9779,7 +9738,7 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C97" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D97" s="4">
         <v>1</v>
@@ -9807,10 +9766,10 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B98" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C98" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D98" s="5">
         <v>1</v>
@@ -9838,7 +9797,7 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C99" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D99" s="4">
         <v>1</v>
@@ -9866,7 +9825,7 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C100" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D100" s="4">
         <v>1</v>
@@ -9894,7 +9853,7 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C101" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D101" s="4">
         <v>1</v>
@@ -9930,7 +9889,7 @@
         <v>41</v>
       </c>
       <c r="B104" s="52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C104" s="29" t="s">
         <v>37</v>
@@ -9963,7 +9922,7 @@
       <c r="A105" s="2"/>
       <c r="B105" s="27"/>
       <c r="C105" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D105" s="5">
         <v>1</v>
@@ -9991,7 +9950,7 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C106" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D106" s="4">
         <v>1.26</v>
@@ -10019,7 +9978,7 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C107" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D107" s="4">
         <v>1.68</v>
@@ -10047,7 +10006,7 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C108" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D108" s="4">
         <v>2.65</v>
@@ -10087,10 +10046,10 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -10107,12 +10066,12 @@
   <sheetData>
     <row r="1" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="51" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="2" t="s">
@@ -10133,10 +10092,10 @@
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" s="4">
         <v>45</v>
@@ -10154,7 +10113,7 @@
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C4" s="4">
         <v>1.0249999999999999</v>
@@ -10174,12 +10133,12 @@
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -10188,18 +10147,18 @@
         <v>1</v>
       </c>
       <c r="E6" s="4">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="F6" s="4">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="G6" s="4">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -10219,7 +10178,7 @@
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="6" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
@@ -10228,84 +10187,85 @@
         <v>1</v>
       </c>
       <c r="E8" s="4">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="F8" s="4">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="G8" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="18" t="s">
-        <v>156</v>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="10"/>
+      <c r="B11" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1.39</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
-      <c r="B12" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1.39</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4">
-        <v>1</v>
-      </c>
-      <c r="G12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10"/>
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="18" t="s">
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="18" t="s">
         <v>60</v>
       </c>
     </row>
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1.0249999999999999</v>
+      </c>
+    </row>
     <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="51" t="s">
-        <v>131</v>
-      </c>
+      <c r="A15" s="2"/>
       <c r="B15" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="4">
         <v>1.0249999999999999</v>
@@ -10324,9 +10284,11 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="2"/>
-      <c r="B16" s="6" t="s">
-        <v>58</v>
+      <c r="A16" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="C16" s="4">
         <v>1.0249999999999999</v>
@@ -10344,63 +10306,40 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C17" s="4">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="F17" s="4">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="G17" s="4">
-        <v>1.0249999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="43" t="s">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="43" t="s">
+      <c r="D19" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="43" t="s">
+      <c r="E19" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="43" t="s">
+      <c r="F19" s="43" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B21" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C21" s="4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B20" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="4">
         <v>1.52</v>
       </c>
-      <c r="D21" s="4">
-        <v>1</v>
-      </c>
-      <c r="E21" s="4">
-        <v>1</v>
-      </c>
-      <c r="F21" s="4">
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4">
         <v>1</v>
       </c>
     </row>
@@ -10433,7 +10372,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
@@ -10451,10 +10390,10 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="4">
         <v>0.21</v>
@@ -10472,7 +10411,7 @@
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="34"/>
       <c r="B3" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
@@ -10489,10 +10428,10 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="4">
         <v>0.15</v>
@@ -10510,7 +10449,7 @@
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="34"/>
       <c r="B5" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -10527,10 +10466,10 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" s="4">
         <v>0.15</v>
@@ -10548,7 +10487,7 @@
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="34"/>
       <c r="B7" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -10565,10 +10504,10 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="4">
         <v>0.35</v>
@@ -10586,7 +10525,7 @@
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="34"/>
       <c r="B9" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
@@ -10603,10 +10542,10 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="4">
         <v>0.35</v>
@@ -10624,7 +10563,7 @@
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="34"/>
       <c r="B11" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
@@ -10641,10 +10580,10 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" s="4">
         <v>0.23</v>
@@ -10662,7 +10601,7 @@
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="34"/>
       <c r="B13" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
@@ -10753,12 +10692,12 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B3" s="35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C3" s="4">
         <v>0.53</v>
@@ -10802,7 +10741,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B4" s="35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -10846,7 +10785,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -10890,7 +10829,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B6" s="35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -10934,7 +10873,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B7" s="35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -10978,7 +10917,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B8" s="34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
@@ -11022,7 +10961,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B9" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
@@ -11066,7 +11005,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B10" s="35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
@@ -11154,7 +11093,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B12" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="4">
         <v>0.83</v>
@@ -11198,7 +11137,7 @@
     </row>
     <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
@@ -11242,7 +11181,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B14" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
@@ -11286,13 +11225,13 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B16" s="35"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B17" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C17" s="4">
         <v>1</v>
@@ -11336,7 +11275,7 @@
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B18" s="34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
@@ -11380,7 +11319,7 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B19" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="4">
         <v>1</v>
@@ -11424,7 +11363,7 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B20" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>

--- a/nutrition/default_params.xlsx
+++ b/nutrition/default_params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/github_projects/Nutrition/nutrition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ECB35F06-6614-9940-96BE-9AB11F147AAC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ADD698E6-F3DA-8746-AD64-56E48666EE7D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-140" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="10" xr2:uid="{9D310A7F-FF26-7448-8337-E29F42B35A9E}"/>
+    <workbookView xWindow="-38400" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="10" xr2:uid="{9D310A7F-FF26-7448-8337-E29F42B35A9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Programs impacted population" sheetId="14" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <definedName name="stillbirth">'[1]Baseline year population inputs'!$C$27</definedName>
     <definedName name="term_SGA">'[1]Baseline year population inputs'!$C$35</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="162913" calcMode="manual" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3202,7 +3202,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3751,19 +3751,19 @@
         <v>84</v>
       </c>
       <c r="D24" s="4">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="E24" s="4">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="F24" s="4">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="G24" s="4">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="H24" s="4">
-        <v>0.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
@@ -3771,19 +3771,19 @@
         <v>88</v>
       </c>
       <c r="D25" s="4">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="E25" s="4">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="F25" s="4">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="G25" s="4">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="H25" s="4">
-        <v>0.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
@@ -3817,19 +3817,19 @@
         <v>84</v>
       </c>
       <c r="D27" s="4">
-        <v>0.69</v>
+        <v>0</v>
       </c>
       <c r="E27" s="4">
-        <v>0.69</v>
+        <v>0</v>
       </c>
       <c r="F27" s="4">
-        <v>0.69</v>
+        <v>0</v>
       </c>
       <c r="G27" s="4">
-        <v>0.69</v>
+        <v>0</v>
       </c>
       <c r="H27" s="4">
-        <v>0.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -3837,19 +3837,19 @@
         <v>88</v>
       </c>
       <c r="D28" s="4">
-        <v>0.69</v>
+        <v>0</v>
       </c>
       <c r="E28" s="4">
-        <v>0.69</v>
+        <v>0</v>
       </c>
       <c r="F28" s="4">
-        <v>0.69</v>
+        <v>0</v>
       </c>
       <c r="G28" s="4">
-        <v>0.69</v>
+        <v>0</v>
       </c>
       <c r="H28" s="4">
-        <v>0.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
@@ -3883,19 +3883,19 @@
         <v>84</v>
       </c>
       <c r="D30" s="4">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="E30" s="4">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="F30" s="4">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="G30" s="4">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="H30" s="4">
-        <v>0.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
@@ -3903,19 +3903,19 @@
         <v>88</v>
       </c>
       <c r="D31" s="4">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="E31" s="4">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="F31" s="4">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="G31" s="4">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="H31" s="4">
-        <v>0.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
@@ -3949,19 +3949,19 @@
         <v>84</v>
       </c>
       <c r="D33" s="4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E33" s="4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F33" s="4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G33" s="4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H33" s="4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
@@ -3969,19 +3969,19 @@
         <v>88</v>
       </c>
       <c r="D34" s="4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E34" s="4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F34" s="4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G34" s="4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H34" s="4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
@@ -4015,19 +4015,19 @@
         <v>84</v>
       </c>
       <c r="D36" s="4">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="E36" s="4">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="F36" s="4">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="G36" s="4">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="H36" s="4">
-        <v>0.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
@@ -4035,19 +4035,19 @@
         <v>88</v>
       </c>
       <c r="D37" s="4">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="E37" s="4">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="F37" s="4">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="G37" s="4">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="H37" s="4">
-        <v>0.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
@@ -6722,6 +6722,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -6731,11 +6736,6 @@
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B36:B38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nutrition/default_params.xlsx
+++ b/nutrition/default_params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/github_projects/Nutrition/nutrition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ADD698E6-F3DA-8746-AD64-56E48666EE7D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{37DA4D6A-A558-744C-A270-76FCBBC9C600}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="10" xr2:uid="{9D310A7F-FF26-7448-8337-E29F42B35A9E}"/>
   </bookViews>
@@ -3202,7 +3202,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/nutrition/default_params.xlsx
+++ b/nutrition/default_params.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/github_projects/Nutrition/nutrition/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Nutrition\nutrition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{37DA4D6A-A558-744C-A270-76FCBBC9C600}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="10" xr2:uid="{9D310A7F-FF26-7448-8337-E29F42B35A9E}"/>
+    <workbookView xWindow="-38400" yWindow="-21144" windowWidth="38400" windowHeight="21144" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Programs impacted population" sheetId="14" r:id="rId1"/>
@@ -54,12 +53,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="A36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000001000000}">
+    <comment ref="A36" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -97,12 +96,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000004000000}">
+    <comment ref="B6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -135,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000005000000}">
+    <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -658,10 +657,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -810,7 +809,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -879,7 +878,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -919,9 +918,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma 2" xfId="2" xr:uid="{126E324F-EC88-2347-908A-4D1058B147A7}"/>
+    <cellStyle name="Comma 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{BB5D12A2-9228-9D4C-A4D1-BB58F8453394}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -941,88 +940,9 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Baseline year population inputs"/>
-      <sheetName val="Causes of death"/>
-      <sheetName val="Demographic projections"/>
-      <sheetName val="Nutritional status distribution"/>
-      <sheetName val="Breastfeeding distribution"/>
-      <sheetName val="Time trends"/>
-      <sheetName val="Fertility risks"/>
-      <sheetName val="Incidence of conditions"/>
-      <sheetName val="Programs target population"/>
-      <sheetName val="Programs family planning"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="C3">
-            <v>0.36</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>0.1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>0.35199999999999998</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>0.8</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13">
-            <v>0.12</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14">
-            <v>0.05</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26">
-            <v>34.68</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27">
-            <v>39.32</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33">
-            <v>3.1E-2</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34">
-            <v>0.109</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35">
-            <v>0.36499999999999999</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="C47">
-            <v>0.42</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1324,7 +1244,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72500D8E-E1F8-2749-A3FA-E0EDE33D10C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1334,20 +1254,20 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="41" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53" style="41" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="41" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="41" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="41" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.83203125" style="41" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.83203125" style="41" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.1640625" style="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.796875" style="41" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.796875" style="41" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.796875" style="41" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.19921875" style="41" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="14.5" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="43" t="s">
         <v>116</v>
       </c>
@@ -1394,7 +1314,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>115</v>
       </c>
@@ -1441,7 +1361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="54" t="s">
         <v>127</v>
       </c>
@@ -1485,7 +1405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="54" t="s">
         <v>114</v>
       </c>
@@ -1529,7 +1449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="54" t="s">
         <v>113</v>
       </c>
@@ -1573,7 +1493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="54" t="s">
         <v>112</v>
       </c>
@@ -1617,7 +1537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="54" t="s">
         <v>154</v>
       </c>
@@ -1661,7 +1581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="54" t="s">
         <v>61</v>
       </c>
@@ -1705,7 +1625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="54" t="s">
         <v>79</v>
       </c>
@@ -1749,7 +1669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="54" t="s">
         <v>87</v>
       </c>
@@ -1793,7 +1713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="54" t="s">
         <v>62</v>
       </c>
@@ -1837,7 +1757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="54" t="s">
         <v>82</v>
       </c>
@@ -1881,7 +1801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="54" t="s">
         <v>96</v>
       </c>
@@ -1925,7 +1845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="54" t="s">
         <v>86</v>
       </c>
@@ -1969,7 +1889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="54" t="s">
         <v>89</v>
       </c>
@@ -2013,7 +1933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="54"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -2029,7 +1949,7 @@
       <c r="N16" s="46"/>
       <c r="O16" s="46"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="43" t="s">
         <v>106</v>
       </c>
@@ -2076,7 +1996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="43"/>
       <c r="B18" s="54" t="s">
         <v>101</v>
@@ -2121,7 +2041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="34" t="s">
         <v>148</v>
       </c>
@@ -2165,7 +2085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="34" t="s">
         <v>153</v>
       </c>
@@ -2209,7 +2129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="55" t="s">
         <v>70</v>
       </c>
@@ -2253,7 +2173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="54" t="s">
         <v>99</v>
       </c>
@@ -2297,7 +2217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="54" t="s">
         <v>100</v>
       </c>
@@ -2341,7 +2261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="54" t="s">
         <v>71</v>
       </c>
@@ -2385,7 +2305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="54"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -2401,7 +2321,7 @@
       <c r="N25" s="46"/>
       <c r="O25" s="46"/>
     </row>
-    <row r="26" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="43" t="s">
         <v>111</v>
       </c>
@@ -2449,7 +2369,7 @@
       </c>
       <c r="P26" s="56"/>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="35" t="s">
         <v>149</v>
       </c>
@@ -2493,7 +2413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="43"/>
       <c r="B28" s="35" t="s">
         <v>150</v>
@@ -2538,7 +2458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="35" t="s">
         <v>151</v>
       </c>
@@ -2582,7 +2502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="35" t="s">
         <v>152</v>
       </c>
@@ -2626,7 +2546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="54"/>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
@@ -2642,7 +2562,7 @@
       <c r="N31" s="46"/>
       <c r="O31" s="46"/>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="43" t="s">
         <v>110</v>
       </c>
@@ -2689,7 +2609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="54" t="s">
         <v>74</v>
       </c>
@@ -2733,7 +2653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="54" t="s">
         <v>76</v>
       </c>
@@ -2777,7 +2697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="54" t="s">
         <v>77</v>
       </c>
@@ -2821,7 +2741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="54" t="s">
         <v>69</v>
       </c>
@@ -2865,7 +2785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="42"/>
       <c r="B37" s="54" t="s">
         <v>90</v>
@@ -2910,7 +2830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="54" t="s">
         <v>91</v>
       </c>
@@ -2954,7 +2874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="54" t="s">
         <v>92</v>
       </c>
@@ -2998,7 +2918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="54" t="s">
         <v>94</v>
       </c>
@@ -3042,7 +2962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="54" t="s">
         <v>93</v>
       </c>
@@ -3095,7 +3015,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA57883-F6BA-144A-B403-BD5A394A6420}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
@@ -3105,15 +3025,15 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.19921875" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
     <col min="3" max="7" width="14" style="1" customWidth="1"/>
     <col min="8" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="33"/>
       <c r="C1" s="2" t="s">
@@ -3132,12 +3052,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="35" t="s">
         <v>82</v>
       </c>
@@ -3157,7 +3077,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>81</v>
       </c>
@@ -3168,7 +3088,7 @@
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="34" t="s">
         <v>147</v>
       </c>
@@ -3195,30 +3115,30 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9040D3C6-3BDE-7241-8EB1-F5AB6DDCE405}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
+    <sheetView zoomScale="111" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.6640625" style="54" customWidth="1"/>
+    <col min="1" max="1" width="47.69921875" style="54" customWidth="1"/>
     <col min="2" max="2" width="27.5" style="54" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" style="54" customWidth="1"/>
+    <col min="3" max="3" width="22.296875" style="54" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.296875" style="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.5" style="1"/>
-    <col min="8" max="8" width="15.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.796875" style="1" customWidth="1"/>
     <col min="9" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>73</v>
       </c>
@@ -3244,7 +3164,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="s">
         <v>96</v>
       </c>
@@ -3270,7 +3190,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="54" t="s">
         <v>84</v>
       </c>
@@ -3290,7 +3210,7 @@
         <v>0.53134328358208949</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C4" s="54" t="s">
         <v>88</v>
       </c>
@@ -3310,7 +3230,7 @@
         <v>0.38507462686567184</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="54" t="s">
         <v>62</v>
       </c>
@@ -3336,7 +3256,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" s="54" t="s">
         <v>88</v>
       </c>
@@ -3356,7 +3276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="54" t="s">
         <v>53</v>
       </c>
@@ -3379,7 +3299,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" s="54" t="s">
         <v>88</v>
       </c>
@@ -3399,7 +3319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="54" t="s">
         <v>61</v>
       </c>
@@ -3425,7 +3345,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" s="54" t="s">
         <v>88</v>
       </c>
@@ -3445,7 +3365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="54" t="s">
         <v>53</v>
       </c>
@@ -3468,7 +3388,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" s="54" t="s">
         <v>88</v>
       </c>
@@ -3488,7 +3408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
         <v>95</v>
       </c>
@@ -3514,7 +3434,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" s="54" t="s">
         <v>88</v>
       </c>
@@ -3535,7 +3455,7 @@
       </c>
       <c r="I14" s="27"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="54" t="s">
         <v>53</v>
       </c>
@@ -3559,7 +3479,7 @@
       </c>
       <c r="I15" s="27"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C16" s="54" t="s">
         <v>88</v>
       </c>
@@ -3580,7 +3500,7 @@
       </c>
       <c r="I16" s="27"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="54" t="s">
         <v>76</v>
       </c>
@@ -3607,7 +3527,7 @@
       </c>
       <c r="I17" s="27"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C18" s="54" t="s">
         <v>84</v>
       </c>
@@ -3628,7 +3548,7 @@
       </c>
       <c r="I18" s="27"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="54" t="s">
         <v>75</v>
       </c>
@@ -3654,7 +3574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C20" s="54" t="s">
         <v>84</v>
       </c>
@@ -3674,7 +3594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="54" t="s">
         <v>74</v>
       </c>
@@ -3700,7 +3620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C22" s="54" t="s">
         <v>84</v>
       </c>
@@ -3720,7 +3640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="54" t="s">
         <v>94</v>
       </c>
@@ -3746,7 +3666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C24" s="54" t="s">
         <v>84</v>
       </c>
@@ -3766,7 +3686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C25" s="54" t="s">
         <v>88</v>
       </c>
@@ -3786,7 +3706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="54" t="s">
         <v>93</v>
       </c>
@@ -3812,7 +3732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C27" s="54" t="s">
         <v>84</v>
       </c>
@@ -3832,7 +3752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C28" s="54" t="s">
         <v>88</v>
       </c>
@@ -3852,7 +3772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="54" t="s">
         <v>92</v>
       </c>
@@ -3878,7 +3798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C30" s="54" t="s">
         <v>84</v>
       </c>
@@ -3898,7 +3818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C31" s="54" t="s">
         <v>88</v>
       </c>
@@ -3918,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="54" t="s">
         <v>91</v>
       </c>
@@ -3944,7 +3864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C33" s="54" t="s">
         <v>84</v>
       </c>
@@ -3964,7 +3884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C34" s="54" t="s">
         <v>88</v>
       </c>
@@ -3984,7 +3904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="54" t="s">
         <v>90</v>
       </c>
@@ -4010,7 +3930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C36" s="54" t="s">
         <v>84</v>
       </c>
@@ -4030,7 +3950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C37" s="54" t="s">
         <v>88</v>
       </c>
@@ -4050,7 +3970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="54" t="s">
         <v>89</v>
       </c>
@@ -4076,7 +3996,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C39" s="54" t="s">
         <v>84</v>
       </c>
@@ -4096,7 +4016,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C40" s="54" t="s">
         <v>88</v>
       </c>
@@ -4116,7 +4036,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="54" t="s">
         <v>40</v>
       </c>
@@ -4139,7 +4059,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C42" s="54" t="s">
         <v>84</v>
       </c>
@@ -4159,7 +4079,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C43" s="54" t="s">
         <v>88</v>
       </c>
@@ -4179,7 +4099,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="54" t="s">
         <v>87</v>
       </c>
@@ -4205,7 +4125,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C45" s="54" t="s">
         <v>84</v>
       </c>
@@ -4225,7 +4145,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="54" t="s">
         <v>86</v>
       </c>
@@ -4251,7 +4171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C47" s="54" t="s">
         <v>84</v>
       </c>
@@ -4271,7 +4191,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="54" t="s">
         <v>154</v>
       </c>
@@ -4297,7 +4217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C49" s="54" t="s">
         <v>84</v>
       </c>
@@ -4324,26 +4244,26 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E47D49-C23B-C149-93F4-BADEC149BABD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.296875" style="1" customWidth="1"/>
     <col min="4" max="7" width="15.5" style="1" customWidth="1"/>
     <col min="8" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>73</v>
       </c>
@@ -4365,7 +4285,7 @@
       </c>
       <c r="H1" s="30"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>101</v>
       </c>
@@ -4389,7 +4309,7 @@
       </c>
       <c r="H2" s="34"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>84</v>
       </c>
@@ -4407,7 +4327,7 @@
       </c>
       <c r="H3" s="37"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>100</v>
       </c>
@@ -4431,7 +4351,7 @@
       </c>
       <c r="H4" s="37"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="27"/>
       <c r="C5" s="1" t="s">
         <v>84</v>
@@ -4450,7 +4370,7 @@
       </c>
       <c r="H5" s="34"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>99</v>
       </c>
@@ -4474,7 +4394,7 @@
       </c>
       <c r="H6" s="34"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="C7" s="1" t="s">
         <v>84</v>
@@ -4499,32 +4419,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56CD15F7-5952-6543-B031-25026EC75539}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>73</v>
       </c>
@@ -4559,7 +4479,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="s">
         <v>72</v>
       </c>
@@ -4576,7 +4496,7 @@
       <c r="J2" s="50"/>
       <c r="K2" s="50"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
         <v>101</v>
       </c>
@@ -4593,7 +4513,7 @@
       <c r="J3" s="50"/>
       <c r="K3" s="50"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="54" t="s">
         <v>95</v>
       </c>
@@ -4610,7 +4530,7 @@
       <c r="J4" s="50"/>
       <c r="K4" s="50"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="54" t="s">
         <v>127</v>
       </c>
@@ -4627,7 +4547,7 @@
       <c r="J5" s="50"/>
       <c r="K5" s="50"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="54" t="s">
         <v>118</v>
       </c>
@@ -4646,7 +4566,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="54" t="s">
         <v>75</v>
       </c>
@@ -4665,7 +4585,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="50"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="54" t="s">
         <v>74</v>
       </c>
@@ -4684,7 +4604,7 @@
       <c r="J8" s="50"/>
       <c r="K8" s="50"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="54" t="s">
         <v>76</v>
       </c>
@@ -4703,7 +4623,7 @@
       <c r="J9" s="50"/>
       <c r="K9" s="50"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>149</v>
       </c>
@@ -4720,7 +4640,7 @@
       <c r="J10" s="50"/>
       <c r="K10" s="50"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>150</v>
       </c>
@@ -4737,7 +4657,7 @@
       <c r="J11" s="50"/>
       <c r="K11" s="50"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>151</v>
       </c>
@@ -4754,7 +4674,7 @@
       <c r="J12" s="50"/>
       <c r="K12" s="50"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>152</v>
       </c>
@@ -4771,7 +4691,7 @@
       <c r="J13" s="50"/>
       <c r="K13" s="50"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
         <v>148</v>
       </c>
@@ -4790,7 +4710,7 @@
       <c r="J14" s="50"/>
       <c r="K14" s="50"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
         <v>153</v>
       </c>
@@ -4809,7 +4729,7 @@
       <c r="J15" s="50"/>
       <c r="K15" s="50"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="54" t="s">
         <v>70</v>
       </c>
@@ -4830,7 +4750,7 @@
       <c r="J16" s="50"/>
       <c r="K16" s="50"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="54" t="s">
         <v>77</v>
       </c>
@@ -4847,7 +4767,7 @@
       <c r="J17" s="50"/>
       <c r="K17" s="50"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="54" t="s">
         <v>114</v>
       </c>
@@ -4866,7 +4786,7 @@
       <c r="J18" s="50"/>
       <c r="K18" s="50"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="54" t="s">
         <v>113</v>
       </c>
@@ -4885,7 +4805,7 @@
       <c r="J19" s="50"/>
       <c r="K19" s="50"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="54" t="s">
         <v>112</v>
       </c>
@@ -4904,7 +4824,7 @@
       <c r="J20" s="50"/>
       <c r="K20" s="50"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="54" t="s">
         <v>154</v>
       </c>
@@ -4923,7 +4843,7 @@
       <c r="J21" s="50"/>
       <c r="K21" s="50"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="54" t="s">
         <v>61</v>
       </c>
@@ -4944,7 +4864,7 @@
       <c r="J22" s="50"/>
       <c r="K22" s="50"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="54" t="s">
         <v>69</v>
       </c>
@@ -4963,7 +4883,7 @@
       <c r="J23" s="50"/>
       <c r="K23" s="50"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="54" t="s">
         <v>99</v>
       </c>
@@ -4980,7 +4900,7 @@
       <c r="J24" s="50"/>
       <c r="K24" s="50"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="54" t="s">
         <v>100</v>
       </c>
@@ -4997,7 +4917,7 @@
       <c r="J25" s="50"/>
       <c r="K25" s="50"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="54" t="s">
         <v>79</v>
       </c>
@@ -5014,7 +4934,7 @@
       <c r="J26" s="50"/>
       <c r="K26" s="50"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="54" t="s">
         <v>71</v>
       </c>
@@ -5033,7 +4953,7 @@
       <c r="J27" s="50"/>
       <c r="K27" s="50"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="54" t="s">
         <v>87</v>
       </c>
@@ -5050,7 +4970,7 @@
       <c r="J28" s="50"/>
       <c r="K28" s="50"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="54" t="s">
         <v>62</v>
       </c>
@@ -5069,7 +4989,7 @@
       <c r="J29" s="50"/>
       <c r="K29" s="50"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="54" t="s">
         <v>82</v>
       </c>
@@ -5086,7 +5006,7 @@
       <c r="J30" s="50"/>
       <c r="K30" s="50"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="54" t="s">
         <v>96</v>
       </c>
@@ -5105,7 +5025,7 @@
       <c r="J31" s="50"/>
       <c r="K31" s="50"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="54" t="s">
         <v>90</v>
       </c>
@@ -5124,7 +5044,7 @@
       <c r="J32" s="50"/>
       <c r="K32" s="50"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="54" t="s">
         <v>91</v>
       </c>
@@ -5143,7 +5063,7 @@
       <c r="J33" s="50"/>
       <c r="K33" s="50"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="54" t="s">
         <v>92</v>
       </c>
@@ -5162,7 +5082,7 @@
       <c r="J34" s="50"/>
       <c r="K34" s="50"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="54" t="s">
         <v>94</v>
       </c>
@@ -5181,7 +5101,7 @@
       <c r="J35" s="50"/>
       <c r="K35" s="50"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="54" t="s">
         <v>93</v>
       </c>
@@ -5200,7 +5120,7 @@
       <c r="J36" s="50"/>
       <c r="K36" s="50"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="54" t="s">
         <v>86</v>
       </c>
@@ -5217,7 +5137,7 @@
       <c r="J37" s="50"/>
       <c r="K37" s="50"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="54" t="s">
         <v>89</v>
       </c>
@@ -5247,7 +5167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CECF0B0-479E-404F-9D11-8B3773BD5FE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
@@ -5257,22 +5177,22 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>126</v>
       </c>
@@ -5307,7 +5227,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
@@ -5336,7 +5256,7 @@
       <c r="J2" s="50"/>
       <c r="K2" s="50"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -5365,7 +5285,7 @@
       <c r="J3" s="50"/>
       <c r="K3" s="50"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
@@ -5394,7 +5314,7 @@
       <c r="J4" s="50"/>
       <c r="K4" s="50"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -5423,7 +5343,7 @@
       <c r="J5" s="50"/>
       <c r="K5" s="50"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -5452,7 +5372,7 @@
       <c r="J6" s="50"/>
       <c r="K6" s="50"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -5473,7 +5393,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="50"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -5494,7 +5414,7 @@
       <c r="J8" s="50"/>
       <c r="K8" s="50"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -5515,7 +5435,7 @@
       <c r="J9" s="50"/>
       <c r="K9" s="50"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -5536,7 +5456,7 @@
       <c r="J10" s="50"/>
       <c r="K10" s="50"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -5557,7 +5477,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -5576,7 +5496,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -5595,7 +5515,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -5620,25 +5540,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8CBF0B9-B848-6341-85A5-EAE471A5E15B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="43.296875" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" style="1" customWidth="1"/>
     <col min="4" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>109</v>
       </c>
@@ -5664,7 +5584,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>133</v>
       </c>
@@ -5690,7 +5610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="57"/>
       <c r="C3" s="1" t="s">
         <v>104</v>
@@ -5712,7 +5632,7 @@
       </c>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="57"/>
       <c r="C4" s="1" t="s">
         <v>102</v>
@@ -5734,7 +5654,7 @@
       </c>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="57" t="s">
         <v>36</v>
       </c>
@@ -5758,7 +5678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="57"/>
       <c r="C6" s="1" t="s">
         <v>104</v>
@@ -5779,7 +5699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="57"/>
       <c r="C7" s="1" t="s">
         <v>102</v>
@@ -5800,7 +5720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="57" t="s">
         <v>35</v>
       </c>
@@ -5823,7 +5743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="57"/>
       <c r="C9" s="1" t="s">
         <v>104</v>
@@ -5844,7 +5764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="57"/>
       <c r="C10" s="1" t="s">
         <v>102</v>
@@ -5865,7 +5785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="57" t="s">
         <v>34</v>
       </c>
@@ -5888,7 +5808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="57"/>
       <c r="C12" s="1" t="s">
         <v>104</v>
@@ -5909,7 +5829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="57"/>
       <c r="C13" s="1" t="s">
         <v>102</v>
@@ -5930,7 +5850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="57" t="s">
         <v>33</v>
       </c>
@@ -5953,7 +5873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="57"/>
       <c r="C15" s="1" t="s">
         <v>104</v>
@@ -5974,7 +5894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="57"/>
       <c r="C16" s="1" t="s">
         <v>102</v>
@@ -5995,7 +5915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="38" t="s">
         <v>103</v>
       </c>
@@ -6018,7 +5938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>135</v>
       </c>
@@ -6044,7 +5964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" s="57"/>
       <c r="C20" s="1" t="s">
         <v>104</v>
@@ -6065,7 +5985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" s="57"/>
       <c r="C21" s="1" t="s">
         <v>102</v>
@@ -6086,7 +6006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" s="57" t="s">
         <v>36</v>
       </c>
@@ -6109,7 +6029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="57"/>
       <c r="C23" s="1" t="s">
         <v>104</v>
@@ -6130,7 +6050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="57"/>
       <c r="C24" s="1" t="s">
         <v>102</v>
@@ -6151,7 +6071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="57" t="s">
         <v>35</v>
       </c>
@@ -6174,7 +6094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="57"/>
       <c r="C26" s="1" t="s">
         <v>104</v>
@@ -6195,7 +6115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="57"/>
       <c r="C27" s="1" t="s">
         <v>102</v>
@@ -6216,7 +6136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="57" t="s">
         <v>34</v>
       </c>
@@ -6239,7 +6159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="57"/>
       <c r="C29" s="1" t="s">
         <v>104</v>
@@ -6260,7 +6180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="57"/>
       <c r="C30" s="1" t="s">
         <v>102</v>
@@ -6281,7 +6201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="57" t="s">
         <v>33</v>
       </c>
@@ -6304,7 +6224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="57"/>
       <c r="C32" s="1" t="s">
         <v>104</v>
@@ -6325,7 +6245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="57"/>
       <c r="C33" s="1" t="s">
         <v>102</v>
@@ -6346,7 +6266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="38" t="s">
         <v>103</v>
       </c>
@@ -6369,7 +6289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="40" t="s">
         <v>134</v>
       </c>
@@ -6395,7 +6315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="57"/>
       <c r="C37" s="1" t="s">
         <v>104</v>
@@ -6416,7 +6336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="57"/>
       <c r="C38" s="1" t="s">
         <v>102</v>
@@ -6437,7 +6357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="57" t="s">
         <v>36</v>
       </c>
@@ -6460,7 +6380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="57"/>
       <c r="C40" s="1" t="s">
         <v>104</v>
@@ -6481,7 +6401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="57"/>
       <c r="C41" s="1" t="s">
         <v>102</v>
@@ -6502,7 +6422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="57" t="s">
         <v>35</v>
       </c>
@@ -6525,7 +6445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="57"/>
       <c r="C43" s="1" t="s">
         <v>104</v>
@@ -6546,7 +6466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="57"/>
       <c r="C44" s="1" t="s">
         <v>102</v>
@@ -6567,7 +6487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="57" t="s">
         <v>34</v>
       </c>
@@ -6590,7 +6510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" s="57"/>
       <c r="C46" s="1" t="s">
         <v>104</v>
@@ -6611,7 +6531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" s="57"/>
       <c r="C47" s="1" t="s">
         <v>102</v>
@@ -6632,7 +6552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B48" s="57" t="s">
         <v>33</v>
       </c>
@@ -6655,7 +6575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="57"/>
       <c r="C49" s="1" t="s">
         <v>104</v>
@@ -6676,7 +6596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="57"/>
       <c r="C50" s="1" t="s">
         <v>102</v>
@@ -6697,7 +6617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="39" t="s">
         <v>103</v>
       </c>
@@ -6722,11 +6642,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -6737,6 +6652,11 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6744,7 +6664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46A5AE56-D188-7745-8F54-E646EDECDF1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
   </sheetPr>
@@ -6754,22 +6674,22 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.69921875" style="1" customWidth="1"/>
     <col min="5" max="6" width="13.5" style="1" customWidth="1"/>
     <col min="7" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="24"/>
       <c r="C2" s="23" t="s">
         <v>22</v>
@@ -6784,7 +6704,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>156</v>
       </c>
@@ -6794,7 +6714,7 @@
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
         <v>18</v>
       </c>
@@ -6811,7 +6731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="19" t="s">
         <v>17</v>
       </c>
@@ -6828,7 +6748,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
         <v>16</v>
       </c>
@@ -6845,7 +6765,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
         <v>15</v>
       </c>
@@ -6862,13 +6782,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="13"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -6886,14 +6806,14 @@
       </c>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="13"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>13</v>
       </c>
@@ -6903,7 +6823,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -6913,7 +6833,7 @@
       <c r="F12" s="11"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
@@ -6931,7 +6851,7 @@
       </c>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
@@ -6949,7 +6869,7 @@
       </c>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
@@ -6967,7 +6887,7 @@
       </c>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="12"/>
@@ -6976,7 +6896,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
@@ -6987,7 +6907,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
         <v>7</v>
       </c>
@@ -7005,7 +6925,7 @@
       </c>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
         <v>6</v>
       </c>
@@ -7023,7 +6943,7 @@
       </c>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
         <v>5</v>
       </c>
@@ -7041,7 +6961,7 @@
       </c>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
         <v>4</v>
       </c>
@@ -7059,7 +6979,7 @@
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
         <v>3</v>
       </c>
@@ -7076,7 +6996,7 @@
         <v>999.99</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
         <v>2</v>
       </c>
@@ -7093,7 +7013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>1</v>
       </c>
@@ -7110,7 +7030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
         <v>0</v>
       </c>
@@ -7127,10 +7047,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
     </row>
   </sheetData>
@@ -7140,33 +7060,33 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A071D1F5-6005-5848-97E7-6A636059DF4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
   </sheetPr>
   <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.19921875" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" customWidth="1"/>
-    <col min="4" max="8" width="13.33203125" style="1" customWidth="1"/>
-    <col min="9" max="12" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="13.296875" style="1" customWidth="1"/>
+    <col min="9" max="12" width="13.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>125</v>
       </c>
@@ -7200,7 +7120,7 @@
       <c r="O2" s="28"/>
       <c r="P2" s="28"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>41</v>
@@ -7232,7 +7152,7 @@
       <c r="O3" s="25"/>
       <c r="P3" s="25"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C4" s="26" t="s">
         <v>137</v>
       </c>
@@ -7260,7 +7180,7 @@
       <c r="O4" s="25"/>
       <c r="P4" s="25"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C5" s="26" t="s">
         <v>138</v>
       </c>
@@ -7288,7 +7208,7 @@
       <c r="O5" s="25"/>
       <c r="P5" s="25"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C6" s="26" t="s">
         <v>139</v>
       </c>
@@ -7316,7 +7236,7 @@
       <c r="O6" s="25"/>
       <c r="P6" s="25"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>40</v>
       </c>
@@ -7347,7 +7267,7 @@
       <c r="O7" s="25"/>
       <c r="P7" s="25"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C8" s="26" t="s">
         <v>137</v>
       </c>
@@ -7375,7 +7295,7 @@
       <c r="O8" s="25"/>
       <c r="P8" s="25"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C9" s="26" t="s">
         <v>138</v>
       </c>
@@ -7403,7 +7323,7 @@
       <c r="O9" s="25"/>
       <c r="P9" s="25"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C10" s="26" t="s">
         <v>139</v>
       </c>
@@ -7431,7 +7351,7 @@
       <c r="O10" s="25"/>
       <c r="P10" s="25"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>49</v>
       </c>
@@ -7462,7 +7382,7 @@
       <c r="O11" s="25"/>
       <c r="P11" s="25"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" s="26" t="s">
         <v>137</v>
       </c>
@@ -7490,7 +7410,7 @@
       <c r="O12" s="25"/>
       <c r="P12" s="25"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" s="26" t="s">
         <v>138</v>
       </c>
@@ -7518,7 +7438,7 @@
       <c r="O13" s="25"/>
       <c r="P13" s="25"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="26" t="s">
         <v>139</v>
       </c>
@@ -7546,7 +7466,7 @@
       <c r="O14" s="25"/>
       <c r="P14" s="25"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>48</v>
       </c>
@@ -7577,7 +7497,7 @@
       <c r="O15" s="25"/>
       <c r="P15" s="25"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" s="26" t="s">
         <v>137</v>
       </c>
@@ -7605,7 +7525,7 @@
       <c r="O16" s="25"/>
       <c r="P16" s="25"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C17" s="26" t="s">
         <v>138</v>
       </c>
@@ -7633,7 +7553,7 @@
       <c r="O17" s="25"/>
       <c r="P17" s="25"/>
     </row>
-    <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="26" t="s">
         <v>139</v>
       </c>
@@ -7661,7 +7581,7 @@
       <c r="O18" s="25"/>
       <c r="P18" s="25"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B19" s="27" t="s">
         <v>39</v>
       </c>
@@ -7692,7 +7612,7 @@
       <c r="O19" s="25"/>
       <c r="P19" s="25"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C20" s="26" t="s">
         <v>137</v>
       </c>
@@ -7720,7 +7640,7 @@
       <c r="O20" s="25"/>
       <c r="P20" s="25"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C21" s="26" t="s">
         <v>138</v>
       </c>
@@ -7748,7 +7668,7 @@
       <c r="O21" s="25"/>
       <c r="P21" s="25"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C22" s="26" t="s">
         <v>139</v>
       </c>
@@ -7776,7 +7696,7 @@
       <c r="O22" s="25"/>
       <c r="P22" s="25"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B23" s="27" t="s">
         <v>47</v>
       </c>
@@ -7807,7 +7727,7 @@
       <c r="O23" s="25"/>
       <c r="P23" s="25"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C24" s="26" t="s">
         <v>137</v>
       </c>
@@ -7835,7 +7755,7 @@
       <c r="O24" s="25"/>
       <c r="P24" s="25"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C25" s="26" t="s">
         <v>138</v>
       </c>
@@ -7863,7 +7783,7 @@
       <c r="O25" s="25"/>
       <c r="P25" s="25"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C26" s="26" t="s">
         <v>139</v>
       </c>
@@ -7891,12 +7811,12 @@
       <c r="O26" s="25"/>
       <c r="P26" s="25"/>
     </row>
-    <row r="28" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="31" t="s">
         <v>130</v>
       </c>
@@ -7930,7 +7850,7 @@
       <c r="O29" s="28"/>
       <c r="P29" s="28"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="1" t="s">
         <v>41</v>
@@ -7962,7 +7882,7 @@
       <c r="O30" s="25"/>
       <c r="P30" s="25"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C31" s="26" t="s">
         <v>137</v>
       </c>
@@ -7990,7 +7910,7 @@
       <c r="O31" s="25"/>
       <c r="P31" s="25"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C32" s="26" t="s">
         <v>53</v>
       </c>
@@ -8018,7 +7938,7 @@
       <c r="O32" s="25"/>
       <c r="P32" s="25"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C33" s="26" t="s">
         <v>52</v>
       </c>
@@ -8046,7 +7966,7 @@
       <c r="O33" s="25"/>
       <c r="P33" s="25"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>40</v>
       </c>
@@ -8077,7 +7997,7 @@
       <c r="O34" s="25"/>
       <c r="P34" s="25"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C35" s="26" t="s">
         <v>137</v>
       </c>
@@ -8105,7 +8025,7 @@
       <c r="O35" s="25"/>
       <c r="P35" s="25"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C36" s="26" t="s">
         <v>53</v>
       </c>
@@ -8133,7 +8053,7 @@
       <c r="O36" s="25"/>
       <c r="P36" s="25"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C37" s="26" t="s">
         <v>52</v>
       </c>
@@ -8161,7 +8081,7 @@
       <c r="O37" s="25"/>
       <c r="P37" s="25"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>49</v>
       </c>
@@ -8192,7 +8112,7 @@
       <c r="O38" s="25"/>
       <c r="P38" s="25"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C39" s="26" t="s">
         <v>137</v>
       </c>
@@ -8220,7 +8140,7 @@
       <c r="O39" s="25"/>
       <c r="P39" s="25"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C40" s="26" t="s">
         <v>53</v>
       </c>
@@ -8248,7 +8168,7 @@
       <c r="O40" s="25"/>
       <c r="P40" s="25"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C41" s="26" t="s">
         <v>52</v>
       </c>
@@ -8276,7 +8196,7 @@
       <c r="O41" s="25"/>
       <c r="P41" s="25"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>48</v>
       </c>
@@ -8307,7 +8227,7 @@
       <c r="O42" s="25"/>
       <c r="P42" s="25"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C43" s="26" t="s">
         <v>137</v>
       </c>
@@ -8335,7 +8255,7 @@
       <c r="O43" s="25"/>
       <c r="P43" s="25"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C44" s="26" t="s">
         <v>53</v>
       </c>
@@ -8363,7 +8283,7 @@
       <c r="O44" s="25"/>
       <c r="P44" s="25"/>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C45" s="26" t="s">
         <v>52</v>
       </c>
@@ -8391,7 +8311,7 @@
       <c r="O45" s="25"/>
       <c r="P45" s="25"/>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>39</v>
       </c>
@@ -8422,7 +8342,7 @@
       <c r="O46" s="25"/>
       <c r="P46" s="25"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C47" s="26" t="s">
         <v>137</v>
       </c>
@@ -8450,7 +8370,7 @@
       <c r="O47" s="25"/>
       <c r="P47" s="25"/>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C48" s="26" t="s">
         <v>53</v>
       </c>
@@ -8478,7 +8398,7 @@
       <c r="O48" s="25"/>
       <c r="P48" s="25"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C49" s="26" t="s">
         <v>52</v>
       </c>
@@ -8506,7 +8426,7 @@
       <c r="O49" s="25"/>
       <c r="P49" s="25"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>47</v>
       </c>
@@ -8537,7 +8457,7 @@
       <c r="O50" s="25"/>
       <c r="P50" s="25"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C51" s="26" t="s">
         <v>137</v>
       </c>
@@ -8565,7 +8485,7 @@
       <c r="O51" s="25"/>
       <c r="P51" s="25"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C52" s="26" t="s">
         <v>53</v>
       </c>
@@ -8593,7 +8513,7 @@
       <c r="O52" s="25"/>
       <c r="P52" s="25"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C53" s="26" t="s">
         <v>52</v>
       </c>
@@ -8621,16 +8541,16 @@
       <c r="O53" s="25"/>
       <c r="P53" s="25"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C54" s="26"/>
       <c r="D54" s="26"/>
     </row>
-    <row r="55" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="27" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:16" s="27" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A56" s="31" t="s">
         <v>124</v>
       </c>
@@ -8658,7 +8578,7 @@
       <c r="O56" s="28"/>
       <c r="P56" s="28"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="1" t="s">
         <v>46</v>
@@ -8684,7 +8604,7 @@
       <c r="O57" s="25"/>
       <c r="P57" s="25"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C58" s="26" t="s">
         <v>141</v>
       </c>
@@ -8706,7 +8626,7 @@
       <c r="O58" s="25"/>
       <c r="P58" s="25"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>45</v>
       </c>
@@ -8731,7 +8651,7 @@
       <c r="O59" s="25"/>
       <c r="P59" s="25"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C60" s="26" t="s">
         <v>141</v>
       </c>
@@ -8753,7 +8673,7 @@
       <c r="O60" s="25"/>
       <c r="P60" s="25"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>44</v>
       </c>
@@ -8778,7 +8698,7 @@
       <c r="O61" s="25"/>
       <c r="P61" s="25"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C62" s="26" t="s">
         <v>141</v>
       </c>
@@ -8800,16 +8720,16 @@
       <c r="O62" s="25"/>
       <c r="P62" s="25"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C63" s="26"/>
       <c r="D63" s="26"/>
     </row>
-    <row r="64" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="27" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:16" s="27" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A65" s="31" t="s">
         <v>121</v>
       </c>
@@ -8843,7 +8763,7 @@
       <c r="O65" s="28"/>
       <c r="P65" s="28"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="51"/>
       <c r="B66" s="1" t="s">
         <v>7</v>
@@ -8875,7 +8795,7 @@
       <c r="O66" s="25"/>
       <c r="P66" s="25"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C67" s="26" t="s">
         <v>143</v>
       </c>
@@ -8903,7 +8823,7 @@
       <c r="O67" s="25"/>
       <c r="P67" s="25"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C68" s="26" t="s">
         <v>144</v>
       </c>
@@ -8931,7 +8851,7 @@
       <c r="O68" s="25"/>
       <c r="P68" s="25"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C69" s="26" t="s">
         <v>131</v>
       </c>
@@ -8959,7 +8879,7 @@
       <c r="O69" s="25"/>
       <c r="P69" s="25"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>6</v>
       </c>
@@ -8990,7 +8910,7 @@
       <c r="O70" s="25"/>
       <c r="P70" s="25"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C71" s="26" t="s">
         <v>143</v>
       </c>
@@ -9018,7 +8938,7 @@
       <c r="O71" s="25"/>
       <c r="P71" s="25"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C72" s="26" t="s">
         <v>144</v>
       </c>
@@ -9046,7 +8966,7 @@
       <c r="O72" s="25"/>
       <c r="P72" s="25"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C73" s="26" t="s">
         <v>131</v>
       </c>
@@ -9074,7 +8994,7 @@
       <c r="O73" s="25"/>
       <c r="P73" s="25"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>5</v>
       </c>
@@ -9105,7 +9025,7 @@
       <c r="O74" s="25"/>
       <c r="P74" s="25"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C75" s="26" t="s">
         <v>143</v>
       </c>
@@ -9133,7 +9053,7 @@
       <c r="O75" s="25"/>
       <c r="P75" s="25"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C76" s="26" t="s">
         <v>144</v>
       </c>
@@ -9161,7 +9081,7 @@
       <c r="O76" s="25"/>
       <c r="P76" s="25"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C77" s="26" t="s">
         <v>131</v>
       </c>
@@ -9189,7 +9109,7 @@
       <c r="O77" s="25"/>
       <c r="P77" s="25"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>3</v>
       </c>
@@ -9220,7 +9140,7 @@
       <c r="O78" s="25"/>
       <c r="P78" s="25"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C79" s="26" t="s">
         <v>143</v>
       </c>
@@ -9248,7 +9168,7 @@
       <c r="O79" s="25"/>
       <c r="P79" s="25"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C80" s="26" t="s">
         <v>144</v>
       </c>
@@ -9276,7 +9196,7 @@
       <c r="O80" s="25"/>
       <c r="P80" s="25"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C81" s="26" t="s">
         <v>131</v>
       </c>
@@ -9304,7 +9224,7 @@
       <c r="O81" s="25"/>
       <c r="P81" s="25"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>41</v>
       </c>
@@ -9335,7 +9255,7 @@
       <c r="O82" s="25"/>
       <c r="P82" s="25"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C83" s="26" t="s">
         <v>143</v>
       </c>
@@ -9363,7 +9283,7 @@
       <c r="O83" s="25"/>
       <c r="P83" s="25"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C84" s="26" t="s">
         <v>144</v>
       </c>
@@ -9391,7 +9311,7 @@
       <c r="O84" s="25"/>
       <c r="P84" s="25"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C85" s="26" t="s">
         <v>131</v>
       </c>
@@ -9419,7 +9339,7 @@
       <c r="O85" s="25"/>
       <c r="P85" s="25"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>40</v>
       </c>
@@ -9450,7 +9370,7 @@
       <c r="O86" s="25"/>
       <c r="P86" s="25"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C87" s="26" t="s">
         <v>143</v>
       </c>
@@ -9478,7 +9398,7 @@
       <c r="O87" s="25"/>
       <c r="P87" s="25"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C88" s="26" t="s">
         <v>144</v>
       </c>
@@ -9506,7 +9426,7 @@
       <c r="O88" s="25"/>
       <c r="P88" s="25"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C89" s="26" t="s">
         <v>131</v>
       </c>
@@ -9534,7 +9454,7 @@
       <c r="O89" s="25"/>
       <c r="P89" s="25"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>49</v>
       </c>
@@ -9565,7 +9485,7 @@
       <c r="O90" s="25"/>
       <c r="P90" s="25"/>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C91" s="26" t="s">
         <v>143</v>
       </c>
@@ -9593,7 +9513,7 @@
       <c r="O91" s="25"/>
       <c r="P91" s="25"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C92" s="26" t="s">
         <v>144</v>
       </c>
@@ -9621,7 +9541,7 @@
       <c r="O92" s="25"/>
       <c r="P92" s="25"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C93" s="26" t="s">
         <v>131</v>
       </c>
@@ -9649,7 +9569,7 @@
       <c r="O93" s="25"/>
       <c r="P93" s="25"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>39</v>
       </c>
@@ -9680,7 +9600,7 @@
       <c r="O94" s="25"/>
       <c r="P94" s="25"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C95" s="26" t="s">
         <v>143</v>
       </c>
@@ -9708,7 +9628,7 @@
       <c r="O95" s="25"/>
       <c r="P95" s="25"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C96" s="26" t="s">
         <v>144</v>
       </c>
@@ -9736,7 +9656,7 @@
       <c r="O96" s="25"/>
       <c r="P96" s="25"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C97" s="26" t="s">
         <v>131</v>
       </c>
@@ -9764,7 +9684,7 @@
       <c r="O97" s="25"/>
       <c r="P97" s="25"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
         <v>129</v>
       </c>
@@ -9795,7 +9715,7 @@
       <c r="O98" s="25"/>
       <c r="P98" s="25"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C99" s="26" t="s">
         <v>143</v>
       </c>
@@ -9823,7 +9743,7 @@
       <c r="O99" s="25"/>
       <c r="P99" s="25"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C100" s="26" t="s">
         <v>144</v>
       </c>
@@ -9851,7 +9771,7 @@
       <c r="O100" s="25"/>
       <c r="P100" s="25"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C101" s="26" t="s">
         <v>131</v>
       </c>
@@ -9879,12 +9799,12 @@
       <c r="O101" s="25"/>
       <c r="P101" s="25"/>
     </row>
-    <row r="103" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="18" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="27" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:16" s="27" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A104" s="31" t="s">
         <v>41</v>
       </c>
@@ -9918,7 +9838,7 @@
       <c r="O104" s="28"/>
       <c r="P104" s="28"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="27"/>
       <c r="C105" s="26" t="s">
@@ -9948,7 +9868,7 @@
       <c r="O105" s="25"/>
       <c r="P105" s="25"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C106" s="26" t="s">
         <v>143</v>
       </c>
@@ -9976,7 +9896,7 @@
       <c r="O106" s="25"/>
       <c r="P106" s="25"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C107" s="26" t="s">
         <v>144</v>
       </c>
@@ -10004,7 +9924,7 @@
       <c r="O107" s="25"/>
       <c r="P107" s="25"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C108" s="26" t="s">
         <v>131</v>
       </c>
@@ -10032,7 +9952,7 @@
       <c r="O108" s="25"/>
       <c r="P108" s="25"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
     </row>
   </sheetData>
@@ -10042,34 +9962,34 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B68D146-9822-8949-9710-2B0CED6E1AF5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.19921875" style="1" customWidth="1"/>
     <col min="2" max="2" width="40" style="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.796875" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.296875" style="1" customWidth="1"/>
     <col min="8" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
         <v>132</v>
       </c>
@@ -10090,7 +10010,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>65</v>
       </c>
@@ -10110,7 +10030,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="6" t="s">
         <v>128</v>
@@ -10131,12 +10051,12 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>62</v>
       </c>
@@ -10156,7 +10076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>61</v>
       </c>
@@ -10176,7 +10096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>89</v>
       </c>
@@ -10196,7 +10116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -10204,12 +10124,12 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="3" t="s">
         <v>154</v>
@@ -10230,16 +10150,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="51" t="s">
         <v>130</v>
       </c>
@@ -10262,7 +10182,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="6" t="s">
         <v>58</v>
@@ -10283,7 +10203,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="51" t="s">
         <v>124</v>
       </c>
@@ -10291,28 +10211,28 @@
         <v>145</v>
       </c>
       <c r="C16" s="4">
-        <v>1.0249999999999999</v>
+        <v>1</v>
       </c>
       <c r="D16" s="4">
-        <v>1.0249999999999999</v>
+        <v>1</v>
       </c>
       <c r="E16" s="4">
-        <v>1.0249999999999999</v>
+        <v>1</v>
       </c>
       <c r="F16" s="4">
-        <v>1.0249999999999999</v>
+        <v>1</v>
       </c>
       <c r="G16" s="4">
-        <v>1.0249999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="43" t="s">
         <v>27</v>
       </c>
@@ -10326,7 +10246,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>118</v>
       </c>
@@ -10351,7 +10271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89648217-9EAE-DE4C-92EB-949BD9BE1394}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
@@ -10361,7 +10281,7 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47" style="1" customWidth="1"/>
     <col min="2" max="6" width="14.5" style="1"/>
@@ -10370,7 +10290,7 @@
     <col min="9" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>73</v>
       </c>
@@ -10388,7 +10308,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>72</v>
       </c>
@@ -10408,7 +10328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34"/>
       <c r="B3" s="34" t="s">
         <v>67</v>
@@ -10426,7 +10346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>148</v>
       </c>
@@ -10446,7 +10366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="34"/>
       <c r="B5" s="34" t="s">
         <v>67</v>
@@ -10464,7 +10384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>153</v>
       </c>
@@ -10484,7 +10404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="34"/>
       <c r="B7" s="34" t="s">
         <v>67</v>
@@ -10502,7 +10422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
         <v>70</v>
       </c>
@@ -10522,7 +10442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34"/>
       <c r="B9" s="34" t="s">
         <v>67</v>
@@ -10540,7 +10460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
         <v>69</v>
       </c>
@@ -10560,7 +10480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="34"/>
       <c r="B11" s="34" t="s">
         <v>67</v>
@@ -10578,7 +10498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
         <v>71</v>
       </c>
@@ -10598,7 +10518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="34"/>
       <c r="B13" s="34" t="s">
         <v>67</v>
@@ -10616,10 +10536,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="34"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="34"/>
     </row>
   </sheetData>
@@ -10629,7 +10549,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E60D92-0444-C14A-A043-D0BE8075CD64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
@@ -10639,15 +10559,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.296875" style="1" customWidth="1"/>
     <col min="2" max="2" width="53" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="13.5" style="1" customWidth="1"/>
     <col min="16" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="22" t="s">
@@ -10690,12 +10610,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="35" t="s">
         <v>127</v>
       </c>
@@ -10739,7 +10659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" s="35" t="s">
         <v>149</v>
       </c>
@@ -10783,7 +10703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" s="35" t="s">
         <v>150</v>
       </c>
@@ -10827,7 +10747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="35" t="s">
         <v>151</v>
       </c>
@@ -10871,7 +10791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" s="35" t="s">
         <v>152</v>
       </c>
@@ -10915,7 +10835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" s="34" t="s">
         <v>148</v>
       </c>
@@ -10959,7 +10879,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="34" t="s">
         <v>153</v>
       </c>
@@ -11003,7 +10923,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="35" t="s">
         <v>70</v>
       </c>
@@ -11047,7 +10967,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" s="34" t="s">
         <v>61</v>
       </c>
@@ -11091,7 +11011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="35" t="s">
         <v>69</v>
       </c>
@@ -11135,7 +11055,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="35" t="s">
         <v>79</v>
       </c>
@@ -11179,7 +11099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="35" t="s">
         <v>71</v>
       </c>
@@ -11223,13 +11143,13 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B16" s="35"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="34" t="s">
         <v>75</v>
       </c>
@@ -11273,7 +11193,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="34" t="s">
         <v>74</v>
       </c>
@@ -11317,7 +11237,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="34" t="s">
         <v>76</v>
       </c>
@@ -11361,7 +11281,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="34" t="s">
         <v>77</v>
       </c>
@@ -11405,16 +11325,16 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="26"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="26"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="26"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="26"/>
     </row>
   </sheetData>

--- a/nutrition/default_params.xlsx
+++ b/nutrition/default_params.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Nutrition\nutrition\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/github_projects/Nutrition/nutrition/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B9B3420E-68BC-484E-BF03-B3E676AC1B9B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-21144" windowWidth="38400" windowHeight="21144" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="-38400" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Programs impacted population" sheetId="14" r:id="rId1"/>
@@ -53,12 +54,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="A36" authorId="0" shapeId="0">
+    <comment ref="A36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -96,12 +97,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="B6" authorId="0" shapeId="0">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -134,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -657,10 +658,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -809,7 +810,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -878,7 +879,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -918,9 +919,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma 2" xfId="2"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1244,30 +1245,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" style="41" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53" style="41" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="41" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="41" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.796875" style="41" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.796875" style="41" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.796875" style="41" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.19921875" style="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="41" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.83203125" style="41" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.83203125" style="41" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.1640625" style="41" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="14.5" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="43" t="s">
         <v>116</v>
       </c>
@@ -1314,7 +1313,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
         <v>115</v>
       </c>
@@ -1361,7 +1360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="54" t="s">
         <v>127</v>
       </c>
@@ -1405,7 +1404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="54" t="s">
         <v>114</v>
       </c>
@@ -1449,7 +1448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="54" t="s">
         <v>113</v>
       </c>
@@ -1493,7 +1492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="54" t="s">
         <v>112</v>
       </c>
@@ -1537,7 +1536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="54" t="s">
         <v>154</v>
       </c>
@@ -1581,7 +1580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="54" t="s">
         <v>61</v>
       </c>
@@ -1625,7 +1624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="54" t="s">
         <v>79</v>
       </c>
@@ -1669,7 +1668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="54" t="s">
         <v>87</v>
       </c>
@@ -1713,7 +1712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="54" t="s">
         <v>62</v>
       </c>
@@ -1757,7 +1756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="54" t="s">
         <v>82</v>
       </c>
@@ -1801,7 +1800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="54" t="s">
         <v>96</v>
       </c>
@@ -1845,7 +1844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="54" t="s">
         <v>86</v>
       </c>
@@ -1889,7 +1888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="54" t="s">
         <v>89</v>
       </c>
@@ -1933,7 +1932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="54"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -1949,7 +1948,7 @@
       <c r="N16" s="46"/>
       <c r="O16" s="46"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="43" t="s">
         <v>106</v>
       </c>
@@ -1996,7 +1995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="43"/>
       <c r="B18" s="54" t="s">
         <v>101</v>
@@ -2041,7 +2040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="34" t="s">
         <v>148</v>
       </c>
@@ -2085,7 +2084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="34" t="s">
         <v>153</v>
       </c>
@@ -2129,7 +2128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="55" t="s">
         <v>70</v>
       </c>
@@ -2173,7 +2172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="54" t="s">
         <v>99</v>
       </c>
@@ -2217,7 +2216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="54" t="s">
         <v>100</v>
       </c>
@@ -2261,7 +2260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="54" t="s">
         <v>71</v>
       </c>
@@ -2305,7 +2304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="54"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -2321,7 +2320,7 @@
       <c r="N25" s="46"/>
       <c r="O25" s="46"/>
     </row>
-    <row r="26" spans="1:16" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="43" t="s">
         <v>111</v>
       </c>
@@ -2369,7 +2368,7 @@
       </c>
       <c r="P26" s="56"/>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="35" t="s">
         <v>149</v>
       </c>
@@ -2413,7 +2412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="43"/>
       <c r="B28" s="35" t="s">
         <v>150</v>
@@ -2458,7 +2457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="35" t="s">
         <v>151</v>
       </c>
@@ -2502,7 +2501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="35" t="s">
         <v>152</v>
       </c>
@@ -2546,7 +2545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="54"/>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
@@ -2562,7 +2561,7 @@
       <c r="N31" s="46"/>
       <c r="O31" s="46"/>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="43" t="s">
         <v>110</v>
       </c>
@@ -2609,7 +2608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="54" t="s">
         <v>74</v>
       </c>
@@ -2653,7 +2652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="54" t="s">
         <v>76</v>
       </c>
@@ -2697,7 +2696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="54" t="s">
         <v>77</v>
       </c>
@@ -2741,7 +2740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="54" t="s">
         <v>69</v>
       </c>
@@ -2785,7 +2784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="42"/>
       <c r="B37" s="54" t="s">
         <v>90</v>
@@ -2830,7 +2829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="54" t="s">
         <v>91</v>
       </c>
@@ -2874,7 +2873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="54" t="s">
         <v>92</v>
       </c>
@@ -2918,7 +2917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="54" t="s">
         <v>94</v>
       </c>
@@ -2962,7 +2961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="54" t="s">
         <v>93</v>
       </c>
@@ -3015,7 +3014,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
@@ -3025,15 +3024,15 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.19921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
     <col min="3" max="7" width="14" style="1" customWidth="1"/>
     <col min="8" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="33"/>
       <c r="C1" s="2" t="s">
@@ -3052,12 +3051,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="35" t="s">
         <v>82</v>
       </c>
@@ -3077,7 +3076,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>81</v>
       </c>
@@ -3088,7 +3087,7 @@
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="34" t="s">
         <v>147</v>
       </c>
@@ -3115,7 +3114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
@@ -3125,20 +3124,20 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="47.69921875" style="54" customWidth="1"/>
+    <col min="1" max="1" width="47.6640625" style="54" customWidth="1"/>
     <col min="2" max="2" width="27.5" style="54" customWidth="1"/>
-    <col min="3" max="3" width="22.296875" style="54" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="54" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.5" style="1"/>
-    <col min="8" max="8" width="15.796875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>73</v>
       </c>
@@ -3164,7 +3163,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="54" t="s">
         <v>96</v>
       </c>
@@ -3190,7 +3189,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C3" s="54" t="s">
         <v>84</v>
       </c>
@@ -3210,7 +3209,7 @@
         <v>0.53134328358208949</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C4" s="54" t="s">
         <v>88</v>
       </c>
@@ -3230,7 +3229,7 @@
         <v>0.38507462686567184</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="54" t="s">
         <v>62</v>
       </c>
@@ -3256,7 +3255,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C6" s="54" t="s">
         <v>88</v>
       </c>
@@ -3276,7 +3275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B7" s="54" t="s">
         <v>53</v>
       </c>
@@ -3299,7 +3298,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C8" s="54" t="s">
         <v>88</v>
       </c>
@@ -3319,7 +3318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="54" t="s">
         <v>61</v>
       </c>
@@ -3345,7 +3344,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C10" s="54" t="s">
         <v>88</v>
       </c>
@@ -3365,7 +3364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B11" s="54" t="s">
         <v>53</v>
       </c>
@@ -3388,7 +3387,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C12" s="54" t="s">
         <v>88</v>
       </c>
@@ -3408,7 +3407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="54" t="s">
         <v>95</v>
       </c>
@@ -3434,7 +3433,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C14" s="54" t="s">
         <v>88</v>
       </c>
@@ -3455,7 +3454,7 @@
       </c>
       <c r="I14" s="27"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B15" s="54" t="s">
         <v>53</v>
       </c>
@@ -3479,7 +3478,7 @@
       </c>
       <c r="I15" s="27"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C16" s="54" t="s">
         <v>88</v>
       </c>
@@ -3500,7 +3499,7 @@
       </c>
       <c r="I16" s="27"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="54" t="s">
         <v>76</v>
       </c>
@@ -3527,7 +3526,7 @@
       </c>
       <c r="I17" s="27"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C18" s="54" t="s">
         <v>84</v>
       </c>
@@ -3548,7 +3547,7 @@
       </c>
       <c r="I18" s="27"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="54" t="s">
         <v>75</v>
       </c>
@@ -3574,7 +3573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C20" s="54" t="s">
         <v>84</v>
       </c>
@@ -3594,7 +3593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="54" t="s">
         <v>74</v>
       </c>
@@ -3620,7 +3619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C22" s="54" t="s">
         <v>84</v>
       </c>
@@ -3640,7 +3639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="54" t="s">
         <v>94</v>
       </c>
@@ -3666,7 +3665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C24" s="54" t="s">
         <v>84</v>
       </c>
@@ -3686,7 +3685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C25" s="54" t="s">
         <v>88</v>
       </c>
@@ -3706,7 +3705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="54" t="s">
         <v>93</v>
       </c>
@@ -3732,7 +3731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C27" s="54" t="s">
         <v>84</v>
       </c>
@@ -3752,7 +3751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C28" s="54" t="s">
         <v>88</v>
       </c>
@@ -3772,7 +3771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="54" t="s">
         <v>92</v>
       </c>
@@ -3798,7 +3797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C30" s="54" t="s">
         <v>84</v>
       </c>
@@ -3818,7 +3817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C31" s="54" t="s">
         <v>88</v>
       </c>
@@ -3838,7 +3837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="54" t="s">
         <v>91</v>
       </c>
@@ -3864,7 +3863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C33" s="54" t="s">
         <v>84</v>
       </c>
@@ -3884,7 +3883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C34" s="54" t="s">
         <v>88</v>
       </c>
@@ -3904,7 +3903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="54" t="s">
         <v>90</v>
       </c>
@@ -3930,7 +3929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C36" s="54" t="s">
         <v>84</v>
       </c>
@@ -3950,7 +3949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C37" s="54" t="s">
         <v>88</v>
       </c>
@@ -3970,7 +3969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="54" t="s">
         <v>89</v>
       </c>
@@ -3996,7 +3995,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C39" s="54" t="s">
         <v>84</v>
       </c>
@@ -4016,7 +4015,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C40" s="54" t="s">
         <v>88</v>
       </c>
@@ -4036,7 +4035,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B41" s="54" t="s">
         <v>40</v>
       </c>
@@ -4059,7 +4058,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C42" s="54" t="s">
         <v>84</v>
       </c>
@@ -4079,7 +4078,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C43" s="54" t="s">
         <v>88</v>
       </c>
@@ -4099,7 +4098,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="54" t="s">
         <v>87</v>
       </c>
@@ -4125,7 +4124,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C45" s="54" t="s">
         <v>84</v>
       </c>
@@ -4145,7 +4144,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="54" t="s">
         <v>86</v>
       </c>
@@ -4171,7 +4170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C47" s="54" t="s">
         <v>84</v>
       </c>
@@ -4191,7 +4190,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="54" t="s">
         <v>154</v>
       </c>
@@ -4217,7 +4216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C49" s="54" t="s">
         <v>84</v>
       </c>
@@ -4244,26 +4243,26 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.19921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="1" customWidth="1"/>
     <col min="4" max="7" width="15.5" style="1" customWidth="1"/>
     <col min="8" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="33" t="s">
         <v>73</v>
       </c>
@@ -4285,7 +4284,7 @@
       </c>
       <c r="H1" s="30"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="26" t="s">
         <v>101</v>
       </c>
@@ -4309,7 +4308,7 @@
       </c>
       <c r="H2" s="34"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
         <v>84</v>
       </c>
@@ -4327,7 +4326,7 @@
       </c>
       <c r="H3" s="37"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="26" t="s">
         <v>100</v>
       </c>
@@ -4351,7 +4350,7 @@
       </c>
       <c r="H4" s="37"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="27"/>
       <c r="C5" s="1" t="s">
         <v>84</v>
@@ -4370,7 +4369,7 @@
       </c>
       <c r="H5" s="34"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="26" t="s">
         <v>99</v>
       </c>
@@ -4394,7 +4393,7 @@
       </c>
       <c r="H6" s="34"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="27"/>
       <c r="C7" s="1" t="s">
         <v>84</v>
@@ -4419,32 +4418,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="53" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>73</v>
       </c>
@@ -4479,7 +4478,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="54" t="s">
         <v>72</v>
       </c>
@@ -4496,7 +4495,7 @@
       <c r="J2" s="50"/>
       <c r="K2" s="50"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="54" t="s">
         <v>101</v>
       </c>
@@ -4513,7 +4512,7 @@
       <c r="J3" s="50"/>
       <c r="K3" s="50"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="54" t="s">
         <v>95</v>
       </c>
@@ -4530,7 +4529,7 @@
       <c r="J4" s="50"/>
       <c r="K4" s="50"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="54" t="s">
         <v>127</v>
       </c>
@@ -4547,7 +4546,7 @@
       <c r="J5" s="50"/>
       <c r="K5" s="50"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="54" t="s">
         <v>118</v>
       </c>
@@ -4566,7 +4565,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="54" t="s">
         <v>75</v>
       </c>
@@ -4585,7 +4584,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="50"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="54" t="s">
         <v>74</v>
       </c>
@@ -4604,7 +4603,7 @@
       <c r="J8" s="50"/>
       <c r="K8" s="50"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="54" t="s">
         <v>76</v>
       </c>
@@ -4623,7 +4622,7 @@
       <c r="J9" s="50"/>
       <c r="K9" s="50"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="35" t="s">
         <v>149</v>
       </c>
@@ -4640,7 +4639,7 @@
       <c r="J10" s="50"/>
       <c r="K10" s="50"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="35" t="s">
         <v>150</v>
       </c>
@@ -4657,7 +4656,7 @@
       <c r="J11" s="50"/>
       <c r="K11" s="50"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="35" t="s">
         <v>151</v>
       </c>
@@ -4674,7 +4673,7 @@
       <c r="J12" s="50"/>
       <c r="K12" s="50"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="35" t="s">
         <v>152</v>
       </c>
@@ -4691,7 +4690,7 @@
       <c r="J13" s="50"/>
       <c r="K13" s="50"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="34" t="s">
         <v>148</v>
       </c>
@@ -4710,7 +4709,7 @@
       <c r="J14" s="50"/>
       <c r="K14" s="50"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="34" t="s">
         <v>153</v>
       </c>
@@ -4729,7 +4728,7 @@
       <c r="J15" s="50"/>
       <c r="K15" s="50"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="54" t="s">
         <v>70</v>
       </c>
@@ -4750,7 +4749,7 @@
       <c r="J16" s="50"/>
       <c r="K16" s="50"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="54" t="s">
         <v>77</v>
       </c>
@@ -4767,7 +4766,7 @@
       <c r="J17" s="50"/>
       <c r="K17" s="50"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="54" t="s">
         <v>114</v>
       </c>
@@ -4786,7 +4785,7 @@
       <c r="J18" s="50"/>
       <c r="K18" s="50"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="54" t="s">
         <v>113</v>
       </c>
@@ -4805,7 +4804,7 @@
       <c r="J19" s="50"/>
       <c r="K19" s="50"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="54" t="s">
         <v>112</v>
       </c>
@@ -4824,7 +4823,7 @@
       <c r="J20" s="50"/>
       <c r="K20" s="50"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="54" t="s">
         <v>154</v>
       </c>
@@ -4843,7 +4842,7 @@
       <c r="J21" s="50"/>
       <c r="K21" s="50"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="54" t="s">
         <v>61</v>
       </c>
@@ -4864,7 +4863,7 @@
       <c r="J22" s="50"/>
       <c r="K22" s="50"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="54" t="s">
         <v>69</v>
       </c>
@@ -4883,7 +4882,7 @@
       <c r="J23" s="50"/>
       <c r="K23" s="50"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="54" t="s">
         <v>99</v>
       </c>
@@ -4900,7 +4899,7 @@
       <c r="J24" s="50"/>
       <c r="K24" s="50"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="54" t="s">
         <v>100</v>
       </c>
@@ -4917,7 +4916,7 @@
       <c r="J25" s="50"/>
       <c r="K25" s="50"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="54" t="s">
         <v>79</v>
       </c>
@@ -4934,7 +4933,7 @@
       <c r="J26" s="50"/>
       <c r="K26" s="50"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="54" t="s">
         <v>71</v>
       </c>
@@ -4953,7 +4952,7 @@
       <c r="J27" s="50"/>
       <c r="K27" s="50"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="54" t="s">
         <v>87</v>
       </c>
@@ -4970,7 +4969,7 @@
       <c r="J28" s="50"/>
       <c r="K28" s="50"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="54" t="s">
         <v>62</v>
       </c>
@@ -4989,7 +4988,7 @@
       <c r="J29" s="50"/>
       <c r="K29" s="50"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="54" t="s">
         <v>82</v>
       </c>
@@ -5006,7 +5005,7 @@
       <c r="J30" s="50"/>
       <c r="K30" s="50"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="54" t="s">
         <v>96</v>
       </c>
@@ -5025,7 +5024,7 @@
       <c r="J31" s="50"/>
       <c r="K31" s="50"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="54" t="s">
         <v>90</v>
       </c>
@@ -5044,7 +5043,7 @@
       <c r="J32" s="50"/>
       <c r="K32" s="50"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="54" t="s">
         <v>91</v>
       </c>
@@ -5063,7 +5062,7 @@
       <c r="J33" s="50"/>
       <c r="K33" s="50"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="54" t="s">
         <v>92</v>
       </c>
@@ -5082,7 +5081,7 @@
       <c r="J34" s="50"/>
       <c r="K34" s="50"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="54" t="s">
         <v>94</v>
       </c>
@@ -5101,7 +5100,7 @@
       <c r="J35" s="50"/>
       <c r="K35" s="50"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="54" t="s">
         <v>93</v>
       </c>
@@ -5120,7 +5119,7 @@
       <c r="J36" s="50"/>
       <c r="K36" s="50"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="54" t="s">
         <v>86</v>
       </c>
@@ -5137,7 +5136,7 @@
       <c r="J37" s="50"/>
       <c r="K37" s="50"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" s="54" t="s">
         <v>89</v>
       </c>
@@ -5167,7 +5166,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
@@ -5177,22 +5176,22 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>126</v>
       </c>
@@ -5227,7 +5226,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
@@ -5256,7 +5255,7 @@
       <c r="J2" s="50"/>
       <c r="K2" s="50"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -5285,7 +5284,7 @@
       <c r="J3" s="50"/>
       <c r="K3" s="50"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
@@ -5314,7 +5313,7 @@
       <c r="J4" s="50"/>
       <c r="K4" s="50"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -5343,7 +5342,7 @@
       <c r="J5" s="50"/>
       <c r="K5" s="50"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -5372,7 +5371,7 @@
       <c r="J6" s="50"/>
       <c r="K6" s="50"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -5393,7 +5392,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="50"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -5414,7 +5413,7 @@
       <c r="J8" s="50"/>
       <c r="K8" s="50"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -5435,7 +5434,7 @@
       <c r="J9" s="50"/>
       <c r="K9" s="50"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -5456,7 +5455,7 @@
       <c r="J10" s="50"/>
       <c r="K10" s="50"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -5477,7 +5476,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -5496,7 +5495,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -5515,7 +5514,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -5540,7 +5539,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
@@ -5550,15 +5549,15 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="43.296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.19921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>109</v>
       </c>
@@ -5584,7 +5583,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>133</v>
       </c>
@@ -5610,7 +5609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B3" s="57"/>
       <c r="C3" s="1" t="s">
         <v>104</v>
@@ -5632,7 +5631,7 @@
       </c>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B4" s="57"/>
       <c r="C4" s="1" t="s">
         <v>102</v>
@@ -5654,7 +5653,7 @@
       </c>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B5" s="57" t="s">
         <v>36</v>
       </c>
@@ -5678,7 +5677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B6" s="57"/>
       <c r="C6" s="1" t="s">
         <v>104</v>
@@ -5699,7 +5698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B7" s="57"/>
       <c r="C7" s="1" t="s">
         <v>102</v>
@@ -5720,7 +5719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B8" s="57" t="s">
         <v>35</v>
       </c>
@@ -5743,7 +5742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B9" s="57"/>
       <c r="C9" s="1" t="s">
         <v>104</v>
@@ -5764,7 +5763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B10" s="57"/>
       <c r="C10" s="1" t="s">
         <v>102</v>
@@ -5785,7 +5784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B11" s="57" t="s">
         <v>34</v>
       </c>
@@ -5808,7 +5807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B12" s="57"/>
       <c r="C12" s="1" t="s">
         <v>104</v>
@@ -5829,7 +5828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B13" s="57"/>
       <c r="C13" s="1" t="s">
         <v>102</v>
@@ -5850,7 +5849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B14" s="57" t="s">
         <v>33</v>
       </c>
@@ -5873,7 +5872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B15" s="57"/>
       <c r="C15" s="1" t="s">
         <v>104</v>
@@ -5894,7 +5893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B16" s="57"/>
       <c r="C16" s="1" t="s">
         <v>102</v>
@@ -5915,7 +5914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B17" s="38" t="s">
         <v>103</v>
       </c>
@@ -5938,7 +5937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>135</v>
       </c>
@@ -5964,7 +5963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B20" s="57"/>
       <c r="C20" s="1" t="s">
         <v>104</v>
@@ -5985,7 +5984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B21" s="57"/>
       <c r="C21" s="1" t="s">
         <v>102</v>
@@ -6006,7 +6005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B22" s="57" t="s">
         <v>36</v>
       </c>
@@ -6029,7 +6028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B23" s="57"/>
       <c r="C23" s="1" t="s">
         <v>104</v>
@@ -6050,7 +6049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B24" s="57"/>
       <c r="C24" s="1" t="s">
         <v>102</v>
@@ -6071,7 +6070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B25" s="57" t="s">
         <v>35</v>
       </c>
@@ -6094,7 +6093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B26" s="57"/>
       <c r="C26" s="1" t="s">
         <v>104</v>
@@ -6115,7 +6114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B27" s="57"/>
       <c r="C27" s="1" t="s">
         <v>102</v>
@@ -6136,7 +6135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B28" s="57" t="s">
         <v>34</v>
       </c>
@@ -6159,7 +6158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B29" s="57"/>
       <c r="C29" s="1" t="s">
         <v>104</v>
@@ -6180,7 +6179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B30" s="57"/>
       <c r="C30" s="1" t="s">
         <v>102</v>
@@ -6201,7 +6200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B31" s="57" t="s">
         <v>33</v>
       </c>
@@ -6224,7 +6223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B32" s="57"/>
       <c r="C32" s="1" t="s">
         <v>104</v>
@@ -6245,7 +6244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B33" s="57"/>
       <c r="C33" s="1" t="s">
         <v>102</v>
@@ -6266,7 +6265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B34" s="38" t="s">
         <v>103</v>
       </c>
@@ -6289,7 +6288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="40" t="s">
         <v>134</v>
       </c>
@@ -6315,7 +6314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B37" s="57"/>
       <c r="C37" s="1" t="s">
         <v>104</v>
@@ -6336,7 +6335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B38" s="57"/>
       <c r="C38" s="1" t="s">
         <v>102</v>
@@ -6357,7 +6356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B39" s="57" t="s">
         <v>36</v>
       </c>
@@ -6380,7 +6379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B40" s="57"/>
       <c r="C40" s="1" t="s">
         <v>104</v>
@@ -6401,7 +6400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B41" s="57"/>
       <c r="C41" s="1" t="s">
         <v>102</v>
@@ -6422,7 +6421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B42" s="57" t="s">
         <v>35</v>
       </c>
@@ -6445,7 +6444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B43" s="57"/>
       <c r="C43" s="1" t="s">
         <v>104</v>
@@ -6466,7 +6465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B44" s="57"/>
       <c r="C44" s="1" t="s">
         <v>102</v>
@@ -6487,7 +6486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B45" s="57" t="s">
         <v>34</v>
       </c>
@@ -6510,7 +6509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B46" s="57"/>
       <c r="C46" s="1" t="s">
         <v>104</v>
@@ -6531,7 +6530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B47" s="57"/>
       <c r="C47" s="1" t="s">
         <v>102</v>
@@ -6552,7 +6551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B48" s="57" t="s">
         <v>33</v>
       </c>
@@ -6575,7 +6574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B49" s="57"/>
       <c r="C49" s="1" t="s">
         <v>104</v>
@@ -6596,7 +6595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B50" s="57"/>
       <c r="C50" s="1" t="s">
         <v>102</v>
@@ -6617,7 +6616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B51" s="39" t="s">
         <v>103</v>
       </c>
@@ -6642,6 +6641,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -6652,11 +6656,6 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6664,7 +6663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
   </sheetPr>
@@ -6674,22 +6673,22 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="1" customWidth="1"/>
     <col min="5" max="6" width="13.5" style="1" customWidth="1"/>
     <col min="7" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="14" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="24"/>
       <c r="C2" s="23" t="s">
         <v>22</v>
@@ -6704,7 +6703,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>156</v>
       </c>
@@ -6714,7 +6713,7 @@
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="19" t="s">
         <v>18</v>
       </c>
@@ -6731,7 +6730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="19" t="s">
         <v>17</v>
       </c>
@@ -6748,7 +6747,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="19" t="s">
         <v>16</v>
       </c>
@@ -6765,7 +6764,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="19" t="s">
         <v>15</v>
       </c>
@@ -6782,13 +6781,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="13"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -6806,14 +6805,14 @@
       </c>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="13"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="18" t="s">
         <v>13</v>
       </c>
@@ -6823,7 +6822,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -6833,7 +6832,7 @@
       <c r="F12" s="11"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
@@ -6851,7 +6850,7 @@
       </c>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
@@ -6869,7 +6868,7 @@
       </c>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
@@ -6887,7 +6886,7 @@
       </c>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="12"/>
@@ -6896,7 +6895,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
@@ -6907,7 +6906,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="6" t="s">
         <v>7</v>
       </c>
@@ -6925,7 +6924,7 @@
       </c>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="6" t="s">
         <v>6</v>
       </c>
@@ -6943,7 +6942,7 @@
       </c>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="6" t="s">
         <v>5</v>
       </c>
@@ -6961,7 +6960,7 @@
       </c>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="6" t="s">
         <v>4</v>
       </c>
@@ -6979,7 +6978,7 @@
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="6" t="s">
         <v>3</v>
       </c>
@@ -6996,7 +6995,7 @@
         <v>999.99</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="6" t="s">
         <v>2</v>
       </c>
@@ -7013,7 +7012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="6" t="s">
         <v>1</v>
       </c>
@@ -7030,7 +7029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="6" t="s">
         <v>0</v>
       </c>
@@ -7047,10 +7046,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="3"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="2"/>
     </row>
   </sheetData>
@@ -7060,7 +7059,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
   </sheetPr>
@@ -7070,23 +7069,23 @@
       <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="24.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" customWidth="1"/>
-    <col min="4" max="8" width="13.296875" style="1" customWidth="1"/>
-    <col min="9" max="12" width="13.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="13.33203125" style="1" customWidth="1"/>
+    <col min="9" max="12" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="25" t="s">
         <v>125</v>
       </c>
@@ -7120,7 +7119,7 @@
       <c r="O2" s="28"/>
       <c r="P2" s="28"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>41</v>
@@ -7152,7 +7151,7 @@
       <c r="O3" s="25"/>
       <c r="P3" s="25"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C4" s="26" t="s">
         <v>137</v>
       </c>
@@ -7180,7 +7179,7 @@
       <c r="O4" s="25"/>
       <c r="P4" s="25"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C5" s="26" t="s">
         <v>138</v>
       </c>
@@ -7208,7 +7207,7 @@
       <c r="O5" s="25"/>
       <c r="P5" s="25"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C6" s="26" t="s">
         <v>139</v>
       </c>
@@ -7236,7 +7235,7 @@
       <c r="O6" s="25"/>
       <c r="P6" s="25"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>40</v>
       </c>
@@ -7267,7 +7266,7 @@
       <c r="O7" s="25"/>
       <c r="P7" s="25"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C8" s="26" t="s">
         <v>137</v>
       </c>
@@ -7295,7 +7294,7 @@
       <c r="O8" s="25"/>
       <c r="P8" s="25"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C9" s="26" t="s">
         <v>138</v>
       </c>
@@ -7323,7 +7322,7 @@
       <c r="O9" s="25"/>
       <c r="P9" s="25"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C10" s="26" t="s">
         <v>139</v>
       </c>
@@ -7351,7 +7350,7 @@
       <c r="O10" s="25"/>
       <c r="P10" s="25"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
         <v>49</v>
       </c>
@@ -7382,7 +7381,7 @@
       <c r="O11" s="25"/>
       <c r="P11" s="25"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C12" s="26" t="s">
         <v>137</v>
       </c>
@@ -7410,7 +7409,7 @@
       <c r="O12" s="25"/>
       <c r="P12" s="25"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C13" s="26" t="s">
         <v>138</v>
       </c>
@@ -7438,7 +7437,7 @@
       <c r="O13" s="25"/>
       <c r="P13" s="25"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C14" s="26" t="s">
         <v>139</v>
       </c>
@@ -7466,7 +7465,7 @@
       <c r="O14" s="25"/>
       <c r="P14" s="25"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>48</v>
       </c>
@@ -7497,7 +7496,7 @@
       <c r="O15" s="25"/>
       <c r="P15" s="25"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C16" s="26" t="s">
         <v>137</v>
       </c>
@@ -7525,7 +7524,7 @@
       <c r="O16" s="25"/>
       <c r="P16" s="25"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C17" s="26" t="s">
         <v>138</v>
       </c>
@@ -7553,7 +7552,7 @@
       <c r="O17" s="25"/>
       <c r="P17" s="25"/>
     </row>
-    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="26" t="s">
         <v>139</v>
       </c>
@@ -7581,7 +7580,7 @@
       <c r="O18" s="25"/>
       <c r="P18" s="25"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B19" s="27" t="s">
         <v>39</v>
       </c>
@@ -7612,7 +7611,7 @@
       <c r="O19" s="25"/>
       <c r="P19" s="25"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C20" s="26" t="s">
         <v>137</v>
       </c>
@@ -7640,7 +7639,7 @@
       <c r="O20" s="25"/>
       <c r="P20" s="25"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C21" s="26" t="s">
         <v>138</v>
       </c>
@@ -7668,7 +7667,7 @@
       <c r="O21" s="25"/>
       <c r="P21" s="25"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C22" s="26" t="s">
         <v>139</v>
       </c>
@@ -7696,7 +7695,7 @@
       <c r="O22" s="25"/>
       <c r="P22" s="25"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B23" s="27" t="s">
         <v>47</v>
       </c>
@@ -7727,7 +7726,7 @@
       <c r="O23" s="25"/>
       <c r="P23" s="25"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C24" s="26" t="s">
         <v>137</v>
       </c>
@@ -7755,7 +7754,7 @@
       <c r="O24" s="25"/>
       <c r="P24" s="25"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C25" s="26" t="s">
         <v>138</v>
       </c>
@@ -7783,7 +7782,7 @@
       <c r="O25" s="25"/>
       <c r="P25" s="25"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C26" s="26" t="s">
         <v>139</v>
       </c>
@@ -7811,12 +7810,12 @@
       <c r="O26" s="25"/>
       <c r="P26" s="25"/>
     </row>
-    <row r="28" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="31" t="s">
         <v>130</v>
       </c>
@@ -7850,7 +7849,7 @@
       <c r="O29" s="28"/>
       <c r="P29" s="28"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="1" t="s">
         <v>41</v>
@@ -7882,7 +7881,7 @@
       <c r="O30" s="25"/>
       <c r="P30" s="25"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C31" s="26" t="s">
         <v>137</v>
       </c>
@@ -7910,7 +7909,7 @@
       <c r="O31" s="25"/>
       <c r="P31" s="25"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C32" s="26" t="s">
         <v>53</v>
       </c>
@@ -7938,7 +7937,7 @@
       <c r="O32" s="25"/>
       <c r="P32" s="25"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C33" s="26" t="s">
         <v>52</v>
       </c>
@@ -7966,7 +7965,7 @@
       <c r="O33" s="25"/>
       <c r="P33" s="25"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
         <v>40</v>
       </c>
@@ -7997,7 +7996,7 @@
       <c r="O34" s="25"/>
       <c r="P34" s="25"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C35" s="26" t="s">
         <v>137</v>
       </c>
@@ -8025,7 +8024,7 @@
       <c r="O35" s="25"/>
       <c r="P35" s="25"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C36" s="26" t="s">
         <v>53</v>
       </c>
@@ -8053,7 +8052,7 @@
       <c r="O36" s="25"/>
       <c r="P36" s="25"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C37" s="26" t="s">
         <v>52</v>
       </c>
@@ -8081,7 +8080,7 @@
       <c r="O37" s="25"/>
       <c r="P37" s="25"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B38" s="1" t="s">
         <v>49</v>
       </c>
@@ -8112,7 +8111,7 @@
       <c r="O38" s="25"/>
       <c r="P38" s="25"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C39" s="26" t="s">
         <v>137</v>
       </c>
@@ -8140,7 +8139,7 @@
       <c r="O39" s="25"/>
       <c r="P39" s="25"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C40" s="26" t="s">
         <v>53</v>
       </c>
@@ -8168,7 +8167,7 @@
       <c r="O40" s="25"/>
       <c r="P40" s="25"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C41" s="26" t="s">
         <v>52</v>
       </c>
@@ -8196,7 +8195,7 @@
       <c r="O41" s="25"/>
       <c r="P41" s="25"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B42" s="1" t="s">
         <v>48</v>
       </c>
@@ -8227,7 +8226,7 @@
       <c r="O42" s="25"/>
       <c r="P42" s="25"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C43" s="26" t="s">
         <v>137</v>
       </c>
@@ -8255,7 +8254,7 @@
       <c r="O43" s="25"/>
       <c r="P43" s="25"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C44" s="26" t="s">
         <v>53</v>
       </c>
@@ -8283,7 +8282,7 @@
       <c r="O44" s="25"/>
       <c r="P44" s="25"/>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C45" s="26" t="s">
         <v>52</v>
       </c>
@@ -8311,7 +8310,7 @@
       <c r="O45" s="25"/>
       <c r="P45" s="25"/>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B46" s="1" t="s">
         <v>39</v>
       </c>
@@ -8342,7 +8341,7 @@
       <c r="O46" s="25"/>
       <c r="P46" s="25"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C47" s="26" t="s">
         <v>137</v>
       </c>
@@ -8370,7 +8369,7 @@
       <c r="O47" s="25"/>
       <c r="P47" s="25"/>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C48" s="26" t="s">
         <v>53</v>
       </c>
@@ -8398,7 +8397,7 @@
       <c r="O48" s="25"/>
       <c r="P48" s="25"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C49" s="26" t="s">
         <v>52</v>
       </c>
@@ -8426,7 +8425,7 @@
       <c r="O49" s="25"/>
       <c r="P49" s="25"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B50" s="1" t="s">
         <v>47</v>
       </c>
@@ -8457,7 +8456,7 @@
       <c r="O50" s="25"/>
       <c r="P50" s="25"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C51" s="26" t="s">
         <v>137</v>
       </c>
@@ -8485,7 +8484,7 @@
       <c r="O51" s="25"/>
       <c r="P51" s="25"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C52" s="26" t="s">
         <v>53</v>
       </c>
@@ -8513,7 +8512,7 @@
       <c r="O52" s="25"/>
       <c r="P52" s="25"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C53" s="26" t="s">
         <v>52</v>
       </c>
@@ -8541,16 +8540,16 @@
       <c r="O53" s="25"/>
       <c r="P53" s="25"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C54" s="26"/>
       <c r="D54" s="26"/>
     </row>
-    <row r="55" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="27" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" s="27" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A56" s="31" t="s">
         <v>124</v>
       </c>
@@ -8578,7 +8577,7 @@
       <c r="O56" s="28"/>
       <c r="P56" s="28"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A57" s="2"/>
       <c r="B57" s="1" t="s">
         <v>46</v>
@@ -8604,7 +8603,7 @@
       <c r="O57" s="25"/>
       <c r="P57" s="25"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C58" s="26" t="s">
         <v>141</v>
       </c>
@@ -8626,7 +8625,7 @@
       <c r="O58" s="25"/>
       <c r="P58" s="25"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B59" s="1" t="s">
         <v>45</v>
       </c>
@@ -8651,7 +8650,7 @@
       <c r="O59" s="25"/>
       <c r="P59" s="25"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C60" s="26" t="s">
         <v>141</v>
       </c>
@@ -8673,7 +8672,7 @@
       <c r="O60" s="25"/>
       <c r="P60" s="25"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B61" s="1" t="s">
         <v>44</v>
       </c>
@@ -8698,7 +8697,7 @@
       <c r="O61" s="25"/>
       <c r="P61" s="25"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C62" s="26" t="s">
         <v>141</v>
       </c>
@@ -8720,16 +8719,16 @@
       <c r="O62" s="25"/>
       <c r="P62" s="25"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C63" s="26"/>
       <c r="D63" s="26"/>
     </row>
-    <row r="64" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A64" s="18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="27" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" s="27" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A65" s="31" t="s">
         <v>121</v>
       </c>
@@ -8763,7 +8762,7 @@
       <c r="O65" s="28"/>
       <c r="P65" s="28"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A66" s="51"/>
       <c r="B66" s="1" t="s">
         <v>7</v>
@@ -8795,7 +8794,7 @@
       <c r="O66" s="25"/>
       <c r="P66" s="25"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C67" s="26" t="s">
         <v>143</v>
       </c>
@@ -8823,7 +8822,7 @@
       <c r="O67" s="25"/>
       <c r="P67" s="25"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C68" s="26" t="s">
         <v>144</v>
       </c>
@@ -8851,7 +8850,7 @@
       <c r="O68" s="25"/>
       <c r="P68" s="25"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C69" s="26" t="s">
         <v>131</v>
       </c>
@@ -8879,7 +8878,7 @@
       <c r="O69" s="25"/>
       <c r="P69" s="25"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B70" s="1" t="s">
         <v>6</v>
       </c>
@@ -8910,7 +8909,7 @@
       <c r="O70" s="25"/>
       <c r="P70" s="25"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C71" s="26" t="s">
         <v>143</v>
       </c>
@@ -8938,7 +8937,7 @@
       <c r="O71" s="25"/>
       <c r="P71" s="25"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C72" s="26" t="s">
         <v>144</v>
       </c>
@@ -8966,7 +8965,7 @@
       <c r="O72" s="25"/>
       <c r="P72" s="25"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C73" s="26" t="s">
         <v>131</v>
       </c>
@@ -8994,7 +8993,7 @@
       <c r="O73" s="25"/>
       <c r="P73" s="25"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B74" s="1" t="s">
         <v>5</v>
       </c>
@@ -9025,7 +9024,7 @@
       <c r="O74" s="25"/>
       <c r="P74" s="25"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C75" s="26" t="s">
         <v>143</v>
       </c>
@@ -9053,7 +9052,7 @@
       <c r="O75" s="25"/>
       <c r="P75" s="25"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C76" s="26" t="s">
         <v>144</v>
       </c>
@@ -9081,7 +9080,7 @@
       <c r="O76" s="25"/>
       <c r="P76" s="25"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C77" s="26" t="s">
         <v>131</v>
       </c>
@@ -9109,7 +9108,7 @@
       <c r="O77" s="25"/>
       <c r="P77" s="25"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B78" s="1" t="s">
         <v>3</v>
       </c>
@@ -9140,7 +9139,7 @@
       <c r="O78" s="25"/>
       <c r="P78" s="25"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C79" s="26" t="s">
         <v>143</v>
       </c>
@@ -9168,7 +9167,7 @@
       <c r="O79" s="25"/>
       <c r="P79" s="25"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C80" s="26" t="s">
         <v>144</v>
       </c>
@@ -9196,7 +9195,7 @@
       <c r="O80" s="25"/>
       <c r="P80" s="25"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C81" s="26" t="s">
         <v>131</v>
       </c>
@@ -9224,7 +9223,7 @@
       <c r="O81" s="25"/>
       <c r="P81" s="25"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B82" s="1" t="s">
         <v>41</v>
       </c>
@@ -9255,7 +9254,7 @@
       <c r="O82" s="25"/>
       <c r="P82" s="25"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C83" s="26" t="s">
         <v>143</v>
       </c>
@@ -9283,7 +9282,7 @@
       <c r="O83" s="25"/>
       <c r="P83" s="25"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C84" s="26" t="s">
         <v>144</v>
       </c>
@@ -9311,7 +9310,7 @@
       <c r="O84" s="25"/>
       <c r="P84" s="25"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C85" s="26" t="s">
         <v>131</v>
       </c>
@@ -9339,7 +9338,7 @@
       <c r="O85" s="25"/>
       <c r="P85" s="25"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B86" s="1" t="s">
         <v>40</v>
       </c>
@@ -9370,7 +9369,7 @@
       <c r="O86" s="25"/>
       <c r="P86" s="25"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C87" s="26" t="s">
         <v>143</v>
       </c>
@@ -9398,7 +9397,7 @@
       <c r="O87" s="25"/>
       <c r="P87" s="25"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C88" s="26" t="s">
         <v>144</v>
       </c>
@@ -9426,7 +9425,7 @@
       <c r="O88" s="25"/>
       <c r="P88" s="25"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C89" s="26" t="s">
         <v>131</v>
       </c>
@@ -9454,7 +9453,7 @@
       <c r="O89" s="25"/>
       <c r="P89" s="25"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B90" s="1" t="s">
         <v>49</v>
       </c>
@@ -9485,7 +9484,7 @@
       <c r="O90" s="25"/>
       <c r="P90" s="25"/>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C91" s="26" t="s">
         <v>143</v>
       </c>
@@ -9513,7 +9512,7 @@
       <c r="O91" s="25"/>
       <c r="P91" s="25"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C92" s="26" t="s">
         <v>144</v>
       </c>
@@ -9541,7 +9540,7 @@
       <c r="O92" s="25"/>
       <c r="P92" s="25"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C93" s="26" t="s">
         <v>131</v>
       </c>
@@ -9569,7 +9568,7 @@
       <c r="O93" s="25"/>
       <c r="P93" s="25"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B94" s="1" t="s">
         <v>39</v>
       </c>
@@ -9600,7 +9599,7 @@
       <c r="O94" s="25"/>
       <c r="P94" s="25"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C95" s="26" t="s">
         <v>143</v>
       </c>
@@ -9628,7 +9627,7 @@
       <c r="O95" s="25"/>
       <c r="P95" s="25"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C96" s="26" t="s">
         <v>144</v>
       </c>
@@ -9656,7 +9655,7 @@
       <c r="O96" s="25"/>
       <c r="P96" s="25"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C97" s="26" t="s">
         <v>131</v>
       </c>
@@ -9684,7 +9683,7 @@
       <c r="O97" s="25"/>
       <c r="P97" s="25"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B98" s="1" t="s">
         <v>129</v>
       </c>
@@ -9715,7 +9714,7 @@
       <c r="O98" s="25"/>
       <c r="P98" s="25"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C99" s="26" t="s">
         <v>143</v>
       </c>
@@ -9743,7 +9742,7 @@
       <c r="O99" s="25"/>
       <c r="P99" s="25"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C100" s="26" t="s">
         <v>144</v>
       </c>
@@ -9771,7 +9770,7 @@
       <c r="O100" s="25"/>
       <c r="P100" s="25"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C101" s="26" t="s">
         <v>131</v>
       </c>
@@ -9799,12 +9798,12 @@
       <c r="O101" s="25"/>
       <c r="P101" s="25"/>
     </row>
-    <row r="103" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A103" s="18" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="27" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" s="27" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A104" s="31" t="s">
         <v>41</v>
       </c>
@@ -9838,7 +9837,7 @@
       <c r="O104" s="28"/>
       <c r="P104" s="28"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A105" s="2"/>
       <c r="B105" s="27"/>
       <c r="C105" s="26" t="s">
@@ -9868,7 +9867,7 @@
       <c r="O105" s="25"/>
       <c r="P105" s="25"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C106" s="26" t="s">
         <v>143</v>
       </c>
@@ -9896,7 +9895,7 @@
       <c r="O106" s="25"/>
       <c r="P106" s="25"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C107" s="26" t="s">
         <v>144</v>
       </c>
@@ -9924,7 +9923,7 @@
       <c r="O107" s="25"/>
       <c r="P107" s="25"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C108" s="26" t="s">
         <v>131</v>
       </c>
@@ -9952,7 +9951,7 @@
       <c r="O108" s="25"/>
       <c r="P108" s="25"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A111" s="2"/>
     </row>
   </sheetData>
@@ -9962,7 +9961,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
   </sheetPr>
@@ -9972,24 +9971,24 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.19921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40" style="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="51" t="s">
         <v>132</v>
       </c>
@@ -10010,7 +10009,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>65</v>
       </c>
@@ -10030,7 +10029,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="6" t="s">
         <v>128</v>
@@ -10051,12 +10050,12 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="6" t="s">
         <v>62</v>
       </c>
@@ -10076,7 +10075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="6" t="s">
         <v>61</v>
       </c>
@@ -10096,7 +10095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="6" t="s">
         <v>89</v>
       </c>
@@ -10116,7 +10115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -10124,12 +10123,12 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="18" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
       <c r="B11" s="3" t="s">
         <v>154</v>
@@ -10150,16 +10149,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="51" t="s">
         <v>130</v>
       </c>
@@ -10182,7 +10181,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="6" t="s">
         <v>58</v>
@@ -10203,7 +10202,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="51" t="s">
         <v>124</v>
       </c>
@@ -10226,13 +10225,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="18" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="43" t="s">
         <v>27</v>
       </c>
@@ -10246,7 +10245,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>118</v>
       </c>
@@ -10271,7 +10270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
@@ -10281,7 +10280,7 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="47" style="1" customWidth="1"/>
     <col min="2" max="6" width="14.5" style="1"/>
@@ -10290,7 +10289,7 @@
     <col min="9" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="33" t="s">
         <v>73</v>
       </c>
@@ -10308,7 +10307,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="34" t="s">
         <v>72</v>
       </c>
@@ -10328,7 +10327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="34"/>
       <c r="B3" s="34" t="s">
         <v>67</v>
@@ -10346,7 +10345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="34" t="s">
         <v>148</v>
       </c>
@@ -10366,7 +10365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="34"/>
       <c r="B5" s="34" t="s">
         <v>67</v>
@@ -10384,7 +10383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="34" t="s">
         <v>153</v>
       </c>
@@ -10404,7 +10403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="34"/>
       <c r="B7" s="34" t="s">
         <v>67</v>
@@ -10422,7 +10421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="34" t="s">
         <v>70</v>
       </c>
@@ -10442,7 +10441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="34"/>
       <c r="B9" s="34" t="s">
         <v>67</v>
@@ -10460,7 +10459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="34" t="s">
         <v>69</v>
       </c>
@@ -10480,7 +10479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="34"/>
       <c r="B11" s="34" t="s">
         <v>67</v>
@@ -10498,7 +10497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="34" t="s">
         <v>71</v>
       </c>
@@ -10518,7 +10517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="34"/>
       <c r="B13" s="34" t="s">
         <v>67</v>
@@ -10536,10 +10535,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="34"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="34"/>
     </row>
   </sheetData>
@@ -10549,25 +10548,25 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="53" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="13.5" style="1" customWidth="1"/>
     <col min="16" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="22" t="s">
@@ -10610,12 +10609,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B3" s="35" t="s">
         <v>127</v>
       </c>
@@ -10659,7 +10658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B4" s="35" t="s">
         <v>149</v>
       </c>
@@ -10703,7 +10702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
         <v>150</v>
       </c>
@@ -10747,7 +10746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B6" s="35" t="s">
         <v>151</v>
       </c>
@@ -10791,7 +10790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B7" s="35" t="s">
         <v>152</v>
       </c>
@@ -10835,7 +10834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B8" s="34" t="s">
         <v>148</v>
       </c>
@@ -10879,7 +10878,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B9" s="34" t="s">
         <v>153</v>
       </c>
@@ -10923,7 +10922,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B10" s="35" t="s">
         <v>70</v>
       </c>
@@ -10967,7 +10966,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B11" s="34" t="s">
         <v>61</v>
       </c>
@@ -11011,7 +11010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B12" s="35" t="s">
         <v>69</v>
       </c>
@@ -11055,7 +11054,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="35" t="s">
         <v>79</v>
       </c>
@@ -11099,7 +11098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B14" s="35" t="s">
         <v>71</v>
       </c>
@@ -11143,13 +11142,13 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B16" s="35"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B17" s="34" t="s">
         <v>75</v>
       </c>
@@ -11193,7 +11192,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B18" s="34" t="s">
         <v>74</v>
       </c>
@@ -11237,7 +11236,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B19" s="34" t="s">
         <v>76</v>
       </c>
@@ -11281,7 +11280,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B20" s="34" t="s">
         <v>77</v>
       </c>
@@ -11325,16 +11324,16 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B25" s="26"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B26" s="26"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B27" s="26"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B28" s="26"/>
     </row>
   </sheetData>

--- a/nutrition/default_params.xlsx
+++ b/nutrition/default_params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/github_projects/Nutrition/nutrition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B9B3420E-68BC-484E-BF03-B3E676AC1B9B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6E48B666-71F4-E74A-9905-930C7C52D20A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
     <definedName name="stillbirth">'[1]Baseline year population inputs'!$C$27</definedName>
     <definedName name="term_SGA">'[1]Baseline year population inputs'!$C$35</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcMode="manual" calcCompleted="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -625,18 +625,12 @@
     <t>IFAS (community)</t>
   </si>
   <si>
-    <t>IFAS (hospital)</t>
-  </si>
-  <si>
     <t>IFAS (retailer)</t>
   </si>
   <si>
     <t>IFAS (school)</t>
   </si>
   <si>
-    <t>IFAS for pregnant women (hospital)</t>
-  </si>
-  <si>
     <t>Kangaroo mother care</t>
   </si>
   <si>
@@ -653,6 +647,12 @@
   </si>
   <si>
     <t>Odds ratios for optimal birth spacing by program</t>
+  </si>
+  <si>
+    <t>IFAS for pregnant women (health facility)</t>
+  </si>
+  <si>
+    <t>IFAS (health facility)</t>
   </si>
 </sst>
 </file>
@@ -1251,7 +1251,9 @@
   </sheetPr>
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1538,7 +1540,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="54" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C7" s="50">
         <v>1</v>
@@ -2086,7 +2088,7 @@
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="34" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C20" s="50">
         <v>0</v>
@@ -2415,7 +2417,7 @@
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="43"/>
       <c r="B28" s="35" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C28" s="50">
         <v>0</v>
@@ -2459,7 +2461,7 @@
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C29" s="50">
         <v>0</v>
@@ -2503,7 +2505,7 @@
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C30" s="50">
         <v>0</v>
@@ -4192,7 +4194,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="54" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B48" s="54" t="s">
         <v>3</v>
@@ -4472,10 +4474,10 @@
         <v>119</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -4641,7 +4643,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="35" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B11" s="50"/>
       <c r="C11" s="50" t="s">
@@ -4658,7 +4660,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B12" s="50"/>
       <c r="C12" s="50" t="s">
@@ -4675,7 +4677,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B13" s="50"/>
       <c r="C13" s="50" t="s">
@@ -4711,7 +4713,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="34" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B15" s="50"/>
       <c r="C15" s="50" t="s">
@@ -4825,7 +4827,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="54" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B21" s="50"/>
       <c r="C21" s="50"/>
@@ -5220,10 +5222,10 @@
         <v>119</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -6641,11 +6643,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -6656,6 +6653,11 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6705,7 +6707,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="21"/>
@@ -10125,13 +10127,13 @@
     </row>
     <row r="10" spans="1:7" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
       <c r="B11" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C11" s="4">
         <v>1.5</v>
@@ -10228,7 +10230,7 @@
     <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="18" spans="1:6" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -10385,7 +10387,7 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="34" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>68</v>
@@ -10704,7 +10706,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -10748,7 +10750,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B6" s="35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -10792,7 +10794,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B7" s="35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -10880,7 +10882,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B9" s="34" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
